--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -1449,8 +1449,8 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1483,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1495,7 +1495,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -1507,7 +1507,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -1519,7 +1519,7 @@
         <v>127</v>
       </c>
       <c r="C5" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -1531,7 +1531,7 @@
         <v>128</v>
       </c>
       <c r="C6" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -1543,7 +1543,7 @@
         <v>129</v>
       </c>
       <c r="C7" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1555,7 +1555,7 @@
         <v>130</v>
       </c>
       <c r="C8" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -1567,7 +1567,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -1579,7 +1579,7 @@
         <v>132</v>
       </c>
       <c r="C10" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -1591,7 +1591,7 @@
         <v>133</v>
       </c>
       <c r="C11" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -1603,7 +1603,7 @@
         <v>134</v>
       </c>
       <c r="C12" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -1615,7 +1615,7 @@
         <v>135</v>
       </c>
       <c r="C13" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -1627,7 +1627,7 @@
         <v>136</v>
       </c>
       <c r="C14" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -1639,7 +1639,7 @@
         <v>137</v>
       </c>
       <c r="C15" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -1651,7 +1651,7 @@
         <v>138</v>
       </c>
       <c r="C16" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -1663,7 +1663,7 @@
         <v>139</v>
       </c>
       <c r="C17" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -1675,7 +1675,7 @@
         <v>140</v>
       </c>
       <c r="C18" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -1687,7 +1687,7 @@
         <v>141</v>
       </c>
       <c r="C19" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -1699,7 +1699,7 @@
         <v>142</v>
       </c>
       <c r="C20" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -1711,7 +1711,7 @@
         <v>143</v>
       </c>
       <c r="C21" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -1723,7 +1723,7 @@
         <v>144</v>
       </c>
       <c r="C22" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -1735,7 +1735,7 @@
         <v>145</v>
       </c>
       <c r="C23" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -1747,7 +1747,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -1759,7 +1759,7 @@
         <v>147</v>
       </c>
       <c r="C25" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -1771,7 +1771,7 @@
         <v>148</v>
       </c>
       <c r="C26" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -1783,7 +1783,7 @@
         <v>149</v>
       </c>
       <c r="C27" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -1795,7 +1795,7 @@
         <v>150</v>
       </c>
       <c r="C28" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -1807,7 +1807,7 @@
         <v>151</v>
       </c>
       <c r="C29" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -1819,7 +1819,7 @@
         <v>152</v>
       </c>
       <c r="C30" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -1831,7 +1831,7 @@
         <v>153</v>
       </c>
       <c r="C31" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -1843,7 +1843,7 @@
         <v>154</v>
       </c>
       <c r="C32" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D32" s="4"/>
     </row>
@@ -1855,7 +1855,7 @@
         <v>155</v>
       </c>
       <c r="C33" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -1867,7 +1867,7 @@
         <v>125</v>
       </c>
       <c r="C34" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D34" s="4"/>
     </row>
@@ -1879,7 +1879,7 @@
         <v>156</v>
       </c>
       <c r="C35" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D35" s="4"/>
     </row>
@@ -1891,7 +1891,7 @@
         <v>157</v>
       </c>
       <c r="C36" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D36" s="4"/>
     </row>
@@ -1903,7 +1903,7 @@
         <v>158</v>
       </c>
       <c r="C37" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D37" s="4"/>
     </row>
@@ -1915,7 +1915,7 @@
         <v>159</v>
       </c>
       <c r="C38" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D38" s="4"/>
     </row>
@@ -1927,7 +1927,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -1939,7 +1939,7 @@
         <v>161</v>
       </c>
       <c r="C40" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -1951,7 +1951,7 @@
         <v>162</v>
       </c>
       <c r="C41" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -1963,7 +1963,7 @@
         <v>163</v>
       </c>
       <c r="C42" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D42" s="4"/>
     </row>
@@ -1975,7 +1975,7 @@
         <v>164</v>
       </c>
       <c r="C43" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D43" s="4"/>
     </row>
@@ -1987,7 +1987,7 @@
         <v>165</v>
       </c>
       <c r="C44" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D44" s="4"/>
     </row>
@@ -1999,7 +1999,7 @@
         <v>166</v>
       </c>
       <c r="C45" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D45" s="4"/>
     </row>
@@ -2011,7 +2011,7 @@
         <v>167</v>
       </c>
       <c r="C46" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D46" s="4"/>
     </row>
@@ -2023,7 +2023,7 @@
         <v>168</v>
       </c>
       <c r="C47" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D47" s="4"/>
     </row>
@@ -2035,7 +2035,7 @@
         <v>169</v>
       </c>
       <c r="C48" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D48" s="4"/>
     </row>
@@ -2047,7 +2047,7 @@
         <v>170</v>
       </c>
       <c r="C49" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D49" s="4"/>
     </row>
@@ -2059,7 +2059,7 @@
         <v>171</v>
       </c>
       <c r="C50" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D50" s="4"/>
     </row>
@@ -2071,7 +2071,7 @@
         <v>172</v>
       </c>
       <c r="C51" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D51" s="4"/>
     </row>
@@ -2083,7 +2083,7 @@
         <v>173</v>
       </c>
       <c r="C52" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D52" s="4"/>
     </row>
@@ -2095,7 +2095,7 @@
         <v>174</v>
       </c>
       <c r="C53" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -2107,7 +2107,7 @@
         <v>175</v>
       </c>
       <c r="C54" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D54" s="4"/>
     </row>
@@ -2119,7 +2119,7 @@
         <v>175</v>
       </c>
       <c r="C55" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D55" s="4"/>
     </row>
@@ -2131,7 +2131,7 @@
         <v>176</v>
       </c>
       <c r="C56" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D56" s="4"/>
     </row>
@@ -2143,7 +2143,7 @@
         <v>177</v>
       </c>
       <c r="C57" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D57" s="4"/>
     </row>
@@ -2155,7 +2155,7 @@
         <v>178</v>
       </c>
       <c r="C58" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D58" s="4"/>
     </row>
@@ -2167,7 +2167,7 @@
         <v>179</v>
       </c>
       <c r="C59" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D59" s="4"/>
     </row>
@@ -2179,7 +2179,7 @@
         <v>180</v>
       </c>
       <c r="C60" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D60" s="4"/>
     </row>
@@ -2191,7 +2191,7 @@
         <v>181</v>
       </c>
       <c r="C61" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D61" s="4"/>
     </row>
@@ -2203,7 +2203,7 @@
         <v>182</v>
       </c>
       <c r="C62" s="8">
-        <v>42096</v>
+        <v>42104</v>
       </c>
       <c r="D62" s="4"/>
     </row>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="UAT" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
   <si>
     <t>OLD URL</t>
   </si>
@@ -571,7 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,16 +707,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,12 +891,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,7 +1026,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1083,28 +1069,23 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1138,7 +1119,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1446,11 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,744 +1448,768 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="C34" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="C40" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B41" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B47" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="C47" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B48" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="C48" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="C55" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C61" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B61" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="8">
-        <v>42104</v>
-      </c>
-      <c r="D62" s="4"/>
+      <c r="C61" s="7">
+        <v>42104</v>
+      </c>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="10"/>
+    </row>
+    <row r="66" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="10"/>
+    </row>
+    <row r="67" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="10"/>
+    </row>
+    <row r="69" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="10"/>
+    </row>
+    <row r="70" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="10"/>
+    </row>
+    <row r="71" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="10"/>
+    </row>
+    <row r="72" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="10"/>
+    </row>
+    <row r="73" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="311">
   <si>
     <t>OLD URL</t>
   </si>
@@ -565,6 +565,390 @@
   </si>
   <si>
     <t>/researchandfunding/nci-role/spotlight/merit/zheng</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/adolescent-young-adult</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/adolescent-young-adult</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/bladder</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/bladder</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/brain</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/brain</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/breast</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/breast</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/cervical</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/cervical</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/colorectal</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/colorectal</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/endometrial</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/endometrial</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/esophageal</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/esophageal</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/headandneck</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/headandneck</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/kaposisarcoma</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/kaposisarcoma</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/kidney</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/kidney</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/leukemia</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/leukemia</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/liverandbileduct</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/liverandbileduct</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/lung</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/lung</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/lymphoma</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/lymphoma</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/melaNoma</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/melaNoma</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/myeloma</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/myeloma</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/naNotechNology</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/naNotechNology</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/ovarian</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/ovarian</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/pancreatic</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/pancreatic</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/pediatric</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/pediatric</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/prostate</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/prostate</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/sarcoma</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/sarcoma</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/stomach</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/stomach</t>
+  </si>
+  <si>
+    <t>/researchandfunding/snapshots/thyroid</t>
+  </si>
+  <si>
+    <t>/researchandfunding/progress/snapshots/thyroid</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/analcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/anal</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/bladdercancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/bladder</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/bonecancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/bone</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/braintumors</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/brain</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/breastcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/breast</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/cervicalcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/cervical</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/colorectalcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/colorectal</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/endometrialcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/endometrial</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/gestationaldisease</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/gestationaldisease</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/GIST</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/gist</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/head-and-neck-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/head-neck</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/Hodgkinlymphoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/hodgkin-lymphoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/kaposi-sarcoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/kaposi-sarcoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/kidneycancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/kidney</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/leukemia</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/leukemia</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/livercancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/liver</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/lungcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/lung</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/malignantmesothelioma</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/mesothelioma</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/melanoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/melanoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/multicentric-castleman-disease</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/multicentric-castleman-disease</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/multiplemyeloma</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/multiple-myeloma</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/myeloproliferativeneoplasms</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/myeloproliferative-neoplasms</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/neuroblastoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/neuroblastoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/non-hodgkin</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/non-hodgkin</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/ovariancancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/ovarian</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/pancreaticcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/pancreatic</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/penilecancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/penile</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/prostatecancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/prostate</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/retinoblastoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/retinoblastoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/rhabdomyosarcoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/rhabdomyosarcoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/skincancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/skin</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/softtissuesarcoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/soft-tissue-sarcoma</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/stomachcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/stomach</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/testicularcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/testicular</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/thyroidcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/thyroid</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/vaginalcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/vaginal</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/vulvarcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/vulvar</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/wilmstumor</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/wilms-tumor</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1454,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1084,6 +1468,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1426,11 +1812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,40 +2562,708 @@
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="10"/>
+      <c r="A62" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="10">
+        <v>42106</v>
+      </c>
     </row>
     <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="10"/>
+      <c r="A63" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="10">
+        <v>42106</v>
+      </c>
     </row>
     <row r="64" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="10"/>
-    </row>
-    <row r="65" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="10"/>
-    </row>
-    <row r="66" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="10"/>
-    </row>
-    <row r="67" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="10"/>
-    </row>
-    <row r="68" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="10"/>
-    </row>
-    <row r="69" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="10"/>
-    </row>
-    <row r="70" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="10"/>
-    </row>
-    <row r="71" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="10"/>
-    </row>
-    <row r="72" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="10"/>
-    </row>
-    <row r="73" spans="3:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="10"/>
+      <c r="A64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C95" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C103" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C110" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C114" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C115" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C117" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C122" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C123" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" s="10">
+        <v>42106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="313">
   <si>
     <t>OLD URL</t>
   </si>
@@ -949,13 +949,19 @@
   </si>
   <si>
     <t>/cancertopics/treatment/drugs/wilms-tumor</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/esophagealcancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/esophageal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,6 +1093,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1410,7 +1424,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1453,8 +1467,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1470,8 +1485,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1505,6 +1521,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1812,11 +1829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,22 +2953,22 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B97" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="C96" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="C97" s="10">
         <v>42106</v>
@@ -2959,10 +2976,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C98" s="10">
         <v>42106</v>
@@ -2970,32 +2987,32 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B100" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C99" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="C100" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B101" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="C100" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="C101" s="10">
         <v>42106</v>
@@ -3003,10 +3020,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="C102" s="10">
         <v>42106</v>
@@ -3014,10 +3031,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="C103" s="10">
         <v>42106</v>
@@ -3025,10 +3042,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C104" s="10">
         <v>42106</v>
@@ -3036,10 +3053,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C105" s="10">
         <v>42106</v>
@@ -3047,10 +3064,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="C106" s="10">
         <v>42106</v>
@@ -3058,10 +3075,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C107" s="10">
         <v>42106</v>
@@ -3069,10 +3086,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="C108" s="10">
         <v>42106</v>
@@ -3080,10 +3097,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C109" s="10">
         <v>42106</v>
@@ -3091,10 +3108,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="C110" s="10">
         <v>42106</v>
@@ -3102,10 +3119,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C111" s="10">
         <v>42106</v>
@@ -3113,10 +3130,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="C112" s="10">
         <v>42106</v>
@@ -3124,10 +3141,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C113" s="10">
         <v>42106</v>
@@ -3135,10 +3152,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C114" s="10">
         <v>42106</v>
@@ -3146,10 +3163,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C115" s="10">
         <v>42106</v>
@@ -3157,10 +3174,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="C116" s="10">
         <v>42106</v>
@@ -3168,32 +3185,32 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B118" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C117" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+      <c r="C118" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B119" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="C118" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="C119" s="10">
         <v>42106</v>
@@ -3201,10 +3218,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C120" s="10">
         <v>42106</v>
@@ -3212,10 +3229,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C121" s="10">
         <v>42106</v>
@@ -3223,10 +3240,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C122" s="10">
         <v>42106</v>
@@ -3234,10 +3251,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C123" s="10">
         <v>42106</v>
@@ -3245,10 +3262,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C124" s="10">
         <v>42106</v>
@@ -3256,18 +3273,33 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C125" s="10">
+        <v>42106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B126" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C126" s="10">
         <v>42106</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A96" r:id="rId1" display="www.cancer.gov/cancertopics/druginfo/esophagealcancer"/>
+    <hyperlink ref="B96" r:id="rId2" display="www.cancer.gov/cancertopics/treatment/drugs/esophageal"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="503">
   <si>
     <t>OLD URL</t>
   </si>
@@ -955,12 +955,585 @@
   </si>
   <si>
     <t>/cancertopics/treatment/drugs/esophageal</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-abirateroneacetate</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-abirateroneacetate</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-ado-trastuzumab-emtansine</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-ado-trastuzumab-emtansine</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-afatinibdimaleate</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-afatinibdimaleate</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-alemtuzumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-alemtuzumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-asparaginase-erwinia-chrysanthemi</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-asparaginase-erwinia-chrysanthemi</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-axitinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-axitinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-azacitidine</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-azacitidine</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-belinostat</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-belinostat</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-bendamustine-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-bendamustine-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-bevacizumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-bevacizumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-bortezomib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-bortezomib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-bosutinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-bosutinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-brentuximabvedotin</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-brentuximabvedotin</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-cabazitaxel</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-cabazitaxel</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-cabozantinib-s-malate</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-cabozantinib-s-malate</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-capecitabine</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-capecitabine</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-carfilzomib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-carfilzomib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-ceritinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-ceritinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-cetuximab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-cetuximab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-clofarabine</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-clofarabine</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-crizotinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-crizotinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-dabrafenib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-dabrafenib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-dasatinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-dasatinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-decitabine</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-decitabine</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-degarelix</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-degarelix</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-denileukindiftitox</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-denileukindiftitox</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-denosumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-denosumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-dexrazoxane-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-dexrazoxane-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-docetaxel</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-docetaxel</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-doxorubicin-HCL-liposome</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-doxorubicin-HCL-liposome</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-eltrombopag</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-eltrombopag</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-enzalutamide</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-enzalutamide</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-eribulinmesylate</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-eribulinmesylate</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-erlotinib-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-erlotinib-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-everolimus</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-everolimus</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-exemestane</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-exemestane</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-gefitinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-gefitinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-gemcitabine-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-gemcitabine-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-gemtuzumab-ozogamicin</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-gemtuzumab-ozogamicin</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-glucarpidase</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-glucarpidase</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-ibrutinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-ibrutinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-idelalisib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-idelalisib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-imiquimod</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-imiquimod</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-ipilimumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-ipilimumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-ixabepilone</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-ixabepilone</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-lapatinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-lapatinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-lenalidomide</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-lenalidomide</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-letrozole</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-letrozole</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-nanoparticle-paclitaxel</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-nanoparticle-paclitaxel</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-nelarabine</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-nelarabine</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-nilotinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-nilotinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-obinutuzumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-obinutuzumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-ofatumumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-ofatumumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-omacetaxinemepesuccinate</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-omacetaxinemepesuccinate</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-oxaliplatin</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-oxaliplatin</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-palifermin</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-palifermin</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-panitumumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-panitumumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-pazopanibhydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-pazopanibhydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-pegaspargase</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-pegaspargase</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-pembrolizumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-pembrolizumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-pemetrexed-disodium</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-pemetrexed-disodium</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-pertuzumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-pertuzumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-plerixafor</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-plerixafor</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-pomalidomide</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-pomalidomide</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-ponatinibhydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-ponatinibhydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-pralatrexate</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-pralatrexate</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-radium-223-dichloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-radium-223-dichloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-raloxifene-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-raloxifene-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-ramucirumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-ramucirumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-rasburicase</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-rasburicase</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-recombinant-hpv-bivalent-vaccine</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-recombinant-hpv-bivalent-vaccine</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-recombinant-hpv-quadrivalent-vaccine</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-recombinant-hpv-quadrivalent-vaccine</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-regorafenib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-regorafenib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-rituximab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-rituximab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-romidepsin</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-romidepsin</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-romiplostim</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-romiplostim</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-ruxolitinibphosphate</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-ruxolitinibphosphate</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-siltuximab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-siltuximab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-sipuleucel-T</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-sipuleucel-T</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-sorafenib-tosylate</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-sorafenib-tosylate</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-sunitinib-malate</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-sunitinib-malate</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-talc</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-talc</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-temozolomide</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-temozolomide</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-temsirolimus</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-temsirolimus</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-thalidomide</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-thalidomide</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-topotecan-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-topotecan-hydrochloride</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-tositumomab-I131iodine-tositumomab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-tositumomab-I131iodine-tositumomab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-trametinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-trametinib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-trastuzumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-trastuzumab</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-vandetanib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-vandetanib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-vemurafenib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-vemurafenib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-vincristine-sulfate-liposome</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-vincristine-sulfate-liposome</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-vismodegib</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-vismodegib</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-vorinostat</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-vorinostat</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-ziv-aflibercept</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-ziv-aflibercept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1293,7 +1866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1423,6 +1996,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1469,23 +2055,31 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1829,1469 +2423,2674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96:B96"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128:A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="C7" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="13">
+        <v>42104</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="C22" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="13">
+        <v>42104</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="13">
+        <v>42104</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="C27" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="13">
+        <v>42104</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="C30" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="C34" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="C35" s="13">
+        <v>42104</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="C36" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="C37" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="C40" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="C41" s="13">
+        <v>42104</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="C43" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="C44" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="C45" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="C46" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="C47" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="C48" s="13">
+        <v>42104</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="C49" s="13">
+        <v>42104</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C50" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="C50" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="C51" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="C52" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="C53" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="C54" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="C55" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="C56" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="C57" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="C58" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="C59" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="C60" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="7">
-        <v>42104</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="C61" s="12">
+        <v>42104</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="C62" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="C63" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="C64" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="C65" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="C66" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C67" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="C67" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="C68" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="C69" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="C70" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C71" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="C71" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C73" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="C73" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="C74" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="C75" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="C76" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="C77" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C78" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="C78" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C79" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="C79" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="C80" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C81" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="C81" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C82" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="C82" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C83" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="C83" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C84" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="C84" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C85" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="C85" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C86" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="C86" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C87" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="C87" s="12">
+        <v>42106</v>
+      </c>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C88" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="C88" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C89" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="C89" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="C90" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C91" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+      <c r="C91" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C92" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="C92" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C93" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="C93" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C94" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="C94" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C95" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+      <c r="C95" s="15">
+        <v>42106</v>
+      </c>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C96" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+      <c r="C96" s="16">
+        <v>42106</v>
+      </c>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C97" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="C97" s="15">
+        <v>42106</v>
+      </c>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="C98" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C99" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="C99" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C100" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="C100" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C101" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+      <c r="C101" s="15">
+        <v>42106</v>
+      </c>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C102" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="C102" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C103" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+      <c r="C103" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C104" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="C104" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C105" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="C105" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C106" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+      <c r="C106" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C107" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
+      <c r="C107" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C108" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="C108" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C109" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="C109" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C110" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="C110" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C111" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="C111" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C112" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="C112" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C113" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+      <c r="C113" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C114" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="C114" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C115" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="C115" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C116" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+      <c r="C116" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C117" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="C117" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C118" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+      <c r="C118" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C119" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+      <c r="C119" s="15">
+        <v>42106</v>
+      </c>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C120" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
+      <c r="C120" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C121" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+      <c r="C121" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C122" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="C122" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C123" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+      <c r="C123" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C124" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+      <c r="C124" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C125" s="10">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+      <c r="C125" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C126" s="10">
-        <v>42106</v>
-      </c>
+      <c r="C126" s="14">
+        <v>42106</v>
+      </c>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C127" s="17">
+        <v>42107</v>
+      </c>
+      <c r="D127" s="10"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C128" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C129" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D129" s="9"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C130" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C132" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C133" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D133" s="9"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C137" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D137" s="9"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C138" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C139" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C141" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D141" s="9"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C142" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D142" s="9"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C143" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D144" s="9"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C145" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C147" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C148" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C149" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C150" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C151" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C152" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C153" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C154" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C156" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D156" s="9"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C157" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C158" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D158" s="9"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C159" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D159" s="9"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C160" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C161" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D161" s="9"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C162" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D162" s="9"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C163" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C164" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D164" s="9"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C165" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D165" s="9"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C166" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D166" s="9"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C167" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D167" s="9"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C168" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D168" s="9"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C169" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C170" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C171" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C172" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C173" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C174" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D174" s="9"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C175" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D175" s="9"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C176" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D176" s="9"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C177" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D177" s="9"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C178" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C179" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D179" s="9"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C180" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D180" s="9"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C181" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C182" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D182" s="9"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C183" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D183" s="9"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C184" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D184" s="9"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C185" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D185" s="9"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C186" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D186" s="9"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C187" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D187" s="9"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C188" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D188" s="9"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C189" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D189" s="9"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C190" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D190" s="9"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C191" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D191" s="9"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C192" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D192" s="9"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C193" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D193" s="9"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C194" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D194" s="9"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C195" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D195" s="9"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C196" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D196" s="9"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C197" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D197" s="9"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C198" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D198" s="9"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C199" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D199" s="9"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C200" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D200" s="9"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C201" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D201" s="9"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C202" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D202" s="9"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C203" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D203" s="9"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C204" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D204" s="9"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C205" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D205" s="9"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C206" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D206" s="9"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C207" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D207" s="9"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C208" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D208" s="9"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C209" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D209" s="9"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C210" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D210" s="9"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C211" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D211" s="9"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C212" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D212" s="9"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C213" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D213" s="9"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C214" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D214" s="9"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C215" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D215" s="9"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C216" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D216" s="9"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C217" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D217" s="9"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C218" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D218" s="9"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C219" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D219" s="9"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C220" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D220" s="9"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C221" s="18">
+        <v>42107</v>
+      </c>
+      <c r="D221" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="UAT" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="517">
   <si>
     <t>OLD URL</t>
   </si>
@@ -1525,6 +1525,48 @@
   </si>
   <si>
     <t>/cancertopics/treatment/drugs/fda-ziv-aflibercept</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/salud-mundial</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/organizacion/salud-mundial</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/salud-mundial/acerca-de-cgh</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/organizacion/salud-mundial/acerca-de-cgh</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/salud-mundial/acerca-de-cgh/que-hacemos</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/organizacion/salud-mundial/acerca-de-cgh/que-hacemos</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/salud-mundial/programas-iniciativas-de-investigacion</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/organizacion/salud-mundial/programas-iniciativas-de-investigacion</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/salud-mundial/blog-de-cgh</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/organizacion/salud-mundial/blog-de-cgh</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/salud-mundial/blog-de-cgh/2015/dia-mundial-contra-el-cancer-2015</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/organizacion/salud-mundial/blog-de-cgh/2015/dia-mundial-contra-el-cancer-2015</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/salud-mundial/blog-de-cgh/2015/mexico-nci-DrVarmus</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/organizacion/salud-mundial/blog-de-cgh/2015/mexico-nci-varmus</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1574,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -2055,7 +2097,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2069,17 +2111,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2423,17 +2466,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128:A221"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -5092,13 +5135,94 @@
       </c>
       <c r="D221" s="9"/>
     </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B222" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C222" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B223" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="C223" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="B224" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="C224" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="B225" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="C225" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="B226" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="C226" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C227" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C228" s="19">
+        <v>42115</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A96" r:id="rId1" display="www.cancer.gov/cancertopics/druginfo/esophagealcancer"/>
     <hyperlink ref="B96" r:id="rId2" display="www.cancer.gov/cancertopics/treatment/drugs/esophageal"/>
+    <hyperlink ref="B227" r:id="rId3" display="www.cancer.gov/espanol/instituto/organizacion/salud-mundial/blog-de-cgh/2015/dia-mundial-contra-el-cancer-2015"/>
+    <hyperlink ref="B228" r:id="rId4" display="www.cancer.gov/espanol/instituto/organizacion/salud-mundial/blog-de-cgh/2015/mexico-nci-varmus"/>
+    <hyperlink ref="A228" r:id="rId5" display="www.cancer.gov/espanol/instituto/salud-mundial/blog-de-cgh/2015/mexico-nci-DrVarmus"/>
+    <hyperlink ref="A227" r:id="rId6" display="www.cancer.gov/espanol/instituto/salud-mundial/blog-de-cgh/2015/dia-mundial-contra-el-cancer-2015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="521">
   <si>
     <t>OLD URL</t>
   </si>
@@ -1567,6 +1567,18 @@
   </si>
   <si>
     <t>/espanol/instituto/organizacion/salud-mundial/blog-de-cgh/2015/mexico-nci-varmus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/espanol/recursos/videos </t>
+  </si>
+  <si>
+    <t>/espanol/multimedia</t>
+  </si>
+  <si>
+    <t>/espanol/recursos/videos/carousel213648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/espanol/multimedia/carousel213648 </t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1733,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1904,6 +1916,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,7 +2140,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2466,11 +2484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B244" sqref="B244"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5136,79 +5154,190 @@
       <c r="D221" s="9"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="20" t="s">
+      <c r="A222" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B222" s="20" t="s">
+      <c r="B222" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="C222" s="19">
+      <c r="C222" s="18">
         <v>42115</v>
       </c>
+      <c r="D222" s="9"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="20" t="s">
+      <c r="A223" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="B223" s="20" t="s">
+      <c r="B223" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C223" s="19">
+      <c r="C223" s="18">
         <v>42115</v>
       </c>
+      <c r="D223" s="9"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="20" t="s">
+      <c r="A224" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B224" s="20" t="s">
+      <c r="B224" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="C224" s="19">
+      <c r="C224" s="18">
         <v>42115</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="20" t="s">
+      <c r="D224" s="9"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="B225" s="20" t="s">
+      <c r="B225" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="C225" s="19">
+      <c r="C225" s="18">
         <v>42115</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="20" t="s">
+      <c r="D225" s="9"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B226" s="20" t="s">
+      <c r="B226" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C226" s="19">
+      <c r="C226" s="18">
         <v>42115</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="8" t="s">
+      <c r="D226" s="9"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C227" s="19">
+      <c r="C227" s="18">
         <v>42115</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="8" t="s">
+      <c r="D227" s="9"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="C228" s="19">
+      <c r="C228" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D228" s="9"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C229" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D229" s="9"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C230" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D230" s="9"/>
+    </row>
+    <row r="231" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C231" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C232" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C233" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C234" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C235" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C236" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C237" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C238" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C239" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C240" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C241" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C242" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C243" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C244" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C245" s="19">
+        <v>42115</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C246" s="19">
         <v>42115</v>
       </c>
     </row>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="533">
   <si>
     <t>OLD URL</t>
   </si>
@@ -1579,6 +1579,42 @@
   </si>
   <si>
     <t xml:space="preserve">/espanol/multimedia/carousel213648 </t>
+  </si>
+  <si>
+    <t>/clinicaltrials/precision-medicine-lung-cancer-video</t>
+  </si>
+  <si>
+    <t>/statistics/did-you-know-bladder-cancer-video</t>
+  </si>
+  <si>
+    <t>/statistics/did-you-know-melanoma-cancer-2014-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/_l9xoqAUE-I</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/colon-and-rectal/colorectal-screening-cdc-psa</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/navigators</t>
+  </si>
+  <si>
+    <t>/cancertopics/managing-care/navigators</t>
+  </si>
+  <si>
+    <t>/researchandfunding/areas/clinical-trials/nctn/precision-medicine-lung-cancer-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/bladder/did-you-know-bladder-cancer-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/skin/did-you-know-melanoma-cancer-2014-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/risk/obesity/_l9xoqAUE-I</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/colorectal-screening-cdc-psa</t>
   </si>
 </sst>
 </file>
@@ -2488,12 +2524,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -5261,35 +5297,77 @@
       </c>
       <c r="D230" s="9"/>
     </row>
-    <row r="231" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C231" s="19">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C231" s="18">
         <v>42115</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C232" s="19">
+      <c r="D231" s="9"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C232" s="18">
         <v>42115</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C233" s="19">
+      <c r="D232" s="9"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C233" s="18">
         <v>42115</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C234" s="19">
+      <c r="D233" s="9"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C234" s="18">
         <v>42115</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C235" s="19">
+      <c r="D234" s="9"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C235" s="18">
         <v>42115</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C236" s="19">
+      <c r="D235" s="9"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C236" s="18">
         <v>42115</v>
       </c>
+      <c r="D236" s="9"/>
     </row>
     <row r="237" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C237" s="19">
@@ -5297,6 +5375,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238"/>
       <c r="C238" s="19">
         <v>42115</v>
       </c>
@@ -5349,9 +5428,11 @@
     <hyperlink ref="B228" r:id="rId4" display="www.cancer.gov/espanol/instituto/organizacion/salud-mundial/blog-de-cgh/2015/mexico-nci-varmus"/>
     <hyperlink ref="A228" r:id="rId5" display="www.cancer.gov/espanol/instituto/salud-mundial/blog-de-cgh/2015/mexico-nci-DrVarmus"/>
     <hyperlink ref="A227" r:id="rId6" display="www.cancer.gov/espanol/instituto/salud-mundial/blog-de-cgh/2015/dia-mundial-contra-el-cancer-2015"/>
+    <hyperlink ref="A236" r:id="rId7" display="www.cancer.gov/cancertopics/coping/navigators"/>
+    <hyperlink ref="B236" r:id="rId8" display="www.cancer.gov/cancertopics/managing-care/navigators"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="539">
   <si>
     <t>OLD URL</t>
   </si>
@@ -1569,9 +1569,6 @@
     <t>/espanol/instituto/organizacion/salud-mundial/blog-de-cgh/2015/mexico-nci-varmus</t>
   </si>
   <si>
-    <t xml:space="preserve">/espanol/recursos/videos </t>
-  </si>
-  <si>
     <t>/espanol/multimedia</t>
   </si>
   <si>
@@ -1615,6 +1612,27 @@
   </si>
   <si>
     <t>/cancertopics/types/colorectal/colorectal-screening-cdc-psa</t>
+  </si>
+  <si>
+    <t>/espanol/recursos/videos</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/familyfriends/deepwater-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/family-friends/adjusting-to-being-a-caregiver/deepwater-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/videos/health-info-online</t>
+  </si>
+  <si>
+    <t>/cancertopics/managing-care/using-trusted-resources/health-info-online</t>
+  </si>
+  <si>
+    <t>/global/contact/videos/cancer-information-service</t>
+  </si>
+  <si>
+    <t>/contact/videos/cancer-information-service</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1787,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1952,12 +1970,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,7 +2188,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2520,11 +2532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B236" sqref="B236"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5275,10 +5287,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B229" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="C229" s="18">
         <v>42115</v>
@@ -5287,82 +5299,82 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>520</v>
       </c>
       <c r="C230" s="18">
         <v>42115</v>
       </c>
       <c r="D230" s="9"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C231" s="18">
         <v>42115</v>
       </c>
       <c r="D231" s="9"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C232" s="18">
         <v>42115</v>
       </c>
       <c r="D232" s="9"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C233" s="18">
         <v>42115</v>
       </c>
       <c r="D233" s="9"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C234" s="18">
         <v>42115</v>
       </c>
       <c r="D234" s="9"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C235" s="18">
         <v>42115</v>
       </c>
       <c r="D235" s="9"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B236" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>527</v>
       </c>
       <c r="C236" s="18">
         <v>42115</v>
@@ -5370,55 +5382,40 @@
       <c r="D236" s="9"/>
     </row>
     <row r="237" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C237" s="19">
+      <c r="A237" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C237" s="18">
         <v>42115</v>
       </c>
+      <c r="D237" s="9"/>
     </row>
     <row r="238" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238"/>
-      <c r="C238" s="19">
+      <c r="A238" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C238" s="18">
         <v>42115</v>
       </c>
+      <c r="D238" s="9"/>
     </row>
     <row r="239" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C239" s="19">
+      <c r="A239" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C239" s="18">
         <v>42115</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C240" s="19">
-        <v>42115</v>
-      </c>
-    </row>
-    <row r="241" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C241" s="19">
-        <v>42115</v>
-      </c>
-    </row>
-    <row r="242" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C242" s="19">
-        <v>42115</v>
-      </c>
-    </row>
-    <row r="243" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C243" s="19">
-        <v>42115</v>
-      </c>
-    </row>
-    <row r="244" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C244" s="19">
-        <v>42115</v>
-      </c>
-    </row>
-    <row r="245" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C245" s="19">
-        <v>42115</v>
-      </c>
-    </row>
-    <row r="246" spans="3:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C246" s="19">
-        <v>42115</v>
-      </c>
+      <c r="D239" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5430,9 +5427,12 @@
     <hyperlink ref="A227" r:id="rId6" display="www.cancer.gov/espanol/instituto/salud-mundial/blog-de-cgh/2015/dia-mundial-contra-el-cancer-2015"/>
     <hyperlink ref="A236" r:id="rId7" display="www.cancer.gov/cancertopics/coping/navigators"/>
     <hyperlink ref="B236" r:id="rId8" display="www.cancer.gov/cancertopics/managing-care/navigators"/>
+    <hyperlink ref="B237" r:id="rId9" display="www.cancer.gov/cancertopics/coping/family-friends/adjusting-to-being-a-caregiver/deepwater-video"/>
+    <hyperlink ref="B238" r:id="rId10" display="www.cancer.gov/cancertopics/managing-care/using-trusted-resources/health-info-online"/>
+    <hyperlink ref="B239" r:id="rId11" display="www.cancer.gov/contact/videos/cancer-information-service"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="545">
   <si>
     <t>OLD URL</t>
   </si>
@@ -1617,12 +1617,6 @@
     <t>/espanol/recursos/videos</t>
   </si>
   <si>
-    <t>/cancertopics/coping/familyfriends/deepwater-video</t>
-  </si>
-  <si>
-    <t>/cancertopics/coping/family-friends/adjusting-to-being-a-caregiver/deepwater-video</t>
-  </si>
-  <si>
     <t>/cancertopics/videos/health-info-online</t>
   </si>
   <si>
@@ -1633,6 +1627,30 @@
   </si>
   <si>
     <t>/contact/videos/cancer-information-service</t>
+  </si>
+  <si>
+    <t>/videos/scientists-spotlight</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/spotlight/videos</t>
+  </si>
+  <si>
+    <t>/videos/scientists-spotlight/borden-scientist-spotlight-video</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/spotlight/videos/borden-scientist-spotlight-video</t>
+  </si>
+  <si>
+    <t>/videos/scientists-spotlight/scientists-spotlight-apolo</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/spotlight/videos/scientists-spotlight-apolo</t>
+  </si>
+  <si>
+    <t>/videos/scientists-spotlight/scientists-spotlight-wood</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/spotlight/videos/scientists-spotlight-wood</t>
   </si>
 </sst>
 </file>
@@ -2532,11 +2550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A239" sqref="A239"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A239" sqref="A239:XFD242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5417,6 +5435,42 @@
       </c>
       <c r="D239" s="9"/>
     </row>
+    <row r="240" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C240" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D240" s="9"/>
+    </row>
+    <row r="241" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C241" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D241" s="9"/>
+    </row>
+    <row r="242" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C242" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D242" s="9"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A96" r:id="rId1" display="www.cancer.gov/cancertopics/druginfo/esophagealcancer"/>
@@ -5427,12 +5481,10 @@
     <hyperlink ref="A227" r:id="rId6" display="www.cancer.gov/espanol/instituto/salud-mundial/blog-de-cgh/2015/dia-mundial-contra-el-cancer-2015"/>
     <hyperlink ref="A236" r:id="rId7" display="www.cancer.gov/cancertopics/coping/navigators"/>
     <hyperlink ref="B236" r:id="rId8" display="www.cancer.gov/cancertopics/managing-care/navigators"/>
-    <hyperlink ref="B237" r:id="rId9" display="www.cancer.gov/cancertopics/coping/family-friends/adjusting-to-being-a-caregiver/deepwater-video"/>
-    <hyperlink ref="B238" r:id="rId10" display="www.cancer.gov/cancertopics/managing-care/using-trusted-resources/health-info-online"/>
-    <hyperlink ref="B239" r:id="rId11" display="www.cancer.gov/contact/videos/cancer-information-service"/>
+    <hyperlink ref="B238" r:id="rId9" display="www.cancer.gov/contact/videos/cancer-information-service"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="557">
   <si>
     <t>OLD URL</t>
   </si>
@@ -1651,6 +1651,42 @@
   </si>
   <si>
     <t>/researchandfunding/nci-role/spotlight/videos/scientists-spotlight-wood</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/pancreatic/did-you-know-pancreatic-cancer-video</t>
+  </si>
+  <si>
+    <t>/statistics/did-you-know-pancreatic-cancer-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/liver/did-you-know-liver-cancer-2014-video</t>
+  </si>
+  <si>
+    <t>/statistics/did-you-know-liver-cancer-2014-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/what-is-cancer/key-statistics/did-you-know-status-cancer-video</t>
+  </si>
+  <si>
+    <t>/statistics/did-you-know-status-cancer-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/did-you-know-colorectal-cancer-screening-video</t>
+  </si>
+  <si>
+    <t>/statistics/did-you-know-colorectal-cancer-screening-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/cervical/did-you-know-cervical-cancer-video</t>
+  </si>
+  <si>
+    <t>/statistics/did-you-know-cervical-cancer-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/did-you-know-breast-2014-video</t>
+  </si>
+  <si>
+    <t>/statistics/did-you-know-breast-2014-video</t>
   </si>
 </sst>
 </file>
@@ -2550,11 +2586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A239" sqref="A239:XFD242"/>
+      <selection pane="bottomLeft" activeCell="A243" sqref="A243:B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5470,6 +5506,90 @@
         <v>42115</v>
       </c>
       <c r="D242" s="9"/>
+    </row>
+    <row r="243" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C243" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D243" s="9"/>
+    </row>
+    <row r="244" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C244" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D244" s="9"/>
+    </row>
+    <row r="245" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C245" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D245" s="9"/>
+    </row>
+    <row r="246" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C246" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D246" s="9"/>
+    </row>
+    <row r="247" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C247" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D247" s="9"/>
+    </row>
+    <row r="248" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C248" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D248" s="9"/>
+    </row>
+    <row r="249" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C249" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D249" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="557">
   <si>
     <t>OLD URL</t>
   </si>
@@ -2586,11 +2586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A243" sqref="A243:B249"/>
+      <selection pane="bottomLeft" activeCell="A246" sqref="A246:XFD246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="246" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="C246" s="18">
         <v>42115</v>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="247" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C247" s="18">
         <v>42115</v>
@@ -5569,27 +5569,15 @@
     </row>
     <row r="248" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C248" s="18">
         <v>42115</v>
       </c>
       <c r="D248" s="9"/>
-    </row>
-    <row r="249" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="C249" s="18">
-        <v>42115</v>
-      </c>
-      <c r="D249" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="565">
   <si>
     <t>OLD URL</t>
   </si>
@@ -1687,6 +1687,30 @@
   </si>
   <si>
     <t>/statistics/did-you-know-breast-2014-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/colon-and-rectal/colorectal-screening-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/colorectal-screening-video</t>
+  </si>
+  <si>
+    <t>/videos/plan-2016/louis-staudt-video</t>
+  </si>
+  <si>
+    <t>/aboutnci/budget_planning_leg/plan-2016/louis-staudt-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/cam/cam-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/cam/cam-video</t>
+  </si>
+  <si>
+    <t>/researchandfunding/videos/biospecimens</t>
+  </si>
+  <si>
+    <t>/researchandfunding/resources/biospecimens-video</t>
   </si>
 </sst>
 </file>
@@ -2586,11 +2610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D248"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A246" sqref="A246:XFD246"/>
+      <selection pane="bottomLeft" activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5578,6 +5602,54 @@
         <v>42115</v>
       </c>
       <c r="D248" s="9"/>
+    </row>
+    <row r="249" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C249" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D249" s="9"/>
+    </row>
+    <row r="250" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C250" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D250" s="9"/>
+    </row>
+    <row r="251" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C251" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D251" s="9"/>
+    </row>
+    <row r="252" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C252" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D252" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="581">
   <si>
     <t>OLD URL</t>
   </si>
@@ -1711,6 +1711,54 @@
   </si>
   <si>
     <t>/researchandfunding/resources/biospecimens-video</t>
+  </si>
+  <si>
+    <t>/videos/2012-bypass/cost-of-care</t>
+  </si>
+  <si>
+    <t>/multimedia/videos/2012-bypass/cost-of-care</t>
+  </si>
+  <si>
+    <t>/videos/2012-bypass/genomic-info</t>
+  </si>
+  <si>
+    <t>/multimedia/videos/2012-bypass/genomic-info</t>
+  </si>
+  <si>
+    <t>/videos/2012-bypass/glioblastoma</t>
+  </si>
+  <si>
+    <t>/multimedia/videos/2012-bypass/glioblastoma</t>
+  </si>
+  <si>
+    <t>/videos/2012-bypass/lung-screening-trial</t>
+  </si>
+  <si>
+    <t>/multimedia/videos/2012-bypass/lung-screening-trial</t>
+  </si>
+  <si>
+    <t>/videos/2012-bypass/ovarian-cancer</t>
+  </si>
+  <si>
+    <t>/multimedia/videos/2012-bypass/ovarian-cancer</t>
+  </si>
+  <si>
+    <t>/videos/2012-bypass/pediatric-cancers</t>
+  </si>
+  <si>
+    <t>/multimedia/videos/2012-bypass/pediatric-cancers</t>
+  </si>
+  <si>
+    <t>/videos/2012-bypass/revitalizing-clinical-trials</t>
+  </si>
+  <si>
+    <t>/multimedia/videos/2012-bypass/revitalizing-clinical-trials</t>
+  </si>
+  <si>
+    <t>/videos/2012-bypass/revitalizing-clinical-trials-community</t>
+  </si>
+  <si>
+    <t>/multimedia/videos/2012-bypass/revitalizing-clinical-trials-community</t>
   </si>
 </sst>
 </file>
@@ -2610,11 +2658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A253" sqref="A253"/>
+      <selection pane="bottomLeft" activeCell="A253" sqref="A253:B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5650,6 +5698,102 @@
         <v>42115</v>
       </c>
       <c r="D252" s="9"/>
+    </row>
+    <row r="253" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C253" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D253" s="9"/>
+    </row>
+    <row r="254" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C254" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D254" s="9"/>
+    </row>
+    <row r="255" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C255" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D255" s="9"/>
+    </row>
+    <row r="256" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C256" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D256" s="9"/>
+    </row>
+    <row r="257" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="C257" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D257" s="9"/>
+    </row>
+    <row r="258" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C258" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D258" s="9"/>
+    </row>
+    <row r="259" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C259" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D259" s="9"/>
+    </row>
+    <row r="260" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C260" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D260" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="583">
   <si>
     <t>OLD URL</t>
   </si>
@@ -1759,6 +1759,12 @@
   </si>
   <si>
     <t>/multimedia/videos/2012-bypass/revitalizing-clinical-trials-community</t>
+  </si>
+  <si>
+    <t>/videos/statistics/did-you-know-cancer-survivorship-statistics-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/survivorship/did-you-know-cancer-survivorship-statistics-video</t>
   </si>
 </sst>
 </file>
@@ -2658,11 +2664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A253" sqref="A253:B260"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5795,6 +5801,18 @@
       </c>
       <c r="D260" s="9"/>
     </row>
+    <row r="261" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C261" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D261" s="9"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A96" r:id="rId1" display="www.cancer.gov/cancertopics/druginfo/esophagealcancer"/>
@@ -5806,9 +5824,11 @@
     <hyperlink ref="A236" r:id="rId7" display="www.cancer.gov/cancertopics/coping/navigators"/>
     <hyperlink ref="B236" r:id="rId8" display="www.cancer.gov/cancertopics/managing-care/navigators"/>
     <hyperlink ref="B238" r:id="rId9" display="www.cancer.gov/contact/videos/cancer-information-service"/>
+    <hyperlink ref="A261" r:id="rId10" display="http://www.cancer.gov/videos/statistics/did-you-know-cancer-survivorship-statistics-video"/>
+    <hyperlink ref="B261" r:id="rId11" display="http://www.cancer.gov/cancertopics/coping/survivorship/did-you-know-cancer-survivorship-statistics-video"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="681">
   <si>
     <t>OLD URL</t>
   </si>
@@ -1765,6 +1765,300 @@
   </si>
   <si>
     <t>/cancertopics/coping/survivorship/did-you-know-cancer-survivorship-statistics-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/audiofiles</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/audiofiles</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/breastcancer</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/breast-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/breastcancer/carousel195360</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/breast-cancer/carousel195360</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/breastcancer/lifelines-breast-cancer</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/breast-cancer/lifelines-breast-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/breastcancer/lifelines-juanita-lyle</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/breast-cancer/lifelines-juanita-lyle</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/breastcancer/lifelines-melanie-nix</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/breast-cancer/lifelines-melanie-nix</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cancerhealthdisparities</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/disparities</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cancerhealthdisparities/amelie-ramirez</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/disparities/amelie-ramirez</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cancerhealthdisparities/carousel257213</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/disparities/carousel257213</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cancerhealthdisparities/jorge-gomez</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/disparities/jorge-gomez</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cancerhealthdisparities/lifelines-asian-american-pacific-islander</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/disparities/lifelines-asian-american-pacific-islander</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cancerhealthdisparities/lifelines-dr-koh</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/disparities/lifelines-dr-koh</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cancerhealthdisparities/lifelines-kaur</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/disparities/lifelines-kaur</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cancerhealthdisparities/lifelines-livercancer</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/disparities/lifelines-livercancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cancerhealthdisparities/moon-chen</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/disparities/moon-chen</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cancerhealthdisparities/tanya-agurs-collins</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/disparities/tanya-agurs-collins</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cervicalcancer</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/cervical-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cervicalcancer/carousel195362</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/cervical-cancer/carousel195362</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cervicalcancer/lifelines-cervical-cancer-asian-americans</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/cervical-cancer/lifelines-cervical-cancer-asian-americans</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/cervicalcancer/lifelines-cervical-cancer-awareness</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/cervical-cancer/lifelines-cervical-cancer-awareness</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/colorectalcancer</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/colorectal-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/colorectalcancer/carousel195363</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/colorectal-cancer/carousel195363</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/colorectalcancer/lifeline-colorectal</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/colorectal-cancer/lifeline-colorectal</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/colorectalcancer/lifelines-colorectal-asian-american</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/colorectal-cancer/lifelines-colorectal-asian-american</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/lungcancer</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/lung-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/lungcancer/lifelines-lung-cancer</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/lung-cancer/lifelines-lung-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/NCI-programs-and-services</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/nci-programs</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/NCI-programs-and-services/carousel195366</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/nci-programs/carousel195366</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/NCI-programs-and-services/lifelines-1800-african-american</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/nci-programs/lifelines-1800-african-american</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/NCI-programs-and-services/lifelines-1800-asian-american</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/nci-programs/lifelines-1800-asian-american</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/othercancers</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/other-cancers</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/pancreaticcancer</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/pancreatic-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/prevention</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/prevention</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/prevention/lifelines-nutrition-awareness</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/prevention/lifelines-nutrition-awareness</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/prostatecancer</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/prostate-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/prostatecancer/lifelines-prostate</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/prostate-cancer/lifelines-prostate</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/skincancer</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/skin-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/skincancer/lifelines-skin-cancer-video</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/skin-cancer/lifelines-skin-cancer-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/survivorship</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/survivorship</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/survivorship/carousel258581</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/survivorship/carousel258581</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/treatmentandcoping</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/treatment-coping</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/treatmentandcoping/carousel195368</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/treatment-coping/carousel195368</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/lifelines/treatmentandcoping/lifelines-african-americans-clinical-trials</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/lifelines/treatment-coping/lifelines-african-americans-clinical-trials</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/mmo</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/mmo-hepb-asianamer-video</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/webinars/mmo-hepb-asianamer-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/mmo-webinar-aian</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/webinars/mmo-webinar-aian</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/mmo-webinar-clinical-trials-video</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/webinars/mmo-webinar-clinical-trials-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/disparities/mmo-webinars</t>
+  </si>
+  <si>
+    <t>/newscenter/media-resources/multicultural/webinars</t>
   </si>
 </sst>
 </file>
@@ -2664,11 +2958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,6 +6106,594 @@
         <v>42115</v>
       </c>
       <c r="D261" s="9"/>
+    </row>
+    <row r="262" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C262" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D262" s="9"/>
+    </row>
+    <row r="263" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C263" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D263" s="9"/>
+    </row>
+    <row r="264" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C264" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D264" s="9"/>
+    </row>
+    <row r="265" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C265" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D265" s="9"/>
+    </row>
+    <row r="266" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C266" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D266" s="9"/>
+    </row>
+    <row r="267" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C267" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D267" s="9"/>
+    </row>
+    <row r="268" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C268" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D268" s="9"/>
+    </row>
+    <row r="269" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C269" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D269" s="9"/>
+    </row>
+    <row r="270" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C270" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D270" s="9"/>
+    </row>
+    <row r="271" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C271" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D271" s="9"/>
+    </row>
+    <row r="272" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C272" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D272" s="9"/>
+    </row>
+    <row r="273" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="C273" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D273" s="9"/>
+    </row>
+    <row r="274" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C274" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D274" s="9"/>
+    </row>
+    <row r="275" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C275" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D275" s="9"/>
+    </row>
+    <row r="276" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C276" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D276" s="9"/>
+    </row>
+    <row r="277" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C277" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D277" s="9"/>
+    </row>
+    <row r="278" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C278" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D278" s="9"/>
+    </row>
+    <row r="279" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C279" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D279" s="9"/>
+    </row>
+    <row r="280" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C280" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D280" s="9"/>
+    </row>
+    <row r="281" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C281" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D281" s="9"/>
+    </row>
+    <row r="282" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C282" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D282" s="9"/>
+    </row>
+    <row r="283" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C283" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D283" s="9"/>
+    </row>
+    <row r="284" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C284" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D284" s="9"/>
+    </row>
+    <row r="285" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C285" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D285" s="9"/>
+    </row>
+    <row r="286" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C286" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D286" s="9"/>
+    </row>
+    <row r="287" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C287" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D287" s="9"/>
+    </row>
+    <row r="288" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C288" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D288" s="9"/>
+    </row>
+    <row r="289" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C289" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D289" s="9"/>
+    </row>
+    <row r="290" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C290" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D290" s="9"/>
+    </row>
+    <row r="291" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C291" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D291" s="9"/>
+    </row>
+    <row r="292" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C292" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D292" s="9"/>
+    </row>
+    <row r="293" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C293" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D293" s="9"/>
+    </row>
+    <row r="294" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="C294" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D294" s="9"/>
+    </row>
+    <row r="295" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C295" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D295" s="9"/>
+    </row>
+    <row r="296" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C296" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D296" s="9"/>
+    </row>
+    <row r="297" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="C297" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D297" s="9"/>
+    </row>
+    <row r="298" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C298" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D298" s="9"/>
+    </row>
+    <row r="299" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C299" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D299" s="9"/>
+    </row>
+    <row r="300" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="C300" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D300" s="9"/>
+    </row>
+    <row r="301" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C301" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D301" s="9"/>
+    </row>
+    <row r="302" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B302" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C302" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D302" s="9"/>
+    </row>
+    <row r="303" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C303" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D303" s="9"/>
+    </row>
+    <row r="304" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C304" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D304" s="9"/>
+    </row>
+    <row r="305" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C305" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D305" s="9"/>
+    </row>
+    <row r="306" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C306" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D306" s="9"/>
+    </row>
+    <row r="307" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C307" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D307" s="9"/>
+    </row>
+    <row r="308" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C308" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D308" s="9"/>
+    </row>
+    <row r="309" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C309" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D309" s="9"/>
+    </row>
+    <row r="310" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C310" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D310" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="789">
   <si>
     <t>OLD URL</t>
   </si>
@@ -2059,6 +2059,330 @@
   </si>
   <si>
     <t>/newscenter/media-resources/multicultural/webinars</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/Asco-estudio-cancer-de-seno-sensible-a-hormonas</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/Asco-estudio-cancer-de-seno-sensible-a-hormonas</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/Asco-estudioNCI8348-cancer-de-ovario-recidivante</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/Asco-estudioNCI8348-cancer-de-ovario-recidivante</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/Asco-estudioPOEMS-cancer-de-seno-fertilidad</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/Asco-estudioPOEMS-cancer-de-seno-fertilidad</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/Asco-estudios-del-NCI-canceres-en-mujeres</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/Asco-estudios-del-NCI-canceres-en-mujeres</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/aspirina-reduccion-cancerdeovario</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/aspirina-reduccion-cancerdeovario</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/CancerCenterPuertoRicoSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/CancerCenterPuertoRicoSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/CoffeeProtectiveDCEGSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2012/CoffeeProtectiveDCEGSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/ColorectalDisparitiesSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2010/ColorectalDisparitiesSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/comunicado-de-prensa-del-informe-anual</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2015/comunicado-de-prensa-del-informe-anual</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/costcancer2020SPA</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/costcancer2020SPA</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/CTpediatricSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2012/CTpediatricSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/declaracion-sobre-red-NCTN</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/declaracion-sobre-red-NCTN</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/E3805</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2013/E3805</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/estudio-LungMap</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/estudio-LungMap</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/estudioMPACT</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/estudioMPACT</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/estudioRTOG9802</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/estudioRTOG9802</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/GlobalHealthNewsNoteSept21Spanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/GlobalHealthNewsNoteSept21Spanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/HPVvaxDosingSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/HPVvaxDosingSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/informeNacion2013</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2013/informeNacion2013</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/informeNacion2013QA</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2013/informeNacion2013QA</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/informeNacionDiciembre2013</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2013/informeNacionDiciembre2013</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/informeNacionDiciembre2013QA</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2013/informeNacionDiciembre2013QA</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/informe-tabaco-sin-humo-NCI-y-CDC</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/informe-tabaco-sin-humo-NCI-y-CDC</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lanzamiento-ALCHEMIST</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/lanzamiento-ALCHEMIST</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lanzamiento-ALCHEMIST-preguntas-respuestas</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/lanzamiento-ALCHEMIST-preguntas-respuestas</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/NLSTFastFactsSPA</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2010/NLSTFastFactsSPA</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/NLSTprimaryNEJMSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/NLSTprimaryNEJMSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/nlstQandASpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2010/nlstQandASpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/NLSTresultsspanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2010/NLSTresultsspanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/obesidad-claseIII</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/obesidad-claseIII</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/PeruLOI</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2012/PeruLOI</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/PhysicalActivityLongevitySpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2012/PhysicalActivityLongevitySpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/PLCOscreeningQandASpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2012/PLCOscreeningQandASpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/PLCOScreeningSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2012/PLCOScreeningSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/predictor-riesgo-de-vph</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/predictor-riesgo-de-vph</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/programa-NCORP</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/programa-NCORP</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/ReportNation2011QandASpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/ReportNation2011QandASpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/ReportNation2011SpanishRelease</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/ReportNation2011SpanishRelease</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/ReportNation2012SpanishQandA</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2012/ReportNation2012SpanishQandA</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/ReportNationRelease2012Spanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2012/ReportNationRelease2012Spanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/respuestas-excepcionales-adn</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/respuestas-excepcionales-adn</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/respuestasexcepcionales-preguntas-respuestas</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/respuestasexcepcionales-preguntas-respuestas</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/se-lanza-red-NCTN</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/se-lanza-red-NCTN</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/SELECT2011Spanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/SELECT2011Spanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/SmokingBladderRiskSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/SmokingBladderRiskSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/SpanishProstateRTOGtherapyNEJM</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/SpanishProstateRTOGtherapyNEJM</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/subvenciones-CGH</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2014/subvenciones-CGH</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/survivorshippressrelease2011spa</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/survivorshippressrelease2011spa</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/TobaccoControlCISNETSpa</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2012/TobaccoControlCISNETSpa</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/TobaccoControlCISNETSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2012/TobaccoControlCISNETSpanish</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/transcript-anuncio-servicio</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2013/transcript-anuncio-servicio</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/transcript-nuevo-sitio</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2013/transcript-nuevo-sitio</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/Varmus12deJulio</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2010/Varmus12deJulio</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/XMRVrecombinationSpan</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/2011/XMRVrecombinationSpan</t>
   </si>
 </sst>
 </file>
@@ -2958,11 +3282,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B298" sqref="B298"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6694,6 +7018,654 @@
         <v>42115</v>
       </c>
       <c r="D310" s="9"/>
+    </row>
+    <row r="311" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C311" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D311" s="9"/>
+    </row>
+    <row r="312" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C312" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D312" s="9"/>
+    </row>
+    <row r="313" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C313" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D313" s="9"/>
+    </row>
+    <row r="314" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C314" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D314" s="9"/>
+    </row>
+    <row r="315" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="C315" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D315" s="9"/>
+    </row>
+    <row r="316" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="C316" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D316" s="9"/>
+    </row>
+    <row r="317" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C317" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D317" s="9"/>
+    </row>
+    <row r="318" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="C318" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D318" s="9"/>
+    </row>
+    <row r="319" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C319" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D319" s="9"/>
+    </row>
+    <row r="320" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="C320" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D320" s="9"/>
+    </row>
+    <row r="321" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="C321" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D321" s="9"/>
+    </row>
+    <row r="322" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="C322" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D322" s="9"/>
+    </row>
+    <row r="323" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C323" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D323" s="9"/>
+    </row>
+    <row r="324" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C324" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D324" s="9"/>
+    </row>
+    <row r="325" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C325" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D325" s="9"/>
+    </row>
+    <row r="326" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C326" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D326" s="9"/>
+    </row>
+    <row r="327" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C327" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D327" s="9"/>
+    </row>
+    <row r="328" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C328" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D328" s="9"/>
+    </row>
+    <row r="329" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C329" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D329" s="9"/>
+    </row>
+    <row r="330" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C330" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D330" s="9"/>
+    </row>
+    <row r="331" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C331" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D331" s="9"/>
+    </row>
+    <row r="332" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C332" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D332" s="9"/>
+    </row>
+    <row r="333" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C333" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D333" s="9"/>
+    </row>
+    <row r="334" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="B334" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="C334" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D334" s="9"/>
+    </row>
+    <row r="335" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C335" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D335" s="9"/>
+    </row>
+    <row r="336" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="B336" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="C336" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D336" s="9"/>
+    </row>
+    <row r="337" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C337" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D337" s="9"/>
+    </row>
+    <row r="338" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B338" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C338" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D338" s="9"/>
+    </row>
+    <row r="339" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="C339" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D339" s="9"/>
+    </row>
+    <row r="340" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B340" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C340" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D340" s="9"/>
+    </row>
+    <row r="341" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C341" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D341" s="9"/>
+    </row>
+    <row r="342" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C342" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D342" s="9"/>
+    </row>
+    <row r="343" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C343" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D343" s="9"/>
+    </row>
+    <row r="344" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="B344" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C344" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D344" s="9"/>
+    </row>
+    <row r="345" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C345" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D345" s="9"/>
+    </row>
+    <row r="346" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C346" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D346" s="9"/>
+    </row>
+    <row r="347" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="C347" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D347" s="9"/>
+    </row>
+    <row r="348" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="C348" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D348" s="9"/>
+    </row>
+    <row r="349" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C349" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D349" s="9"/>
+    </row>
+    <row r="350" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="C350" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D350" s="9"/>
+    </row>
+    <row r="351" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="C351" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D351" s="9"/>
+    </row>
+    <row r="352" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="C352" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D352" s="9"/>
+    </row>
+    <row r="353" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C353" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D353" s="9"/>
+    </row>
+    <row r="354" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="C354" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D354" s="9"/>
+    </row>
+    <row r="355" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="C355" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D355" s="9"/>
+    </row>
+    <row r="356" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="B356" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="C356" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D356" s="9"/>
+    </row>
+    <row r="357" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C357" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D357" s="9"/>
+    </row>
+    <row r="358" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="B358" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C358" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D358" s="9"/>
+    </row>
+    <row r="359" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="C359" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D359" s="9"/>
+    </row>
+    <row r="360" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="C360" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D360" s="9"/>
+    </row>
+    <row r="361" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C361" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D361" s="9"/>
+    </row>
+    <row r="362" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C362" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D362" s="9"/>
+    </row>
+    <row r="363" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="C363" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D363" s="9"/>
+    </row>
+    <row r="364" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B364" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C364" s="18">
+        <v>42115</v>
+      </c>
+      <c r="D364" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="795">
   <si>
     <t>OLD URL</t>
   </si>
@@ -2383,6 +2383,24 @@
   </si>
   <si>
     <t>/espanol/noticias/2011/XMRVrecombinationSpan</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/como-contribuir-a-la-investigacion-medica</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/general/como-contribuir-a-la-investigacion-medica</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/toma-decisiones-medicas</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/general/toma-decisiones-medicas</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/como-contribuir-a-la-investigacion-medica/como-contribuir-a-la-investigacion-medica.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/instituto/general/como-contribuir-a-la-investigacion-medica/como-contribuir-a-la-investigacion-medica.pdf</t>
   </si>
 </sst>
 </file>
@@ -3282,10 +3300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D364"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -7666,6 +7684,39 @@
         <v>42115</v>
       </c>
       <c r="D364" s="9"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>789</v>
+      </c>
+      <c r="B365" t="s">
+        <v>790</v>
+      </c>
+      <c r="C365" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>791</v>
+      </c>
+      <c r="B366" t="s">
+        <v>792</v>
+      </c>
+      <c r="C366" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>793</v>
+      </c>
+      <c r="B367" t="s">
+        <v>794</v>
+      </c>
+      <c r="C367" s="19">
+        <v>42116</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="885">
   <si>
     <t>OLD URL</t>
   </si>
@@ -2401,6 +2401,276 @@
   </si>
   <si>
     <t>/espanol/instituto/general/como-contribuir-a-la-investigacion-medica/como-contribuir-a-la-investigacion-medica.pdf</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/biological-activity-of-natural-products</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/natural-products-enhance-treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/cachexia-in-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/cachexia</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/cancer-pain-helping-patients</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/patient-education-pain</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/exercise-for-cancer-patients-and-survivors</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/exercise-before-after-treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/fda-approves-therapeutic-cancer-vaccine</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/first-treatment-vaccine-approved</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/fertility-still-possible-for-male-cancer-survivors</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/microtese-male-fertility-preservation</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/focusing-on-older-cancer-patients</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/older-patients</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/chemotherapy-induced-peripheral-neuropathy</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/peripheral-neuropathy</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/communicating-about-cancer-pain</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/communicating-about-pain</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/debate-over-using-placebos-in-cancer-clinical-trials</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/placebo-clinical-trials</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/dietary-supplements-and-cancer-treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/dietary-supplements</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/immune-based-cancer-treatment-shows-signs-of-progress</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/adoptive-cell-transfer-study-result</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/immune-cells-to-treat-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/ccr-adoptive-cell-transfer</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/investigating-nature-drug-development</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/drugs-from-nature</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/young-cancer-survivors-take-part-in-oncofertility-research</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/young-adults-fertility-research</t>
+  </si>
+  <si>
+    <t>/cancertopics/research-updates/2013/CAR-T-Cells</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/car-t-cells</t>
+  </si>
+  <si>
+    <t>/cancertopics/research-updates/2013/MEK</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/mek</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/rise-of-robotic-surgery-for-prostate-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/rise-robotic-surgery</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/targeted-nanoparticle-tested-in-patients-with-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/targeted-nanoparticle</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/lymphedema-after-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/lymphedema-after-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/proton-therapy</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/proton-therapy</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/possible-mechanisms-for-chemobrain</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/understanding-chemobrain</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/preserving-fertility-while-battling-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/fertility-preservation</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/overcoming-age-limits-in-cancer-clinical-trials</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/age-limits-clinical-trials</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/overcoming-bottlenecks-in-clinical-communication</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/talking-about-clinical-trials</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/obesity-and-cancer-risk</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/nutrition-during-after treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/aiding-cancer-caregivers</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/research/aiding-cancer-caregivers</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/cancer-survivorship-plans-slow-to-take-hold</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/research/survivorship-plans</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/follow-up-for-long-term-survivors</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/research/follow-up-for-long-term-survivors</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/growing-role-of-palliative-care-q-and-a</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/research/growing-role-of-palliative-care-qa</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/helping-cancer-survivors-achieve-a-healthy-weight</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/research/helping-survivors-healthy-weight</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/late-effects-pose-lasting-problems-for-young-cancer-survivors</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/research/late-effects-young-survivors</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/patient-navigation-and-nurses</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/research/patient-navigation-and-nurses</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/program-aims-to-improve-support-for-cancer-family-caregivers</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/research/support-for-cancer-family-caregivers</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/building-a-better-cancer-screening-process</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/research/better-cancer-screening-process</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/future-of-cancer-screening</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/research/future-of-cancer-screening</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/model-benefits-of-cancer-screening</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/research/modeling-benefits-cancer-screening</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/questions-to-ask-about-screening</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/research/questions-screening-audio</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/biology-of-cancers-in-aya</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/research/aya-biology</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/cell-phone-use_QandA</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/research/linet-cell-phone-use</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/diet-and-cancer-QandA</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/research/diet-and-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/hpv-vaccines-prove-effective</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/research/hpv-vaccines-effective</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/observation-for-men-with-prostate-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/research/obesity-and-cancer-risk</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/reducing-radiation-exposure</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/research/reducing-radiation-exposure</t>
+  </si>
+  <si>
+    <t>/cancertopics/research-updates/2014/aspirin</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/research/aspirin</t>
   </si>
 </sst>
 </file>
@@ -2886,7 +3156,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2930,8 +3200,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2957,8 +3228,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2997,6 +3269,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="43"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -3300,11 +3573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C369" sqref="C369:C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7715,6 +7988,501 @@
         <v>794</v>
       </c>
       <c r="C367" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="B368" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="C368" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="B369" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="C369" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="B370" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="C370" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="B371" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="C371" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="21" t="s">
+        <v>803</v>
+      </c>
+      <c r="B372" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="C372" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="B373" s="21" t="s">
+        <v>806</v>
+      </c>
+      <c r="C373" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="B374" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="C374" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="B375" s="21" t="s">
+        <v>810</v>
+      </c>
+      <c r="C375" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="B376" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="C376" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="B377" s="21" t="s">
+        <v>814</v>
+      </c>
+      <c r="C377" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="21" t="s">
+        <v>815</v>
+      </c>
+      <c r="B378" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="C378" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="B379" s="21" t="s">
+        <v>818</v>
+      </c>
+      <c r="C379" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="21" t="s">
+        <v>819</v>
+      </c>
+      <c r="B380" s="21" t="s">
+        <v>820</v>
+      </c>
+      <c r="C380" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="21" t="s">
+        <v>821</v>
+      </c>
+      <c r="B381" s="21" t="s">
+        <v>822</v>
+      </c>
+      <c r="C381" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="B382" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="C382" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="B383" s="21" t="s">
+        <v>826</v>
+      </c>
+      <c r="C383" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="B384" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="C384" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="B385" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="C385" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="B386" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="C386" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="B387" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C387" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="B388" s="21" t="s">
+        <v>836</v>
+      </c>
+      <c r="C388" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="B389" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="C389" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="B390" s="21" t="s">
+        <v>840</v>
+      </c>
+      <c r="C390" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="21" t="s">
+        <v>841</v>
+      </c>
+      <c r="B391" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="C391" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="21" t="s">
+        <v>843</v>
+      </c>
+      <c r="B392" s="21" t="s">
+        <v>844</v>
+      </c>
+      <c r="C392" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="21" t="s">
+        <v>845</v>
+      </c>
+      <c r="B393" s="21" t="s">
+        <v>846</v>
+      </c>
+      <c r="C393" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="21" t="s">
+        <v>847</v>
+      </c>
+      <c r="B394" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="C394" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="B395" s="21" t="s">
+        <v>850</v>
+      </c>
+      <c r="C395" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="B396" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="C396" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="B397" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="C397" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="B398" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="C398" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="B399" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="C399" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="B400" s="21" t="s">
+        <v>860</v>
+      </c>
+      <c r="C400" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="B401" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="C401" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="B402" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="C402" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="B403" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C403" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="B404" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="C404" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="B405" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="C405" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="B406" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="C406" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="21" t="s">
+        <v>873</v>
+      </c>
+      <c r="B407" s="21" t="s">
+        <v>874</v>
+      </c>
+      <c r="C407" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="21" t="s">
+        <v>875</v>
+      </c>
+      <c r="B408" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="C408" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="B409" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="C409" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="B410" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="C410" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="B411" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="C411" s="19">
+        <v>42116</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="B412" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="C412" s="19">
         <v>42116</v>
       </c>
     </row>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="887">
   <si>
     <t>OLD URL</t>
   </si>
@@ -2671,6 +2671,12 @@
   </si>
   <si>
     <t>/cancertopics/causes-prevention/research/aspirin</t>
+  </si>
+  <si>
+    <t>/global/web/sitehelp</t>
+  </si>
+  <si>
+    <t>/about-website</t>
   </si>
 </sst>
 </file>
@@ -3573,11 +3579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D412"/>
+  <dimension ref="A1:D413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C369" sqref="C369:C412"/>
+      <selection pane="bottomLeft" activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8484,6 +8490,17 @@
       </c>
       <c r="C412" s="19">
         <v>42116</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="B413" s="21" t="s">
+        <v>886</v>
+      </c>
+      <c r="C413" s="19">
+        <v>42117</v>
       </c>
     </row>
   </sheetData>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="17100" windowHeight="9090"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="17100" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTION - LIVE" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="UAT" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2556,9 +2556,6 @@
     <t>/cancertopics/research/obesity-and-cancer-risk</t>
   </si>
   <si>
-    <t>/cancertopics/treatment/research/nutrition-during-after treatment</t>
-  </si>
-  <si>
     <t>/cancertopics/research/aiding-cancer-caregivers</t>
   </si>
   <si>
@@ -2677,6 +2674,9 @@
   </si>
   <si>
     <t>/about-website</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/prostate/research/pivot-trial-results</t>
   </si>
 </sst>
 </file>
@@ -2686,7 +2686,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2830,8 +2830,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3017,8 +3023,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3161,8 +3173,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3207,8 +3234,9 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3235,8 +3263,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3276,6 +3308,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="43"/>
+    <cellStyle name="Normal 3" xfId="44"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -3583,7 +3616,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A419" sqref="A419"/>
+      <selection pane="bottomLeft" activeCell="A410" sqref="A410:XFD410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8276,8 +8309,8 @@
       <c r="A393" s="21" t="s">
         <v>845</v>
       </c>
-      <c r="B393" s="21" t="s">
-        <v>846</v>
+      <c r="B393" s="23" t="s">
+        <v>879</v>
       </c>
       <c r="C393" s="19">
         <v>42116</v>
@@ -8285,10 +8318,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="21" t="s">
+        <v>846</v>
+      </c>
+      <c r="B394" s="21" t="s">
         <v>847</v>
-      </c>
-      <c r="B394" s="21" t="s">
-        <v>848</v>
       </c>
       <c r="C394" s="19">
         <v>42116</v>
@@ -8296,10 +8329,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="B395" s="21" t="s">
         <v>849</v>
-      </c>
-      <c r="B395" s="21" t="s">
-        <v>850</v>
       </c>
       <c r="C395" s="19">
         <v>42116</v>
@@ -8307,10 +8340,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="21" t="s">
+        <v>850</v>
+      </c>
+      <c r="B396" s="21" t="s">
         <v>851</v>
-      </c>
-      <c r="B396" s="21" t="s">
-        <v>852</v>
       </c>
       <c r="C396" s="19">
         <v>42116</v>
@@ -8318,10 +8351,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="B397" s="21" t="s">
         <v>853</v>
-      </c>
-      <c r="B397" s="21" t="s">
-        <v>854</v>
       </c>
       <c r="C397" s="19">
         <v>42116</v>
@@ -8329,10 +8362,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="B398" s="21" t="s">
         <v>855</v>
-      </c>
-      <c r="B398" s="21" t="s">
-        <v>856</v>
       </c>
       <c r="C398" s="19">
         <v>42116</v>
@@ -8340,10 +8373,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="B399" s="21" t="s">
         <v>857</v>
-      </c>
-      <c r="B399" s="21" t="s">
-        <v>858</v>
       </c>
       <c r="C399" s="19">
         <v>42116</v>
@@ -8351,10 +8384,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="B400" s="21" t="s">
         <v>859</v>
-      </c>
-      <c r="B400" s="21" t="s">
-        <v>860</v>
       </c>
       <c r="C400" s="19">
         <v>42116</v>
@@ -8362,10 +8395,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="21" t="s">
+        <v>860</v>
+      </c>
+      <c r="B401" s="21" t="s">
         <v>861</v>
-      </c>
-      <c r="B401" s="21" t="s">
-        <v>862</v>
       </c>
       <c r="C401" s="19">
         <v>42116</v>
@@ -8373,10 +8406,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="B402" s="21" t="s">
         <v>863</v>
-      </c>
-      <c r="B402" s="21" t="s">
-        <v>864</v>
       </c>
       <c r="C402" s="19">
         <v>42116</v>
@@ -8384,10 +8417,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="B403" s="21" t="s">
         <v>865</v>
-      </c>
-      <c r="B403" s="21" t="s">
-        <v>866</v>
       </c>
       <c r="C403" s="19">
         <v>42116</v>
@@ -8395,10 +8428,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="B404" s="21" t="s">
         <v>867</v>
-      </c>
-      <c r="B404" s="21" t="s">
-        <v>868</v>
       </c>
       <c r="C404" s="19">
         <v>42116</v>
@@ -8406,10 +8439,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="B405" s="21" t="s">
         <v>869</v>
-      </c>
-      <c r="B405" s="21" t="s">
-        <v>870</v>
       </c>
       <c r="C405" s="19">
         <v>42116</v>
@@ -8417,10 +8450,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="B406" s="21" t="s">
         <v>871</v>
-      </c>
-      <c r="B406" s="21" t="s">
-        <v>872</v>
       </c>
       <c r="C406" s="19">
         <v>42116</v>
@@ -8428,10 +8461,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="B407" s="21" t="s">
         <v>873</v>
-      </c>
-      <c r="B407" s="21" t="s">
-        <v>874</v>
       </c>
       <c r="C407" s="19">
         <v>42116</v>
@@ -8439,10 +8472,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="21" t="s">
+        <v>874</v>
+      </c>
+      <c r="B408" s="21" t="s">
         <v>875</v>
-      </c>
-      <c r="B408" s="21" t="s">
-        <v>876</v>
       </c>
       <c r="C408" s="19">
         <v>42116</v>
@@ -8450,10 +8483,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="B409" s="21" t="s">
         <v>877</v>
-      </c>
-      <c r="B409" s="21" t="s">
-        <v>878</v>
       </c>
       <c r="C409" s="19">
         <v>42116</v>
@@ -8461,10 +8494,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="21" t="s">
-        <v>879</v>
-      </c>
-      <c r="B410" s="21" t="s">
-        <v>880</v>
+        <v>878</v>
+      </c>
+      <c r="B410" s="22" t="s">
+        <v>886</v>
       </c>
       <c r="C410" s="19">
         <v>42116</v>
@@ -8472,10 +8505,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="B411" s="21" t="s">
         <v>881</v>
-      </c>
-      <c r="B411" s="21" t="s">
-        <v>882</v>
       </c>
       <c r="C411" s="19">
         <v>42116</v>
@@ -8483,10 +8516,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="B412" s="21" t="s">
         <v>883</v>
-      </c>
-      <c r="B412" s="21" t="s">
-        <v>884</v>
       </c>
       <c r="C412" s="19">
         <v>42116</v>
@@ -8494,10 +8527,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="B413" s="21" t="s">
         <v>885</v>
-      </c>
-      <c r="B413" s="21" t="s">
-        <v>886</v>
       </c>
       <c r="C413" s="19">
         <v>42117</v>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="889">
   <si>
     <t>OLD URL</t>
   </si>
@@ -2677,6 +2677,12 @@
   </si>
   <si>
     <t>/cancertopics/types/prostate/research/pivot-trial-results</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/nutrition-during-after-treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/research-updates/2013/dietrecs</t>
   </si>
 </sst>
 </file>
@@ -2686,7 +2692,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2830,14 +2836,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3023,14 +3023,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3173,21 +3167,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3262,11 +3241,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3612,11 +3589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D413"/>
+  <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A410" sqref="A410:XFD410"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A365" sqref="A365:XFD414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7997,544 +7974,608 @@
       </c>
       <c r="D364" s="9"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+    <row r="365" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="23" t="s">
         <v>789</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="C365" s="19">
+      <c r="C365" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="D365" s="23"/>
+    </row>
+    <row r="366" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="23" t="s">
         <v>792</v>
       </c>
-      <c r="C366" s="19">
+      <c r="C366" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="D366" s="23"/>
+    </row>
+    <row r="367" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="C367" s="19">
+      <c r="C367" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="21" t="s">
+      <c r="D367" s="23"/>
+    </row>
+    <row r="368" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="B368" s="21" t="s">
+      <c r="B368" s="23" t="s">
         <v>796</v>
       </c>
-      <c r="C368" s="19">
+      <c r="C368" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="21" t="s">
+      <c r="D368" s="23"/>
+    </row>
+    <row r="369" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="B369" s="21" t="s">
+      <c r="B369" s="23" t="s">
         <v>798</v>
       </c>
-      <c r="C369" s="19">
+      <c r="C369" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="21" t="s">
+      <c r="D369" s="23"/>
+    </row>
+    <row r="370" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="B370" s="21" t="s">
+      <c r="B370" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="C370" s="19">
+      <c r="C370" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="21" t="s">
+      <c r="D370" s="23"/>
+    </row>
+    <row r="371" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="B371" s="21" t="s">
+      <c r="B371" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="C371" s="19">
+      <c r="C371" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="21" t="s">
+      <c r="D371" s="23"/>
+    </row>
+    <row r="372" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="B372" s="21" t="s">
+      <c r="B372" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="C372" s="19">
+      <c r="C372" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="21" t="s">
+      <c r="D372" s="23"/>
+    </row>
+    <row r="373" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="23" t="s">
         <v>805</v>
       </c>
-      <c r="B373" s="21" t="s">
+      <c r="B373" s="23" t="s">
         <v>806</v>
       </c>
-      <c r="C373" s="19">
+      <c r="C373" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="21" t="s">
+      <c r="D373" s="23"/>
+    </row>
+    <row r="374" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="23" t="s">
         <v>807</v>
       </c>
-      <c r="B374" s="21" t="s">
+      <c r="B374" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="C374" s="19">
+      <c r="C374" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="21" t="s">
+      <c r="D374" s="23"/>
+    </row>
+    <row r="375" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="B375" s="21" t="s">
+      <c r="B375" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="C375" s="19">
+      <c r="C375" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="21" t="s">
+      <c r="D375" s="23"/>
+    </row>
+    <row r="376" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="B376" s="21" t="s">
+      <c r="B376" s="23" t="s">
         <v>812</v>
       </c>
-      <c r="C376" s="19">
+      <c r="C376" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="21" t="s">
+      <c r="D376" s="23"/>
+    </row>
+    <row r="377" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="B377" s="21" t="s">
+      <c r="B377" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="C377" s="19">
+      <c r="C377" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="21" t="s">
+      <c r="D377" s="23"/>
+    </row>
+    <row r="378" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="B378" s="21" t="s">
+      <c r="B378" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="C378" s="19">
+      <c r="C378" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="21" t="s">
+      <c r="D378" s="23"/>
+    </row>
+    <row r="379" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="B379" s="21" t="s">
+      <c r="B379" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="C379" s="19">
+      <c r="C379" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="21" t="s">
+      <c r="D379" s="23"/>
+    </row>
+    <row r="380" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="B380" s="21" t="s">
+      <c r="B380" s="23" t="s">
         <v>820</v>
       </c>
-      <c r="C380" s="19">
+      <c r="C380" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="21" t="s">
+      <c r="D380" s="23"/>
+    </row>
+    <row r="381" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="B381" s="21" t="s">
+      <c r="B381" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="C381" s="19">
+      <c r="C381" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="21" t="s">
+      <c r="D381" s="23"/>
+    </row>
+    <row r="382" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="B382" s="21" t="s">
+      <c r="B382" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="C382" s="19">
+      <c r="C382" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="21" t="s">
+      <c r="D382" s="23"/>
+    </row>
+    <row r="383" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="B383" s="21" t="s">
+      <c r="B383" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="C383" s="19">
+      <c r="C383" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="21" t="s">
+      <c r="D383" s="23"/>
+    </row>
+    <row r="384" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="B384" s="21" t="s">
+      <c r="B384" s="23" t="s">
         <v>828</v>
       </c>
-      <c r="C384" s="19">
+      <c r="C384" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="21" t="s">
+      <c r="D384" s="23"/>
+    </row>
+    <row r="385" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="B385" s="21" t="s">
+      <c r="B385" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="C385" s="19">
+      <c r="C385" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="21" t="s">
+      <c r="D385" s="23"/>
+    </row>
+    <row r="386" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="B386" s="21" t="s">
+      <c r="B386" s="23" t="s">
         <v>832</v>
       </c>
-      <c r="C386" s="19">
+      <c r="C386" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="21" t="s">
+      <c r="D386" s="23"/>
+    </row>
+    <row r="387" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="B387" s="21" t="s">
+      <c r="B387" s="23" t="s">
         <v>834</v>
       </c>
-      <c r="C387" s="19">
+      <c r="C387" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="21" t="s">
+      <c r="D387" s="23"/>
+    </row>
+    <row r="388" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="B388" s="21" t="s">
+      <c r="B388" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="C388" s="19">
+      <c r="C388" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="21" t="s">
+      <c r="D388" s="23"/>
+    </row>
+    <row r="389" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="B389" s="21" t="s">
+      <c r="B389" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="C389" s="19">
+      <c r="C389" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="21" t="s">
+      <c r="D389" s="23"/>
+    </row>
+    <row r="390" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="B390" s="21" t="s">
+      <c r="B390" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="C390" s="19">
+      <c r="C390" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="21" t="s">
+      <c r="D390" s="23"/>
+    </row>
+    <row r="391" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="B391" s="21" t="s">
+      <c r="B391" s="23" t="s">
         <v>842</v>
       </c>
-      <c r="C391" s="19">
+      <c r="C391" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="21" t="s">
+      <c r="D391" s="23"/>
+    </row>
+    <row r="392" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="B392" s="21" t="s">
+      <c r="B392" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="C392" s="19">
+      <c r="C392" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="21" t="s">
+      <c r="D392" s="23"/>
+    </row>
+    <row r="393" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="23" t="s">
         <v>845</v>
       </c>
       <c r="B393" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="C393" s="19">
+      <c r="C393" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="21" t="s">
+      <c r="D393" s="23"/>
+    </row>
+    <row r="394" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="23" t="s">
         <v>846</v>
       </c>
-      <c r="B394" s="21" t="s">
+      <c r="B394" s="23" t="s">
         <v>847</v>
       </c>
-      <c r="C394" s="19">
+      <c r="C394" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="21" t="s">
+      <c r="D394" s="23"/>
+    </row>
+    <row r="395" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="B395" s="21" t="s">
+      <c r="B395" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="C395" s="19">
+      <c r="C395" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="21" t="s">
+      <c r="D395" s="23"/>
+    </row>
+    <row r="396" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="23" t="s">
         <v>850</v>
       </c>
-      <c r="B396" s="21" t="s">
+      <c r="B396" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="C396" s="19">
+      <c r="C396" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="21" t="s">
+      <c r="D396" s="23"/>
+    </row>
+    <row r="397" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="B397" s="21" t="s">
+      <c r="B397" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="C397" s="19">
+      <c r="C397" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="21" t="s">
+      <c r="D397" s="23"/>
+    </row>
+    <row r="398" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="23" t="s">
         <v>854</v>
       </c>
-      <c r="B398" s="21" t="s">
+      <c r="B398" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="C398" s="19">
+      <c r="C398" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="21" t="s">
+      <c r="D398" s="23"/>
+    </row>
+    <row r="399" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="23" t="s">
         <v>856</v>
       </c>
-      <c r="B399" s="21" t="s">
+      <c r="B399" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="C399" s="19">
+      <c r="C399" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="21" t="s">
+      <c r="D399" s="23"/>
+    </row>
+    <row r="400" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="B400" s="21" t="s">
+      <c r="B400" s="23" t="s">
         <v>859</v>
       </c>
-      <c r="C400" s="19">
+      <c r="C400" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="21" t="s">
+      <c r="D400" s="23"/>
+    </row>
+    <row r="401" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="23" t="s">
         <v>860</v>
       </c>
-      <c r="B401" s="21" t="s">
+      <c r="B401" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="C401" s="19">
+      <c r="C401" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="21" t="s">
+      <c r="D401" s="23"/>
+    </row>
+    <row r="402" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="23" t="s">
         <v>862</v>
       </c>
-      <c r="B402" s="21" t="s">
+      <c r="B402" s="23" t="s">
         <v>863</v>
       </c>
-      <c r="C402" s="19">
+      <c r="C402" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="21" t="s">
+      <c r="D402" s="23"/>
+    </row>
+    <row r="403" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="23" t="s">
         <v>864</v>
       </c>
-      <c r="B403" s="21" t="s">
+      <c r="B403" s="23" t="s">
         <v>865</v>
       </c>
-      <c r="C403" s="19">
+      <c r="C403" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="21" t="s">
+      <c r="D403" s="23"/>
+    </row>
+    <row r="404" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="23" t="s">
         <v>866</v>
       </c>
-      <c r="B404" s="21" t="s">
+      <c r="B404" s="23" t="s">
         <v>867</v>
       </c>
-      <c r="C404" s="19">
+      <c r="C404" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="21" t="s">
+      <c r="D404" s="23"/>
+    </row>
+    <row r="405" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="B405" s="21" t="s">
+      <c r="B405" s="23" t="s">
         <v>869</v>
       </c>
-      <c r="C405" s="19">
+      <c r="C405" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="21" t="s">
+      <c r="D405" s="23"/>
+    </row>
+    <row r="406" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="23" t="s">
         <v>870</v>
       </c>
-      <c r="B406" s="21" t="s">
+      <c r="B406" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="C406" s="19">
+      <c r="C406" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="21" t="s">
+      <c r="D406" s="23"/>
+    </row>
+    <row r="407" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="23" t="s">
         <v>872</v>
       </c>
-      <c r="B407" s="21" t="s">
+      <c r="B407" s="23" t="s">
         <v>873</v>
       </c>
-      <c r="C407" s="19">
+      <c r="C407" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="21" t="s">
+      <c r="D407" s="23"/>
+    </row>
+    <row r="408" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="23" t="s">
         <v>874</v>
       </c>
-      <c r="B408" s="21" t="s">
+      <c r="B408" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="C408" s="19">
+      <c r="C408" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="21" t="s">
+      <c r="D408" s="23"/>
+    </row>
+    <row r="409" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="B409" s="21" t="s">
+      <c r="B409" s="23" t="s">
         <v>877</v>
       </c>
-      <c r="C409" s="19">
+      <c r="C409" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="21" t="s">
+      <c r="D409" s="23"/>
+    </row>
+    <row r="410" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="23" t="s">
         <v>878</v>
       </c>
-      <c r="B410" s="22" t="s">
+      <c r="B410" s="23" t="s">
         <v>886</v>
       </c>
-      <c r="C410" s="19">
+      <c r="C410" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="21" t="s">
+      <c r="D410" s="23"/>
+    </row>
+    <row r="411" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="23" t="s">
         <v>880</v>
       </c>
-      <c r="B411" s="21" t="s">
+      <c r="B411" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="C411" s="19">
+      <c r="C411" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="21" t="s">
+      <c r="D411" s="23"/>
+    </row>
+    <row r="412" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="23" t="s">
         <v>882</v>
       </c>
-      <c r="B412" s="21" t="s">
+      <c r="B412" s="23" t="s">
         <v>883</v>
       </c>
-      <c r="C412" s="19">
+      <c r="C412" s="18">
         <v>42116</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="21" t="s">
+      <c r="D412" s="23"/>
+    </row>
+    <row r="413" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="23" t="s">
         <v>884</v>
       </c>
-      <c r="B413" s="21" t="s">
+      <c r="B413" s="23" t="s">
         <v>885</v>
       </c>
-      <c r="C413" s="19">
+      <c r="C413" s="18">
         <v>42117</v>
       </c>
+      <c r="D413" s="23"/>
+    </row>
+    <row r="414" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="B414" s="23" t="s">
+        <v>887</v>
+      </c>
+      <c r="C414" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D414" s="23"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="891">
   <si>
     <t>OLD URL</t>
   </si>
@@ -2683,6 +2683,12 @@
   </si>
   <si>
     <t>/cancertopics/research-updates/2013/dietrecs</t>
+  </si>
+  <si>
+    <t>/cancertopics/diagnosis-staging/research/downside-diagnostic-imaging</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/downside-of-diagnostic-imaging</t>
   </si>
 </sst>
 </file>
@@ -3215,7 +3221,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3244,6 +3250,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3593,7 +3602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A365" sqref="A365:XFD414"/>
+      <selection pane="bottomLeft" activeCell="A407" sqref="A407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8558,7 +8567,7 @@
         <v>885</v>
       </c>
       <c r="C413" s="18">
-        <v>42117</v>
+        <v>42116</v>
       </c>
       <c r="D413" s="23"/>
     </row>
@@ -8570,9 +8579,20 @@
         <v>887</v>
       </c>
       <c r="C414" s="18">
+        <v>42116</v>
+      </c>
+      <c r="D414" s="23"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="23" t="s">
+        <v>890</v>
+      </c>
+      <c r="B415" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C415" s="19">
         <v>42117</v>
       </c>
-      <c r="D414" s="23"/>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B418" s="21"/>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="897">
   <si>
     <t>OLD URL</t>
   </si>
@@ -2689,6 +2689,24 @@
   </si>
   <si>
     <t>/cancertopics/research/downside-of-diagnostic-imaging</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/aya/chronic-health-problems-aya-survivors</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/aya/psychosocial-challenges-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/aya/clinical-trials-better-care-for-ayas</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/many-survivors-of-aya-cancers-have-chronic-health-problems</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/psychosocial-challenges-of-cancer</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/clinical-trials-offer-path-to-better-care-for-ayas</t>
   </si>
 </sst>
 </file>
@@ -2698,7 +2716,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2842,8 +2860,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3026,6 +3057,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,7 +3258,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3247,12 +3284,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3601,8 +3645,8 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A407" sqref="A407"/>
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B415" sqref="B415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7983,619 +8027,640 @@
       </c>
       <c r="D364" s="9"/>
     </row>
-    <row r="365" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="23" t="s">
+    <row r="365" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="B365" s="23" t="s">
+      <c r="B365" s="22" t="s">
         <v>790</v>
       </c>
       <c r="C365" s="18">
         <v>42116</v>
       </c>
-      <c r="D365" s="23"/>
-    </row>
-    <row r="366" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="23" t="s">
+      <c r="D365" s="22"/>
+    </row>
+    <row r="366" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="B366" s="23" t="s">
+      <c r="B366" s="22" t="s">
         <v>792</v>
       </c>
       <c r="C366" s="18">
         <v>42116</v>
       </c>
-      <c r="D366" s="23"/>
-    </row>
-    <row r="367" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="23" t="s">
+      <c r="D366" s="22"/>
+    </row>
+    <row r="367" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="B367" s="23" t="s">
+      <c r="B367" s="22" t="s">
         <v>794</v>
       </c>
       <c r="C367" s="18">
         <v>42116</v>
       </c>
-      <c r="D367" s="23"/>
-    </row>
-    <row r="368" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="23" t="s">
+      <c r="D367" s="22"/>
+    </row>
+    <row r="368" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="B368" s="23" t="s">
+      <c r="B368" s="22" t="s">
         <v>796</v>
       </c>
       <c r="C368" s="18">
         <v>42116</v>
       </c>
-      <c r="D368" s="23"/>
-    </row>
-    <row r="369" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="23" t="s">
+      <c r="D368" s="22"/>
+    </row>
+    <row r="369" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="B369" s="23" t="s">
+      <c r="B369" s="22" t="s">
         <v>798</v>
       </c>
       <c r="C369" s="18">
         <v>42116</v>
       </c>
-      <c r="D369" s="23"/>
-    </row>
-    <row r="370" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="23" t="s">
+      <c r="D369" s="22"/>
+    </row>
+    <row r="370" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="B370" s="23" t="s">
+      <c r="B370" s="22" t="s">
         <v>800</v>
       </c>
       <c r="C370" s="18">
         <v>42116</v>
       </c>
-      <c r="D370" s="23"/>
-    </row>
-    <row r="371" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="23" t="s">
+      <c r="D370" s="22"/>
+    </row>
+    <row r="371" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="B371" s="23" t="s">
+      <c r="B371" s="22" t="s">
         <v>802</v>
       </c>
       <c r="C371" s="18">
         <v>42116</v>
       </c>
-      <c r="D371" s="23"/>
-    </row>
-    <row r="372" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="23" t="s">
+      <c r="D371" s="22"/>
+    </row>
+    <row r="372" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="B372" s="23" t="s">
+      <c r="B372" s="22" t="s">
         <v>804</v>
       </c>
       <c r="C372" s="18">
         <v>42116</v>
       </c>
-      <c r="D372" s="23"/>
-    </row>
-    <row r="373" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="23" t="s">
+      <c r="D372" s="22"/>
+    </row>
+    <row r="373" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="B373" s="23" t="s">
+      <c r="B373" s="22" t="s">
         <v>806</v>
       </c>
       <c r="C373" s="18">
         <v>42116</v>
       </c>
-      <c r="D373" s="23"/>
-    </row>
-    <row r="374" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="23" t="s">
+      <c r="D373" s="22"/>
+    </row>
+    <row r="374" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="B374" s="23" t="s">
+      <c r="B374" s="22" t="s">
         <v>808</v>
       </c>
       <c r="C374" s="18">
         <v>42116</v>
       </c>
-      <c r="D374" s="23"/>
-    </row>
-    <row r="375" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="23" t="s">
+      <c r="D374" s="22"/>
+    </row>
+    <row r="375" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="B375" s="23" t="s">
+      <c r="B375" s="22" t="s">
         <v>810</v>
       </c>
       <c r="C375" s="18">
         <v>42116</v>
       </c>
-      <c r="D375" s="23"/>
-    </row>
-    <row r="376" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="23" t="s">
+      <c r="D375" s="22"/>
+    </row>
+    <row r="376" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="B376" s="23" t="s">
+      <c r="B376" s="22" t="s">
         <v>812</v>
       </c>
       <c r="C376" s="18">
         <v>42116</v>
       </c>
-      <c r="D376" s="23"/>
-    </row>
-    <row r="377" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="23" t="s">
+      <c r="D376" s="22"/>
+    </row>
+    <row r="377" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="B377" s="23" t="s">
+      <c r="B377" s="22" t="s">
         <v>814</v>
       </c>
       <c r="C377" s="18">
         <v>42116</v>
       </c>
-      <c r="D377" s="23"/>
-    </row>
-    <row r="378" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="23" t="s">
+      <c r="D377" s="22"/>
+    </row>
+    <row r="378" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="B378" s="23" t="s">
+      <c r="B378" s="22" t="s">
         <v>816</v>
       </c>
       <c r="C378" s="18">
         <v>42116</v>
       </c>
-      <c r="D378" s="23"/>
-    </row>
-    <row r="379" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="23" t="s">
+      <c r="D378" s="22"/>
+    </row>
+    <row r="379" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="B379" s="23" t="s">
+      <c r="B379" s="22" t="s">
         <v>818</v>
       </c>
       <c r="C379" s="18">
         <v>42116</v>
       </c>
-      <c r="D379" s="23"/>
-    </row>
-    <row r="380" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="23" t="s">
+      <c r="D379" s="22"/>
+    </row>
+    <row r="380" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="B380" s="23" t="s">
+      <c r="B380" s="22" t="s">
         <v>820</v>
       </c>
       <c r="C380" s="18">
         <v>42116</v>
       </c>
-      <c r="D380" s="23"/>
-    </row>
-    <row r="381" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="23" t="s">
+      <c r="D380" s="22"/>
+    </row>
+    <row r="381" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="22" t="s">
         <v>821</v>
       </c>
-      <c r="B381" s="23" t="s">
+      <c r="B381" s="22" t="s">
         <v>822</v>
       </c>
       <c r="C381" s="18">
         <v>42116</v>
       </c>
-      <c r="D381" s="23"/>
-    </row>
-    <row r="382" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="23" t="s">
+      <c r="D381" s="22"/>
+    </row>
+    <row r="382" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="22" t="s">
         <v>823</v>
       </c>
-      <c r="B382" s="23" t="s">
+      <c r="B382" s="22" t="s">
         <v>824</v>
       </c>
       <c r="C382" s="18">
         <v>42116</v>
       </c>
-      <c r="D382" s="23"/>
-    </row>
-    <row r="383" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="23" t="s">
+      <c r="D382" s="22"/>
+    </row>
+    <row r="383" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="22" t="s">
         <v>825</v>
       </c>
-      <c r="B383" s="23" t="s">
+      <c r="B383" s="22" t="s">
         <v>826</v>
       </c>
       <c r="C383" s="18">
         <v>42116</v>
       </c>
-      <c r="D383" s="23"/>
-    </row>
-    <row r="384" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="23" t="s">
+      <c r="D383" s="22"/>
+    </row>
+    <row r="384" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="B384" s="23" t="s">
+      <c r="B384" s="22" t="s">
         <v>828</v>
       </c>
       <c r="C384" s="18">
         <v>42116</v>
       </c>
-      <c r="D384" s="23"/>
-    </row>
-    <row r="385" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="23" t="s">
+      <c r="D384" s="22"/>
+    </row>
+    <row r="385" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="B385" s="23" t="s">
+      <c r="B385" s="22" t="s">
         <v>830</v>
       </c>
       <c r="C385" s="18">
         <v>42116</v>
       </c>
-      <c r="D385" s="23"/>
-    </row>
-    <row r="386" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="23" t="s">
+      <c r="D385" s="22"/>
+    </row>
+    <row r="386" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="22" t="s">
         <v>831</v>
       </c>
-      <c r="B386" s="23" t="s">
+      <c r="B386" s="22" t="s">
         <v>832</v>
       </c>
       <c r="C386" s="18">
         <v>42116</v>
       </c>
-      <c r="D386" s="23"/>
-    </row>
-    <row r="387" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="23" t="s">
+      <c r="D386" s="22"/>
+    </row>
+    <row r="387" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="22" t="s">
         <v>833</v>
       </c>
-      <c r="B387" s="23" t="s">
+      <c r="B387" s="22" t="s">
         <v>834</v>
       </c>
       <c r="C387" s="18">
         <v>42116</v>
       </c>
-      <c r="D387" s="23"/>
-    </row>
-    <row r="388" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="23" t="s">
+      <c r="D387" s="22"/>
+    </row>
+    <row r="388" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="22" t="s">
         <v>835</v>
       </c>
-      <c r="B388" s="23" t="s">
+      <c r="B388" s="22" t="s">
         <v>836</v>
       </c>
       <c r="C388" s="18">
         <v>42116</v>
       </c>
-      <c r="D388" s="23"/>
-    </row>
-    <row r="389" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="23" t="s">
+      <c r="D388" s="22"/>
+    </row>
+    <row r="389" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="22" t="s">
         <v>837</v>
       </c>
-      <c r="B389" s="23" t="s">
+      <c r="B389" s="22" t="s">
         <v>838</v>
       </c>
       <c r="C389" s="18">
         <v>42116</v>
       </c>
-      <c r="D389" s="23"/>
-    </row>
-    <row r="390" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="23" t="s">
+      <c r="D389" s="22"/>
+    </row>
+    <row r="390" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="22" t="s">
         <v>839</v>
       </c>
-      <c r="B390" s="23" t="s">
+      <c r="B390" s="22" t="s">
         <v>840</v>
       </c>
       <c r="C390" s="18">
         <v>42116</v>
       </c>
-      <c r="D390" s="23"/>
-    </row>
-    <row r="391" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="23" t="s">
+      <c r="D390" s="22"/>
+    </row>
+    <row r="391" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="22" t="s">
         <v>841</v>
       </c>
-      <c r="B391" s="23" t="s">
+      <c r="B391" s="22" t="s">
         <v>842</v>
       </c>
       <c r="C391" s="18">
         <v>42116</v>
       </c>
-      <c r="D391" s="23"/>
-    </row>
-    <row r="392" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="23" t="s">
+      <c r="D391" s="22"/>
+    </row>
+    <row r="392" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="B392" s="23" t="s">
+      <c r="B392" s="22" t="s">
         <v>844</v>
       </c>
       <c r="C392" s="18">
         <v>42116</v>
       </c>
-      <c r="D392" s="23"/>
-    </row>
-    <row r="393" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="23" t="s">
+      <c r="D392" s="22"/>
+    </row>
+    <row r="393" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="B393" s="23" t="s">
+      <c r="B393" s="22" t="s">
         <v>879</v>
       </c>
       <c r="C393" s="18">
         <v>42116</v>
       </c>
-      <c r="D393" s="23"/>
-    </row>
-    <row r="394" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="23" t="s">
+      <c r="D393" s="22"/>
+    </row>
+    <row r="394" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="B394" s="23" t="s">
+      <c r="B394" s="22" t="s">
         <v>847</v>
       </c>
       <c r="C394" s="18">
         <v>42116</v>
       </c>
-      <c r="D394" s="23"/>
-    </row>
-    <row r="395" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="23" t="s">
+      <c r="D394" s="22"/>
+    </row>
+    <row r="395" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="B395" s="23" t="s">
+      <c r="B395" s="22" t="s">
         <v>849</v>
       </c>
       <c r="C395" s="18">
         <v>42116</v>
       </c>
-      <c r="D395" s="23"/>
-    </row>
-    <row r="396" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="23" t="s">
+      <c r="D395" s="22"/>
+    </row>
+    <row r="396" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="B396" s="23" t="s">
+      <c r="B396" s="22" t="s">
         <v>851</v>
       </c>
       <c r="C396" s="18">
         <v>42116</v>
       </c>
-      <c r="D396" s="23"/>
-    </row>
-    <row r="397" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="23" t="s">
+      <c r="D396" s="22"/>
+    </row>
+    <row r="397" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="22" t="s">
         <v>852</v>
       </c>
-      <c r="B397" s="23" t="s">
+      <c r="B397" s="22" t="s">
         <v>853</v>
       </c>
       <c r="C397" s="18">
         <v>42116</v>
       </c>
-      <c r="D397" s="23"/>
-    </row>
-    <row r="398" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="23" t="s">
+      <c r="D397" s="22"/>
+    </row>
+    <row r="398" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="22" t="s">
         <v>854</v>
       </c>
-      <c r="B398" s="23" t="s">
+      <c r="B398" s="22" t="s">
         <v>855</v>
       </c>
       <c r="C398" s="18">
         <v>42116</v>
       </c>
-      <c r="D398" s="23"/>
-    </row>
-    <row r="399" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="23" t="s">
+      <c r="D398" s="22"/>
+    </row>
+    <row r="399" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="22" t="s">
         <v>856</v>
       </c>
-      <c r="B399" s="23" t="s">
+      <c r="B399" s="22" t="s">
         <v>857</v>
       </c>
       <c r="C399" s="18">
         <v>42116</v>
       </c>
-      <c r="D399" s="23"/>
-    </row>
-    <row r="400" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="23" t="s">
+      <c r="D399" s="22"/>
+    </row>
+    <row r="400" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="22" t="s">
         <v>858</v>
       </c>
-      <c r="B400" s="23" t="s">
+      <c r="B400" s="22" t="s">
         <v>859</v>
       </c>
       <c r="C400" s="18">
         <v>42116</v>
       </c>
-      <c r="D400" s="23"/>
-    </row>
-    <row r="401" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="23" t="s">
+      <c r="D400" s="22"/>
+    </row>
+    <row r="401" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="B401" s="23" t="s">
+      <c r="B401" s="22" t="s">
         <v>861</v>
       </c>
       <c r="C401" s="18">
         <v>42116</v>
       </c>
-      <c r="D401" s="23"/>
-    </row>
-    <row r="402" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="23" t="s">
+      <c r="D401" s="22"/>
+    </row>
+    <row r="402" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="B402" s="23" t="s">
+      <c r="B402" s="22" t="s">
         <v>863</v>
       </c>
       <c r="C402" s="18">
         <v>42116</v>
       </c>
-      <c r="D402" s="23"/>
-    </row>
-    <row r="403" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="23" t="s">
+      <c r="D402" s="22"/>
+    </row>
+    <row r="403" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="22" t="s">
         <v>864</v>
       </c>
-      <c r="B403" s="23" t="s">
+      <c r="B403" s="22" t="s">
         <v>865</v>
       </c>
       <c r="C403" s="18">
         <v>42116</v>
       </c>
-      <c r="D403" s="23"/>
-    </row>
-    <row r="404" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="23" t="s">
+      <c r="D403" s="22"/>
+    </row>
+    <row r="404" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="22" t="s">
         <v>866</v>
       </c>
-      <c r="B404" s="23" t="s">
+      <c r="B404" s="22" t="s">
         <v>867</v>
       </c>
       <c r="C404" s="18">
         <v>42116</v>
       </c>
-      <c r="D404" s="23"/>
-    </row>
-    <row r="405" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="23" t="s">
+      <c r="D404" s="22"/>
+    </row>
+    <row r="405" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="22" t="s">
         <v>868</v>
       </c>
-      <c r="B405" s="23" t="s">
+      <c r="B405" s="22" t="s">
         <v>869</v>
       </c>
       <c r="C405" s="18">
         <v>42116</v>
       </c>
-      <c r="D405" s="23"/>
-    </row>
-    <row r="406" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="23" t="s">
+      <c r="D405" s="22"/>
+    </row>
+    <row r="406" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="22" t="s">
         <v>870</v>
       </c>
-      <c r="B406" s="23" t="s">
+      <c r="B406" s="22" t="s">
         <v>871</v>
       </c>
       <c r="C406" s="18">
         <v>42116</v>
       </c>
-      <c r="D406" s="23"/>
-    </row>
-    <row r="407" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="23" t="s">
+      <c r="D406" s="22"/>
+    </row>
+    <row r="407" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="22" t="s">
         <v>872</v>
       </c>
-      <c r="B407" s="23" t="s">
+      <c r="B407" s="22" t="s">
         <v>873</v>
       </c>
       <c r="C407" s="18">
         <v>42116</v>
       </c>
-      <c r="D407" s="23"/>
-    </row>
-    <row r="408" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="23" t="s">
+      <c r="D407" s="22"/>
+    </row>
+    <row r="408" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="22" t="s">
         <v>874</v>
       </c>
-      <c r="B408" s="23" t="s">
+      <c r="B408" s="22" t="s">
         <v>875</v>
       </c>
       <c r="C408" s="18">
         <v>42116</v>
       </c>
-      <c r="D408" s="23"/>
-    </row>
-    <row r="409" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="23" t="s">
+      <c r="D408" s="22"/>
+    </row>
+    <row r="409" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="B409" s="23" t="s">
+      <c r="B409" s="22" t="s">
         <v>877</v>
       </c>
       <c r="C409" s="18">
         <v>42116</v>
       </c>
-      <c r="D409" s="23"/>
-    </row>
-    <row r="410" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="23" t="s">
+      <c r="D409" s="22"/>
+    </row>
+    <row r="410" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="22" t="s">
         <v>878</v>
       </c>
-      <c r="B410" s="23" t="s">
+      <c r="B410" s="22" t="s">
         <v>886</v>
       </c>
       <c r="C410" s="18">
         <v>42116</v>
       </c>
-      <c r="D410" s="23"/>
-    </row>
-    <row r="411" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="23" t="s">
+      <c r="D410" s="22"/>
+    </row>
+    <row r="411" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="22" t="s">
         <v>880</v>
       </c>
-      <c r="B411" s="23" t="s">
+      <c r="B411" s="22" t="s">
         <v>881</v>
       </c>
       <c r="C411" s="18">
         <v>42116</v>
       </c>
-      <c r="D411" s="23"/>
-    </row>
-    <row r="412" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="23" t="s">
+      <c r="D411" s="22"/>
+    </row>
+    <row r="412" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="22" t="s">
         <v>882</v>
       </c>
-      <c r="B412" s="23" t="s">
+      <c r="B412" s="22" t="s">
         <v>883</v>
       </c>
       <c r="C412" s="18">
         <v>42116</v>
       </c>
-      <c r="D412" s="23"/>
-    </row>
-    <row r="413" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="23" t="s">
+      <c r="D412" s="22"/>
+    </row>
+    <row r="413" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="22" t="s">
         <v>884</v>
       </c>
-      <c r="B413" s="23" t="s">
+      <c r="B413" s="22" t="s">
         <v>885</v>
       </c>
       <c r="C413" s="18">
         <v>42116</v>
       </c>
-      <c r="D413" s="23"/>
-    </row>
-    <row r="414" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="23" t="s">
+      <c r="D413" s="22"/>
+    </row>
+    <row r="414" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="22" t="s">
         <v>888</v>
       </c>
-      <c r="B414" s="23" t="s">
+      <c r="B414" s="22" t="s">
         <v>887</v>
       </c>
       <c r="C414" s="18">
         <v>42116</v>
       </c>
-      <c r="D414" s="23"/>
+      <c r="D414" s="22"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="23" t="s">
+      <c r="A415" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="B415" s="24" t="s">
+      <c r="B415" s="23" t="s">
         <v>889</v>
       </c>
       <c r="C415" s="19">
         <v>42117</v>
       </c>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" s="21"/>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="26" t="s">
+        <v>894</v>
+      </c>
+      <c r="B416" s="24" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="B417" s="24" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="27" t="s">
+        <v>896</v>
+      </c>
+      <c r="B418" s="25" t="s">
+        <v>893</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -2716,7 +2716,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2861,13 +2861,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3258,7 +3251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3286,17 +3279,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3646,7 +3632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B415" sqref="B415"/>
+      <selection pane="bottomLeft" activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8627,40 +8613,53 @@
       </c>
       <c r="D414" s="22"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="B415" s="23" t="s">
+      <c r="B415" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="C415" s="19">
+      <c r="C415" s="18">
         <v>42117</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="26" t="s">
+      <c r="D415" s="22"/>
+    </row>
+    <row r="416" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="B416" s="24" t="s">
+      <c r="B416" s="22" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="26" t="s">
+      <c r="C416" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D416" s="22"/>
+    </row>
+    <row r="417" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="B417" s="24" t="s">
+      <c r="B417" s="22" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="27" t="s">
+      <c r="C417" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D417" s="22"/>
+    </row>
+    <row r="418" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="24" t="s">
         <v>896</v>
       </c>
-      <c r="B418" s="25" t="s">
+      <c r="B418" s="23" t="s">
         <v>893</v>
       </c>
+      <c r="C418" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D418" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="919">
   <si>
     <t>OLD URL</t>
   </si>
@@ -2707,6 +2707,72 @@
   </si>
   <si>
     <t>/cancertopics/research/clinical-trials-offer-path-to-better-care-for-ayas</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/cotesting</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/follow-up</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/hpv</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/hpv-vaccine</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/resources</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/screening-guidelines</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/screening-tests</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/test-results</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/cervical/understanding-cervical-changes</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino/pautas</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino/prueba-conjunta</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino/pruebas-deteccion</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino/recursos</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino/resultados-pruebas</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino/seguimiento</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino/tratamiento</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino/vacuna-vph</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino/vph</t>
+  </si>
+  <si>
+    <t>/espanol/tipos/cuello-uterino/significado-cambios-en-cuello-uterino</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino</t>
   </si>
 </sst>
 </file>
@@ -3628,11 +3694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A419" sqref="A419"/>
+      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8660,6 +8726,246 @@
         <v>42117</v>
       </c>
       <c r="D418" s="22"/>
+    </row>
+    <row r="419" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="B419" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C419" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D419" s="22"/>
+    </row>
+    <row r="420" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="B420" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C420" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D420" s="22"/>
+    </row>
+    <row r="421" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="B421" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C421" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D421" s="22"/>
+    </row>
+    <row r="422" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="B422" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C422" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D422" s="22"/>
+    </row>
+    <row r="423" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="B423" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C423" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D423" s="22"/>
+    </row>
+    <row r="424" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="B424" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C424" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D424" s="22"/>
+    </row>
+    <row r="425" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="B425" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C425" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D425" s="22"/>
+    </row>
+    <row r="426" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="B426" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C426" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D426" s="22"/>
+    </row>
+    <row r="427" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="B427" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C427" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D427" s="22"/>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="B428" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="C428" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D428" s="22"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>908</v>
+      </c>
+      <c r="B429" t="s">
+        <v>917</v>
+      </c>
+      <c r="C429" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D429" s="22"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>909</v>
+      </c>
+      <c r="B430" t="s">
+        <v>917</v>
+      </c>
+      <c r="C430" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D430" s="22"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>910</v>
+      </c>
+      <c r="B431" t="s">
+        <v>917</v>
+      </c>
+      <c r="C431" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D431" s="22"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>911</v>
+      </c>
+      <c r="B432" t="s">
+        <v>917</v>
+      </c>
+      <c r="C432" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D432" s="22"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>912</v>
+      </c>
+      <c r="B433" t="s">
+        <v>917</v>
+      </c>
+      <c r="C433" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D433" s="22"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>913</v>
+      </c>
+      <c r="B434" t="s">
+        <v>917</v>
+      </c>
+      <c r="C434" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D434" s="22"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>914</v>
+      </c>
+      <c r="B435" t="s">
+        <v>917</v>
+      </c>
+      <c r="C435" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D435" s="22"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>915</v>
+      </c>
+      <c r="B436" t="s">
+        <v>917</v>
+      </c>
+      <c r="C436" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D436" s="22"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>916</v>
+      </c>
+      <c r="B437" t="s">
+        <v>917</v>
+      </c>
+      <c r="C437" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D437" s="22"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>918</v>
+      </c>
+      <c r="B438" t="s">
+        <v>917</v>
+      </c>
+      <c r="C438" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D438" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1076">
   <si>
     <t>OLD URL</t>
   </si>
@@ -2773,6 +2773,477 @@
   </si>
   <si>
     <t>/espanol/cancer/deteccion/significado-cambios-en-cuello-uterino</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2007/hpv-vaccine0707</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/cervical/research/cervarix-prevents-hpv</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2007/preop-chemo-gastric0707</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/stomach/research/preop-chemo</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2008/zoledronic-acid0608</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/zeledronic-acid-improves-treatment</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2009/gemcitabine_cervical0609</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/cervical/research/gemcitabine-improves-survival</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2009/nilotinib-cml1209</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/leukemia/research/nilotinib-cml</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2010/combochemo-NSCLC0610</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lung/research/combo-chemo-helps-elderly</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2010/end-of-life-video0110</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/brain/research/video-helps-end-of-life-discussions</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2010/neoadjuvant-trastuzumab0310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/cancertopics/types/breast/research/trastuzumab-locally-advanced-inflammatory </t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2010/zoledronic-acid-breast1210</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/no-dfs-zoledronic-acid</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/abiraterone-prostate0711</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/prostate/research/abiraterone</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/ALND-SLNB0411</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/fewer-lymph-nodes</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/aspirin-prevention2011</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/research/aspirin-prevention</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/bevacizumab-ovarian0611</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/ovarian/research/bevacizumab-combo-chemo</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/bevacizumab-risk2011</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/research/bevacizumab-severe-side-effects</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/BIG1981211</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/letrozole-prevents-recurrence</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/BOLERO2_1211</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/everolimus-plus-exemestane</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/CAPP1211</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/research/aspirin-reduces-risk</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/CLEOPATRA1211</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/two-drugs-one-target</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/COIN0811</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/research/cetuximab-chemo-no-benefit</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/denosumab-fractures2011</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/prostate/research/denosumab-bone-fractures</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/denosumab-solid-myeloma0611</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/denosumab-prevent-bone-problems</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/EBCTCG1211</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/radiation-improves-survival</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/eribulin0611</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/eribulin-improves-survival</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/exemestane-ASCO0611</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/exemestane-reduces-risk</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/Hodgkin_ABVD1211</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lymphoma/research/late-effects-radiotherapy</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/melanoma-ASCO0611</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/skin/research/vemurafenib-ipilimumab</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/occult_mets0411</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/occult-mets</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/ovarian-screening-PLCO0711</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/ovarian/research/screening-trans-vaginal-ultrasound</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/pancreatic-chemo0611</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/pancreatic/research/folfirinox</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/panNET-Therapy0411</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/pancreatic/research/neuroendocrine-sunitinib-everolimus</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/PLCO1211</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lung/research/screening-x-ray</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/prevention-benefit-tool0611</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/benefit-risk-tool</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/psa-velocity2011</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/prostate/research/psa-velocity-detection</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/quadHPV-vaccine-men2011</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/anal/research/quad-hpv-vaccine-men</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/radiation-chemo-HL0511</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lymphoma/research/radiation-chemo-hodgkin</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/smaller-margin1211</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/skin/research/smaller-margins</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/tamoxifen0611</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/tamoxifen-15-year-benefits</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/tamoxifen1111</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/tamoxifen-long-lasting-benefit</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/trastuzumab0511</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/trastuzumab-after-chemo</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/trastuzumab-nonanthracycline1111</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/less-heart-toxic-regimen</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/vandetanib1211</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/thyroid/research/vandetanib</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/WHI0511</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/ert-benefits-risks-age</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/bendamustine0612</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lymphoma/research/bendamustine-rituximab</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/chemoradiation-bladder0512</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/bladder/research/chemoradiation</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/EMILIA0612</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/t-dm1</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/exemestane0212</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/exemestane-prolongs-survival</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/induction-failure-ALL0612</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/leukemia/research/more-chemo-helps-all</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/national-polyp-study0312</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/research/colonoscopy-reduces-deaths</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/neoadjuvant-esophageal0612</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/esophageal/research/preop-treatment-improves-survival</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/oligodendroglioma0212</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/brain/research/predict-treatment-benefit</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/oligodendroglioma1112</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/brain/research/chemotherapy-improves-survival</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/PD-1-immunotherapy0612</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lung/research/pd-1-immunotherapy</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/PLCO-prostate-screening0112</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/prostate/research/screening-psa-dre</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/ponatinib1212</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/leukemia/research/ponatinib-cml</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/prostate-observation0912</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/prostate/research/observation</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/radioiodine-thyroid0612</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/thyroid/research/low-dose-radiation</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/reduced-side-effects1012</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/menopause-symtoms-reduced</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/regorafenib-GIST1212</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/soft-tissue-sarcoma/research/regorafenib-gist</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/sigmoidoscopy0612</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/research/screening-sigmoidoscopy</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/vismodegib-BCC0612</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/skin/research/vismodegib-basal-cell</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2013/axillarydissection0413</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/micromets-sentinel-nodes</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2013/crizotinib-NSCLC0613</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lung/research/crizotinib</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2013/electrocautery-anal-precancer0413</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/anal/research/electrocautery</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2013/pancreatic-1113</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/pancreatic/research/nab-paclitaxel-gemcitabine</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2013/PCPT-finasteride</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/prostate/research/finasteride-reduces-low-grade</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2013/pomalidomide-multiple-myeloma</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/multiple-myeloma/research/pomalidomide-dexamethasone</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2013/radium-223-ALSYMPCA</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/prostate/research/radium-223-improves-survival</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2013/tamoxifen-10yrs0313</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/10-years-tamoxifen</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2014/enzalutamide-prostate0614</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/prostate/research/enzalutamide-metastatic</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2014/ibrutinib-CLL0614</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/leukemia/research/ibrutinib-cll</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2014/idelalisib-CLL0314</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/leukemia/research/idelalisib-rituximab-cll</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2014/obinutuzumab-CLL0214</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/leukemia/research/obinutuzumab-chlorambucil-cll</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2014/rituximab-retreatment-follicular-lymphoma1014</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lymphoma/research/rituximab-retreatment-follicular</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2014/sorafenib-thyroid0514</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/thyroid/research/sorafenib</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2015/carfilzomib-multiple-myeloma0115</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/multiple-myeloma/research/carfilzomib-lenalidomide-dexamethasone</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2015/dabrafenib-trametinib-melanoma0115</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/skin/research/dabrafenib-trametinib</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2015/gardasil9-0215</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/cervical/research/gardasil9-prevents-more-HPV-types</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2015/nivolumab-melanoma0115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/cancertopics/types/skin/research/nivolumab </t>
+  </si>
+  <si>
+    <t>Dion is moving this, wait for his word to push this live</t>
   </si>
 </sst>
 </file>
@@ -2782,7 +3253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2931,6 +3402,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3317,7 +3793,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3349,6 +3825,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3694,11 +4184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D438"/>
+  <dimension ref="A1:D516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C475" sqref="C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3706,7 +4196,7 @@
     <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8966,6 +9456,1098 @@
         <v>42117</v>
       </c>
       <c r="D438" s="22"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="B439" s="25" t="s">
+        <v>920</v>
+      </c>
+      <c r="C439" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="26" t="s">
+        <v>921</v>
+      </c>
+      <c r="B440" s="26" t="s">
+        <v>922</v>
+      </c>
+      <c r="C440" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="B441" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="C441" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="27" t="s">
+        <v>925</v>
+      </c>
+      <c r="B442" s="27" t="s">
+        <v>926</v>
+      </c>
+      <c r="C442" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="28" t="s">
+        <v>927</v>
+      </c>
+      <c r="B443" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="C443" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="B444" s="29" t="s">
+        <v>930</v>
+      </c>
+      <c r="C444" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="30" t="s">
+        <v>931</v>
+      </c>
+      <c r="B445" s="30" t="s">
+        <v>932</v>
+      </c>
+      <c r="C445" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="B446" s="25" t="s">
+        <v>934</v>
+      </c>
+      <c r="C446" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="B447" s="27" t="s">
+        <v>936</v>
+      </c>
+      <c r="C447" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="28" t="s">
+        <v>937</v>
+      </c>
+      <c r="B448" s="28" t="s">
+        <v>938</v>
+      </c>
+      <c r="C448" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="B449" s="27" t="s">
+        <v>940</v>
+      </c>
+      <c r="C449" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="29" t="s">
+        <v>941</v>
+      </c>
+      <c r="B450" s="29" t="s">
+        <v>942</v>
+      </c>
+      <c r="C450" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="29" t="s">
+        <v>943</v>
+      </c>
+      <c r="B451" s="29" t="s">
+        <v>944</v>
+      </c>
+      <c r="C451" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="27" t="s">
+        <v>945</v>
+      </c>
+      <c r="B452" s="27" t="s">
+        <v>946</v>
+      </c>
+      <c r="C452" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="B453" s="27" t="s">
+        <v>948</v>
+      </c>
+      <c r="C453" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="27" t="s">
+        <v>949</v>
+      </c>
+      <c r="B454" s="27" t="s">
+        <v>950</v>
+      </c>
+      <c r="C454" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="B455" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="C455" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="27" t="s">
+        <v>953</v>
+      </c>
+      <c r="B456" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="C456" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="27" t="s">
+        <v>955</v>
+      </c>
+      <c r="B457" s="27" t="s">
+        <v>956</v>
+      </c>
+      <c r="C457" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="B458" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="C458" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="B459" s="26" t="s">
+        <v>960</v>
+      </c>
+      <c r="C459" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="B460" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="C460" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="B461" s="27" t="s">
+        <v>964</v>
+      </c>
+      <c r="C461" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="27" t="s">
+        <v>965</v>
+      </c>
+      <c r="B462" s="27" t="s">
+        <v>966</v>
+      </c>
+      <c r="C462" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="29" t="s">
+        <v>967</v>
+      </c>
+      <c r="B463" s="29" t="s">
+        <v>968</v>
+      </c>
+      <c r="C463" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="27" t="s">
+        <v>969</v>
+      </c>
+      <c r="B464" s="27" t="s">
+        <v>970</v>
+      </c>
+      <c r="C464" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="27" t="s">
+        <v>971</v>
+      </c>
+      <c r="B465" s="27" t="s">
+        <v>972</v>
+      </c>
+      <c r="C465" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="29" t="s">
+        <v>973</v>
+      </c>
+      <c r="B466" s="29" t="s">
+        <v>974</v>
+      </c>
+      <c r="C466" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="29" t="s">
+        <v>975</v>
+      </c>
+      <c r="B467" s="29" t="s">
+        <v>976</v>
+      </c>
+      <c r="C467" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="29" t="s">
+        <v>977</v>
+      </c>
+      <c r="B468" s="29" t="s">
+        <v>978</v>
+      </c>
+      <c r="C468" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="29" t="s">
+        <v>979</v>
+      </c>
+      <c r="B469" s="29" t="s">
+        <v>980</v>
+      </c>
+      <c r="C469" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="B470" s="27" t="s">
+        <v>982</v>
+      </c>
+      <c r="C470" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="28" t="s">
+        <v>983</v>
+      </c>
+      <c r="B471" s="28" t="s">
+        <v>984</v>
+      </c>
+      <c r="C471" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="26" t="s">
+        <v>985</v>
+      </c>
+      <c r="B472" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="C472" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="26" t="s">
+        <v>987</v>
+      </c>
+      <c r="B473" s="26" t="s">
+        <v>988</v>
+      </c>
+      <c r="C473" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="25" t="s">
+        <v>989</v>
+      </c>
+      <c r="B474" s="25" t="s">
+        <v>990</v>
+      </c>
+      <c r="C474" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="25" t="s">
+        <v>991</v>
+      </c>
+      <c r="B475" s="25" t="s">
+        <v>992</v>
+      </c>
+      <c r="C475" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="B476" s="25" t="s">
+        <v>994</v>
+      </c>
+      <c r="C476" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="25" t="s">
+        <v>995</v>
+      </c>
+      <c r="B477" s="25" t="s">
+        <v>996</v>
+      </c>
+      <c r="C477" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="B478" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="C478" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="30" t="s">
+        <v>999</v>
+      </c>
+      <c r="B479" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C479" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B480" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C480" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="26" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B481" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C481" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="26" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B482" s="26" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C482" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="26" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B483" s="26" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C483" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B484" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C484" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="26" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B485" s="26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C485" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="26" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B486" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C486" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="26" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B487" s="26" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C487" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="26" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B488" s="26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C488" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="26" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B489" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C489" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="26" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B490" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C490" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="26" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B491" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C491" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B492" s="26" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C492" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="29" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B493" s="29" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C493" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="29" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B494" s="29" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C494" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="27" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B495" s="27" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C495" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="27" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B496" s="27" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C496" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="29" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B497" s="29" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C497" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="29" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B498" s="29" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C498" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="27" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B499" s="27" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C499" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="29" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B500" s="29" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C500" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="26" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B501" s="26" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C501" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="29" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B502" s="29" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C502" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="29" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B503" s="29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C503" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B504" s="29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C504" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="29" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B505" s="29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C505" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="27" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B506" s="27" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C506" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="29" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B507" s="29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C507" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="29" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B508" s="29" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C508" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B509" s="29" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C509" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="29" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B510" s="29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C510" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B511" s="29" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C511" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="29" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B512" s="29" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C512" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="29" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B513" s="29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C513" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="27" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B514" s="27" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C514" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="29" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B515" s="29" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C515" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="27" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B516" s="27" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C516" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1075</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1076">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4187,8 +4187,8 @@
   <dimension ref="A1:D516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C475" sqref="C475"/>
+      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9338,10 +9338,10 @@
       <c r="D428" s="22"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="A429" s="24" t="s">
         <v>908</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C429" s="18">
@@ -9350,10 +9350,10 @@
       <c r="D429" s="22"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="A430" s="24" t="s">
         <v>909</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C430" s="18">
@@ -9362,10 +9362,10 @@
       <c r="D430" s="22"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="A431" s="24" t="s">
         <v>910</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C431" s="18">
@@ -9374,10 +9374,10 @@
       <c r="D431" s="22"/>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="A432" s="24" t="s">
         <v>911</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C432" s="18">
@@ -9386,10 +9386,10 @@
       <c r="D432" s="22"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="A433" s="24" t="s">
         <v>912</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C433" s="18">
@@ -9398,10 +9398,10 @@
       <c r="D433" s="22"/>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+      <c r="A434" s="24" t="s">
         <v>913</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C434" s="18">
@@ -9410,10 +9410,10 @@
       <c r="D434" s="22"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="A435" s="24" t="s">
         <v>914</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C435" s="18">
@@ -9422,10 +9422,10 @@
       <c r="D435" s="22"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="A436" s="24" t="s">
         <v>915</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C436" s="18">
@@ -9434,10 +9434,10 @@
       <c r="D436" s="22"/>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="A437" s="24" t="s">
         <v>916</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C437" s="18">
@@ -9446,10 +9446,10 @@
       <c r="D437" s="22"/>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="A438" s="24" t="s">
         <v>918</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="23" t="s">
         <v>917</v>
       </c>
       <c r="C438" s="18">
@@ -9458,130 +9458,112 @@
       <c r="D438" s="22"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="25" t="s">
+      <c r="A439" s="24" t="s">
         <v>919</v>
       </c>
-      <c r="B439" s="25" t="s">
+      <c r="B439" s="23" t="s">
         <v>920</v>
       </c>
       <c r="C439" s="18">
         <v>42117</v>
       </c>
-      <c r="D439" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D439" s="22"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="26" t="s">
+      <c r="A440" s="24" t="s">
         <v>921</v>
       </c>
-      <c r="B440" s="26" t="s">
+      <c r="B440" s="23" t="s">
         <v>922</v>
       </c>
       <c r="C440" s="18">
         <v>42117</v>
       </c>
-      <c r="D440" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D440" s="22"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="25" t="s">
+      <c r="A441" s="24" t="s">
         <v>923</v>
       </c>
-      <c r="B441" s="25" t="s">
+      <c r="B441" s="23" t="s">
         <v>924</v>
       </c>
       <c r="C441" s="18">
         <v>42117</v>
       </c>
-      <c r="D441" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D441" s="22"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="27" t="s">
+      <c r="A442" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="B442" s="27" t="s">
+      <c r="B442" s="23" t="s">
         <v>926</v>
       </c>
       <c r="C442" s="18">
         <v>42117</v>
       </c>
-      <c r="D442" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D442" s="22"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="28" t="s">
+      <c r="A443" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="B443" s="28" t="s">
+      <c r="B443" s="23" t="s">
         <v>928</v>
       </c>
       <c r="C443" s="18">
         <v>42117</v>
       </c>
-      <c r="D443" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D443" s="22"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="29" t="s">
+      <c r="A444" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="B444" s="29" t="s">
+      <c r="B444" s="23" t="s">
         <v>930</v>
       </c>
       <c r="C444" s="18">
         <v>42117</v>
       </c>
-      <c r="D444" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D444" s="22"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="30" t="s">
+      <c r="A445" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="B445" s="30" t="s">
+      <c r="B445" s="23" t="s">
         <v>932</v>
       </c>
       <c r="C445" s="18">
         <v>42117</v>
       </c>
-      <c r="D445" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D445" s="22"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="25" t="s">
+      <c r="A446" s="24" t="s">
         <v>933</v>
       </c>
-      <c r="B446" s="25" t="s">
+      <c r="B446" s="23" t="s">
         <v>934</v>
       </c>
       <c r="C446" s="18">
         <v>42117</v>
       </c>
-      <c r="D446" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D446" s="22"/>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="27" t="s">
+      <c r="A447" s="24" t="s">
         <v>935</v>
       </c>
-      <c r="B447" s="27" t="s">
+      <c r="B447" s="23" t="s">
         <v>936</v>
       </c>
       <c r="C447" s="18">
         <v>42117</v>
       </c>
-      <c r="D447" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D447" s="22"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="28" t="s">

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1076">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3168,9 +3168,6 @@
     <t>/clinicaltrials/results/summary/2013/pomalidomide-multiple-myeloma</t>
   </si>
   <si>
-    <t>/cancertopics/types/multiple-myeloma/research/pomalidomide-dexamethasone</t>
-  </si>
-  <si>
     <t>/clinicaltrials/results/summary/2013/radium-223-ALSYMPCA</t>
   </si>
   <si>
@@ -3222,9 +3219,6 @@
     <t>/clinicaltrials/results/summary/2015/carfilzomib-multiple-myeloma0115</t>
   </si>
   <si>
-    <t>/cancertopics/types/multiple-myeloma/research/carfilzomib-lenalidomide-dexamethasone</t>
-  </si>
-  <si>
     <t>/clinicaltrials/results/summary/2015/dabrafenib-trametinib-melanoma0115</t>
   </si>
   <si>
@@ -3244,6 +3238,12 @@
   </si>
   <si>
     <t>Dion is moving this, wait for his word to push this live</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/myeloma/research/pomalidomide-dexamethasone</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/myeloma/research/carfilzomib-lenalidomide-dexamethasone</t>
   </si>
 </sst>
 </file>
@@ -3253,7 +3253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3408,8 +3408,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3598,6 +3604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3793,7 +3805,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3832,13 +3844,11 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4187,8 +4197,8 @@
   <dimension ref="A1:D516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C448" sqref="C448"/>
+      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B514" sqref="B514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9566,452 +9576,388 @@
       <c r="D447" s="22"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="28" t="s">
+      <c r="A448" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="B448" s="28" t="s">
+      <c r="B448" s="23" t="s">
         <v>938</v>
       </c>
       <c r="C448" s="18">
         <v>42117</v>
       </c>
-      <c r="D448" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D448" s="22"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="27" t="s">
+      <c r="A449" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="B449" s="27" t="s">
+      <c r="B449" s="23" t="s">
         <v>940</v>
       </c>
       <c r="C449" s="18">
         <v>42117</v>
       </c>
-      <c r="D449" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D449" s="22"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="29" t="s">
+      <c r="A450" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="B450" s="29" t="s">
+      <c r="B450" s="23" t="s">
         <v>942</v>
       </c>
       <c r="C450" s="18">
         <v>42117</v>
       </c>
-      <c r="D450" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D450" s="22"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="29" t="s">
+      <c r="A451" s="24" t="s">
         <v>943</v>
       </c>
-      <c r="B451" s="29" t="s">
+      <c r="B451" s="23" t="s">
         <v>944</v>
       </c>
       <c r="C451" s="18">
         <v>42117</v>
       </c>
-      <c r="D451" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D451" s="22"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" s="27" t="s">
+      <c r="A452" s="24" t="s">
         <v>945</v>
       </c>
-      <c r="B452" s="27" t="s">
+      <c r="B452" s="23" t="s">
         <v>946</v>
       </c>
       <c r="C452" s="18">
         <v>42117</v>
       </c>
-      <c r="D452" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D452" s="22"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="27" t="s">
+      <c r="A453" s="24" t="s">
         <v>947</v>
       </c>
-      <c r="B453" s="27" t="s">
+      <c r="B453" s="23" t="s">
         <v>948</v>
       </c>
       <c r="C453" s="18">
         <v>42117</v>
       </c>
-      <c r="D453" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D453" s="22"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="27" t="s">
+      <c r="A454" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="B454" s="27" t="s">
+      <c r="B454" s="23" t="s">
         <v>950</v>
       </c>
       <c r="C454" s="18">
         <v>42117</v>
       </c>
-      <c r="D454" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D454" s="22"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" s="27" t="s">
+      <c r="A455" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="B455" s="27" t="s">
+      <c r="B455" s="23" t="s">
         <v>952</v>
       </c>
       <c r="C455" s="18">
         <v>42117</v>
       </c>
-      <c r="D455" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D455" s="22"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" s="27" t="s">
+      <c r="A456" s="24" t="s">
         <v>953</v>
       </c>
-      <c r="B456" s="27" t="s">
+      <c r="B456" s="23" t="s">
         <v>954</v>
       </c>
       <c r="C456" s="18">
         <v>42117</v>
       </c>
-      <c r="D456" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D456" s="22"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="27" t="s">
+      <c r="A457" s="24" t="s">
         <v>955</v>
       </c>
-      <c r="B457" s="27" t="s">
+      <c r="B457" s="23" t="s">
         <v>956</v>
       </c>
       <c r="C457" s="18">
         <v>42117</v>
       </c>
-      <c r="D457" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D457" s="22"/>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="28" t="s">
+      <c r="A458" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="B458" s="28" t="s">
+      <c r="B458" s="23" t="s">
         <v>958</v>
       </c>
       <c r="C458" s="18">
         <v>42117</v>
       </c>
-      <c r="D458" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D458" s="22"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="26" t="s">
+      <c r="A459" s="24" t="s">
         <v>959</v>
       </c>
-      <c r="B459" s="26" t="s">
+      <c r="B459" s="23" t="s">
         <v>960</v>
       </c>
       <c r="C459" s="18">
         <v>42117</v>
       </c>
-      <c r="D459" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D459" s="22"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="27" t="s">
+      <c r="A460" s="24" t="s">
         <v>961</v>
       </c>
-      <c r="B460" s="27" t="s">
+      <c r="B460" s="23" t="s">
         <v>962</v>
       </c>
       <c r="C460" s="18">
         <v>42117</v>
       </c>
-      <c r="D460" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D460" s="22"/>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="27" t="s">
+      <c r="A461" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="B461" s="27" t="s">
+      <c r="B461" s="23" t="s">
         <v>964</v>
       </c>
       <c r="C461" s="18">
         <v>42117</v>
       </c>
-      <c r="D461" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D461" s="22"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="27" t="s">
+      <c r="A462" s="24" t="s">
         <v>965</v>
       </c>
-      <c r="B462" s="27" t="s">
+      <c r="B462" s="23" t="s">
         <v>966</v>
       </c>
       <c r="C462" s="18">
         <v>42117</v>
       </c>
-      <c r="D462" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D462" s="22"/>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="29" t="s">
+      <c r="A463" s="24" t="s">
         <v>967</v>
       </c>
-      <c r="B463" s="29" t="s">
+      <c r="B463" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C463" s="18">
         <v>42117</v>
       </c>
-      <c r="D463" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D463" s="22"/>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="27" t="s">
+      <c r="A464" s="24" t="s">
         <v>969</v>
       </c>
-      <c r="B464" s="27" t="s">
+      <c r="B464" s="23" t="s">
         <v>970</v>
       </c>
       <c r="C464" s="18">
         <v>42117</v>
       </c>
-      <c r="D464" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D464" s="22"/>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="27" t="s">
+      <c r="A465" s="24" t="s">
         <v>971</v>
       </c>
-      <c r="B465" s="27" t="s">
+      <c r="B465" s="23" t="s">
         <v>972</v>
       </c>
       <c r="C465" s="18">
         <v>42117</v>
       </c>
-      <c r="D465" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D465" s="22"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="29" t="s">
+      <c r="A466" s="24" t="s">
         <v>973</v>
       </c>
-      <c r="B466" s="29" t="s">
+      <c r="B466" s="23" t="s">
         <v>974</v>
       </c>
       <c r="C466" s="18">
         <v>42117</v>
       </c>
-      <c r="D466" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D466" s="22"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="29" t="s">
+      <c r="A467" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="B467" s="29" t="s">
+      <c r="B467" s="23" t="s">
         <v>976</v>
       </c>
       <c r="C467" s="18">
         <v>42117</v>
       </c>
-      <c r="D467" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D467" s="22"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" s="29" t="s">
+      <c r="A468" s="24" t="s">
         <v>977</v>
       </c>
-      <c r="B468" s="29" t="s">
+      <c r="B468" s="23" t="s">
         <v>978</v>
       </c>
       <c r="C468" s="18">
         <v>42117</v>
       </c>
-      <c r="D468" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D468" s="22"/>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" s="29" t="s">
+      <c r="A469" s="24" t="s">
         <v>979</v>
       </c>
-      <c r="B469" s="29" t="s">
+      <c r="B469" s="23" t="s">
         <v>980</v>
       </c>
       <c r="C469" s="18">
         <v>42117</v>
       </c>
-      <c r="D469" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D469" s="22"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="27" t="s">
+      <c r="A470" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="B470" s="27" t="s">
+      <c r="B470" s="23" t="s">
         <v>982</v>
       </c>
       <c r="C470" s="18">
         <v>42117</v>
       </c>
-      <c r="D470" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D470" s="22"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" s="28" t="s">
+      <c r="A471" s="24" t="s">
         <v>983</v>
       </c>
-      <c r="B471" s="28" t="s">
+      <c r="B471" s="23" t="s">
         <v>984</v>
       </c>
       <c r="C471" s="18">
         <v>42117</v>
       </c>
-      <c r="D471" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D471" s="22"/>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472" s="26" t="s">
+      <c r="A472" s="24" t="s">
         <v>985</v>
       </c>
-      <c r="B472" s="26" t="s">
+      <c r="B472" s="23" t="s">
         <v>986</v>
       </c>
       <c r="C472" s="18">
         <v>42117</v>
       </c>
-      <c r="D472" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D472" s="22"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="26" t="s">
+      <c r="A473" s="24" t="s">
         <v>987</v>
       </c>
-      <c r="B473" s="26" t="s">
+      <c r="B473" s="23" t="s">
         <v>988</v>
       </c>
       <c r="C473" s="18">
         <v>42117</v>
       </c>
-      <c r="D473" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D473" s="22"/>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="25" t="s">
+      <c r="A474" s="24" t="s">
         <v>989</v>
       </c>
-      <c r="B474" s="25" t="s">
+      <c r="B474" s="23" t="s">
         <v>990</v>
       </c>
       <c r="C474" s="18">
         <v>42117</v>
       </c>
-      <c r="D474" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D474" s="22"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" s="25" t="s">
+      <c r="A475" s="24" t="s">
         <v>991</v>
       </c>
-      <c r="B475" s="25" t="s">
+      <c r="B475" s="23" t="s">
         <v>992</v>
       </c>
       <c r="C475" s="18">
         <v>42117</v>
       </c>
-      <c r="D475" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D475" s="22"/>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="25" t="s">
+      <c r="A476" s="24" t="s">
         <v>993</v>
       </c>
-      <c r="B476" s="25" t="s">
+      <c r="B476" s="23" t="s">
         <v>994</v>
       </c>
       <c r="C476" s="18">
         <v>42117</v>
       </c>
-      <c r="D476" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D476" s="22"/>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="25" t="s">
+      <c r="A477" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="B477" s="25" t="s">
+      <c r="B477" s="23" t="s">
         <v>996</v>
       </c>
       <c r="C477" s="18">
         <v>42117</v>
       </c>
-      <c r="D477" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D477" s="22"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="25" t="s">
+      <c r="A478" s="24" t="s">
         <v>997</v>
       </c>
-      <c r="B478" s="25" t="s">
+      <c r="B478" s="23" t="s">
         <v>998</v>
       </c>
       <c r="C478" s="18">
         <v>42117</v>
       </c>
-      <c r="D478" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D478" s="22"/>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="30" t="s">
+      <c r="A479" s="24" t="s">
         <v>999</v>
       </c>
-      <c r="B479" s="30" t="s">
+      <c r="B479" s="23" t="s">
         <v>1000</v>
       </c>
       <c r="C479" s="18">
         <v>42117</v>
       </c>
-      <c r="D479" t="s">
-        <v>1075</v>
-      </c>
+      <c r="D479" s="22"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="25" t="s">
@@ -10024,7 +9970,7 @@
         <v>42117</v>
       </c>
       <c r="D480" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -10038,7 +9984,7 @@
         <v>42117</v>
       </c>
       <c r="D481" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -10052,7 +9998,7 @@
         <v>42117</v>
       </c>
       <c r="D482" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -10066,7 +10012,7 @@
         <v>42117</v>
       </c>
       <c r="D483" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -10080,7 +10026,7 @@
         <v>42117</v>
       </c>
       <c r="D484" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -10094,7 +10040,7 @@
         <v>42117</v>
       </c>
       <c r="D485" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -10108,7 +10054,7 @@
         <v>42117</v>
       </c>
       <c r="D486" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -10122,7 +10068,7 @@
         <v>42117</v>
       </c>
       <c r="D487" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -10136,7 +10082,7 @@
         <v>42117</v>
       </c>
       <c r="D488" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -10150,7 +10096,7 @@
         <v>42117</v>
       </c>
       <c r="D489" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -10164,7 +10110,7 @@
         <v>42117</v>
       </c>
       <c r="D490" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -10178,7 +10124,7 @@
         <v>42117</v>
       </c>
       <c r="D491" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -10192,35 +10138,35 @@
         <v>42117</v>
       </c>
       <c r="D492" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="29" t="s">
+      <c r="A493" s="28" t="s">
         <v>1027</v>
       </c>
-      <c r="B493" s="29" t="s">
+      <c r="B493" s="28" t="s">
         <v>1028</v>
       </c>
       <c r="C493" s="18">
         <v>42117</v>
       </c>
       <c r="D493" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="29" t="s">
+      <c r="A494" s="28" t="s">
         <v>1029</v>
       </c>
-      <c r="B494" s="29" t="s">
+      <c r="B494" s="28" t="s">
         <v>1030</v>
       </c>
       <c r="C494" s="18">
         <v>42117</v>
       </c>
       <c r="D494" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -10234,7 +10180,7 @@
         <v>42117</v>
       </c>
       <c r="D495" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -10248,35 +10194,35 @@
         <v>42117</v>
       </c>
       <c r="D496" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" s="29" t="s">
+      <c r="A497" s="28" t="s">
         <v>1035</v>
       </c>
-      <c r="B497" s="29" t="s">
+      <c r="B497" s="28" t="s">
         <v>1036</v>
       </c>
       <c r="C497" s="18">
         <v>42117</v>
       </c>
       <c r="D497" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498" s="29" t="s">
+      <c r="A498" s="28" t="s">
         <v>1037</v>
       </c>
-      <c r="B498" s="29" t="s">
+      <c r="B498" s="28" t="s">
         <v>1038</v>
       </c>
       <c r="C498" s="18">
         <v>42117</v>
       </c>
       <c r="D498" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -10290,21 +10236,21 @@
         <v>42117</v>
       </c>
       <c r="D499" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A500" s="29" t="s">
+      <c r="A500" s="28" t="s">
         <v>1041</v>
       </c>
-      <c r="B500" s="29" t="s">
+      <c r="B500" s="28" t="s">
         <v>1042</v>
       </c>
       <c r="C500" s="18">
         <v>42117</v>
       </c>
       <c r="D500" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -10318,217 +10264,217 @@
         <v>42117</v>
       </c>
       <c r="D501" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A502" s="29" t="s">
+      <c r="A502" s="28" t="s">
         <v>1045</v>
       </c>
-      <c r="B502" s="29" t="s">
+      <c r="B502" s="28" t="s">
         <v>1046</v>
       </c>
       <c r="C502" s="18">
         <v>42117</v>
       </c>
       <c r="D502" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="29" t="s">
+      <c r="A503" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="B503" s="29" t="s">
+      <c r="B503" s="28" t="s">
         <v>1048</v>
       </c>
       <c r="C503" s="18">
         <v>42117</v>
       </c>
       <c r="D503" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="29" t="s">
         <v>1049</v>
       </c>
-      <c r="B504" s="29" t="s">
+      <c r="B504" s="30" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C504" s="31">
+        <v>42117</v>
+      </c>
+      <c r="D504" s="32" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="28" t="s">
         <v>1050</v>
       </c>
-      <c r="C504" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D504" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505" s="29" t="s">
+      <c r="B505" s="28" t="s">
         <v>1051</v>
-      </c>
-      <c r="B505" s="29" t="s">
-        <v>1052</v>
       </c>
       <c r="C505" s="18">
         <v>42117</v>
       </c>
       <c r="D505" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="27" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B506" s="27" t="s">
         <v>1053</v>
-      </c>
-      <c r="B506" s="27" t="s">
-        <v>1054</v>
       </c>
       <c r="C506" s="18">
         <v>42117</v>
       </c>
       <c r="D506" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="29" t="s">
+      <c r="A507" s="28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B507" s="28" t="s">
         <v>1055</v>
-      </c>
-      <c r="B507" s="29" t="s">
-        <v>1056</v>
       </c>
       <c r="C507" s="18">
         <v>42117</v>
       </c>
       <c r="D507" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A508" s="29" t="s">
+      <c r="A508" s="28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B508" s="28" t="s">
         <v>1057</v>
-      </c>
-      <c r="B508" s="29" t="s">
-        <v>1058</v>
       </c>
       <c r="C508" s="18">
         <v>42117</v>
       </c>
       <c r="D508" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="29" t="s">
+      <c r="A509" s="28" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B509" s="28" t="s">
         <v>1059</v>
-      </c>
-      <c r="B509" s="29" t="s">
-        <v>1060</v>
       </c>
       <c r="C509" s="18">
         <v>42117</v>
       </c>
       <c r="D509" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510" s="29" t="s">
+      <c r="A510" s="28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B510" s="28" t="s">
         <v>1061</v>
-      </c>
-      <c r="B510" s="29" t="s">
-        <v>1062</v>
       </c>
       <c r="C510" s="18">
         <v>42117</v>
       </c>
       <c r="D510" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A511" s="29" t="s">
+      <c r="A511" s="28" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B511" s="28" t="s">
         <v>1063</v>
-      </c>
-      <c r="B511" s="29" t="s">
-        <v>1064</v>
       </c>
       <c r="C511" s="18">
         <v>42117</v>
       </c>
       <c r="D511" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512" s="29" t="s">
+      <c r="A512" s="28" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B512" s="28" t="s">
         <v>1065</v>
-      </c>
-      <c r="B512" s="29" t="s">
-        <v>1066</v>
       </c>
       <c r="C512" s="18">
         <v>42117</v>
       </c>
       <c r="D512" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="29" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B513" s="30" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="29" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B513" s="29" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C513" s="18">
+      <c r="C513" s="31">
         <v>42117</v>
       </c>
-      <c r="D513" t="s">
-        <v>1075</v>
+      <c r="D513" s="32" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="27" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B514" s="27" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C514" s="18">
         <v>42117</v>
       </c>
       <c r="D514" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="29" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B515" s="29" t="s">
-        <v>1072</v>
+      <c r="A515" s="28" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B515" s="28" t="s">
+        <v>1070</v>
       </c>
       <c r="C515" s="18">
         <v>42117</v>
       </c>
       <c r="D515" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="27" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B516" s="27" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C516" s="18">
         <v>42117</v>
       </c>
       <c r="D516" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1140">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3244,6 +3244,198 @@
   </si>
   <si>
     <t>/cancertopics/types/myeloma/research/carfilzomib-lenalidomide-dexamethasone</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-09-C-0130</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/soft-tissue-sarcoma/research/doxorubicin-bevacizumab-advanced-ks</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/RTOG-0848</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/pancreatic/research/postop-gemcitabine-erlotinib-radiotherapy</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/nci-05-c-0170</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lymphoma/research/bortezomib-mantle-cell</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-09-C-0192</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/soft-tissue-sarcoma/research/cediranib-alveolar-soft-part</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-10-C-0052</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lymphoma/research/epoch-r</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/nci-04-c-0055</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/preventing-graft-versus-host-disease</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-09-C-0005</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/leukemia/research/cladribine-hairy-cell</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/calgb-70305</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/lymphedema-education-exercise</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/gog-0213</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/ovarian/research/recurrence-surgery-platinum-bevacizumab</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-10-C-0025</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/leukemia/research/pentostatin-bendamustine-hairy-cell</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/COG-AEWS1031</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/bone/research/novel-chemo-combo</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-10-C-0219</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/brain/research/children-lenalidomide-radiation</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/RTOG-1010</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/esophageal/research/trastuzumab</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/ECOG-E1609</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/skin/research/ipilimumab</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/ECOG-E2108</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/surgery-metastitic</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-10-C-0041</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/thyroid/research/valproic-acid</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/CALGB-80802</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/liver/research/sorafenib-doxorubicin</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-11-C-0102</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/liver/research/trc105-sorafenib</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/SWOG-S0931</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/kidney/research/adjuvant-everolimus</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NSABP-B-47</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/trastuzumab-her2-low</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-11-C-0233</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/kshv-multicentric-castleman-disease</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/2009-0976</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/relaxation-radiotherapy</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/ketolung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/cancertopics/types/lung/research/ketogenic-diet </t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/ECOG-E3A06</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/myeloma/research/lenalidomide-high-risk-smoldering</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/SWOG-S1007</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/post-surgical-therapy</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/SWOG-S0820</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/research/eflornithine-sulindac</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-11-C-0160</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/mesothelioma/research/immunotoxin</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-14-C-0015</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/advanced-brca-mutated-cancer</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-13-C-0106</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/leukemia/research/moxetumomab-pasudotox-hairy-cell</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCCTG-N1048</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/research/preop-treatment</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/CALGB-80702</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal/research/folfox-celecoxib</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/nant-cog-neuroblastoma-trials</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/neuroblastoma/research/2-studies-mab</t>
   </si>
 </sst>
 </file>
@@ -4194,11 +4386,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D516"/>
+  <dimension ref="A1:D548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B514" sqref="B514"/>
+      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D531" sqref="D531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10477,6 +10669,358 @@
         <v>1073</v>
       </c>
     </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="27" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B517" s="27" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C517" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="27" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B518" s="27" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C518" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="27" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B519" s="27" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C519" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="27" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B520" s="27" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C520" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="27" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B521" s="27" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C521" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="27" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B522" s="27" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C522" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="27" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B523" s="27" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C523" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B524" s="27" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C524" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B525" s="27" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C525" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B526" s="27" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C526" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="27" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B527" s="27" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C527" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="27" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B528" s="27" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C528" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="27" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B529" s="27" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C529" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="27" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B530" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C530" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B531" s="27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C531" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="27" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B532" s="27" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C532" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B533" s="27" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C533" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B534" s="27" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C534" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="27" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B535" s="27" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C535" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="27" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B536" s="27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C536" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B537" s="27" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C537" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="27" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B538" s="27" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C538" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B539" s="27" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C539" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="27" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B540" s="27" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C540" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="27" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B541" s="27" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C541" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="27" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B542" s="27" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C542" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="27" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B543" s="27" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C543" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="27" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B544" s="27" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C544" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="27" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B545" s="27" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C545" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="27" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B546" s="27" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C546" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="27" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B547" s="27" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C547" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="27" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B548" s="27" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C548" s="18">
+        <v>42117</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A96" r:id="rId1" display="www.cancer.gov/cancertopics/druginfo/esophagealcancer"/>
@@ -10490,9 +11034,11 @@
     <hyperlink ref="B238" r:id="rId9" display="www.cancer.gov/contact/videos/cancer-information-service"/>
     <hyperlink ref="A261" r:id="rId10" display="http://www.cancer.gov/videos/statistics/did-you-know-cancer-survivorship-statistics-video"/>
     <hyperlink ref="B261" r:id="rId11" display="http://www.cancer.gov/cancertopics/coping/survivorship/did-you-know-cancer-survivorship-statistics-video"/>
+    <hyperlink ref="A517" r:id="rId12"/>
+    <hyperlink ref="A518" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1182">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3246,196 +3246,322 @@
     <t>/cancertopics/types/myeloma/research/carfilzomib-lenalidomide-dexamethasone</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-09-C-0130</t>
-  </si>
-  <si>
     <t>/cancertopics/types/soft-tissue-sarcoma/research/doxorubicin-bevacizumab-advanced-ks</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/RTOG-0848</t>
-  </si>
-  <si>
     <t>/cancertopics/types/pancreatic/research/postop-gemcitabine-erlotinib-radiotherapy</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/nci-05-c-0170</t>
-  </si>
-  <si>
     <t>/cancertopics/types/lymphoma/research/bortezomib-mantle-cell</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-09-C-0192</t>
-  </si>
-  <si>
     <t>/cancertopics/types/soft-tissue-sarcoma/research/cediranib-alveolar-soft-part</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-10-C-0052</t>
-  </si>
-  <si>
     <t>/cancertopics/types/lymphoma/research/epoch-r</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/nci-04-c-0055</t>
-  </si>
-  <si>
     <t>/cancertopics/treatment/research/preventing-graft-versus-host-disease</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-09-C-0005</t>
-  </si>
-  <si>
     <t>/cancertopics/types/leukemia/research/cladribine-hairy-cell</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/calgb-70305</t>
-  </si>
-  <si>
     <t>/cancertopics/treatment/research/lymphedema-education-exercise</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/gog-0213</t>
-  </si>
-  <si>
     <t>/cancertopics/types/ovarian/research/recurrence-surgery-platinum-bevacizumab</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-10-C-0025</t>
-  </si>
-  <si>
     <t>/cancertopics/types/leukemia/research/pentostatin-bendamustine-hairy-cell</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/COG-AEWS1031</t>
-  </si>
-  <si>
     <t>/cancertopics/types/bone/research/novel-chemo-combo</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-10-C-0219</t>
-  </si>
-  <si>
     <t>/cancertopics/types/brain/research/children-lenalidomide-radiation</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/RTOG-1010</t>
-  </si>
-  <si>
     <t>/cancertopics/types/esophageal/research/trastuzumab</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/ECOG-E1609</t>
-  </si>
-  <si>
     <t>/cancertopics/types/skin/research/ipilimumab</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/ECOG-E2108</t>
-  </si>
-  <si>
     <t>/cancertopics/types/breast/research/surgery-metastitic</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-10-C-0041</t>
-  </si>
-  <si>
     <t>/cancertopics/types/thyroid/research/valproic-acid</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/CALGB-80802</t>
-  </si>
-  <si>
     <t>/cancertopics/types/liver/research/sorafenib-doxorubicin</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-11-C-0102</t>
-  </si>
-  <si>
     <t>/cancertopics/types/liver/research/trc105-sorafenib</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/SWOG-S0931</t>
-  </si>
-  <si>
     <t>/cancertopics/types/kidney/research/adjuvant-everolimus</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NSABP-B-47</t>
-  </si>
-  <si>
     <t>/cancertopics/types/breast/research/trastuzumab-her2-low</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-11-C-0233</t>
-  </si>
-  <si>
     <t>/cancertopics/treatment/research/kshv-multicentric-castleman-disease</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/2009-0976</t>
-  </si>
-  <si>
     <t>/cancertopics/types/breast/research/relaxation-radiotherapy</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/ketolung</t>
-  </si>
-  <si>
     <t xml:space="preserve">/cancertopics/types/lung/research/ketogenic-diet </t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/ECOG-E3A06</t>
-  </si>
-  <si>
     <t>/cancertopics/types/myeloma/research/lenalidomide-high-risk-smoldering</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/SWOG-S1007</t>
-  </si>
-  <si>
     <t>/cancertopics/types/breast/research/post-surgical-therapy</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/SWOG-S0820</t>
-  </si>
-  <si>
     <t>/cancertopics/types/colorectal/research/eflornithine-sulindac</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-11-C-0160</t>
-  </si>
-  <si>
     <t>/cancertopics/types/mesothelioma/research/immunotoxin</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-14-C-0015</t>
-  </si>
-  <si>
     <t>/cancertopics/treatment/research/advanced-brca-mutated-cancer</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-13-C-0106</t>
-  </si>
-  <si>
     <t>/cancertopics/types/leukemia/research/moxetumomab-pasudotox-hairy-cell</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCCTG-N1048</t>
-  </si>
-  <si>
     <t>/cancertopics/types/colorectal/research/preop-treatment</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/CALGB-80702</t>
-  </si>
-  <si>
     <t>/cancertopics/types/colorectal/research/folfox-celecoxib</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/nant-cog-neuroblastoma-trials</t>
-  </si>
-  <si>
     <t>/cancertopics/types/neuroblastoma/research/2-studies-mab</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-09-C-0130</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/RTOG-0848</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/nci-05-c-0170</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-09-C-0192</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-10-C-0052</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/nci-04-c-0055</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-09-C-0005</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/calgb-70305</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/gog-0213</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-10-C-0025</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/COG-AEWS1031</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-10-C-0219</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/RTOG-1010</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/ECOG-E1609</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/ECOG-E2108</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-10-C-0041</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/CALGB-80802</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-11-C-0102</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/SWOG-S0931</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NSABP-B-47</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-11-C-0233</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/2009-0976</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/ketolung</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/ECOG-E3A06</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/SWOG-S1007</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/SWOG-S0820</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-11-C-0160</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-14-C-0015</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-13-C-0106</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCCTG-N1048</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/CALGB-80702</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/nant-cog-neuroblastoma-trials</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/causes/breast/menopausal-ht</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/menopausal-ht-risk</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/causes/radiation/childhood-CT-scans</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/childhood-cancers/research/ct-scans-risk</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/causes/radiation/radiation-risks-pediatric-CT</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/risk/radiation/pediatric-ct-scans</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/coping/physicaleffects/pain-mx-survey0412</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/pain-management</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/research/cancer-health-disparities</t>
+  </si>
+  <si>
+    <t>/researchandfunding/areas/disparities/health-disparity-studies</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/research/cardiac-tumors</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/metastatic-cancer/research/cardiac-tumors</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/research-updates/2013/metformin</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/research/metformin</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/research-updates/2014/advanced-melanoma-therapies</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/skin/research/advanced-melanoma-therapies</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/screening/breast/intervalcancers052011</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/interval-breast-cancer</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/breast/additionalsurgery0212</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/research/additional-surgery-variation</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/leukemia/imatinib-long-term-effects2011</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/leukemia/research/imatinib-long-term-effects</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/cancertopics/treatment/prostate/overtreatment0710</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/prostate/research/overtreatment</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/ANCHOR</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/anal/research/anchor-trial</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/ncctg-n0574</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/metastatic-cancer/research/stereotactic-radiosurgery-brain</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCCTG-N107C</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/metastatic-cancer/research/postop-radiation-therapy-brain</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-11-C-0027</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/metastatic-cancer/research/crolibulin-cisplatin-advanced-tumors</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-12-C-0111</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/metastatic-cancer/research/immunotherapy-target-mesothelin</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2009/home-care-nursing1209</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/research/home-care-symptom-management</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/cessation-cytisine1111</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes-prevention/research/cytosine-smoking-cessation</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2011/refer-to-CT0411</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/clinical-trial-referral</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/clinicaltrials/results/summary/2012/neuropathy0612</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/research/neuropathy</t>
   </si>
 </sst>
 </file>
@@ -4386,11 +4512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D548"/>
+  <dimension ref="A1:D569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D531" sqref="D531"/>
+      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C549" sqref="C549:C569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10671,10 +10797,10 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B517" s="27" t="s">
         <v>1076</v>
-      </c>
-      <c r="B517" s="27" t="s">
-        <v>1077</v>
       </c>
       <c r="C517" s="18">
         <v>42117</v>
@@ -10682,10 +10808,10 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="27" t="s">
-        <v>1078</v>
+        <v>1109</v>
       </c>
       <c r="B518" s="27" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C518" s="18">
         <v>42117</v>
@@ -10693,10 +10819,10 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="27" t="s">
-        <v>1080</v>
+        <v>1110</v>
       </c>
       <c r="B519" s="27" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C519" s="18">
         <v>42117</v>
@@ -10704,10 +10830,10 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="27" t="s">
-        <v>1082</v>
+        <v>1111</v>
       </c>
       <c r="B520" s="27" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C520" s="18">
         <v>42117</v>
@@ -10715,10 +10841,10 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="27" t="s">
-        <v>1084</v>
+        <v>1112</v>
       </c>
       <c r="B521" s="27" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C521" s="18">
         <v>42117</v>
@@ -10726,10 +10852,10 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="27" t="s">
-        <v>1086</v>
+        <v>1113</v>
       </c>
       <c r="B522" s="27" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C522" s="18">
         <v>42117</v>
@@ -10737,10 +10863,10 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="27" t="s">
-        <v>1088</v>
+        <v>1114</v>
       </c>
       <c r="B523" s="27" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="C523" s="18">
         <v>42117</v>
@@ -10748,10 +10874,10 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="27" t="s">
-        <v>1090</v>
+        <v>1115</v>
       </c>
       <c r="B524" s="27" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="C524" s="18">
         <v>42117</v>
@@ -10759,10 +10885,10 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="27" t="s">
-        <v>1092</v>
+        <v>1116</v>
       </c>
       <c r="B525" s="27" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="C525" s="18">
         <v>42117</v>
@@ -10770,10 +10896,10 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="27" t="s">
-        <v>1094</v>
+        <v>1117</v>
       </c>
       <c r="B526" s="27" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="C526" s="18">
         <v>42117</v>
@@ -10781,10 +10907,10 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="27" t="s">
-        <v>1096</v>
+        <v>1118</v>
       </c>
       <c r="B527" s="27" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="C527" s="18">
         <v>42117</v>
@@ -10792,10 +10918,10 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="27" t="s">
-        <v>1098</v>
+        <v>1119</v>
       </c>
       <c r="B528" s="27" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="C528" s="18">
         <v>42117</v>
@@ -10803,10 +10929,10 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="27" t="s">
-        <v>1100</v>
+        <v>1120</v>
       </c>
       <c r="B529" s="27" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="C529" s="18">
         <v>42117</v>
@@ -10814,10 +10940,10 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="27" t="s">
-        <v>1102</v>
+        <v>1121</v>
       </c>
       <c r="B530" s="27" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="C530" s="18">
         <v>42117</v>
@@ -10825,10 +10951,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="27" t="s">
-        <v>1104</v>
+        <v>1122</v>
       </c>
       <c r="B531" s="27" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="C531" s="18">
         <v>42117</v>
@@ -10836,10 +10962,10 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="27" t="s">
-        <v>1106</v>
+        <v>1123</v>
       </c>
       <c r="B532" s="27" t="s">
-        <v>1107</v>
+        <v>1091</v>
       </c>
       <c r="C532" s="18">
         <v>42117</v>
@@ -10847,10 +10973,10 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="27" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
       <c r="B533" s="27" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="C533" s="18">
         <v>42117</v>
@@ -10858,10 +10984,10 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="27" t="s">
-        <v>1110</v>
+        <v>1125</v>
       </c>
       <c r="B534" s="27" t="s">
-        <v>1111</v>
+        <v>1093</v>
       </c>
       <c r="C534" s="18">
         <v>42117</v>
@@ -10869,10 +10995,10 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="27" t="s">
-        <v>1112</v>
+        <v>1126</v>
       </c>
       <c r="B535" s="27" t="s">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="C535" s="18">
         <v>42117</v>
@@ -10880,10 +11006,10 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="27" t="s">
-        <v>1114</v>
+        <v>1127</v>
       </c>
       <c r="B536" s="27" t="s">
-        <v>1115</v>
+        <v>1095</v>
       </c>
       <c r="C536" s="18">
         <v>42117</v>
@@ -10891,10 +11017,10 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="27" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
       <c r="B537" s="27" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="C537" s="18">
         <v>42117</v>
@@ -10902,10 +11028,10 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="27" t="s">
-        <v>1118</v>
+        <v>1129</v>
       </c>
       <c r="B538" s="27" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
       <c r="C538" s="18">
         <v>42117</v>
@@ -10913,10 +11039,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="27" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="B539" s="27" t="s">
-        <v>1121</v>
+        <v>1098</v>
       </c>
       <c r="C539" s="18">
         <v>42117</v>
@@ -10924,10 +11050,10 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="27" t="s">
-        <v>1122</v>
+        <v>1131</v>
       </c>
       <c r="B540" s="27" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
       <c r="C540" s="18">
         <v>42117</v>
@@ -10935,10 +11061,10 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="27" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="B541" s="27" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="C541" s="18">
         <v>42117</v>
@@ -10946,10 +11072,10 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="27" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="B542" s="27" t="s">
-        <v>1127</v>
+        <v>1101</v>
       </c>
       <c r="C542" s="18">
         <v>42117</v>
@@ -10957,10 +11083,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="27" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="B543" s="27" t="s">
-        <v>1129</v>
+        <v>1102</v>
       </c>
       <c r="C543" s="18">
         <v>42117</v>
@@ -10968,10 +11094,10 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="27" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="B544" s="27" t="s">
-        <v>1131</v>
+        <v>1103</v>
       </c>
       <c r="C544" s="18">
         <v>42117</v>
@@ -10979,10 +11105,10 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="27" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="B545" s="27" t="s">
-        <v>1133</v>
+        <v>1104</v>
       </c>
       <c r="C545" s="18">
         <v>42117</v>
@@ -10990,10 +11116,10 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="27" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B546" s="27" t="s">
-        <v>1135</v>
+        <v>1105</v>
       </c>
       <c r="C546" s="18">
         <v>42117</v>
@@ -11001,10 +11127,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="27" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B547" s="27" t="s">
-        <v>1137</v>
+        <v>1106</v>
       </c>
       <c r="C547" s="18">
         <v>42117</v>
@@ -11012,12 +11138,243 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="27" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B548" s="27" t="s">
-        <v>1139</v>
+        <v>1107</v>
       </c>
       <c r="C548" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="27" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B549" s="27" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C549" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="27" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B550" s="27" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C550" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="27" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B551" s="27" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C551" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="27" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B552" s="27" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C552" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B553" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C553" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="27" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B554" s="27" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C554" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="27" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B555" s="27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C555" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="27" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B556" s="27" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C556" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B557" s="27" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C557" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B558" s="27" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C558" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="27" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B559" s="27" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C559" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="27" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B560" s="27" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C560" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="27" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B561" s="27" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C561" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="27" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B562" s="27" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C562" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="27" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B563" s="27" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C563" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="27" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B564" s="27" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C564" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="27" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B565" s="27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C565" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="27" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B566" s="27" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C566" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="27" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B567" s="27" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C567" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B568" s="27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C568" s="18">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="27" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B569" s="27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C569" s="18">
         <v>42117</v>
       </c>
     </row>
@@ -11034,8 +11391,8 @@
     <hyperlink ref="B238" r:id="rId9" display="www.cancer.gov/contact/videos/cancer-information-service"/>
     <hyperlink ref="A261" r:id="rId10" display="http://www.cancer.gov/videos/statistics/did-you-know-cancer-survivorship-statistics-video"/>
     <hyperlink ref="B261" r:id="rId11" display="http://www.cancer.gov/cancertopics/coping/survivorship/did-you-know-cancer-survivorship-statistics-video"/>
-    <hyperlink ref="A517" r:id="rId12"/>
-    <hyperlink ref="A518" r:id="rId13"/>
+    <hyperlink ref="A517" r:id="rId12" display="www.cancer.gov/clinicaltrials/featured/trials/NCI-09-C-0130"/>
+    <hyperlink ref="A518" r:id="rId13" display="www.cancer.gov/clinicaltrials/featured/trials/RTOG-0848"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -3438,130 +3438,130 @@
     <t>/clinicaltrials/featured/trials/nant-cog-neuroblastoma-trials</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/causes/breast/menopausal-ht</t>
-  </si>
-  <si>
     <t>/cancertopics/types/breast/research/menopausal-ht-risk</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/causes/radiation/childhood-CT-scans</t>
-  </si>
-  <si>
     <t>/cancertopics/types/childhood-cancers/research/ct-scans-risk</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/causes/radiation/radiation-risks-pediatric-CT</t>
-  </si>
-  <si>
     <t>/cancertopics/causes-prevention/risk/radiation/pediatric-ct-scans</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/coping/physicaleffects/pain-mx-survey0412</t>
-  </si>
-  <si>
     <t>/cancertopics/treatment/research/pain-management</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/research/cancer-health-disparities</t>
-  </si>
-  <si>
     <t>/researchandfunding/areas/disparities/health-disparity-studies</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/research/cardiac-tumors</t>
-  </si>
-  <si>
     <t>/cancertopics/types/metastatic-cancer/research/cardiac-tumors</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/research-updates/2013/metformin</t>
-  </si>
-  <si>
     <t>/cancertopics/causes-prevention/research/metformin</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/research-updates/2014/advanced-melanoma-therapies</t>
-  </si>
-  <si>
     <t>/cancertopics/types/skin/research/advanced-melanoma-therapies</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/screening/breast/intervalcancers052011</t>
-  </si>
-  <si>
     <t>/cancertopics/types/breast/research/interval-breast-cancer</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/treatment/breast/additionalsurgery0212</t>
-  </si>
-  <si>
     <t>/cancertopics/types/breast/research/additional-surgery-variation</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/treatment/leukemia/imatinib-long-term-effects2011</t>
-  </si>
-  <si>
     <t>/cancertopics/types/leukemia/research/imatinib-long-term-effects</t>
   </si>
   <si>
-    <t>www.cancer.gov/cancertopics/treatment/prostate/overtreatment0710</t>
-  </si>
-  <si>
     <t>/cancertopics/types/prostate/research/overtreatment</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/ANCHOR</t>
-  </si>
-  <si>
     <t>/cancertopics/types/anal/research/anchor-trial</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/ncctg-n0574</t>
-  </si>
-  <si>
     <t>/cancertopics/types/metastatic-cancer/research/stereotactic-radiosurgery-brain</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCCTG-N107C</t>
-  </si>
-  <si>
     <t>/cancertopics/types/metastatic-cancer/research/postop-radiation-therapy-brain</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-11-C-0027</t>
-  </si>
-  <si>
     <t>/cancertopics/types/metastatic-cancer/research/crolibulin-cisplatin-advanced-tumors</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/featured/trials/NCI-12-C-0111</t>
-  </si>
-  <si>
     <t>/cancertopics/types/metastatic-cancer/research/immunotherapy-target-mesothelin</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/results/summary/2009/home-care-nursing1209</t>
-  </si>
-  <si>
     <t>/cancertopics/coping/research/home-care-symptom-management</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/results/summary/2011/cessation-cytisine1111</t>
-  </si>
-  <si>
     <t>/cancertopics/causes-prevention/research/cytosine-smoking-cessation</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/results/summary/2011/refer-to-CT0411</t>
-  </si>
-  <si>
     <t>/cancertopics/treatment/research/clinical-trial-referral</t>
   </si>
   <si>
-    <t>www.cancer.gov/clinicaltrials/results/summary/2012/neuropathy0612</t>
-  </si>
-  <si>
     <t>/cancertopics/treatment/research/neuropathy</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes/breast/menopausal-ht</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes/radiation/childhood-CT-scans</t>
+  </si>
+  <si>
+    <t>/cancertopics/causes/radiation/radiation-risks-pediatric-CT</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/physicaleffects/pain-mx-survey0412</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/cancer-health-disparities</t>
+  </si>
+  <si>
+    <t>/cancertopics/research/cardiac-tumors</t>
+  </si>
+  <si>
+    <t>/cancertopics/research-updates/2013/metformin</t>
+  </si>
+  <si>
+    <t>/cancertopics/research-updates/2014/advanced-melanoma-therapies</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/breast/intervalcancers052011</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/breast/additionalsurgery0212</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/leukemia/imatinib-long-term-effects2011</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/prostate/overtreatment0710</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/ANCHOR</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/ncctg-n0574</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCCTG-N107C</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-11-C-0027</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/featured/trials/NCI-12-C-0111</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2009/home-care-nursing1209</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/cessation-cytisine1111</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2011/refer-to-CT0411</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/results/summary/2012/neuropathy0612</t>
   </si>
 </sst>
 </file>
@@ -4515,8 +4515,8 @@
   <dimension ref="A1:D569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C549" sqref="C549:C569"/>
+      <pane ySplit="1" topLeftCell="A539" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A550" sqref="A550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11149,10 +11149,10 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="27" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B549" s="27" t="s">
         <v>1140</v>
-      </c>
-      <c r="B549" s="27" t="s">
-        <v>1141</v>
       </c>
       <c r="C549" s="18">
         <v>42117</v>
@@ -11160,10 +11160,10 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="27" t="s">
-        <v>1142</v>
+        <v>1162</v>
       </c>
       <c r="B550" s="27" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C550" s="18">
         <v>42117</v>
@@ -11171,10 +11171,10 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="27" t="s">
-        <v>1144</v>
+        <v>1163</v>
       </c>
       <c r="B551" s="27" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C551" s="18">
         <v>42117</v>
@@ -11182,10 +11182,10 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="27" t="s">
-        <v>1146</v>
+        <v>1164</v>
       </c>
       <c r="B552" s="27" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C552" s="18">
         <v>42117</v>
@@ -11193,10 +11193,10 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="27" t="s">
-        <v>1148</v>
+        <v>1165</v>
       </c>
       <c r="B553" s="27" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="C553" s="18">
         <v>42117</v>
@@ -11204,10 +11204,10 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="27" t="s">
-        <v>1150</v>
+        <v>1166</v>
       </c>
       <c r="B554" s="27" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C554" s="18">
         <v>42117</v>
@@ -11215,10 +11215,10 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="27" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="B555" s="27" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C555" s="18">
         <v>42117</v>
@@ -11226,10 +11226,10 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="27" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
       <c r="B556" s="27" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="C556" s="18">
         <v>42117</v>
@@ -11237,10 +11237,10 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="27" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
       <c r="B557" s="27" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="C557" s="18">
         <v>42117</v>
@@ -11248,10 +11248,10 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="27" t="s">
-        <v>1158</v>
+        <v>1170</v>
       </c>
       <c r="B558" s="27" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="C558" s="18">
         <v>42117</v>
@@ -11259,10 +11259,10 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="27" t="s">
-        <v>1160</v>
+        <v>1171</v>
       </c>
       <c r="B559" s="27" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="C559" s="18">
         <v>42117</v>
@@ -11270,10 +11270,10 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="27" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="B560" s="27" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="C560" s="18">
         <v>42117</v>
@@ -11281,10 +11281,10 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="27" t="s">
-        <v>1164</v>
+        <v>1173</v>
       </c>
       <c r="B561" s="27" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="C561" s="18">
         <v>42117</v>
@@ -11292,10 +11292,10 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="27" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="B562" s="27" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="C562" s="18">
         <v>42117</v>
@@ -11303,10 +11303,10 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="27" t="s">
-        <v>1168</v>
+        <v>1175</v>
       </c>
       <c r="B563" s="27" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="C563" s="18">
         <v>42117</v>
@@ -11314,10 +11314,10 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="27" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="B564" s="27" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="C564" s="18">
         <v>42117</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="27" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="B565" s="27" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
       <c r="C565" s="18">
         <v>42117</v>
@@ -11336,10 +11336,10 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="27" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="B566" s="27" t="s">
-        <v>1175</v>
+        <v>1157</v>
       </c>
       <c r="C566" s="18">
         <v>42117</v>
@@ -11347,10 +11347,10 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="27" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="B567" s="27" t="s">
-        <v>1177</v>
+        <v>1158</v>
       </c>
       <c r="C567" s="18">
         <v>42117</v>
@@ -11358,10 +11358,10 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="27" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B568" s="27" t="s">
-        <v>1179</v>
+        <v>1159</v>
       </c>
       <c r="C568" s="18">
         <v>42117</v>
@@ -11369,10 +11369,10 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="27" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B569" s="27" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
       <c r="C569" s="18">
         <v>42117</v>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1221">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3237,9 +3237,6 @@
     <t xml:space="preserve">/cancertopics/types/skin/research/nivolumab </t>
   </si>
   <si>
-    <t>Dion is moving this, wait for his word to push this live</t>
-  </si>
-  <si>
     <t>/cancertopics/types/myeloma/research/pomalidomide-dexamethasone</t>
   </si>
   <si>
@@ -3562,6 +3559,126 @@
   </si>
   <si>
     <t>/clinicaltrials/results/summary/2012/neuropathy0612</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/decidir-participar</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/decidir-participar</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/pago</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/pago</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/pago/cobertura-de-seguro</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/pago/cobertura-de-seguro</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/pago/gestion-con-plan-de-salud</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/pago/gestion-con-plan-de-salud</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/pago/programas-federales</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/pago/programas-federales</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/preguntas</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/preguntas</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/que-son-estudios</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/que-son-estudios</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/que-son-estudios/asignacion-azar</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/que-son-estudios/asignacion-azar</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/que-son-estudios/donde-se-realizan</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/que-son-estudios/donde-se-realizan</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/que-son-estudios/fases</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/que-son-estudios/fases</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/que-son-estudios/miembros-equipo-investigacion</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/que-son-estudios/miembros-equipo-investigacion</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/que-son-estudios/placebo</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/que-son-estudios/placebo</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/que-son-estudios/tipos</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/que-son-estudios/tipos</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/recursos-relacionados</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/recursos-relacionados</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/seguridad-paciente</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/seguridad-paciente</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/seguridad-paciente/asentimiento-ninos</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/seguridad-paciente/asentimiento-ninos</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/seguridad-paciente/consentimiento</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/seguridad-paciente/consentimiento</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/seguridad-paciente/revision-cientifica</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/seguridad-paciente/revision-cientifica</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/guia-estudios-clinicos/seguridad-paciente/terminacion-estudio</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tratamiento/estudios-clinicos/seguridad-paciente/terminacion-estudio</t>
   </si>
 </sst>
 </file>
@@ -3571,7 +3688,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3721,19 +3838,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3922,12 +4028,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4123,7 +4223,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4155,18 +4255,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4512,11 +4600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D569"/>
+  <dimension ref="A1:D589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A539" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A550" sqref="A550"/>
+      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C570" sqref="A570:C589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10278,1105 +10366,1324 @@
       <c r="D479" s="22"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="25" t="s">
+      <c r="A480" s="24" t="s">
         <v>1001</v>
       </c>
-      <c r="B480" s="25" t="s">
+      <c r="B480" s="23" t="s">
         <v>1002</v>
       </c>
       <c r="C480" s="18">
         <v>42117</v>
       </c>
-      <c r="D480" t="s">
+      <c r="D480" s="22"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="24" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B481" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C481" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D481" s="22"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="24" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B482" s="23" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C482" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D482" s="22"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B483" s="23" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C483" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D483" s="22"/>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="24" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B484" s="23" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C484" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D484" s="22"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B485" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C485" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D485" s="22"/>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B486" s="23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C486" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D486" s="22"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B487" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C487" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D487" s="22"/>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B488" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C488" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D488" s="22"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B489" s="23" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C489" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D489" s="22"/>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B490" s="23" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C490" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D490" s="22"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B491" s="23" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C491" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D491" s="22"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B492" s="23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C492" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D492" s="22"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="24" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B493" s="23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C493" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D493" s="22"/>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B494" s="23" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C494" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D494" s="22"/>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B495" s="23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C495" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D495" s="22"/>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B496" s="23" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C496" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D496" s="22"/>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B497" s="23" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C497" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D497" s="22"/>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B498" s="23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C498" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D498" s="22"/>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B499" s="23" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C499" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D499" s="22"/>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="24" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B500" s="23" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C500" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D500" s="22"/>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B501" s="23" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C501" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D501" s="22"/>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="24" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B502" s="23" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C502" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D502" s="22"/>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="24" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B503" s="23" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C503" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D503" s="22"/>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B504" s="23" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="26" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B481" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C481" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D481" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="26" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B482" s="26" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C482" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="26" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B483" s="26" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C483" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D483" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="25" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B484" s="25" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C484" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D484" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="26" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B485" s="26" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C485" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D485" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="26" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B486" s="26" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C486" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D486" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="26" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B487" s="26" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C487" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D487" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="26" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B488" s="26" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C488" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D488" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="26" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B489" s="26" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C489" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D489" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="26" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B490" s="26" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C490" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D490" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="26" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B491" s="26" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C491" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D491" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="26" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B492" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C492" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D492" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="28" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B493" s="28" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C493" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D493" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="28" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B494" s="28" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C494" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D494" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" s="27" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B495" s="27" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C495" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496" s="27" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B496" s="27" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C496" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" s="28" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B497" s="28" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C497" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498" s="28" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B498" s="28" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C498" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499" s="27" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B499" s="27" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C499" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A500" s="28" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B500" s="28" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C500" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A501" s="26" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B501" s="26" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C501" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D501" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A502" s="28" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B502" s="28" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C502" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D502" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="28" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B503" s="28" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C503" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D503" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="29" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B504" s="30" t="s">
+      <c r="C504" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D504" s="22"/>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="24" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B505" s="23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C505" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D505" s="22"/>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B506" s="23" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C506" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D506" s="22"/>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B507" s="23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C507" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D507" s="22"/>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B508" s="23" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C508" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D508" s="22"/>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="24" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B509" s="23" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C509" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D509" s="22"/>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B510" s="23" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C510" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D510" s="22"/>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="24" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B511" s="23" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C511" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D511" s="22"/>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="24" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B512" s="23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C512" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D512" s="22"/>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B513" s="23" t="s">
         <v>1074</v>
       </c>
-      <c r="C504" s="31">
-        <v>42117</v>
-      </c>
-      <c r="D504" s="32" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505" s="28" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B505" s="28" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C505" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D505" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="27" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B506" s="27" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C506" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D506" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="28" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B507" s="28" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C507" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D507" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A508" s="28" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B508" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C508" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D508" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="28" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B509" s="28" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C509" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D509" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510" s="28" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B510" s="28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C510" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D510" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A511" s="28" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B511" s="28" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C511" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D511" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512" s="28" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B512" s="28" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C512" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D512" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="29" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B513" s="30" t="s">
+      <c r="C513" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D513" s="22"/>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B514" s="23" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C514" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D514" s="22"/>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B515" s="23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C515" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D515" s="22"/>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B516" s="23" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C516" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D516" s="22"/>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="24" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B517" s="23" t="s">
         <v>1075</v>
       </c>
-      <c r="C513" s="31">
-        <v>42117</v>
-      </c>
-      <c r="D513" s="32" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="27" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B514" s="27" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C514" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D514" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="28" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B515" s="28" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C515" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D515" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="27" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B516" s="27" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C516" s="18">
-        <v>42117</v>
-      </c>
-      <c r="D516" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" s="27" t="s">
+      <c r="C517" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D517" s="22"/>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="24" t="s">
         <v>1108</v>
       </c>
-      <c r="B517" s="27" t="s">
+      <c r="B518" s="23" t="s">
         <v>1076</v>
       </c>
-      <c r="C517" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518" s="27" t="s">
+      <c r="C518" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D518" s="22"/>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="24" t="s">
         <v>1109</v>
       </c>
-      <c r="B518" s="27" t="s">
+      <c r="B519" s="23" t="s">
         <v>1077</v>
       </c>
-      <c r="C518" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="27" t="s">
+      <c r="C519" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D519" s="22"/>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="24" t="s">
         <v>1110</v>
       </c>
-      <c r="B519" s="27" t="s">
+      <c r="B520" s="23" t="s">
         <v>1078</v>
       </c>
-      <c r="C519" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="27" t="s">
+      <c r="C520" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D520" s="22"/>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="24" t="s">
         <v>1111</v>
       </c>
-      <c r="B520" s="27" t="s">
+      <c r="B521" s="23" t="s">
         <v>1079</v>
       </c>
-      <c r="C520" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521" s="27" t="s">
+      <c r="C521" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D521" s="22"/>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="24" t="s">
         <v>1112</v>
       </c>
-      <c r="B521" s="27" t="s">
+      <c r="B522" s="23" t="s">
         <v>1080</v>
       </c>
-      <c r="C521" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A522" s="27" t="s">
+      <c r="C522" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D522" s="22"/>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="24" t="s">
         <v>1113</v>
       </c>
-      <c r="B522" s="27" t="s">
+      <c r="B523" s="23" t="s">
         <v>1081</v>
       </c>
-      <c r="C522" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523" s="27" t="s">
+      <c r="C523" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D523" s="22"/>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="24" t="s">
         <v>1114</v>
       </c>
-      <c r="B523" s="27" t="s">
+      <c r="B524" s="23" t="s">
         <v>1082</v>
       </c>
-      <c r="C523" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524" s="27" t="s">
+      <c r="C524" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D524" s="22"/>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="24" t="s">
         <v>1115</v>
       </c>
-      <c r="B524" s="27" t="s">
+      <c r="B525" s="23" t="s">
         <v>1083</v>
       </c>
-      <c r="C524" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A525" s="27" t="s">
+      <c r="C525" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D525" s="22"/>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="24" t="s">
         <v>1116</v>
       </c>
-      <c r="B525" s="27" t="s">
+      <c r="B526" s="23" t="s">
         <v>1084</v>
       </c>
-      <c r="C525" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A526" s="27" t="s">
+      <c r="C526" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D526" s="22"/>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="24" t="s">
         <v>1117</v>
       </c>
-      <c r="B526" s="27" t="s">
+      <c r="B527" s="23" t="s">
         <v>1085</v>
       </c>
-      <c r="C526" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" s="27" t="s">
+      <c r="C527" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D527" s="22"/>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="24" t="s">
         <v>1118</v>
       </c>
-      <c r="B527" s="27" t="s">
+      <c r="B528" s="23" t="s">
         <v>1086</v>
       </c>
-      <c r="C527" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A528" s="27" t="s">
+      <c r="C528" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D528" s="22"/>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="24" t="s">
         <v>1119</v>
       </c>
-      <c r="B528" s="27" t="s">
+      <c r="B529" s="23" t="s">
         <v>1087</v>
       </c>
-      <c r="C528" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" s="27" t="s">
+      <c r="C529" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D529" s="22"/>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="24" t="s">
         <v>1120</v>
       </c>
-      <c r="B529" s="27" t="s">
+      <c r="B530" s="23" t="s">
         <v>1088</v>
       </c>
-      <c r="C529" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530" s="27" t="s">
+      <c r="C530" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D530" s="22"/>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="24" t="s">
         <v>1121</v>
       </c>
-      <c r="B530" s="27" t="s">
+      <c r="B531" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="C530" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531" s="27" t="s">
+      <c r="C531" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D531" s="22"/>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="24" t="s">
         <v>1122</v>
       </c>
-      <c r="B531" s="27" t="s">
+      <c r="B532" s="23" t="s">
         <v>1090</v>
       </c>
-      <c r="C531" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" s="27" t="s">
+      <c r="C532" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D532" s="22"/>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="24" t="s">
         <v>1123</v>
       </c>
-      <c r="B532" s="27" t="s">
+      <c r="B533" s="23" t="s">
         <v>1091</v>
       </c>
-      <c r="C532" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533" s="27" t="s">
+      <c r="C533" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D533" s="22"/>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="24" t="s">
         <v>1124</v>
       </c>
-      <c r="B533" s="27" t="s">
+      <c r="B534" s="23" t="s">
         <v>1092</v>
       </c>
-      <c r="C533" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534" s="27" t="s">
+      <c r="C534" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D534" s="22"/>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="24" t="s">
         <v>1125</v>
       </c>
-      <c r="B534" s="27" t="s">
+      <c r="B535" s="23" t="s">
         <v>1093</v>
       </c>
-      <c r="C534" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535" s="27" t="s">
+      <c r="C535" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D535" s="22"/>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="24" t="s">
         <v>1126</v>
       </c>
-      <c r="B535" s="27" t="s">
+      <c r="B536" s="23" t="s">
         <v>1094</v>
       </c>
-      <c r="C535" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536" s="27" t="s">
+      <c r="C536" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D536" s="22"/>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="24" t="s">
         <v>1127</v>
       </c>
-      <c r="B536" s="27" t="s">
+      <c r="B537" s="23" t="s">
         <v>1095</v>
       </c>
-      <c r="C536" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537" s="27" t="s">
+      <c r="C537" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D537" s="22"/>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="24" t="s">
         <v>1128</v>
       </c>
-      <c r="B537" s="27" t="s">
+      <c r="B538" s="23" t="s">
         <v>1096</v>
       </c>
-      <c r="C537" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538" s="27" t="s">
+      <c r="C538" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D538" s="22"/>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="24" t="s">
         <v>1129</v>
       </c>
-      <c r="B538" s="27" t="s">
+      <c r="B539" s="23" t="s">
         <v>1097</v>
       </c>
-      <c r="C538" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539" s="27" t="s">
+      <c r="C539" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D539" s="22"/>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="24" t="s">
         <v>1130</v>
       </c>
-      <c r="B539" s="27" t="s">
+      <c r="B540" s="23" t="s">
         <v>1098</v>
       </c>
-      <c r="C539" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540" s="27" t="s">
+      <c r="C540" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D540" s="22"/>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="24" t="s">
         <v>1131</v>
       </c>
-      <c r="B540" s="27" t="s">
+      <c r="B541" s="23" t="s">
         <v>1099</v>
       </c>
-      <c r="C540" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541" s="27" t="s">
+      <c r="C541" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D541" s="22"/>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="24" t="s">
         <v>1132</v>
       </c>
-      <c r="B541" s="27" t="s">
+      <c r="B542" s="23" t="s">
         <v>1100</v>
       </c>
-      <c r="C541" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542" s="27" t="s">
+      <c r="C542" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D542" s="22"/>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="24" t="s">
         <v>1133</v>
       </c>
-      <c r="B542" s="27" t="s">
+      <c r="B543" s="23" t="s">
         <v>1101</v>
       </c>
-      <c r="C542" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543" s="27" t="s">
+      <c r="C543" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D543" s="22"/>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="24" t="s">
         <v>1134</v>
       </c>
-      <c r="B543" s="27" t="s">
+      <c r="B544" s="23" t="s">
         <v>1102</v>
       </c>
-      <c r="C543" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544" s="27" t="s">
+      <c r="C544" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D544" s="22"/>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="24" t="s">
         <v>1135</v>
       </c>
-      <c r="B544" s="27" t="s">
+      <c r="B545" s="23" t="s">
         <v>1103</v>
       </c>
-      <c r="C544" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545" s="27" t="s">
+      <c r="C545" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D545" s="22"/>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="24" t="s">
         <v>1136</v>
       </c>
-      <c r="B545" s="27" t="s">
+      <c r="B546" s="23" t="s">
         <v>1104</v>
       </c>
-      <c r="C545" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546" s="27" t="s">
+      <c r="C546" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D546" s="22"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="24" t="s">
         <v>1137</v>
       </c>
-      <c r="B546" s="27" t="s">
+      <c r="B547" s="23" t="s">
         <v>1105</v>
       </c>
-      <c r="C546" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547" s="27" t="s">
+      <c r="C547" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D547" s="22"/>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="B547" s="27" t="s">
+      <c r="B548" s="23" t="s">
         <v>1106</v>
       </c>
-      <c r="C547" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548" s="27" t="s">
+      <c r="C548" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D548" s="22"/>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="24" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B549" s="23" t="s">
         <v>1139</v>
       </c>
-      <c r="B548" s="27" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C548" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549" s="27" t="s">
+      <c r="C549" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D549" s="22"/>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="24" t="s">
         <v>1161</v>
       </c>
-      <c r="B549" s="27" t="s">
+      <c r="B550" s="23" t="s">
         <v>1140</v>
       </c>
-      <c r="C549" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550" s="27" t="s">
+      <c r="C550" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D550" s="22"/>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="24" t="s">
         <v>1162</v>
       </c>
-      <c r="B550" s="27" t="s">
+      <c r="B551" s="23" t="s">
         <v>1141</v>
       </c>
-      <c r="C550" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" s="27" t="s">
+      <c r="C551" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D551" s="22"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="24" t="s">
         <v>1163</v>
       </c>
-      <c r="B551" s="27" t="s">
+      <c r="B552" s="23" t="s">
         <v>1142</v>
       </c>
-      <c r="C551" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552" s="27" t="s">
+      <c r="C552" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D552" s="22"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="24" t="s">
         <v>1164</v>
       </c>
-      <c r="B552" s="27" t="s">
+      <c r="B553" s="23" t="s">
         <v>1143</v>
       </c>
-      <c r="C552" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553" s="27" t="s">
+      <c r="C553" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D553" s="22"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="24" t="s">
         <v>1165</v>
       </c>
-      <c r="B553" s="27" t="s">
+      <c r="B554" s="23" t="s">
         <v>1144</v>
       </c>
-      <c r="C553" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554" s="27" t="s">
+      <c r="C554" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D554" s="22"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="24" t="s">
         <v>1166</v>
       </c>
-      <c r="B554" s="27" t="s">
+      <c r="B555" s="23" t="s">
         <v>1145</v>
       </c>
-      <c r="C554" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555" s="27" t="s">
+      <c r="C555" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D555" s="22"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="24" t="s">
         <v>1167</v>
       </c>
-      <c r="B555" s="27" t="s">
+      <c r="B556" s="23" t="s">
         <v>1146</v>
       </c>
-      <c r="C555" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" s="27" t="s">
+      <c r="C556" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D556" s="22"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="24" t="s">
         <v>1168</v>
       </c>
-      <c r="B556" s="27" t="s">
+      <c r="B557" s="23" t="s">
         <v>1147</v>
       </c>
-      <c r="C556" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557" s="27" t="s">
+      <c r="C557" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D557" s="22"/>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="24" t="s">
         <v>1169</v>
       </c>
-      <c r="B557" s="27" t="s">
+      <c r="B558" s="23" t="s">
         <v>1148</v>
       </c>
-      <c r="C557" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" s="27" t="s">
+      <c r="C558" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D558" s="22"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="24" t="s">
         <v>1170</v>
       </c>
-      <c r="B558" s="27" t="s">
+      <c r="B559" s="23" t="s">
         <v>1149</v>
       </c>
-      <c r="C558" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" s="27" t="s">
+      <c r="C559" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D559" s="22"/>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="24" t="s">
         <v>1171</v>
       </c>
-      <c r="B559" s="27" t="s">
+      <c r="B560" s="23" t="s">
         <v>1150</v>
       </c>
-      <c r="C559" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" s="27" t="s">
+      <c r="C560" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D560" s="22"/>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="24" t="s">
         <v>1172</v>
       </c>
-      <c r="B560" s="27" t="s">
+      <c r="B561" s="23" t="s">
         <v>1151</v>
       </c>
-      <c r="C560" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" s="27" t="s">
+      <c r="C561" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D561" s="22"/>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="24" t="s">
         <v>1173</v>
       </c>
-      <c r="B561" s="27" t="s">
+      <c r="B562" s="23" t="s">
         <v>1152</v>
       </c>
-      <c r="C561" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562" s="27" t="s">
+      <c r="C562" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D562" s="22"/>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="24" t="s">
         <v>1174</v>
       </c>
-      <c r="B562" s="27" t="s">
+      <c r="B563" s="23" t="s">
         <v>1153</v>
       </c>
-      <c r="C562" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" s="27" t="s">
+      <c r="C563" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D563" s="22"/>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="24" t="s">
         <v>1175</v>
       </c>
-      <c r="B563" s="27" t="s">
+      <c r="B564" s="23" t="s">
         <v>1154</v>
       </c>
-      <c r="C563" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564" s="27" t="s">
+      <c r="C564" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D564" s="22"/>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="24" t="s">
         <v>1176</v>
       </c>
-      <c r="B564" s="27" t="s">
+      <c r="B565" s="23" t="s">
         <v>1155</v>
       </c>
-      <c r="C564" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" s="27" t="s">
+      <c r="C565" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D565" s="22"/>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="24" t="s">
         <v>1177</v>
       </c>
-      <c r="B565" s="27" t="s">
+      <c r="B566" s="23" t="s">
         <v>1156</v>
       </c>
-      <c r="C565" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" s="27" t="s">
+      <c r="C566" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D566" s="22"/>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="24" t="s">
         <v>1178</v>
       </c>
-      <c r="B566" s="27" t="s">
+      <c r="B567" s="23" t="s">
         <v>1157</v>
       </c>
-      <c r="C566" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A567" s="27" t="s">
+      <c r="C567" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D567" s="22"/>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="24" t="s">
         <v>1179</v>
       </c>
-      <c r="B567" s="27" t="s">
+      <c r="B568" s="23" t="s">
         <v>1158</v>
       </c>
-      <c r="C567" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568" s="27" t="s">
+      <c r="C568" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D568" s="22"/>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="24" t="s">
         <v>1180</v>
       </c>
-      <c r="B568" s="27" t="s">
+      <c r="B569" s="23" t="s">
         <v>1159</v>
       </c>
-      <c r="C568" s="18">
-        <v>42117</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569" s="27" t="s">
+      <c r="C569" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D569" s="22"/>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="24" t="s">
         <v>1181</v>
       </c>
-      <c r="B569" s="27" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C569" s="18">
-        <v>42117</v>
-      </c>
+      <c r="B570" s="23" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C570" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D570" s="22"/>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="24" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B571" s="23" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C571" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D571" s="22"/>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B572" s="23" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C572" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D572" s="22"/>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B573" s="23" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C573" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D573" s="22"/>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="24" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B574" s="23" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C574" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D574" s="22"/>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="24" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B575" s="23" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C575" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D575" s="22"/>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="24" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B576" s="23" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C576" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D576" s="22"/>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="24" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B577" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C577" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D577" s="22"/>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="24" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B578" s="23" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C578" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D578" s="22"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="24" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B579" s="23" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C579" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D579" s="22"/>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="24" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B580" s="23" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C580" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D580" s="22"/>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="24" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B581" s="23" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C581" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D581" s="22"/>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="24" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B582" s="23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C582" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D582" s="22"/>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="24" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B583" s="23" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C583" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D583" s="22"/>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="24" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B584" s="23" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C584" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D584" s="22"/>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="24" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B585" s="23" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C585" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D585" s="22"/>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B586" s="23" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C586" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D586" s="22"/>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="24" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B587" s="23" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C587" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D587" s="22"/>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="24" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B588" s="23" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C588" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D588" s="22"/>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="24" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B589" s="23" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C589" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D589" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1223">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3679,6 +3679,12 @@
   </si>
   <si>
     <t>/espanol/cancer/tratamiento/estudios-clinicos/seguridad-paciente/terminacion-estudio</t>
+  </si>
+  <si>
+    <t>/cancertopics/druginfo/fda-blinatumomab</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/drugs/fda-blinatumomab</t>
   </si>
 </sst>
 </file>
@@ -4223,7 +4229,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4255,6 +4261,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4600,11 +4607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:D590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C570" sqref="A570:C589"/>
+      <pane ySplit="1" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D590" sqref="A589:D590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11684,6 +11691,18 @@
         <v>42117</v>
       </c>
       <c r="D589" s="22"/>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="25" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B590" s="25" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C590" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D590" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -4610,8 +4610,8 @@
   <dimension ref="A1:D590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D590" sqref="A589:D590"/>
+      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1241">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3685,6 +3685,60 @@
   </si>
   <si>
     <t>/cancertopics/treatment/drugs/fda-blinatumomab</t>
+  </si>
+  <si>
+    <t>/espanol/global/politicas</t>
+  </si>
+  <si>
+    <t>/espanol/politicas</t>
+  </si>
+  <si>
+    <t>/espanol/global/politicas/accesibilidad</t>
+  </si>
+  <si>
+    <t>/espanol/politicas/accesibilidad</t>
+  </si>
+  <si>
+    <t>/espanol/global/politicas/comentarios</t>
+  </si>
+  <si>
+    <t>/espanol/politicas/comentarios</t>
+  </si>
+  <si>
+    <t>/espanol/global/politicas/confidencialidad</t>
+  </si>
+  <si>
+    <t>/espanol/politicas/confidencialidad-seguridad</t>
+  </si>
+  <si>
+    <t>/espanol/global/politicas/derechos-de-autor</t>
+  </si>
+  <si>
+    <t>/espanol/politicas/derechos-de-autor-y-uso</t>
+  </si>
+  <si>
+    <t>/espanol/global/politicas/enlaces</t>
+  </si>
+  <si>
+    <t>/espanol/politicas/enlaces</t>
+  </si>
+  <si>
+    <t>/espanol/global/politicas/exoneracion</t>
+  </si>
+  <si>
+    <t>/espanol/politicas/exoneracion</t>
+  </si>
+  <si>
+    <t>/espanol/global/politicas/foia</t>
+  </si>
+  <si>
+    <t>/espanol/politicas/foia</t>
+  </si>
+  <si>
+    <t>/espanol/global/politicas/salida</t>
+  </si>
+  <si>
+    <t>/espanol/politicas/salida</t>
   </si>
 </sst>
 </file>
@@ -4607,11 +4661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D590"/>
+  <dimension ref="A1:D599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
+      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A593" sqref="A593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11703,6 +11757,114 @@
         <v>42117</v>
       </c>
       <c r="D590" s="22"/>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="25" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B591" s="25" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C591" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D591" s="22"/>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="25" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B592" s="25" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C592" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D592" s="22"/>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="25" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B593" s="25" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C593" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D593" s="22"/>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="25" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B594" s="25" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C594" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D594" s="22"/>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="25" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B595" s="25" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C595" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D595" s="22"/>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="25" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B596" s="25" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C596" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D596" s="22"/>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="25" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B597" s="25" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C597" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D597" s="22"/>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="25" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B598" s="25" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C598" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D598" s="22"/>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B599" s="25" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C599" s="18">
+        <v>42117</v>
+      </c>
+      <c r="D599" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1253">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3739,6 +3739,42 @@
   </si>
   <si>
     <t>/espanol/politicas/salida</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/basics</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/breast-changes</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/finding-changes</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/follow-up-care</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/follow-up-tests</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/lifetime-changes</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/mammogram</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/resources</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/support</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/test-results</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/understanding-breast-changes</t>
   </si>
 </sst>
 </file>
@@ -4661,11 +4697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D599"/>
+  <dimension ref="A1:D610"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A593" sqref="A593"/>
+      <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A600" sqref="A600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4673,7 +4709,7 @@
     <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11865,6 +11901,138 @@
         <v>42117</v>
       </c>
       <c r="D599" s="22"/>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="25" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B600" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C600" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D600" s="22"/>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="25" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B601" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C601" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D601" s="22"/>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="25" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B602" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C602" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D602" s="22"/>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="25" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B603" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C603" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D603" s="22"/>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="25" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B604" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C604" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D604" s="22"/>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="25" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B605" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C605" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D605" s="22"/>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="25" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B606" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C606" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D606" s="22"/>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="25" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B607" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C607" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D607" s="22"/>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="25" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B608" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C608" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D608" s="22"/>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" s="25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B609" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C609" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D609" s="22"/>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" s="25" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B610" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C610" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D610" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="UAT" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1259">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3775,6 +3775,24 @@
   </si>
   <si>
     <t>/cancertopics/types/breast/understanding-breast-changes</t>
+  </si>
+  <si>
+    <t>/researchandfunding/areas/clinical-trials/alchemist</t>
+  </si>
+  <si>
+    <t>/researchandfunding/areas/clinical-trials/nctn/alchemist</t>
+  </si>
+  <si>
+    <t>/researchandfunding/areas/clinical-trials/lung-map</t>
+  </si>
+  <si>
+    <t>/researchandfunding/areas/clinical-trials/nctn/lung-map</t>
+  </si>
+  <si>
+    <t>/researchandfunding/areas/clinical-trials/match</t>
+  </si>
+  <si>
+    <t>/researchandfunding/areas/clinical-trials/nctn/match</t>
   </si>
 </sst>
 </file>
@@ -4697,11 +4715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D610"/>
+  <dimension ref="A1:D613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A600" sqref="A600"/>
+      <selection pane="bottomLeft" activeCell="F611" sqref="F611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12033,6 +12051,42 @@
         <v>42118</v>
       </c>
       <c r="D610" s="22"/>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" s="25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B611" s="25" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C611" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D611" s="22"/>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="25" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B612" s="25" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C612" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D612" s="22"/>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" s="25" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B613" s="25" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C613" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D613" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1261">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3793,6 +3793,12 @@
   </si>
   <si>
     <t>/researchandfunding/areas/clinical-trials/nctn/match</t>
+  </si>
+  <si>
+    <t>/espanol/global/mapa-sitio</t>
+  </si>
+  <si>
+    <t>/espanol/acerca-sitio/mapa-sitio</t>
   </si>
 </sst>
 </file>
@@ -4715,11 +4721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D613"/>
+  <dimension ref="A1:D614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F611" sqref="F611"/>
+      <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A615" sqref="A615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12087,6 +12093,18 @@
         <v>42118</v>
       </c>
       <c r="D613" s="22"/>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="25" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B614" s="25" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C614" s="18">
+        <v>42118</v>
+      </c>
+      <c r="D614" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1265">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3799,6 +3799,18 @@
   </si>
   <si>
     <t>/espanol/acerca-sitio/mapa-sitio</t>
+  </si>
+  <si>
+    <t>/espanol/global/widgets/diccionario</t>
+  </si>
+  <si>
+    <t>/espanol/global/RSS</t>
+  </si>
+  <si>
+    <t>/espanol/sindicacion/widgets</t>
+  </si>
+  <si>
+    <t>/espanol/sindicacion/rss</t>
   </si>
 </sst>
 </file>
@@ -4721,11 +4733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D614"/>
+  <dimension ref="A1:D616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A615" sqref="A615"/>
+      <selection pane="bottomLeft" activeCell="A617" sqref="A617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12105,6 +12117,30 @@
         <v>42118</v>
       </c>
       <c r="D614" s="22"/>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" s="25" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B615" s="25" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C615" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D615" s="18"/>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" s="25" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B616" s="25" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C616" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D616" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1267">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3811,6 +3811,12 @@
   </si>
   <si>
     <t>/espanol/sindicacion/rss</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/estudios-clinicos/programas-del-nci</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/areas/estudios-clinicos</t>
   </si>
 </sst>
 </file>
@@ -4733,11 +4739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D616"/>
+  <dimension ref="A1:D617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A617" sqref="A617"/>
+      <selection pane="bottomLeft" activeCell="C617" sqref="C617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12141,6 +12147,17 @@
         <v>42121</v>
       </c>
       <c r="D616" s="18"/>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C617" s="18">
+        <v>42121</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1269">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3817,6 +3817,12 @@
   </si>
   <si>
     <t>/espanol/investigacion/areas/estudios-clinicos</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/learningabout/relatedresources</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/learningabout/what-are-clinical-trials</t>
   </si>
 </sst>
 </file>
@@ -4739,11 +4745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D617"/>
+  <dimension ref="A1:D618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C617" sqref="C617"/>
+      <selection pane="bottomLeft" activeCell="A620" sqref="A620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12149,15 +12155,28 @@
       <c r="D616" s="18"/>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+      <c r="A617" s="25" t="s">
         <v>1265</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B617" s="25" t="s">
         <v>1266</v>
       </c>
       <c r="C617" s="18">
         <v>42121</v>
       </c>
+      <c r="D617" s="18"/>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="25" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B618" s="25" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C618" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D618" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="17100" windowHeight="9030"/>
+    <workbookView xWindow="945" yWindow="-90" windowWidth="17100" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTION - LIVE" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="1321">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3823,6 +3823,162 @@
   </si>
   <si>
     <t>/clinicaltrials/learningabout/what-are-clinical-trials</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/sarcoma</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/sarcoma</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/sarcoma-de-kaposi</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/sarcoma-de-kaposi</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/mieloma</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/mieloma</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/melanoma</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/melanoma</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/linfoma</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/linfoma</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/infantil</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/infantil</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/vejiga</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/vejiga</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/tiroides</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/tiroides</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/seno</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/seno</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/rinon</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/rinon</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/pancreas</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/pancreas</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/pulmon</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/pulmon</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/prostata</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/prostata</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/ovario</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/ovario</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/esofago</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/esofago</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/estomago</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/estomago</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/endometrio</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/endometrio</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/cuello-uterino</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/cuello-uterino</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/colorrectal</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/colorrectal</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/nanotecnologia</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/nanotecnologia</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/adolescentes-y-adultos-jovenes</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/adolescentes-y-adultos-jovenes</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/higado-y-vias-biliares</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/higado-y-vias-biliares</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/cerebro</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/cerebro</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/cabeza-y-cuello</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/cabeza-y-cuello</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/instantaneas/leucemia</t>
+  </si>
+  <si>
+    <t>/espanol/investigacion/progreso/instantaneas/leucemia</t>
   </si>
 </sst>
 </file>
@@ -4745,11 +4901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D618"/>
+  <dimension ref="A1:D644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A620" sqref="A620"/>
+      <pane ySplit="1" topLeftCell="A609" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F639" sqref="F639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12177,6 +12333,318 @@
         <v>42121</v>
       </c>
       <c r="D618" s="18"/>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="25" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B619" s="25" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C619" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D619" s="18"/>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="25" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B620" s="25" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C620" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D620" s="18"/>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" s="25" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B621" s="25" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C621" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D621" s="18"/>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" s="25" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B622" s="25" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C622" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D622" s="18"/>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" s="25" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B623" s="25" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C623" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D623" s="18"/>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" s="25" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B624" s="25" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C624" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D624" s="18"/>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" s="25" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B625" s="25" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C625" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D625" s="18"/>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" s="25" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B626" s="25" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C626" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D626" s="18"/>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" s="25" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B627" s="25" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C627" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D627" s="18"/>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" s="25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B628" s="25" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C628" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D628" s="18"/>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" s="25" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B629" s="25" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C629" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D629" s="18"/>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" s="25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B630" s="25" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C630" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D630" s="18"/>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" s="25" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B631" s="25" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C631" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D631" s="18"/>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" s="25" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B632" s="25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C632" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D632" s="18"/>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" s="25" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B633" s="25" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C633" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D633" s="18"/>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" s="25" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B634" s="25" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C634" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D634" s="18"/>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" s="25" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B635" s="25" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C635" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D635" s="18"/>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" s="25" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B636" s="25" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C636" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D636" s="18"/>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" s="25" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B637" s="25" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C637" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D637" s="18"/>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" s="25" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B638" s="25" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C638" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D638" s="18"/>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" s="25" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B639" s="25" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C639" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D639" s="18"/>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="25" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B640" s="25" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C640" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D640" s="18"/>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="25" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B641" s="25" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C641" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D641" s="18"/>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" s="25" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B642" s="25" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C642" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D642" s="18"/>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" s="25" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B643" s="25" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C643" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D643" s="18"/>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="25" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B644" s="25" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C644" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D644" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="-90" windowWidth="17100" windowHeight="9030"/>
+    <workbookView xWindow="940" yWindow="-100" windowWidth="23180" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTION - LIVE" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="UAT" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1350">
   <si>
     <t>OLD URL</t>
   </si>
@@ -3979,6 +3984,93 @@
   </si>
   <si>
     <t>/espanol/investigacion/progreso/instantaneas/leucemia</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq</t>
+  </si>
+  <si>
+    <t>/publications/pdq</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/adulttreatment</t>
+  </si>
+  <si>
+    <t>/publications/pdq/information-summaries/adult-treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/pediatrictreatment</t>
+  </si>
+  <si>
+    <t>/publications/pdq/information-summaries/pediatric-treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/supportivecare</t>
+  </si>
+  <si>
+    <t>/publications/pdq/information-summaries/supportive-care</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/screening</t>
+  </si>
+  <si>
+    <t>/publications/pdq/information-summaries/screening</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/prevention</t>
+  </si>
+  <si>
+    <t>/publications/pdq/information-summaries/prevention</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/genetics</t>
+  </si>
+  <si>
+    <t>/publications/pdq/information-summaries/genetics</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/cam</t>
+  </si>
+  <si>
+    <t>/publications/pdq/information-summaries/cam</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/adult-treatment-board</t>
+  </si>
+  <si>
+    <t>/publications/pdq/editorial-boards/adult-treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/pediatric-treatment-board</t>
+  </si>
+  <si>
+    <t>/publications/pdq/editorial-boards/pediatric-treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/supportive-care-board</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/screening-prevention-board</t>
+  </si>
+  <si>
+    <t>/publications/pdq/editorial-boards/screening-prevention</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/cancer-genetics-board</t>
+  </si>
+  <si>
+    <t>/publications/pdq/editorial-boards/genetics</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/cancer-cam-board</t>
+  </si>
+  <si>
+    <t>/publications/pdq/editorial-boards/cam</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/about-editorial-boards</t>
+  </si>
+  <si>
+    <t>/publications/pdq/editorial-boards</t>
   </si>
 </sst>
 </file>
@@ -3988,7 +4080,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4134,6 +4226,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4449,34 +4556,34 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4522,8 +4629,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4556,8 +4664,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4586,6 +4695,7 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -4901,22 +5011,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D644"/>
+  <dimension ref="A1:D659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A609" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F639" sqref="F639"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D651" sqref="D651"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4930,7 +5040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4942,7 +5052,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4954,7 +5064,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -4966,7 +5076,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -4978,7 +5088,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -4990,7 +5100,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -5002,7 +5112,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -5014,7 +5124,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="5" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -5026,7 +5136,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -5038,7 +5148,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -5050,7 +5160,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="5" customFormat="1">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -5062,7 +5172,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="5" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -5074,7 +5184,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -5086,7 +5196,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="5" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -5098,7 +5208,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="5" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -5110,7 +5220,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -5122,7 +5232,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="5" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -5134,7 +5244,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
@@ -5146,7 +5256,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="5" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -5158,7 +5268,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="5" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -5170,7 +5280,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -5182,7 +5292,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
@@ -5194,7 +5304,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -5206,7 +5316,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
@@ -5218,7 +5328,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="5" customFormat="1">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -5230,7 +5340,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="5" customFormat="1">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -5242,7 +5352,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="5" customFormat="1">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -5254,7 +5364,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="5" customFormat="1">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -5266,7 +5376,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="5" customFormat="1">
       <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
@@ -5278,7 +5388,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="5" customFormat="1">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -5290,7 +5400,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="5" customFormat="1">
       <c r="A32" s="3" t="s">
         <v>66</v>
       </c>
@@ -5302,7 +5412,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="5" customFormat="1">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -5314,7 +5424,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="5" customFormat="1">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -5326,7 +5436,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="5" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -5338,7 +5448,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="5" customFormat="1">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -5350,7 +5460,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="5" customFormat="1">
       <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
@@ -5362,7 +5472,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="5" customFormat="1">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
@@ -5374,7 +5484,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="5" customFormat="1">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
@@ -5386,7 +5496,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="5" customFormat="1">
       <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
@@ -5398,7 +5508,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="5" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
@@ -5410,7 +5520,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="5" customFormat="1">
       <c r="A42" s="3" t="s">
         <v>85</v>
       </c>
@@ -5422,7 +5532,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="5" customFormat="1">
       <c r="A43" s="3" t="s">
         <v>87</v>
       </c>
@@ -5434,7 +5544,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="5" customFormat="1">
       <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
@@ -5446,7 +5556,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="5" customFormat="1">
       <c r="A45" s="3" t="s">
         <v>91</v>
       </c>
@@ -5458,7 +5568,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="5" customFormat="1">
       <c r="A46" s="3" t="s">
         <v>93</v>
       </c>
@@ -5470,7 +5580,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="5" customFormat="1">
       <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
@@ -5482,7 +5592,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="5" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -5494,7 +5604,7 @@
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="5" customFormat="1">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -5506,7 +5616,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="5" customFormat="1">
       <c r="A50" s="3" t="s">
         <v>101</v>
       </c>
@@ -5518,7 +5628,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="5" customFormat="1">
       <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
@@ -5530,7 +5640,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="5" customFormat="1">
       <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
@@ -5542,7 +5652,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="5" customFormat="1">
       <c r="A53" s="3" t="s">
         <v>107</v>
       </c>
@@ -5554,7 +5664,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="5" customFormat="1">
       <c r="A54" s="3" t="s">
         <v>109</v>
       </c>
@@ -5566,7 +5676,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="5" customFormat="1">
       <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
@@ -5578,7 +5688,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="5" customFormat="1">
       <c r="A56" s="3" t="s">
         <v>112</v>
       </c>
@@ -5590,7 +5700,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="5" customFormat="1">
       <c r="A57" s="3" t="s">
         <v>114</v>
       </c>
@@ -5602,7 +5712,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="5" customFormat="1">
       <c r="A58" s="3" t="s">
         <v>116</v>
       </c>
@@ -5614,7 +5724,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="5" customFormat="1">
       <c r="A59" s="3" t="s">
         <v>118</v>
       </c>
@@ -5626,7 +5736,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="5" customFormat="1">
       <c r="A60" s="3" t="s">
         <v>120</v>
       </c>
@@ -5638,7 +5748,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="5" customFormat="1">
       <c r="A61" s="3" t="s">
         <v>122</v>
       </c>
@@ -5650,7 +5760,7 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="5" customFormat="1">
       <c r="A62" s="3" t="s">
         <v>183</v>
       </c>
@@ -5662,7 +5772,7 @@
       </c>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="5" customFormat="1">
       <c r="A63" s="3" t="s">
         <v>185</v>
       </c>
@@ -5674,7 +5784,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="5" customFormat="1">
       <c r="A64" s="3" t="s">
         <v>187</v>
       </c>
@@ -5686,7 +5796,7 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="5" customFormat="1">
       <c r="A65" s="3" t="s">
         <v>189</v>
       </c>
@@ -5698,7 +5808,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" s="5" customFormat="1">
       <c r="A66" s="3" t="s">
         <v>191</v>
       </c>
@@ -5710,7 +5820,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="5" customFormat="1">
       <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
@@ -5722,7 +5832,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="5" customFormat="1">
       <c r="A68" s="3" t="s">
         <v>195</v>
       </c>
@@ -5734,7 +5844,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="5" customFormat="1">
       <c r="A69" s="3" t="s">
         <v>197</v>
       </c>
@@ -5746,7 +5856,7 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="5" customFormat="1">
       <c r="A70" s="3" t="s">
         <v>199</v>
       </c>
@@ -5758,7 +5868,7 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="5" customFormat="1">
       <c r="A71" s="3" t="s">
         <v>201</v>
       </c>
@@ -5770,7 +5880,7 @@
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="5" customFormat="1">
       <c r="A72" s="3" t="s">
         <v>203</v>
       </c>
@@ -5782,7 +5892,7 @@
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="5" customFormat="1">
       <c r="A73" s="3" t="s">
         <v>205</v>
       </c>
@@ -5794,7 +5904,7 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
         <v>207</v>
       </c>
@@ -5806,7 +5916,7 @@
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="3" t="s">
         <v>209</v>
       </c>
@@ -5818,7 +5928,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>211</v>
       </c>
@@ -5830,7 +5940,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
         <v>213</v>
       </c>
@@ -5842,7 +5952,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
@@ -5854,7 +5964,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>217</v>
       </c>
@@ -5866,7 +5976,7 @@
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
         <v>219</v>
       </c>
@@ -5878,7 +5988,7 @@
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
         <v>221</v>
       </c>
@@ -5890,7 +6000,7 @@
       </c>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
         <v>223</v>
       </c>
@@ -5902,7 +6012,7 @@
       </c>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="3" t="s">
         <v>225</v>
       </c>
@@ -5914,7 +6024,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
         <v>227</v>
       </c>
@@ -5926,7 +6036,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="3" t="s">
         <v>229</v>
       </c>
@@ -5938,7 +6048,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="3" t="s">
         <v>231</v>
       </c>
@@ -5950,7 +6060,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>233</v>
       </c>
@@ -5962,7 +6072,7 @@
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
         <v>235</v>
       </c>
@@ -5974,7 +6084,7 @@
       </c>
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="6" t="s">
         <v>237</v>
       </c>
@@ -5986,7 +6096,7 @@
       </c>
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="6" t="s">
         <v>239</v>
       </c>
@@ -5998,7 +6108,7 @@
       </c>
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="6" t="s">
         <v>241</v>
       </c>
@@ -6010,7 +6120,7 @@
       </c>
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="6" t="s">
         <v>243</v>
       </c>
@@ -6022,7 +6132,7 @@
       </c>
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="6" t="s">
         <v>245</v>
       </c>
@@ -6034,7 +6144,7 @@
       </c>
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="6" t="s">
         <v>247</v>
       </c>
@@ -6046,7 +6156,7 @@
       </c>
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="7" t="s">
         <v>249</v>
       </c>
@@ -6058,7 +6168,7 @@
       </c>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="8" t="s">
         <v>311</v>
       </c>
@@ -6070,7 +6180,7 @@
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="7" t="s">
         <v>251</v>
       </c>
@@ -6082,7 +6192,7 @@
       </c>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="6" t="s">
         <v>253</v>
       </c>
@@ -6094,7 +6204,7 @@
       </c>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="6" t="s">
         <v>255</v>
       </c>
@@ -6106,7 +6216,7 @@
       </c>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="6" t="s">
         <v>257</v>
       </c>
@@ -6118,7 +6228,7 @@
       </c>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="7" t="s">
         <v>259</v>
       </c>
@@ -6130,7 +6240,7 @@
       </c>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="6" t="s">
         <v>261</v>
       </c>
@@ -6142,7 +6252,7 @@
       </c>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="6" t="s">
         <v>263</v>
       </c>
@@ -6154,7 +6264,7 @@
       </c>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="6" t="s">
         <v>265</v>
       </c>
@@ -6166,7 +6276,7 @@
       </c>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="6" t="s">
         <v>267</v>
       </c>
@@ -6178,7 +6288,7 @@
       </c>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="6" t="s">
         <v>269</v>
       </c>
@@ -6190,7 +6300,7 @@
       </c>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="6" t="s">
         <v>271</v>
       </c>
@@ -6202,7 +6312,7 @@
       </c>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="6" t="s">
         <v>273</v>
       </c>
@@ -6214,7 +6324,7 @@
       </c>
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="6" t="s">
         <v>275</v>
       </c>
@@ -6226,7 +6336,7 @@
       </c>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="6" t="s">
         <v>277</v>
       </c>
@@ -6238,7 +6348,7 @@
       </c>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="6" t="s">
         <v>279</v>
       </c>
@@ -6250,7 +6360,7 @@
       </c>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="6" t="s">
         <v>281</v>
       </c>
@@ -6262,7 +6372,7 @@
       </c>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="6" t="s">
         <v>283</v>
       </c>
@@ -6274,7 +6384,7 @@
       </c>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="6" t="s">
         <v>285</v>
       </c>
@@ -6286,7 +6396,7 @@
       </c>
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="6" t="s">
         <v>287</v>
       </c>
@@ -6298,7 +6408,7 @@
       </c>
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>289</v>
       </c>
@@ -6310,7 +6420,7 @@
       </c>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="6" t="s">
         <v>291</v>
       </c>
@@ -6322,7 +6432,7 @@
       </c>
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="6" t="s">
         <v>293</v>
       </c>
@@ -6334,7 +6444,7 @@
       </c>
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="7" t="s">
         <v>295</v>
       </c>
@@ -6346,7 +6456,7 @@
       </c>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="6" t="s">
         <v>297</v>
       </c>
@@ -6358,7 +6468,7 @@
       </c>
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="6" t="s">
         <v>299</v>
       </c>
@@ -6370,7 +6480,7 @@
       </c>
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="6" t="s">
         <v>301</v>
       </c>
@@ -6382,7 +6492,7 @@
       </c>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="6" t="s">
         <v>303</v>
       </c>
@@ -6394,7 +6504,7 @@
       </c>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="6" t="s">
         <v>305</v>
       </c>
@@ -6406,7 +6516,7 @@
       </c>
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="6" t="s">
         <v>307</v>
       </c>
@@ -6418,7 +6528,7 @@
       </c>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="6" t="s">
         <v>309</v>
       </c>
@@ -6430,7 +6540,7 @@
       </c>
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" s="5" customFormat="1">
       <c r="A127" s="10" t="s">
         <v>313</v>
       </c>
@@ -6442,7 +6552,7 @@
       </c>
       <c r="D127" s="10"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="9" t="s">
         <v>315</v>
       </c>
@@ -6454,7 +6564,7 @@
       </c>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="9" t="s">
         <v>317</v>
       </c>
@@ -6466,7 +6576,7 @@
       </c>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="9" t="s">
         <v>319</v>
       </c>
@@ -6478,7 +6588,7 @@
       </c>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="9" t="s">
         <v>321</v>
       </c>
@@ -6490,7 +6600,7 @@
       </c>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="9" t="s">
         <v>323</v>
       </c>
@@ -6502,7 +6612,7 @@
       </c>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="9" t="s">
         <v>325</v>
       </c>
@@ -6514,7 +6624,7 @@
       </c>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="9" t="s">
         <v>327</v>
       </c>
@@ -6526,7 +6636,7 @@
       </c>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="9" t="s">
         <v>329</v>
       </c>
@@ -6538,7 +6648,7 @@
       </c>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="9" t="s">
         <v>331</v>
       </c>
@@ -6550,7 +6660,7 @@
       </c>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="9" t="s">
         <v>333</v>
       </c>
@@ -6562,7 +6672,7 @@
       </c>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="9" t="s">
         <v>335</v>
       </c>
@@ -6574,7 +6684,7 @@
       </c>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="9" t="s">
         <v>337</v>
       </c>
@@ -6586,7 +6696,7 @@
       </c>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="9" t="s">
         <v>339</v>
       </c>
@@ -6598,7 +6708,7 @@
       </c>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="9" t="s">
         <v>341</v>
       </c>
@@ -6610,7 +6720,7 @@
       </c>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="9" t="s">
         <v>343</v>
       </c>
@@ -6622,7 +6732,7 @@
       </c>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="9" t="s">
         <v>345</v>
       </c>
@@ -6634,7 +6744,7 @@
       </c>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="9" t="s">
         <v>347</v>
       </c>
@@ -6646,7 +6756,7 @@
       </c>
       <c r="D144" s="9"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="9" t="s">
         <v>349</v>
       </c>
@@ -6658,7 +6768,7 @@
       </c>
       <c r="D145" s="9"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="9" t="s">
         <v>351</v>
       </c>
@@ -6670,7 +6780,7 @@
       </c>
       <c r="D146" s="9"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="9" t="s">
         <v>353</v>
       </c>
@@ -6682,7 +6792,7 @@
       </c>
       <c r="D147" s="9"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="9" t="s">
         <v>355</v>
       </c>
@@ -6694,7 +6804,7 @@
       </c>
       <c r="D148" s="9"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="9" t="s">
         <v>357</v>
       </c>
@@ -6706,7 +6816,7 @@
       </c>
       <c r="D149" s="9"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="9" t="s">
         <v>359</v>
       </c>
@@ -6718,7 +6828,7 @@
       </c>
       <c r="D150" s="9"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="9" t="s">
         <v>361</v>
       </c>
@@ -6730,7 +6840,7 @@
       </c>
       <c r="D151" s="9"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="9" t="s">
         <v>363</v>
       </c>
@@ -6742,7 +6852,7 @@
       </c>
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="9" t="s">
         <v>365</v>
       </c>
@@ -6754,7 +6864,7 @@
       </c>
       <c r="D153" s="9"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="9" t="s">
         <v>367</v>
       </c>
@@ -6766,7 +6876,7 @@
       </c>
       <c r="D154" s="9"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="9" t="s">
         <v>369</v>
       </c>
@@ -6778,7 +6888,7 @@
       </c>
       <c r="D155" s="9"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="9" t="s">
         <v>371</v>
       </c>
@@ -6790,7 +6900,7 @@
       </c>
       <c r="D156" s="9"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="9" t="s">
         <v>373</v>
       </c>
@@ -6802,7 +6912,7 @@
       </c>
       <c r="D157" s="9"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="9" t="s">
         <v>375</v>
       </c>
@@ -6814,7 +6924,7 @@
       </c>
       <c r="D158" s="9"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="9" t="s">
         <v>377</v>
       </c>
@@ -6826,7 +6936,7 @@
       </c>
       <c r="D159" s="9"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="9" t="s">
         <v>379</v>
       </c>
@@ -6838,7 +6948,7 @@
       </c>
       <c r="D160" s="9"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" s="9" t="s">
         <v>381</v>
       </c>
@@ -6850,7 +6960,7 @@
       </c>
       <c r="D161" s="9"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" s="9" t="s">
         <v>383</v>
       </c>
@@ -6862,7 +6972,7 @@
       </c>
       <c r="D162" s="9"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="9" t="s">
         <v>385</v>
       </c>
@@ -6874,7 +6984,7 @@
       </c>
       <c r="D163" s="9"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" s="9" t="s">
         <v>387</v>
       </c>
@@ -6886,7 +6996,7 @@
       </c>
       <c r="D164" s="9"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" s="9" t="s">
         <v>389</v>
       </c>
@@ -6898,7 +7008,7 @@
       </c>
       <c r="D165" s="9"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="9" t="s">
         <v>391</v>
       </c>
@@ -6910,7 +7020,7 @@
       </c>
       <c r="D166" s="9"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" s="9" t="s">
         <v>393</v>
       </c>
@@ -6922,7 +7032,7 @@
       </c>
       <c r="D167" s="9"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="9" t="s">
         <v>395</v>
       </c>
@@ -6934,7 +7044,7 @@
       </c>
       <c r="D168" s="9"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" s="9" t="s">
         <v>397</v>
       </c>
@@ -6946,7 +7056,7 @@
       </c>
       <c r="D169" s="9"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" s="9" t="s">
         <v>399</v>
       </c>
@@ -6958,7 +7068,7 @@
       </c>
       <c r="D170" s="9"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" s="9" t="s">
         <v>401</v>
       </c>
@@ -6970,7 +7080,7 @@
       </c>
       <c r="D171" s="9"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" s="9" t="s">
         <v>403</v>
       </c>
@@ -6982,7 +7092,7 @@
       </c>
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" s="9" t="s">
         <v>405</v>
       </c>
@@ -6994,7 +7104,7 @@
       </c>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" s="9" t="s">
         <v>407</v>
       </c>
@@ -7006,7 +7116,7 @@
       </c>
       <c r="D174" s="9"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" s="9" t="s">
         <v>409</v>
       </c>
@@ -7018,7 +7128,7 @@
       </c>
       <c r="D175" s="9"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" s="9" t="s">
         <v>411</v>
       </c>
@@ -7030,7 +7140,7 @@
       </c>
       <c r="D176" s="9"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" s="9" t="s">
         <v>413</v>
       </c>
@@ -7042,7 +7152,7 @@
       </c>
       <c r="D177" s="9"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="9" t="s">
         <v>415</v>
       </c>
@@ -7054,7 +7164,7 @@
       </c>
       <c r="D178" s="9"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="9" t="s">
         <v>417</v>
       </c>
@@ -7066,7 +7176,7 @@
       </c>
       <c r="D179" s="9"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="9" t="s">
         <v>419</v>
       </c>
@@ -7078,7 +7188,7 @@
       </c>
       <c r="D180" s="9"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" s="9" t="s">
         <v>421</v>
       </c>
@@ -7090,7 +7200,7 @@
       </c>
       <c r="D181" s="9"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" s="9" t="s">
         <v>423</v>
       </c>
@@ -7102,7 +7212,7 @@
       </c>
       <c r="D182" s="9"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" s="9" t="s">
         <v>425</v>
       </c>
@@ -7114,7 +7224,7 @@
       </c>
       <c r="D183" s="9"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" s="9" t="s">
         <v>427</v>
       </c>
@@ -7126,7 +7236,7 @@
       </c>
       <c r="D184" s="9"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="9" t="s">
         <v>429</v>
       </c>
@@ -7138,7 +7248,7 @@
       </c>
       <c r="D185" s="9"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="9" t="s">
         <v>431</v>
       </c>
@@ -7150,7 +7260,7 @@
       </c>
       <c r="D186" s="9"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" s="9" t="s">
         <v>433</v>
       </c>
@@ -7162,7 +7272,7 @@
       </c>
       <c r="D187" s="9"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" s="9" t="s">
         <v>435</v>
       </c>
@@ -7174,7 +7284,7 @@
       </c>
       <c r="D188" s="9"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="9" t="s">
         <v>437</v>
       </c>
@@ -7186,7 +7296,7 @@
       </c>
       <c r="D189" s="9"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="9" t="s">
         <v>439</v>
       </c>
@@ -7198,7 +7308,7 @@
       </c>
       <c r="D190" s="9"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="9" t="s">
         <v>441</v>
       </c>
@@ -7210,7 +7320,7 @@
       </c>
       <c r="D191" s="9"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="9" t="s">
         <v>443</v>
       </c>
@@ -7222,7 +7332,7 @@
       </c>
       <c r="D192" s="9"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="9" t="s">
         <v>445</v>
       </c>
@@ -7234,7 +7344,7 @@
       </c>
       <c r="D193" s="9"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" s="9" t="s">
         <v>447</v>
       </c>
@@ -7246,7 +7356,7 @@
       </c>
       <c r="D194" s="9"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" s="9" t="s">
         <v>449</v>
       </c>
@@ -7258,7 +7368,7 @@
       </c>
       <c r="D195" s="9"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" s="9" t="s">
         <v>451</v>
       </c>
@@ -7270,7 +7380,7 @@
       </c>
       <c r="D196" s="9"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" s="9" t="s">
         <v>453</v>
       </c>
@@ -7282,7 +7392,7 @@
       </c>
       <c r="D197" s="9"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" s="9" t="s">
         <v>455</v>
       </c>
@@ -7294,7 +7404,7 @@
       </c>
       <c r="D198" s="9"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" s="9" t="s">
         <v>457</v>
       </c>
@@ -7306,7 +7416,7 @@
       </c>
       <c r="D199" s="9"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" s="9" t="s">
         <v>459</v>
       </c>
@@ -7318,7 +7428,7 @@
       </c>
       <c r="D200" s="9"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" s="9" t="s">
         <v>461</v>
       </c>
@@ -7330,7 +7440,7 @@
       </c>
       <c r="D201" s="9"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" s="9" t="s">
         <v>463</v>
       </c>
@@ -7342,7 +7452,7 @@
       </c>
       <c r="D202" s="9"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="A203" s="9" t="s">
         <v>465</v>
       </c>
@@ -7354,7 +7464,7 @@
       </c>
       <c r="D203" s="9"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="A204" s="9" t="s">
         <v>467</v>
       </c>
@@ -7366,7 +7476,7 @@
       </c>
       <c r="D204" s="9"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="A205" s="9" t="s">
         <v>469</v>
       </c>
@@ -7378,7 +7488,7 @@
       </c>
       <c r="D205" s="9"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4">
       <c r="A206" s="9" t="s">
         <v>471</v>
       </c>
@@ -7390,7 +7500,7 @@
       </c>
       <c r="D206" s="9"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="A207" s="9" t="s">
         <v>473</v>
       </c>
@@ -7402,7 +7512,7 @@
       </c>
       <c r="D207" s="9"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4">
       <c r="A208" s="9" t="s">
         <v>475</v>
       </c>
@@ -7414,7 +7524,7 @@
       </c>
       <c r="D208" s="9"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4">
       <c r="A209" s="9" t="s">
         <v>477</v>
       </c>
@@ -7426,7 +7536,7 @@
       </c>
       <c r="D209" s="9"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4">
       <c r="A210" s="9" t="s">
         <v>479</v>
       </c>
@@ -7438,7 +7548,7 @@
       </c>
       <c r="D210" s="9"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4">
       <c r="A211" s="9" t="s">
         <v>481</v>
       </c>
@@ -7450,7 +7560,7 @@
       </c>
       <c r="D211" s="9"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4">
       <c r="A212" s="9" t="s">
         <v>483</v>
       </c>
@@ -7462,7 +7572,7 @@
       </c>
       <c r="D212" s="9"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4">
       <c r="A213" s="9" t="s">
         <v>485</v>
       </c>
@@ -7474,7 +7584,7 @@
       </c>
       <c r="D213" s="9"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4">
       <c r="A214" s="9" t="s">
         <v>487</v>
       </c>
@@ -7486,7 +7596,7 @@
       </c>
       <c r="D214" s="9"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4">
       <c r="A215" s="9" t="s">
         <v>489</v>
       </c>
@@ -7498,7 +7608,7 @@
       </c>
       <c r="D215" s="9"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4">
       <c r="A216" s="9" t="s">
         <v>491</v>
       </c>
@@ -7510,7 +7620,7 @@
       </c>
       <c r="D216" s="9"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4">
       <c r="A217" s="9" t="s">
         <v>493</v>
       </c>
@@ -7522,7 +7632,7 @@
       </c>
       <c r="D217" s="9"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4">
       <c r="A218" s="9" t="s">
         <v>495</v>
       </c>
@@ -7534,7 +7644,7 @@
       </c>
       <c r="D218" s="9"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4">
       <c r="A219" s="9" t="s">
         <v>497</v>
       </c>
@@ -7546,7 +7656,7 @@
       </c>
       <c r="D219" s="9"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4">
       <c r="A220" s="9" t="s">
         <v>499</v>
       </c>
@@ -7558,7 +7668,7 @@
       </c>
       <c r="D220" s="9"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4">
       <c r="A221" s="9" t="s">
         <v>501</v>
       </c>
@@ -7570,7 +7680,7 @@
       </c>
       <c r="D221" s="9"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4">
       <c r="A222" s="9" t="s">
         <v>503</v>
       </c>
@@ -7582,7 +7692,7 @@
       </c>
       <c r="D222" s="9"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4">
       <c r="A223" s="9" t="s">
         <v>505</v>
       </c>
@@ -7594,7 +7704,7 @@
       </c>
       <c r="D223" s="9"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4">
       <c r="A224" s="9" t="s">
         <v>507</v>
       </c>
@@ -7606,7 +7716,7 @@
       </c>
       <c r="D224" s="9"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="A225" s="9" t="s">
         <v>509</v>
       </c>
@@ -7618,7 +7728,7 @@
       </c>
       <c r="D225" s="9"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4">
       <c r="A226" s="9" t="s">
         <v>511</v>
       </c>
@@ -7630,7 +7740,7 @@
       </c>
       <c r="D226" s="9"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4">
       <c r="A227" s="9" t="s">
         <v>513</v>
       </c>
@@ -7642,7 +7752,7 @@
       </c>
       <c r="D227" s="9"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4">
       <c r="A228" s="9" t="s">
         <v>515</v>
       </c>
@@ -7654,7 +7764,7 @@
       </c>
       <c r="D228" s="9"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229" s="9" t="s">
         <v>532</v>
       </c>
@@ -7666,7 +7776,7 @@
       </c>
       <c r="D229" s="9"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230" s="9" t="s">
         <v>518</v>
       </c>
@@ -7678,7 +7788,7 @@
       </c>
       <c r="D230" s="9"/>
     </row>
-    <row r="231" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" s="20" customFormat="1">
       <c r="A231" s="9" t="s">
         <v>520</v>
       </c>
@@ -7690,7 +7800,7 @@
       </c>
       <c r="D231" s="9"/>
     </row>
-    <row r="232" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" s="20" customFormat="1">
       <c r="A232" s="9" t="s">
         <v>521</v>
       </c>
@@ -7702,7 +7812,7 @@
       </c>
       <c r="D232" s="9"/>
     </row>
-    <row r="233" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" s="20" customFormat="1">
       <c r="A233" s="9" t="s">
         <v>522</v>
       </c>
@@ -7714,7 +7824,7 @@
       </c>
       <c r="D233" s="9"/>
     </row>
-    <row r="234" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" s="20" customFormat="1">
       <c r="A234" s="9" t="s">
         <v>523</v>
       </c>
@@ -7726,7 +7836,7 @@
       </c>
       <c r="D234" s="9"/>
     </row>
-    <row r="235" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" s="20" customFormat="1">
       <c r="A235" s="9" t="s">
         <v>524</v>
       </c>
@@ -7738,7 +7848,7 @@
       </c>
       <c r="D235" s="9"/>
     </row>
-    <row r="236" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" s="20" customFormat="1">
       <c r="A236" s="9" t="s">
         <v>525</v>
       </c>
@@ -7750,7 +7860,7 @@
       </c>
       <c r="D236" s="9"/>
     </row>
-    <row r="237" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" s="20" customFormat="1">
       <c r="A237" s="9" t="s">
         <v>533</v>
       </c>
@@ -7762,7 +7872,7 @@
       </c>
       <c r="D237" s="9"/>
     </row>
-    <row r="238" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" s="20" customFormat="1">
       <c r="A238" s="9" t="s">
         <v>535</v>
       </c>
@@ -7774,7 +7884,7 @@
       </c>
       <c r="D238" s="9"/>
     </row>
-    <row r="239" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" s="20" customFormat="1">
       <c r="A239" s="9" t="s">
         <v>537</v>
       </c>
@@ -7786,7 +7896,7 @@
       </c>
       <c r="D239" s="9"/>
     </row>
-    <row r="240" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" s="20" customFormat="1">
       <c r="A240" s="9" t="s">
         <v>539</v>
       </c>
@@ -7798,7 +7908,7 @@
       </c>
       <c r="D240" s="9"/>
     </row>
-    <row r="241" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" s="20" customFormat="1">
       <c r="A241" s="9" t="s">
         <v>541</v>
       </c>
@@ -7810,7 +7920,7 @@
       </c>
       <c r="D241" s="9"/>
     </row>
-    <row r="242" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" s="20" customFormat="1">
       <c r="A242" s="9" t="s">
         <v>543</v>
       </c>
@@ -7822,7 +7932,7 @@
       </c>
       <c r="D242" s="9"/>
     </row>
-    <row r="243" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" s="20" customFormat="1">
       <c r="A243" s="9" t="s">
         <v>556</v>
       </c>
@@ -7834,7 +7944,7 @@
       </c>
       <c r="D243" s="9"/>
     </row>
-    <row r="244" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" s="20" customFormat="1">
       <c r="A244" s="9" t="s">
         <v>554</v>
       </c>
@@ -7846,7 +7956,7 @@
       </c>
       <c r="D244" s="9"/>
     </row>
-    <row r="245" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" s="20" customFormat="1">
       <c r="A245" s="9" t="s">
         <v>552</v>
       </c>
@@ -7858,7 +7968,7 @@
       </c>
       <c r="D245" s="9"/>
     </row>
-    <row r="246" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" s="20" customFormat="1">
       <c r="A246" s="9" t="s">
         <v>550</v>
       </c>
@@ -7870,7 +7980,7 @@
       </c>
       <c r="D246" s="9"/>
     </row>
-    <row r="247" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" s="20" customFormat="1">
       <c r="A247" s="9" t="s">
         <v>548</v>
       </c>
@@ -7882,7 +7992,7 @@
       </c>
       <c r="D247" s="9"/>
     </row>
-    <row r="248" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" s="20" customFormat="1">
       <c r="A248" s="9" t="s">
         <v>546</v>
       </c>
@@ -7894,7 +8004,7 @@
       </c>
       <c r="D248" s="9"/>
     </row>
-    <row r="249" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" s="20" customFormat="1">
       <c r="A249" s="9" t="s">
         <v>557</v>
       </c>
@@ -7906,7 +8016,7 @@
       </c>
       <c r="D249" s="9"/>
     </row>
-    <row r="250" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" s="20" customFormat="1">
       <c r="A250" s="9" t="s">
         <v>559</v>
       </c>
@@ -7918,7 +8028,7 @@
       </c>
       <c r="D250" s="9"/>
     </row>
-    <row r="251" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" s="20" customFormat="1">
       <c r="A251" s="9" t="s">
         <v>561</v>
       </c>
@@ -7930,7 +8040,7 @@
       </c>
       <c r="D251" s="9"/>
     </row>
-    <row r="252" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" s="20" customFormat="1">
       <c r="A252" s="9" t="s">
         <v>563</v>
       </c>
@@ -7942,7 +8052,7 @@
       </c>
       <c r="D252" s="9"/>
     </row>
-    <row r="253" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" s="20" customFormat="1">
       <c r="A253" s="9" t="s">
         <v>565</v>
       </c>
@@ -7954,7 +8064,7 @@
       </c>
       <c r="D253" s="9"/>
     </row>
-    <row r="254" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" s="20" customFormat="1">
       <c r="A254" s="9" t="s">
         <v>567</v>
       </c>
@@ -7966,7 +8076,7 @@
       </c>
       <c r="D254" s="9"/>
     </row>
-    <row r="255" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" s="20" customFormat="1">
       <c r="A255" s="9" t="s">
         <v>569</v>
       </c>
@@ -7978,7 +8088,7 @@
       </c>
       <c r="D255" s="9"/>
     </row>
-    <row r="256" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" s="20" customFormat="1">
       <c r="A256" s="9" t="s">
         <v>571</v>
       </c>
@@ -7990,7 +8100,7 @@
       </c>
       <c r="D256" s="9"/>
     </row>
-    <row r="257" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" s="20" customFormat="1">
       <c r="A257" s="9" t="s">
         <v>573</v>
       </c>
@@ -8002,7 +8112,7 @@
       </c>
       <c r="D257" s="9"/>
     </row>
-    <row r="258" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" s="20" customFormat="1">
       <c r="A258" s="9" t="s">
         <v>575</v>
       </c>
@@ -8014,7 +8124,7 @@
       </c>
       <c r="D258" s="9"/>
     </row>
-    <row r="259" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" s="20" customFormat="1">
       <c r="A259" s="9" t="s">
         <v>577</v>
       </c>
@@ -8026,7 +8136,7 @@
       </c>
       <c r="D259" s="9"/>
     </row>
-    <row r="260" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" s="20" customFormat="1">
       <c r="A260" s="9" t="s">
         <v>579</v>
       </c>
@@ -8038,7 +8148,7 @@
       </c>
       <c r="D260" s="9"/>
     </row>
-    <row r="261" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" s="20" customFormat="1">
       <c r="A261" s="9" t="s">
         <v>581</v>
       </c>
@@ -8050,7 +8160,7 @@
       </c>
       <c r="D261" s="9"/>
     </row>
-    <row r="262" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" s="20" customFormat="1">
       <c r="A262" s="9" t="s">
         <v>583</v>
       </c>
@@ -8062,7 +8172,7 @@
       </c>
       <c r="D262" s="9"/>
     </row>
-    <row r="263" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" s="20" customFormat="1">
       <c r="A263" s="9" t="s">
         <v>585</v>
       </c>
@@ -8074,7 +8184,7 @@
       </c>
       <c r="D263" s="9"/>
     </row>
-    <row r="264" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" s="20" customFormat="1">
       <c r="A264" s="9" t="s">
         <v>587</v>
       </c>
@@ -8086,7 +8196,7 @@
       </c>
       <c r="D264" s="9"/>
     </row>
-    <row r="265" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" s="20" customFormat="1">
       <c r="A265" s="9" t="s">
         <v>589</v>
       </c>
@@ -8098,7 +8208,7 @@
       </c>
       <c r="D265" s="9"/>
     </row>
-    <row r="266" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" s="20" customFormat="1">
       <c r="A266" s="9" t="s">
         <v>591</v>
       </c>
@@ -8110,7 +8220,7 @@
       </c>
       <c r="D266" s="9"/>
     </row>
-    <row r="267" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" s="20" customFormat="1">
       <c r="A267" s="9" t="s">
         <v>593</v>
       </c>
@@ -8122,7 +8232,7 @@
       </c>
       <c r="D267" s="9"/>
     </row>
-    <row r="268" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" s="20" customFormat="1">
       <c r="A268" s="9" t="s">
         <v>595</v>
       </c>
@@ -8134,7 +8244,7 @@
       </c>
       <c r="D268" s="9"/>
     </row>
-    <row r="269" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" s="20" customFormat="1">
       <c r="A269" s="9" t="s">
         <v>597</v>
       </c>
@@ -8146,7 +8256,7 @@
       </c>
       <c r="D269" s="9"/>
     </row>
-    <row r="270" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" s="20" customFormat="1">
       <c r="A270" s="9" t="s">
         <v>599</v>
       </c>
@@ -8158,7 +8268,7 @@
       </c>
       <c r="D270" s="9"/>
     </row>
-    <row r="271" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" s="20" customFormat="1">
       <c r="A271" s="9" t="s">
         <v>601</v>
       </c>
@@ -8170,7 +8280,7 @@
       </c>
       <c r="D271" s="9"/>
     </row>
-    <row r="272" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" s="20" customFormat="1">
       <c r="A272" s="9" t="s">
         <v>603</v>
       </c>
@@ -8182,7 +8292,7 @@
       </c>
       <c r="D272" s="9"/>
     </row>
-    <row r="273" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" s="20" customFormat="1">
       <c r="A273" s="9" t="s">
         <v>605</v>
       </c>
@@ -8194,7 +8304,7 @@
       </c>
       <c r="D273" s="9"/>
     </row>
-    <row r="274" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" s="20" customFormat="1">
       <c r="A274" s="9" t="s">
         <v>607</v>
       </c>
@@ -8206,7 +8316,7 @@
       </c>
       <c r="D274" s="9"/>
     </row>
-    <row r="275" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" s="20" customFormat="1">
       <c r="A275" s="9" t="s">
         <v>609</v>
       </c>
@@ -8218,7 +8328,7 @@
       </c>
       <c r="D275" s="9"/>
     </row>
-    <row r="276" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" s="20" customFormat="1">
       <c r="A276" s="9" t="s">
         <v>611</v>
       </c>
@@ -8230,7 +8340,7 @@
       </c>
       <c r="D276" s="9"/>
     </row>
-    <row r="277" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" s="20" customFormat="1">
       <c r="A277" s="9" t="s">
         <v>613</v>
       </c>
@@ -8242,7 +8352,7 @@
       </c>
       <c r="D277" s="9"/>
     </row>
-    <row r="278" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" s="20" customFormat="1">
       <c r="A278" s="9" t="s">
         <v>615</v>
       </c>
@@ -8254,7 +8364,7 @@
       </c>
       <c r="D278" s="9"/>
     </row>
-    <row r="279" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" s="20" customFormat="1">
       <c r="A279" s="9" t="s">
         <v>617</v>
       </c>
@@ -8266,7 +8376,7 @@
       </c>
       <c r="D279" s="9"/>
     </row>
-    <row r="280" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" s="20" customFormat="1">
       <c r="A280" s="9" t="s">
         <v>619</v>
       </c>
@@ -8278,7 +8388,7 @@
       </c>
       <c r="D280" s="9"/>
     </row>
-    <row r="281" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" s="20" customFormat="1">
       <c r="A281" s="9" t="s">
         <v>621</v>
       </c>
@@ -8290,7 +8400,7 @@
       </c>
       <c r="D281" s="9"/>
     </row>
-    <row r="282" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" s="20" customFormat="1">
       <c r="A282" s="9" t="s">
         <v>623</v>
       </c>
@@ -8302,7 +8412,7 @@
       </c>
       <c r="D282" s="9"/>
     </row>
-    <row r="283" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" s="20" customFormat="1">
       <c r="A283" s="9" t="s">
         <v>625</v>
       </c>
@@ -8314,7 +8424,7 @@
       </c>
       <c r="D283" s="9"/>
     </row>
-    <row r="284" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" s="20" customFormat="1">
       <c r="A284" s="9" t="s">
         <v>627</v>
       </c>
@@ -8326,7 +8436,7 @@
       </c>
       <c r="D284" s="9"/>
     </row>
-    <row r="285" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" s="20" customFormat="1">
       <c r="A285" s="9" t="s">
         <v>629</v>
       </c>
@@ -8338,7 +8448,7 @@
       </c>
       <c r="D285" s="9"/>
     </row>
-    <row r="286" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" s="20" customFormat="1">
       <c r="A286" s="9" t="s">
         <v>631</v>
       </c>
@@ -8350,7 +8460,7 @@
       </c>
       <c r="D286" s="9"/>
     </row>
-    <row r="287" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" s="20" customFormat="1">
       <c r="A287" s="9" t="s">
         <v>633</v>
       </c>
@@ -8362,7 +8472,7 @@
       </c>
       <c r="D287" s="9"/>
     </row>
-    <row r="288" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" s="20" customFormat="1">
       <c r="A288" s="9" t="s">
         <v>635</v>
       </c>
@@ -8374,7 +8484,7 @@
       </c>
       <c r="D288" s="9"/>
     </row>
-    <row r="289" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" s="20" customFormat="1">
       <c r="A289" s="9" t="s">
         <v>637</v>
       </c>
@@ -8386,7 +8496,7 @@
       </c>
       <c r="D289" s="9"/>
     </row>
-    <row r="290" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" s="20" customFormat="1">
       <c r="A290" s="9" t="s">
         <v>639</v>
       </c>
@@ -8398,7 +8508,7 @@
       </c>
       <c r="D290" s="9"/>
     </row>
-    <row r="291" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" s="20" customFormat="1">
       <c r="A291" s="9" t="s">
         <v>641</v>
       </c>
@@ -8410,7 +8520,7 @@
       </c>
       <c r="D291" s="9"/>
     </row>
-    <row r="292" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" s="20" customFormat="1">
       <c r="A292" s="9" t="s">
         <v>643</v>
       </c>
@@ -8422,7 +8532,7 @@
       </c>
       <c r="D292" s="9"/>
     </row>
-    <row r="293" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" s="20" customFormat="1">
       <c r="A293" s="9" t="s">
         <v>645</v>
       </c>
@@ -8434,7 +8544,7 @@
       </c>
       <c r="D293" s="9"/>
     </row>
-    <row r="294" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" s="20" customFormat="1">
       <c r="A294" s="9" t="s">
         <v>647</v>
       </c>
@@ -8446,7 +8556,7 @@
       </c>
       <c r="D294" s="9"/>
     </row>
-    <row r="295" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" s="20" customFormat="1">
       <c r="A295" s="9" t="s">
         <v>649</v>
       </c>
@@ -8458,7 +8568,7 @@
       </c>
       <c r="D295" s="9"/>
     </row>
-    <row r="296" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" s="20" customFormat="1">
       <c r="A296" s="9" t="s">
         <v>651</v>
       </c>
@@ -8470,7 +8580,7 @@
       </c>
       <c r="D296" s="9"/>
     </row>
-    <row r="297" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" s="20" customFormat="1">
       <c r="A297" s="9" t="s">
         <v>653</v>
       </c>
@@ -8482,7 +8592,7 @@
       </c>
       <c r="D297" s="9"/>
     </row>
-    <row r="298" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" s="20" customFormat="1">
       <c r="A298" s="9" t="s">
         <v>655</v>
       </c>
@@ -8494,7 +8604,7 @@
       </c>
       <c r="D298" s="9"/>
     </row>
-    <row r="299" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" s="20" customFormat="1">
       <c r="A299" s="9" t="s">
         <v>657</v>
       </c>
@@ -8506,7 +8616,7 @@
       </c>
       <c r="D299" s="9"/>
     </row>
-    <row r="300" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" s="20" customFormat="1">
       <c r="A300" s="9" t="s">
         <v>659</v>
       </c>
@@ -8518,7 +8628,7 @@
       </c>
       <c r="D300" s="9"/>
     </row>
-    <row r="301" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" s="20" customFormat="1">
       <c r="A301" s="9" t="s">
         <v>661</v>
       </c>
@@ -8530,7 +8640,7 @@
       </c>
       <c r="D301" s="9"/>
     </row>
-    <row r="302" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" s="20" customFormat="1">
       <c r="A302" s="9" t="s">
         <v>663</v>
       </c>
@@ -8542,7 +8652,7 @@
       </c>
       <c r="D302" s="9"/>
     </row>
-    <row r="303" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" s="20" customFormat="1">
       <c r="A303" s="9" t="s">
         <v>665</v>
       </c>
@@ -8554,7 +8664,7 @@
       </c>
       <c r="D303" s="9"/>
     </row>
-    <row r="304" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" s="20" customFormat="1">
       <c r="A304" s="9" t="s">
         <v>667</v>
       </c>
@@ -8566,7 +8676,7 @@
       </c>
       <c r="D304" s="9"/>
     </row>
-    <row r="305" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" s="20" customFormat="1">
       <c r="A305" s="9" t="s">
         <v>669</v>
       </c>
@@ -8578,7 +8688,7 @@
       </c>
       <c r="D305" s="9"/>
     </row>
-    <row r="306" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" s="20" customFormat="1">
       <c r="A306" s="9" t="s">
         <v>671</v>
       </c>
@@ -8590,7 +8700,7 @@
       </c>
       <c r="D306" s="9"/>
     </row>
-    <row r="307" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" s="20" customFormat="1">
       <c r="A307" s="9" t="s">
         <v>673</v>
       </c>
@@ -8602,7 +8712,7 @@
       </c>
       <c r="D307" s="9"/>
     </row>
-    <row r="308" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" s="20" customFormat="1">
       <c r="A308" s="9" t="s">
         <v>675</v>
       </c>
@@ -8614,7 +8724,7 @@
       </c>
       <c r="D308" s="9"/>
     </row>
-    <row r="309" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" s="20" customFormat="1">
       <c r="A309" s="9" t="s">
         <v>677</v>
       </c>
@@ -8626,7 +8736,7 @@
       </c>
       <c r="D309" s="9"/>
     </row>
-    <row r="310" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" s="20" customFormat="1">
       <c r="A310" s="9" t="s">
         <v>679</v>
       </c>
@@ -8638,7 +8748,7 @@
       </c>
       <c r="D310" s="9"/>
     </row>
-    <row r="311" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" s="20" customFormat="1">
       <c r="A311" s="9" t="s">
         <v>681</v>
       </c>
@@ -8650,7 +8760,7 @@
       </c>
       <c r="D311" s="9"/>
     </row>
-    <row r="312" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" s="20" customFormat="1">
       <c r="A312" s="9" t="s">
         <v>683</v>
       </c>
@@ -8662,7 +8772,7 @@
       </c>
       <c r="D312" s="9"/>
     </row>
-    <row r="313" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" s="20" customFormat="1">
       <c r="A313" s="9" t="s">
         <v>685</v>
       </c>
@@ -8674,7 +8784,7 @@
       </c>
       <c r="D313" s="9"/>
     </row>
-    <row r="314" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" s="20" customFormat="1">
       <c r="A314" s="9" t="s">
         <v>687</v>
       </c>
@@ -8686,7 +8796,7 @@
       </c>
       <c r="D314" s="9"/>
     </row>
-    <row r="315" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" s="20" customFormat="1">
       <c r="A315" s="9" t="s">
         <v>689</v>
       </c>
@@ -8698,7 +8808,7 @@
       </c>
       <c r="D315" s="9"/>
     </row>
-    <row r="316" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" s="20" customFormat="1">
       <c r="A316" s="9" t="s">
         <v>691</v>
       </c>
@@ -8710,7 +8820,7 @@
       </c>
       <c r="D316" s="9"/>
     </row>
-    <row r="317" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" s="20" customFormat="1">
       <c r="A317" s="9" t="s">
         <v>693</v>
       </c>
@@ -8722,7 +8832,7 @@
       </c>
       <c r="D317" s="9"/>
     </row>
-    <row r="318" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" s="20" customFormat="1">
       <c r="A318" s="9" t="s">
         <v>695</v>
       </c>
@@ -8734,7 +8844,7 @@
       </c>
       <c r="D318" s="9"/>
     </row>
-    <row r="319" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" s="20" customFormat="1">
       <c r="A319" s="9" t="s">
         <v>697</v>
       </c>
@@ -8746,7 +8856,7 @@
       </c>
       <c r="D319" s="9"/>
     </row>
-    <row r="320" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" s="20" customFormat="1">
       <c r="A320" s="9" t="s">
         <v>699</v>
       </c>
@@ -8758,7 +8868,7 @@
       </c>
       <c r="D320" s="9"/>
     </row>
-    <row r="321" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" s="20" customFormat="1">
       <c r="A321" s="9" t="s">
         <v>701</v>
       </c>
@@ -8770,7 +8880,7 @@
       </c>
       <c r="D321" s="9"/>
     </row>
-    <row r="322" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" s="20" customFormat="1">
       <c r="A322" s="9" t="s">
         <v>703</v>
       </c>
@@ -8782,7 +8892,7 @@
       </c>
       <c r="D322" s="9"/>
     </row>
-    <row r="323" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" s="20" customFormat="1">
       <c r="A323" s="9" t="s">
         <v>705</v>
       </c>
@@ -8794,7 +8904,7 @@
       </c>
       <c r="D323" s="9"/>
     </row>
-    <row r="324" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" s="20" customFormat="1">
       <c r="A324" s="9" t="s">
         <v>707</v>
       </c>
@@ -8806,7 +8916,7 @@
       </c>
       <c r="D324" s="9"/>
     </row>
-    <row r="325" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" s="20" customFormat="1">
       <c r="A325" s="9" t="s">
         <v>709</v>
       </c>
@@ -8818,7 +8928,7 @@
       </c>
       <c r="D325" s="9"/>
     </row>
-    <row r="326" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" s="20" customFormat="1">
       <c r="A326" s="9" t="s">
         <v>711</v>
       </c>
@@ -8830,7 +8940,7 @@
       </c>
       <c r="D326" s="9"/>
     </row>
-    <row r="327" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" s="20" customFormat="1">
       <c r="A327" s="9" t="s">
         <v>713</v>
       </c>
@@ -8842,7 +8952,7 @@
       </c>
       <c r="D327" s="9"/>
     </row>
-    <row r="328" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" s="20" customFormat="1">
       <c r="A328" s="9" t="s">
         <v>715</v>
       </c>
@@ -8854,7 +8964,7 @@
       </c>
       <c r="D328" s="9"/>
     </row>
-    <row r="329" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" s="20" customFormat="1">
       <c r="A329" s="9" t="s">
         <v>717</v>
       </c>
@@ -8866,7 +8976,7 @@
       </c>
       <c r="D329" s="9"/>
     </row>
-    <row r="330" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" s="20" customFormat="1">
       <c r="A330" s="9" t="s">
         <v>719</v>
       </c>
@@ -8878,7 +8988,7 @@
       </c>
       <c r="D330" s="9"/>
     </row>
-    <row r="331" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" s="20" customFormat="1">
       <c r="A331" s="9" t="s">
         <v>721</v>
       </c>
@@ -8890,7 +9000,7 @@
       </c>
       <c r="D331" s="9"/>
     </row>
-    <row r="332" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" s="20" customFormat="1">
       <c r="A332" s="9" t="s">
         <v>723</v>
       </c>
@@ -8902,7 +9012,7 @@
       </c>
       <c r="D332" s="9"/>
     </row>
-    <row r="333" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" s="20" customFormat="1">
       <c r="A333" s="9" t="s">
         <v>725</v>
       </c>
@@ -8914,7 +9024,7 @@
       </c>
       <c r="D333" s="9"/>
     </row>
-    <row r="334" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" s="20" customFormat="1">
       <c r="A334" s="9" t="s">
         <v>727</v>
       </c>
@@ -8926,7 +9036,7 @@
       </c>
       <c r="D334" s="9"/>
     </row>
-    <row r="335" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" s="20" customFormat="1">
       <c r="A335" s="9" t="s">
         <v>729</v>
       </c>
@@ -8938,7 +9048,7 @@
       </c>
       <c r="D335" s="9"/>
     </row>
-    <row r="336" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" s="20" customFormat="1">
       <c r="A336" s="9" t="s">
         <v>731</v>
       </c>
@@ -8950,7 +9060,7 @@
       </c>
       <c r="D336" s="9"/>
     </row>
-    <row r="337" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" s="20" customFormat="1">
       <c r="A337" s="9" t="s">
         <v>733</v>
       </c>
@@ -8962,7 +9072,7 @@
       </c>
       <c r="D337" s="9"/>
     </row>
-    <row r="338" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" s="20" customFormat="1">
       <c r="A338" s="9" t="s">
         <v>735</v>
       </c>
@@ -8974,7 +9084,7 @@
       </c>
       <c r="D338" s="9"/>
     </row>
-    <row r="339" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" s="20" customFormat="1">
       <c r="A339" s="9" t="s">
         <v>737</v>
       </c>
@@ -8986,7 +9096,7 @@
       </c>
       <c r="D339" s="9"/>
     </row>
-    <row r="340" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" s="20" customFormat="1">
       <c r="A340" s="9" t="s">
         <v>739</v>
       </c>
@@ -8998,7 +9108,7 @@
       </c>
       <c r="D340" s="9"/>
     </row>
-    <row r="341" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" s="20" customFormat="1">
       <c r="A341" s="9" t="s">
         <v>741</v>
       </c>
@@ -9010,7 +9120,7 @@
       </c>
       <c r="D341" s="9"/>
     </row>
-    <row r="342" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" s="20" customFormat="1">
       <c r="A342" s="9" t="s">
         <v>743</v>
       </c>
@@ -9022,7 +9132,7 @@
       </c>
       <c r="D342" s="9"/>
     </row>
-    <row r="343" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" s="20" customFormat="1">
       <c r="A343" s="9" t="s">
         <v>745</v>
       </c>
@@ -9034,7 +9144,7 @@
       </c>
       <c r="D343" s="9"/>
     </row>
-    <row r="344" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" s="20" customFormat="1">
       <c r="A344" s="9" t="s">
         <v>747</v>
       </c>
@@ -9046,7 +9156,7 @@
       </c>
       <c r="D344" s="9"/>
     </row>
-    <row r="345" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" s="20" customFormat="1">
       <c r="A345" s="9" t="s">
         <v>749</v>
       </c>
@@ -9058,7 +9168,7 @@
       </c>
       <c r="D345" s="9"/>
     </row>
-    <row r="346" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" s="20" customFormat="1">
       <c r="A346" s="9" t="s">
         <v>751</v>
       </c>
@@ -9070,7 +9180,7 @@
       </c>
       <c r="D346" s="9"/>
     </row>
-    <row r="347" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" s="20" customFormat="1">
       <c r="A347" s="9" t="s">
         <v>753</v>
       </c>
@@ -9082,7 +9192,7 @@
       </c>
       <c r="D347" s="9"/>
     </row>
-    <row r="348" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" s="20" customFormat="1">
       <c r="A348" s="9" t="s">
         <v>755</v>
       </c>
@@ -9094,7 +9204,7 @@
       </c>
       <c r="D348" s="9"/>
     </row>
-    <row r="349" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" s="20" customFormat="1">
       <c r="A349" s="9" t="s">
         <v>757</v>
       </c>
@@ -9106,7 +9216,7 @@
       </c>
       <c r="D349" s="9"/>
     </row>
-    <row r="350" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" s="20" customFormat="1">
       <c r="A350" s="9" t="s">
         <v>759</v>
       </c>
@@ -9118,7 +9228,7 @@
       </c>
       <c r="D350" s="9"/>
     </row>
-    <row r="351" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" s="20" customFormat="1">
       <c r="A351" s="9" t="s">
         <v>761</v>
       </c>
@@ -9130,7 +9240,7 @@
       </c>
       <c r="D351" s="9"/>
     </row>
-    <row r="352" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" s="20" customFormat="1">
       <c r="A352" s="9" t="s">
         <v>763</v>
       </c>
@@ -9142,7 +9252,7 @@
       </c>
       <c r="D352" s="9"/>
     </row>
-    <row r="353" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" s="20" customFormat="1">
       <c r="A353" s="9" t="s">
         <v>765</v>
       </c>
@@ -9154,7 +9264,7 @@
       </c>
       <c r="D353" s="9"/>
     </row>
-    <row r="354" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" s="20" customFormat="1">
       <c r="A354" s="9" t="s">
         <v>767</v>
       </c>
@@ -9166,7 +9276,7 @@
       </c>
       <c r="D354" s="9"/>
     </row>
-    <row r="355" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" s="20" customFormat="1">
       <c r="A355" s="9" t="s">
         <v>769</v>
       </c>
@@ -9178,7 +9288,7 @@
       </c>
       <c r="D355" s="9"/>
     </row>
-    <row r="356" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" s="20" customFormat="1">
       <c r="A356" s="9" t="s">
         <v>771</v>
       </c>
@@ -9190,7 +9300,7 @@
       </c>
       <c r="D356" s="9"/>
     </row>
-    <row r="357" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" s="20" customFormat="1">
       <c r="A357" s="9" t="s">
         <v>773</v>
       </c>
@@ -9202,7 +9312,7 @@
       </c>
       <c r="D357" s="9"/>
     </row>
-    <row r="358" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" s="20" customFormat="1">
       <c r="A358" s="9" t="s">
         <v>775</v>
       </c>
@@ -9214,7 +9324,7 @@
       </c>
       <c r="D358" s="9"/>
     </row>
-    <row r="359" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" s="20" customFormat="1">
       <c r="A359" s="9" t="s">
         <v>777</v>
       </c>
@@ -9226,7 +9336,7 @@
       </c>
       <c r="D359" s="9"/>
     </row>
-    <row r="360" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" s="20" customFormat="1">
       <c r="A360" s="9" t="s">
         <v>779</v>
       </c>
@@ -9238,7 +9348,7 @@
       </c>
       <c r="D360" s="9"/>
     </row>
-    <row r="361" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" s="20" customFormat="1">
       <c r="A361" s="9" t="s">
         <v>781</v>
       </c>
@@ -9250,7 +9360,7 @@
       </c>
       <c r="D361" s="9"/>
     </row>
-    <row r="362" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" s="20" customFormat="1">
       <c r="A362" s="9" t="s">
         <v>783</v>
       </c>
@@ -9262,7 +9372,7 @@
       </c>
       <c r="D362" s="9"/>
     </row>
-    <row r="363" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" s="20" customFormat="1">
       <c r="A363" s="9" t="s">
         <v>785</v>
       </c>
@@ -9274,7 +9384,7 @@
       </c>
       <c r="D363" s="9"/>
     </row>
-    <row r="364" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" s="20" customFormat="1">
       <c r="A364" s="9" t="s">
         <v>787</v>
       </c>
@@ -9286,7 +9396,7 @@
       </c>
       <c r="D364" s="9"/>
     </row>
-    <row r="365" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" s="21" customFormat="1">
       <c r="A365" s="22" t="s">
         <v>789</v>
       </c>
@@ -9298,7 +9408,7 @@
       </c>
       <c r="D365" s="22"/>
     </row>
-    <row r="366" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" s="21" customFormat="1">
       <c r="A366" s="22" t="s">
         <v>791</v>
       </c>
@@ -9310,7 +9420,7 @@
       </c>
       <c r="D366" s="22"/>
     </row>
-    <row r="367" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" s="21" customFormat="1">
       <c r="A367" s="22" t="s">
         <v>793</v>
       </c>
@@ -9322,7 +9432,7 @@
       </c>
       <c r="D367" s="22"/>
     </row>
-    <row r="368" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" s="21" customFormat="1">
       <c r="A368" s="22" t="s">
         <v>795</v>
       </c>
@@ -9334,7 +9444,7 @@
       </c>
       <c r="D368" s="22"/>
     </row>
-    <row r="369" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" s="21" customFormat="1">
       <c r="A369" s="22" t="s">
         <v>797</v>
       </c>
@@ -9346,7 +9456,7 @@
       </c>
       <c r="D369" s="22"/>
     </row>
-    <row r="370" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" s="21" customFormat="1">
       <c r="A370" s="22" t="s">
         <v>799</v>
       </c>
@@ -9358,7 +9468,7 @@
       </c>
       <c r="D370" s="22"/>
     </row>
-    <row r="371" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" s="21" customFormat="1">
       <c r="A371" s="22" t="s">
         <v>801</v>
       </c>
@@ -9370,7 +9480,7 @@
       </c>
       <c r="D371" s="22"/>
     </row>
-    <row r="372" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" s="21" customFormat="1">
       <c r="A372" s="22" t="s">
         <v>803</v>
       </c>
@@ -9382,7 +9492,7 @@
       </c>
       <c r="D372" s="22"/>
     </row>
-    <row r="373" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" s="21" customFormat="1">
       <c r="A373" s="22" t="s">
         <v>805</v>
       </c>
@@ -9394,7 +9504,7 @@
       </c>
       <c r="D373" s="22"/>
     </row>
-    <row r="374" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" s="21" customFormat="1">
       <c r="A374" s="22" t="s">
         <v>807</v>
       </c>
@@ -9406,7 +9516,7 @@
       </c>
       <c r="D374" s="22"/>
     </row>
-    <row r="375" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" s="21" customFormat="1">
       <c r="A375" s="22" t="s">
         <v>809</v>
       </c>
@@ -9418,7 +9528,7 @@
       </c>
       <c r="D375" s="22"/>
     </row>
-    <row r="376" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" s="21" customFormat="1">
       <c r="A376" s="22" t="s">
         <v>811</v>
       </c>
@@ -9430,7 +9540,7 @@
       </c>
       <c r="D376" s="22"/>
     </row>
-    <row r="377" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" s="21" customFormat="1">
       <c r="A377" s="22" t="s">
         <v>813</v>
       </c>
@@ -9442,7 +9552,7 @@
       </c>
       <c r="D377" s="22"/>
     </row>
-    <row r="378" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" s="21" customFormat="1">
       <c r="A378" s="22" t="s">
         <v>815</v>
       </c>
@@ -9454,7 +9564,7 @@
       </c>
       <c r="D378" s="22"/>
     </row>
-    <row r="379" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" s="21" customFormat="1">
       <c r="A379" s="22" t="s">
         <v>817</v>
       </c>
@@ -9466,7 +9576,7 @@
       </c>
       <c r="D379" s="22"/>
     </row>
-    <row r="380" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" s="21" customFormat="1">
       <c r="A380" s="22" t="s">
         <v>819</v>
       </c>
@@ -9478,7 +9588,7 @@
       </c>
       <c r="D380" s="22"/>
     </row>
-    <row r="381" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" s="21" customFormat="1">
       <c r="A381" s="22" t="s">
         <v>821</v>
       </c>
@@ -9490,7 +9600,7 @@
       </c>
       <c r="D381" s="22"/>
     </row>
-    <row r="382" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" s="21" customFormat="1">
       <c r="A382" s="22" t="s">
         <v>823</v>
       </c>
@@ -9502,7 +9612,7 @@
       </c>
       <c r="D382" s="22"/>
     </row>
-    <row r="383" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" s="21" customFormat="1">
       <c r="A383" s="22" t="s">
         <v>825</v>
       </c>
@@ -9514,7 +9624,7 @@
       </c>
       <c r="D383" s="22"/>
     </row>
-    <row r="384" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" s="21" customFormat="1">
       <c r="A384" s="22" t="s">
         <v>827</v>
       </c>
@@ -9526,7 +9636,7 @@
       </c>
       <c r="D384" s="22"/>
     </row>
-    <row r="385" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" s="21" customFormat="1">
       <c r="A385" s="22" t="s">
         <v>829</v>
       </c>
@@ -9538,7 +9648,7 @@
       </c>
       <c r="D385" s="22"/>
     </row>
-    <row r="386" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" s="21" customFormat="1">
       <c r="A386" s="22" t="s">
         <v>831</v>
       </c>
@@ -9550,7 +9660,7 @@
       </c>
       <c r="D386" s="22"/>
     </row>
-    <row r="387" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" s="21" customFormat="1">
       <c r="A387" s="22" t="s">
         <v>833</v>
       </c>
@@ -9562,7 +9672,7 @@
       </c>
       <c r="D387" s="22"/>
     </row>
-    <row r="388" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" s="21" customFormat="1">
       <c r="A388" s="22" t="s">
         <v>835</v>
       </c>
@@ -9574,7 +9684,7 @@
       </c>
       <c r="D388" s="22"/>
     </row>
-    <row r="389" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" s="21" customFormat="1">
       <c r="A389" s="22" t="s">
         <v>837</v>
       </c>
@@ -9586,7 +9696,7 @@
       </c>
       <c r="D389" s="22"/>
     </row>
-    <row r="390" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" s="21" customFormat="1">
       <c r="A390" s="22" t="s">
         <v>839</v>
       </c>
@@ -9598,7 +9708,7 @@
       </c>
       <c r="D390" s="22"/>
     </row>
-    <row r="391" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" s="21" customFormat="1">
       <c r="A391" s="22" t="s">
         <v>841</v>
       </c>
@@ -9610,7 +9720,7 @@
       </c>
       <c r="D391" s="22"/>
     </row>
-    <row r="392" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" s="21" customFormat="1">
       <c r="A392" s="22" t="s">
         <v>843</v>
       </c>
@@ -9622,7 +9732,7 @@
       </c>
       <c r="D392" s="22"/>
     </row>
-    <row r="393" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" s="21" customFormat="1">
       <c r="A393" s="22" t="s">
         <v>845</v>
       </c>
@@ -9634,7 +9744,7 @@
       </c>
       <c r="D393" s="22"/>
     </row>
-    <row r="394" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" s="21" customFormat="1">
       <c r="A394" s="22" t="s">
         <v>846</v>
       </c>
@@ -9646,7 +9756,7 @@
       </c>
       <c r="D394" s="22"/>
     </row>
-    <row r="395" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" s="21" customFormat="1">
       <c r="A395" s="22" t="s">
         <v>848</v>
       </c>
@@ -9658,7 +9768,7 @@
       </c>
       <c r="D395" s="22"/>
     </row>
-    <row r="396" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" s="21" customFormat="1">
       <c r="A396" s="22" t="s">
         <v>850</v>
       </c>
@@ -9670,7 +9780,7 @@
       </c>
       <c r="D396" s="22"/>
     </row>
-    <row r="397" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" s="21" customFormat="1">
       <c r="A397" s="22" t="s">
         <v>852</v>
       </c>
@@ -9682,7 +9792,7 @@
       </c>
       <c r="D397" s="22"/>
     </row>
-    <row r="398" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" s="21" customFormat="1">
       <c r="A398" s="22" t="s">
         <v>854</v>
       </c>
@@ -9694,7 +9804,7 @@
       </c>
       <c r="D398" s="22"/>
     </row>
-    <row r="399" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" s="21" customFormat="1">
       <c r="A399" s="22" t="s">
         <v>856</v>
       </c>
@@ -9706,7 +9816,7 @@
       </c>
       <c r="D399" s="22"/>
     </row>
-    <row r="400" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" s="21" customFormat="1">
       <c r="A400" s="22" t="s">
         <v>858</v>
       </c>
@@ -9718,7 +9828,7 @@
       </c>
       <c r="D400" s="22"/>
     </row>
-    <row r="401" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" s="21" customFormat="1">
       <c r="A401" s="22" t="s">
         <v>860</v>
       </c>
@@ -9730,7 +9840,7 @@
       </c>
       <c r="D401" s="22"/>
     </row>
-    <row r="402" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" s="21" customFormat="1">
       <c r="A402" s="22" t="s">
         <v>862</v>
       </c>
@@ -9742,7 +9852,7 @@
       </c>
       <c r="D402" s="22"/>
     </row>
-    <row r="403" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" s="21" customFormat="1">
       <c r="A403" s="22" t="s">
         <v>864</v>
       </c>
@@ -9754,7 +9864,7 @@
       </c>
       <c r="D403" s="22"/>
     </row>
-    <row r="404" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" s="21" customFormat="1">
       <c r="A404" s="22" t="s">
         <v>866</v>
       </c>
@@ -9766,7 +9876,7 @@
       </c>
       <c r="D404" s="22"/>
     </row>
-    <row r="405" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" s="21" customFormat="1">
       <c r="A405" s="22" t="s">
         <v>868</v>
       </c>
@@ -9778,7 +9888,7 @@
       </c>
       <c r="D405" s="22"/>
     </row>
-    <row r="406" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" s="21" customFormat="1">
       <c r="A406" s="22" t="s">
         <v>870</v>
       </c>
@@ -9790,7 +9900,7 @@
       </c>
       <c r="D406" s="22"/>
     </row>
-    <row r="407" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" s="21" customFormat="1">
       <c r="A407" s="22" t="s">
         <v>872</v>
       </c>
@@ -9802,7 +9912,7 @@
       </c>
       <c r="D407" s="22"/>
     </row>
-    <row r="408" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" s="21" customFormat="1">
       <c r="A408" s="22" t="s">
         <v>874</v>
       </c>
@@ -9814,7 +9924,7 @@
       </c>
       <c r="D408" s="22"/>
     </row>
-    <row r="409" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" s="21" customFormat="1">
       <c r="A409" s="22" t="s">
         <v>876</v>
       </c>
@@ -9826,7 +9936,7 @@
       </c>
       <c r="D409" s="22"/>
     </row>
-    <row r="410" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" s="21" customFormat="1">
       <c r="A410" s="22" t="s">
         <v>878</v>
       </c>
@@ -9838,7 +9948,7 @@
       </c>
       <c r="D410" s="22"/>
     </row>
-    <row r="411" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" s="21" customFormat="1">
       <c r="A411" s="22" t="s">
         <v>880</v>
       </c>
@@ -9850,7 +9960,7 @@
       </c>
       <c r="D411" s="22"/>
     </row>
-    <row r="412" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" s="21" customFormat="1">
       <c r="A412" s="22" t="s">
         <v>882</v>
       </c>
@@ -9862,7 +9972,7 @@
       </c>
       <c r="D412" s="22"/>
     </row>
-    <row r="413" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" s="21" customFormat="1">
       <c r="A413" s="22" t="s">
         <v>884</v>
       </c>
@@ -9874,7 +9984,7 @@
       </c>
       <c r="D413" s="22"/>
     </row>
-    <row r="414" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" s="21" customFormat="1">
       <c r="A414" s="22" t="s">
         <v>888</v>
       </c>
@@ -9886,7 +9996,7 @@
       </c>
       <c r="D414" s="22"/>
     </row>
-    <row r="415" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" s="21" customFormat="1">
       <c r="A415" s="22" t="s">
         <v>890</v>
       </c>
@@ -9898,7 +10008,7 @@
       </c>
       <c r="D415" s="22"/>
     </row>
-    <row r="416" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" s="21" customFormat="1">
       <c r="A416" s="22" t="s">
         <v>894</v>
       </c>
@@ -9910,7 +10020,7 @@
       </c>
       <c r="D416" s="22"/>
     </row>
-    <row r="417" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" s="21" customFormat="1">
       <c r="A417" s="22" t="s">
         <v>895</v>
       </c>
@@ -9922,7 +10032,7 @@
       </c>
       <c r="D417" s="22"/>
     </row>
-    <row r="418" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" s="21" customFormat="1">
       <c r="A418" s="24" t="s">
         <v>896</v>
       </c>
@@ -9934,7 +10044,7 @@
       </c>
       <c r="D418" s="22"/>
     </row>
-    <row r="419" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" s="21" customFormat="1">
       <c r="A419" s="24" t="s">
         <v>897</v>
       </c>
@@ -9946,7 +10056,7 @@
       </c>
       <c r="D419" s="22"/>
     </row>
-    <row r="420" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" s="21" customFormat="1">
       <c r="A420" s="24" t="s">
         <v>898</v>
       </c>
@@ -9958,7 +10068,7 @@
       </c>
       <c r="D420" s="22"/>
     </row>
-    <row r="421" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" s="21" customFormat="1">
       <c r="A421" s="24" t="s">
         <v>899</v>
       </c>
@@ -9970,7 +10080,7 @@
       </c>
       <c r="D421" s="22"/>
     </row>
-    <row r="422" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" s="21" customFormat="1">
       <c r="A422" s="24" t="s">
         <v>900</v>
       </c>
@@ -9982,7 +10092,7 @@
       </c>
       <c r="D422" s="22"/>
     </row>
-    <row r="423" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" s="21" customFormat="1">
       <c r="A423" s="24" t="s">
         <v>901</v>
       </c>
@@ -9994,7 +10104,7 @@
       </c>
       <c r="D423" s="22"/>
     </row>
-    <row r="424" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" s="21" customFormat="1">
       <c r="A424" s="24" t="s">
         <v>902</v>
       </c>
@@ -10006,7 +10116,7 @@
       </c>
       <c r="D424" s="22"/>
     </row>
-    <row r="425" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" s="21" customFormat="1">
       <c r="A425" s="24" t="s">
         <v>903</v>
       </c>
@@ -10018,7 +10128,7 @@
       </c>
       <c r="D425" s="22"/>
     </row>
-    <row r="426" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" s="21" customFormat="1">
       <c r="A426" s="24" t="s">
         <v>904</v>
       </c>
@@ -10030,7 +10140,7 @@
       </c>
       <c r="D426" s="22"/>
     </row>
-    <row r="427" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" s="21" customFormat="1">
       <c r="A427" s="24" t="s">
         <v>905</v>
       </c>
@@ -10042,7 +10152,7 @@
       </c>
       <c r="D427" s="22"/>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4">
       <c r="A428" s="24" t="s">
         <v>906</v>
       </c>
@@ -10054,7 +10164,7 @@
       </c>
       <c r="D428" s="22"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4">
       <c r="A429" s="24" t="s">
         <v>908</v>
       </c>
@@ -10066,7 +10176,7 @@
       </c>
       <c r="D429" s="22"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4">
       <c r="A430" s="24" t="s">
         <v>909</v>
       </c>
@@ -10078,7 +10188,7 @@
       </c>
       <c r="D430" s="22"/>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4">
       <c r="A431" s="24" t="s">
         <v>910</v>
       </c>
@@ -10090,7 +10200,7 @@
       </c>
       <c r="D431" s="22"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4">
       <c r="A432" s="24" t="s">
         <v>911</v>
       </c>
@@ -10102,7 +10212,7 @@
       </c>
       <c r="D432" s="22"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4">
       <c r="A433" s="24" t="s">
         <v>912</v>
       </c>
@@ -10114,7 +10224,7 @@
       </c>
       <c r="D433" s="22"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4">
       <c r="A434" s="24" t="s">
         <v>913</v>
       </c>
@@ -10126,7 +10236,7 @@
       </c>
       <c r="D434" s="22"/>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4">
       <c r="A435" s="24" t="s">
         <v>914</v>
       </c>
@@ -10138,7 +10248,7 @@
       </c>
       <c r="D435" s="22"/>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4">
       <c r="A436" s="24" t="s">
         <v>915</v>
       </c>
@@ -10150,7 +10260,7 @@
       </c>
       <c r="D436" s="22"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4">
       <c r="A437" s="24" t="s">
         <v>916</v>
       </c>
@@ -10162,7 +10272,7 @@
       </c>
       <c r="D437" s="22"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4">
       <c r="A438" s="24" t="s">
         <v>918</v>
       </c>
@@ -10174,7 +10284,7 @@
       </c>
       <c r="D438" s="22"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4">
       <c r="A439" s="24" t="s">
         <v>919</v>
       </c>
@@ -10186,7 +10296,7 @@
       </c>
       <c r="D439" s="22"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4">
       <c r="A440" s="24" t="s">
         <v>921</v>
       </c>
@@ -10198,7 +10308,7 @@
       </c>
       <c r="D440" s="22"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4">
       <c r="A441" s="24" t="s">
         <v>923</v>
       </c>
@@ -10210,7 +10320,7 @@
       </c>
       <c r="D441" s="22"/>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4">
       <c r="A442" s="24" t="s">
         <v>925</v>
       </c>
@@ -10222,7 +10332,7 @@
       </c>
       <c r="D442" s="22"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4">
       <c r="A443" s="24" t="s">
         <v>927</v>
       </c>
@@ -10234,7 +10344,7 @@
       </c>
       <c r="D443" s="22"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4">
       <c r="A444" s="24" t="s">
         <v>929</v>
       </c>
@@ -10246,7 +10356,7 @@
       </c>
       <c r="D444" s="22"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4">
       <c r="A445" s="24" t="s">
         <v>931</v>
       </c>
@@ -10258,7 +10368,7 @@
       </c>
       <c r="D445" s="22"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4">
       <c r="A446" s="24" t="s">
         <v>933</v>
       </c>
@@ -10270,7 +10380,7 @@
       </c>
       <c r="D446" s="22"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4">
       <c r="A447" s="24" t="s">
         <v>935</v>
       </c>
@@ -10282,7 +10392,7 @@
       </c>
       <c r="D447" s="22"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4">
       <c r="A448" s="24" t="s">
         <v>937</v>
       </c>
@@ -10294,7 +10404,7 @@
       </c>
       <c r="D448" s="22"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4">
       <c r="A449" s="24" t="s">
         <v>939</v>
       </c>
@@ -10306,7 +10416,7 @@
       </c>
       <c r="D449" s="22"/>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4">
       <c r="A450" s="24" t="s">
         <v>941</v>
       </c>
@@ -10318,7 +10428,7 @@
       </c>
       <c r="D450" s="22"/>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4">
       <c r="A451" s="24" t="s">
         <v>943</v>
       </c>
@@ -10330,7 +10440,7 @@
       </c>
       <c r="D451" s="22"/>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4">
       <c r="A452" s="24" t="s">
         <v>945</v>
       </c>
@@ -10342,7 +10452,7 @@
       </c>
       <c r="D452" s="22"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4">
       <c r="A453" s="24" t="s">
         <v>947</v>
       </c>
@@ -10354,7 +10464,7 @@
       </c>
       <c r="D453" s="22"/>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4">
       <c r="A454" s="24" t="s">
         <v>949</v>
       </c>
@@ -10366,7 +10476,7 @@
       </c>
       <c r="D454" s="22"/>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4">
       <c r="A455" s="24" t="s">
         <v>951</v>
       </c>
@@ -10378,7 +10488,7 @@
       </c>
       <c r="D455" s="22"/>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4">
       <c r="A456" s="24" t="s">
         <v>953</v>
       </c>
@@ -10390,7 +10500,7 @@
       </c>
       <c r="D456" s="22"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4">
       <c r="A457" s="24" t="s">
         <v>955</v>
       </c>
@@ -10402,7 +10512,7 @@
       </c>
       <c r="D457" s="22"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4">
       <c r="A458" s="24" t="s">
         <v>957</v>
       </c>
@@ -10414,7 +10524,7 @@
       </c>
       <c r="D458" s="22"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4">
       <c r="A459" s="24" t="s">
         <v>959</v>
       </c>
@@ -10426,7 +10536,7 @@
       </c>
       <c r="D459" s="22"/>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4">
       <c r="A460" s="24" t="s">
         <v>961</v>
       </c>
@@ -10438,7 +10548,7 @@
       </c>
       <c r="D460" s="22"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4">
       <c r="A461" s="24" t="s">
         <v>963</v>
       </c>
@@ -10450,7 +10560,7 @@
       </c>
       <c r="D461" s="22"/>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4">
       <c r="A462" s="24" t="s">
         <v>965</v>
       </c>
@@ -10462,7 +10572,7 @@
       </c>
       <c r="D462" s="22"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4">
       <c r="A463" s="24" t="s">
         <v>967</v>
       </c>
@@ -10474,7 +10584,7 @@
       </c>
       <c r="D463" s="22"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4">
       <c r="A464" s="24" t="s">
         <v>969</v>
       </c>
@@ -10486,7 +10596,7 @@
       </c>
       <c r="D464" s="22"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4">
       <c r="A465" s="24" t="s">
         <v>971</v>
       </c>
@@ -10498,7 +10608,7 @@
       </c>
       <c r="D465" s="22"/>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4">
       <c r="A466" s="24" t="s">
         <v>973</v>
       </c>
@@ -10510,7 +10620,7 @@
       </c>
       <c r="D466" s="22"/>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4">
       <c r="A467" s="24" t="s">
         <v>975</v>
       </c>
@@ -10522,7 +10632,7 @@
       </c>
       <c r="D467" s="22"/>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4">
       <c r="A468" s="24" t="s">
         <v>977</v>
       </c>
@@ -10534,7 +10644,7 @@
       </c>
       <c r="D468" s="22"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4">
       <c r="A469" s="24" t="s">
         <v>979</v>
       </c>
@@ -10546,7 +10656,7 @@
       </c>
       <c r="D469" s="22"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4">
       <c r="A470" s="24" t="s">
         <v>981</v>
       </c>
@@ -10558,7 +10668,7 @@
       </c>
       <c r="D470" s="22"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4">
       <c r="A471" s="24" t="s">
         <v>983</v>
       </c>
@@ -10570,7 +10680,7 @@
       </c>
       <c r="D471" s="22"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4">
       <c r="A472" s="24" t="s">
         <v>985</v>
       </c>
@@ -10582,7 +10692,7 @@
       </c>
       <c r="D472" s="22"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4">
       <c r="A473" s="24" t="s">
         <v>987</v>
       </c>
@@ -10594,7 +10704,7 @@
       </c>
       <c r="D473" s="22"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4">
       <c r="A474" s="24" t="s">
         <v>989</v>
       </c>
@@ -10606,7 +10716,7 @@
       </c>
       <c r="D474" s="22"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4">
       <c r="A475" s="24" t="s">
         <v>991</v>
       </c>
@@ -10618,7 +10728,7 @@
       </c>
       <c r="D475" s="22"/>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4">
       <c r="A476" s="24" t="s">
         <v>993</v>
       </c>
@@ -10630,7 +10740,7 @@
       </c>
       <c r="D476" s="22"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4">
       <c r="A477" s="24" t="s">
         <v>995</v>
       </c>
@@ -10642,7 +10752,7 @@
       </c>
       <c r="D477" s="22"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4">
       <c r="A478" s="24" t="s">
         <v>997</v>
       </c>
@@ -10654,7 +10764,7 @@
       </c>
       <c r="D478" s="22"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4">
       <c r="A479" s="24" t="s">
         <v>999</v>
       </c>
@@ -10666,7 +10776,7 @@
       </c>
       <c r="D479" s="22"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4">
       <c r="A480" s="24" t="s">
         <v>1001</v>
       </c>
@@ -10678,7 +10788,7 @@
       </c>
       <c r="D480" s="22"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4">
       <c r="A481" s="24" t="s">
         <v>1003</v>
       </c>
@@ -10690,7 +10800,7 @@
       </c>
       <c r="D481" s="22"/>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4">
       <c r="A482" s="24" t="s">
         <v>1005</v>
       </c>
@@ -10702,7 +10812,7 @@
       </c>
       <c r="D482" s="22"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4">
       <c r="A483" s="24" t="s">
         <v>1007</v>
       </c>
@@ -10714,7 +10824,7 @@
       </c>
       <c r="D483" s="22"/>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4">
       <c r="A484" s="24" t="s">
         <v>1009</v>
       </c>
@@ -10726,7 +10836,7 @@
       </c>
       <c r="D484" s="22"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4">
       <c r="A485" s="24" t="s">
         <v>1011</v>
       </c>
@@ -10738,7 +10848,7 @@
       </c>
       <c r="D485" s="22"/>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4">
       <c r="A486" s="24" t="s">
         <v>1013</v>
       </c>
@@ -10750,7 +10860,7 @@
       </c>
       <c r="D486" s="22"/>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4">
       <c r="A487" s="24" t="s">
         <v>1015</v>
       </c>
@@ -10762,7 +10872,7 @@
       </c>
       <c r="D487" s="22"/>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4">
       <c r="A488" s="24" t="s">
         <v>1017</v>
       </c>
@@ -10774,7 +10884,7 @@
       </c>
       <c r="D488" s="22"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4">
       <c r="A489" s="24" t="s">
         <v>1019</v>
       </c>
@@ -10786,7 +10896,7 @@
       </c>
       <c r="D489" s="22"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4">
       <c r="A490" s="24" t="s">
         <v>1021</v>
       </c>
@@ -10798,7 +10908,7 @@
       </c>
       <c r="D490" s="22"/>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4">
       <c r="A491" s="24" t="s">
         <v>1023</v>
       </c>
@@ -10810,7 +10920,7 @@
       </c>
       <c r="D491" s="22"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4">
       <c r="A492" s="24" t="s">
         <v>1025</v>
       </c>
@@ -10822,7 +10932,7 @@
       </c>
       <c r="D492" s="22"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4">
       <c r="A493" s="24" t="s">
         <v>1027</v>
       </c>
@@ -10834,7 +10944,7 @@
       </c>
       <c r="D493" s="22"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4">
       <c r="A494" s="24" t="s">
         <v>1029</v>
       </c>
@@ -10846,7 +10956,7 @@
       </c>
       <c r="D494" s="22"/>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4">
       <c r="A495" s="24" t="s">
         <v>1031</v>
       </c>
@@ -10858,7 +10968,7 @@
       </c>
       <c r="D495" s="22"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4">
       <c r="A496" s="24" t="s">
         <v>1033</v>
       </c>
@@ -10870,7 +10980,7 @@
       </c>
       <c r="D496" s="22"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4">
       <c r="A497" s="24" t="s">
         <v>1035</v>
       </c>
@@ -10882,7 +10992,7 @@
       </c>
       <c r="D497" s="22"/>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4">
       <c r="A498" s="24" t="s">
         <v>1037</v>
       </c>
@@ -10894,7 +11004,7 @@
       </c>
       <c r="D498" s="22"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4">
       <c r="A499" s="24" t="s">
         <v>1039</v>
       </c>
@@ -10906,7 +11016,7 @@
       </c>
       <c r="D499" s="22"/>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4">
       <c r="A500" s="24" t="s">
         <v>1041</v>
       </c>
@@ -10918,7 +11028,7 @@
       </c>
       <c r="D500" s="22"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4">
       <c r="A501" s="24" t="s">
         <v>1043</v>
       </c>
@@ -10930,7 +11040,7 @@
       </c>
       <c r="D501" s="22"/>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4">
       <c r="A502" s="24" t="s">
         <v>1045</v>
       </c>
@@ -10942,7 +11052,7 @@
       </c>
       <c r="D502" s="22"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4">
       <c r="A503" s="24" t="s">
         <v>1047</v>
       </c>
@@ -10954,7 +11064,7 @@
       </c>
       <c r="D503" s="22"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4">
       <c r="A504" s="24" t="s">
         <v>1049</v>
       </c>
@@ -10966,7 +11076,7 @@
       </c>
       <c r="D504" s="22"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4">
       <c r="A505" s="24" t="s">
         <v>1050</v>
       </c>
@@ -10978,7 +11088,7 @@
       </c>
       <c r="D505" s="22"/>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4">
       <c r="A506" s="24" t="s">
         <v>1052</v>
       </c>
@@ -10990,7 +11100,7 @@
       </c>
       <c r="D506" s="22"/>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4">
       <c r="A507" s="24" t="s">
         <v>1054</v>
       </c>
@@ -11002,7 +11112,7 @@
       </c>
       <c r="D507" s="22"/>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4">
       <c r="A508" s="24" t="s">
         <v>1056</v>
       </c>
@@ -11014,7 +11124,7 @@
       </c>
       <c r="D508" s="22"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4">
       <c r="A509" s="24" t="s">
         <v>1058</v>
       </c>
@@ -11026,7 +11136,7 @@
       </c>
       <c r="D509" s="22"/>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4">
       <c r="A510" s="24" t="s">
         <v>1060</v>
       </c>
@@ -11038,7 +11148,7 @@
       </c>
       <c r="D510" s="22"/>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4">
       <c r="A511" s="24" t="s">
         <v>1062</v>
       </c>
@@ -11050,7 +11160,7 @@
       </c>
       <c r="D511" s="22"/>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4">
       <c r="A512" s="24" t="s">
         <v>1064</v>
       </c>
@@ -11062,7 +11172,7 @@
       </c>
       <c r="D512" s="22"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4">
       <c r="A513" s="24" t="s">
         <v>1066</v>
       </c>
@@ -11074,7 +11184,7 @@
       </c>
       <c r="D513" s="22"/>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4">
       <c r="A514" s="24" t="s">
         <v>1067</v>
       </c>
@@ -11086,7 +11196,7 @@
       </c>
       <c r="D514" s="22"/>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4">
       <c r="A515" s="24" t="s">
         <v>1069</v>
       </c>
@@ -11098,7 +11208,7 @@
       </c>
       <c r="D515" s="22"/>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4">
       <c r="A516" s="24" t="s">
         <v>1071</v>
       </c>
@@ -11110,7 +11220,7 @@
       </c>
       <c r="D516" s="22"/>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4">
       <c r="A517" s="24" t="s">
         <v>1107</v>
       </c>
@@ -11122,7 +11232,7 @@
       </c>
       <c r="D517" s="22"/>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4">
       <c r="A518" s="24" t="s">
         <v>1108</v>
       </c>
@@ -11134,7 +11244,7 @@
       </c>
       <c r="D518" s="22"/>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4">
       <c r="A519" s="24" t="s">
         <v>1109</v>
       </c>
@@ -11146,7 +11256,7 @@
       </c>
       <c r="D519" s="22"/>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4">
       <c r="A520" s="24" t="s">
         <v>1110</v>
       </c>
@@ -11158,7 +11268,7 @@
       </c>
       <c r="D520" s="22"/>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4">
       <c r="A521" s="24" t="s">
         <v>1111</v>
       </c>
@@ -11170,7 +11280,7 @@
       </c>
       <c r="D521" s="22"/>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4">
       <c r="A522" s="24" t="s">
         <v>1112</v>
       </c>
@@ -11182,7 +11292,7 @@
       </c>
       <c r="D522" s="22"/>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4">
       <c r="A523" s="24" t="s">
         <v>1113</v>
       </c>
@@ -11194,7 +11304,7 @@
       </c>
       <c r="D523" s="22"/>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4">
       <c r="A524" s="24" t="s">
         <v>1114</v>
       </c>
@@ -11206,7 +11316,7 @@
       </c>
       <c r="D524" s="22"/>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4">
       <c r="A525" s="24" t="s">
         <v>1115</v>
       </c>
@@ -11218,7 +11328,7 @@
       </c>
       <c r="D525" s="22"/>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4">
       <c r="A526" s="24" t="s">
         <v>1116</v>
       </c>
@@ -11230,7 +11340,7 @@
       </c>
       <c r="D526" s="22"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4">
       <c r="A527" s="24" t="s">
         <v>1117</v>
       </c>
@@ -11242,7 +11352,7 @@
       </c>
       <c r="D527" s="22"/>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4">
       <c r="A528" s="24" t="s">
         <v>1118</v>
       </c>
@@ -11254,7 +11364,7 @@
       </c>
       <c r="D528" s="22"/>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4">
       <c r="A529" s="24" t="s">
         <v>1119</v>
       </c>
@@ -11266,7 +11376,7 @@
       </c>
       <c r="D529" s="22"/>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4">
       <c r="A530" s="24" t="s">
         <v>1120</v>
       </c>
@@ -11278,7 +11388,7 @@
       </c>
       <c r="D530" s="22"/>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4">
       <c r="A531" s="24" t="s">
         <v>1121</v>
       </c>
@@ -11290,7 +11400,7 @@
       </c>
       <c r="D531" s="22"/>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4">
       <c r="A532" s="24" t="s">
         <v>1122</v>
       </c>
@@ -11302,7 +11412,7 @@
       </c>
       <c r="D532" s="22"/>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4">
       <c r="A533" s="24" t="s">
         <v>1123</v>
       </c>
@@ -11314,7 +11424,7 @@
       </c>
       <c r="D533" s="22"/>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4">
       <c r="A534" s="24" t="s">
         <v>1124</v>
       </c>
@@ -11326,7 +11436,7 @@
       </c>
       <c r="D534" s="22"/>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4">
       <c r="A535" s="24" t="s">
         <v>1125</v>
       </c>
@@ -11338,7 +11448,7 @@
       </c>
       <c r="D535" s="22"/>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4">
       <c r="A536" s="24" t="s">
         <v>1126</v>
       </c>
@@ -11350,7 +11460,7 @@
       </c>
       <c r="D536" s="22"/>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4">
       <c r="A537" s="24" t="s">
         <v>1127</v>
       </c>
@@ -11362,7 +11472,7 @@
       </c>
       <c r="D537" s="22"/>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4">
       <c r="A538" s="24" t="s">
         <v>1128</v>
       </c>
@@ -11374,7 +11484,7 @@
       </c>
       <c r="D538" s="22"/>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4">
       <c r="A539" s="24" t="s">
         <v>1129</v>
       </c>
@@ -11386,7 +11496,7 @@
       </c>
       <c r="D539" s="22"/>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4">
       <c r="A540" s="24" t="s">
         <v>1130</v>
       </c>
@@ -11398,7 +11508,7 @@
       </c>
       <c r="D540" s="22"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4">
       <c r="A541" s="24" t="s">
         <v>1131</v>
       </c>
@@ -11410,7 +11520,7 @@
       </c>
       <c r="D541" s="22"/>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4">
       <c r="A542" s="24" t="s">
         <v>1132</v>
       </c>
@@ -11422,7 +11532,7 @@
       </c>
       <c r="D542" s="22"/>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4">
       <c r="A543" s="24" t="s">
         <v>1133</v>
       </c>
@@ -11434,7 +11544,7 @@
       </c>
       <c r="D543" s="22"/>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4">
       <c r="A544" s="24" t="s">
         <v>1134</v>
       </c>
@@ -11446,7 +11556,7 @@
       </c>
       <c r="D544" s="22"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4">
       <c r="A545" s="24" t="s">
         <v>1135</v>
       </c>
@@ -11458,7 +11568,7 @@
       </c>
       <c r="D545" s="22"/>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4">
       <c r="A546" s="24" t="s">
         <v>1136</v>
       </c>
@@ -11470,7 +11580,7 @@
       </c>
       <c r="D546" s="22"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4">
       <c r="A547" s="24" t="s">
         <v>1137</v>
       </c>
@@ -11482,7 +11592,7 @@
       </c>
       <c r="D547" s="22"/>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4">
       <c r="A548" s="24" t="s">
         <v>1138</v>
       </c>
@@ -11494,7 +11604,7 @@
       </c>
       <c r="D548" s="22"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4">
       <c r="A549" s="24" t="s">
         <v>1160</v>
       </c>
@@ -11506,7 +11616,7 @@
       </c>
       <c r="D549" s="22"/>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4">
       <c r="A550" s="24" t="s">
         <v>1161</v>
       </c>
@@ -11518,7 +11628,7 @@
       </c>
       <c r="D550" s="22"/>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4">
       <c r="A551" s="24" t="s">
         <v>1162</v>
       </c>
@@ -11530,7 +11640,7 @@
       </c>
       <c r="D551" s="22"/>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4">
       <c r="A552" s="24" t="s">
         <v>1163</v>
       </c>
@@ -11542,7 +11652,7 @@
       </c>
       <c r="D552" s="22"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4">
       <c r="A553" s="24" t="s">
         <v>1164</v>
       </c>
@@ -11554,7 +11664,7 @@
       </c>
       <c r="D553" s="22"/>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4">
       <c r="A554" s="24" t="s">
         <v>1165</v>
       </c>
@@ -11566,7 +11676,7 @@
       </c>
       <c r="D554" s="22"/>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4">
       <c r="A555" s="24" t="s">
         <v>1166</v>
       </c>
@@ -11578,7 +11688,7 @@
       </c>
       <c r="D555" s="22"/>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4">
       <c r="A556" s="24" t="s">
         <v>1167</v>
       </c>
@@ -11590,7 +11700,7 @@
       </c>
       <c r="D556" s="22"/>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4">
       <c r="A557" s="24" t="s">
         <v>1168</v>
       </c>
@@ -11602,7 +11712,7 @@
       </c>
       <c r="D557" s="22"/>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4">
       <c r="A558" s="24" t="s">
         <v>1169</v>
       </c>
@@ -11614,7 +11724,7 @@
       </c>
       <c r="D558" s="22"/>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4">
       <c r="A559" s="24" t="s">
         <v>1170</v>
       </c>
@@ -11626,7 +11736,7 @@
       </c>
       <c r="D559" s="22"/>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4">
       <c r="A560" s="24" t="s">
         <v>1171</v>
       </c>
@@ -11638,7 +11748,7 @@
       </c>
       <c r="D560" s="22"/>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4">
       <c r="A561" s="24" t="s">
         <v>1172</v>
       </c>
@@ -11650,7 +11760,7 @@
       </c>
       <c r="D561" s="22"/>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4">
       <c r="A562" s="24" t="s">
         <v>1173</v>
       </c>
@@ -11662,7 +11772,7 @@
       </c>
       <c r="D562" s="22"/>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4">
       <c r="A563" s="24" t="s">
         <v>1174</v>
       </c>
@@ -11674,7 +11784,7 @@
       </c>
       <c r="D563" s="22"/>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4">
       <c r="A564" s="24" t="s">
         <v>1175</v>
       </c>
@@ -11686,7 +11796,7 @@
       </c>
       <c r="D564" s="22"/>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4">
       <c r="A565" s="24" t="s">
         <v>1176</v>
       </c>
@@ -11698,7 +11808,7 @@
       </c>
       <c r="D565" s="22"/>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4">
       <c r="A566" s="24" t="s">
         <v>1177</v>
       </c>
@@ -11710,7 +11820,7 @@
       </c>
       <c r="D566" s="22"/>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4">
       <c r="A567" s="24" t="s">
         <v>1178</v>
       </c>
@@ -11722,7 +11832,7 @@
       </c>
       <c r="D567" s="22"/>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4">
       <c r="A568" s="24" t="s">
         <v>1179</v>
       </c>
@@ -11734,7 +11844,7 @@
       </c>
       <c r="D568" s="22"/>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4">
       <c r="A569" s="24" t="s">
         <v>1180</v>
       </c>
@@ -11746,7 +11856,7 @@
       </c>
       <c r="D569" s="22"/>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4">
       <c r="A570" s="24" t="s">
         <v>1181</v>
       </c>
@@ -11758,7 +11868,7 @@
       </c>
       <c r="D570" s="22"/>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4">
       <c r="A571" s="24" t="s">
         <v>1183</v>
       </c>
@@ -11770,7 +11880,7 @@
       </c>
       <c r="D571" s="22"/>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4">
       <c r="A572" s="24" t="s">
         <v>1185</v>
       </c>
@@ -11782,7 +11892,7 @@
       </c>
       <c r="D572" s="22"/>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4">
       <c r="A573" s="24" t="s">
         <v>1187</v>
       </c>
@@ -11794,7 +11904,7 @@
       </c>
       <c r="D573" s="22"/>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4">
       <c r="A574" s="24" t="s">
         <v>1189</v>
       </c>
@@ -11806,7 +11916,7 @@
       </c>
       <c r="D574" s="22"/>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4">
       <c r="A575" s="24" t="s">
         <v>1191</v>
       </c>
@@ -11818,7 +11928,7 @@
       </c>
       <c r="D575" s="22"/>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4">
       <c r="A576" s="24" t="s">
         <v>1193</v>
       </c>
@@ -11830,7 +11940,7 @@
       </c>
       <c r="D576" s="22"/>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4">
       <c r="A577" s="24" t="s">
         <v>1195</v>
       </c>
@@ -11842,7 +11952,7 @@
       </c>
       <c r="D577" s="22"/>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4">
       <c r="A578" s="24" t="s">
         <v>1197</v>
       </c>
@@ -11854,7 +11964,7 @@
       </c>
       <c r="D578" s="22"/>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4">
       <c r="A579" s="24" t="s">
         <v>1199</v>
       </c>
@@ -11866,7 +11976,7 @@
       </c>
       <c r="D579" s="22"/>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4">
       <c r="A580" s="24" t="s">
         <v>1201</v>
       </c>
@@ -11878,7 +11988,7 @@
       </c>
       <c r="D580" s="22"/>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4">
       <c r="A581" s="24" t="s">
         <v>1203</v>
       </c>
@@ -11890,7 +12000,7 @@
       </c>
       <c r="D581" s="22"/>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4">
       <c r="A582" s="24" t="s">
         <v>1205</v>
       </c>
@@ -11902,7 +12012,7 @@
       </c>
       <c r="D582" s="22"/>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4">
       <c r="A583" s="24" t="s">
         <v>1207</v>
       </c>
@@ -11914,7 +12024,7 @@
       </c>
       <c r="D583" s="22"/>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4">
       <c r="A584" s="24" t="s">
         <v>1209</v>
       </c>
@@ -11926,7 +12036,7 @@
       </c>
       <c r="D584" s="22"/>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4">
       <c r="A585" s="24" t="s">
         <v>1211</v>
       </c>
@@ -11938,7 +12048,7 @@
       </c>
       <c r="D585" s="22"/>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4">
       <c r="A586" s="24" t="s">
         <v>1213</v>
       </c>
@@ -11950,7 +12060,7 @@
       </c>
       <c r="D586" s="22"/>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4">
       <c r="A587" s="24" t="s">
         <v>1215</v>
       </c>
@@ -11962,7 +12072,7 @@
       </c>
       <c r="D587" s="22"/>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4">
       <c r="A588" s="24" t="s">
         <v>1217</v>
       </c>
@@ -11974,7 +12084,7 @@
       </c>
       <c r="D588" s="22"/>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4">
       <c r="A589" s="24" t="s">
         <v>1219</v>
       </c>
@@ -11986,7 +12096,7 @@
       </c>
       <c r="D589" s="22"/>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4">
       <c r="A590" s="25" t="s">
         <v>1221</v>
       </c>
@@ -11998,7 +12108,7 @@
       </c>
       <c r="D590" s="22"/>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4">
       <c r="A591" s="25" t="s">
         <v>1223</v>
       </c>
@@ -12010,7 +12120,7 @@
       </c>
       <c r="D591" s="22"/>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4">
       <c r="A592" s="25" t="s">
         <v>1225</v>
       </c>
@@ -12022,7 +12132,7 @@
       </c>
       <c r="D592" s="22"/>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4">
       <c r="A593" s="25" t="s">
         <v>1227</v>
       </c>
@@ -12034,7 +12144,7 @@
       </c>
       <c r="D593" s="22"/>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4">
       <c r="A594" s="25" t="s">
         <v>1229</v>
       </c>
@@ -12046,7 +12156,7 @@
       </c>
       <c r="D594" s="22"/>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4">
       <c r="A595" s="25" t="s">
         <v>1231</v>
       </c>
@@ -12058,7 +12168,7 @@
       </c>
       <c r="D595" s="22"/>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4">
       <c r="A596" s="25" t="s">
         <v>1233</v>
       </c>
@@ -12070,7 +12180,7 @@
       </c>
       <c r="D596" s="22"/>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4">
       <c r="A597" s="25" t="s">
         <v>1235</v>
       </c>
@@ -12082,7 +12192,7 @@
       </c>
       <c r="D597" s="22"/>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4">
       <c r="A598" s="25" t="s">
         <v>1237</v>
       </c>
@@ -12094,7 +12204,7 @@
       </c>
       <c r="D598" s="22"/>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4">
       <c r="A599" s="25" t="s">
         <v>1239</v>
       </c>
@@ -12106,7 +12216,7 @@
       </c>
       <c r="D599" s="22"/>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4">
       <c r="A600" s="25" t="s">
         <v>1241</v>
       </c>
@@ -12118,7 +12228,7 @@
       </c>
       <c r="D600" s="22"/>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4">
       <c r="A601" s="25" t="s">
         <v>1242</v>
       </c>
@@ -12130,7 +12240,7 @@
       </c>
       <c r="D601" s="22"/>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4">
       <c r="A602" s="25" t="s">
         <v>1243</v>
       </c>
@@ -12142,7 +12252,7 @@
       </c>
       <c r="D602" s="22"/>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4">
       <c r="A603" s="25" t="s">
         <v>1244</v>
       </c>
@@ -12154,7 +12264,7 @@
       </c>
       <c r="D603" s="22"/>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4">
       <c r="A604" s="25" t="s">
         <v>1245</v>
       </c>
@@ -12166,7 +12276,7 @@
       </c>
       <c r="D604" s="22"/>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4">
       <c r="A605" s="25" t="s">
         <v>1246</v>
       </c>
@@ -12178,7 +12288,7 @@
       </c>
       <c r="D605" s="22"/>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4">
       <c r="A606" s="25" t="s">
         <v>1247</v>
       </c>
@@ -12190,7 +12300,7 @@
       </c>
       <c r="D606" s="22"/>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4">
       <c r="A607" s="25" t="s">
         <v>1248</v>
       </c>
@@ -12202,7 +12312,7 @@
       </c>
       <c r="D607" s="22"/>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4">
       <c r="A608" s="25" t="s">
         <v>1249</v>
       </c>
@@ -12214,7 +12324,7 @@
       </c>
       <c r="D608" s="22"/>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4">
       <c r="A609" s="25" t="s">
         <v>1250</v>
       </c>
@@ -12226,7 +12336,7 @@
       </c>
       <c r="D609" s="22"/>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4">
       <c r="A610" s="25" t="s">
         <v>1251</v>
       </c>
@@ -12238,7 +12348,7 @@
       </c>
       <c r="D610" s="22"/>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4">
       <c r="A611" s="25" t="s">
         <v>1253</v>
       </c>
@@ -12250,7 +12360,7 @@
       </c>
       <c r="D611" s="22"/>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4">
       <c r="A612" s="25" t="s">
         <v>1255</v>
       </c>
@@ -12262,7 +12372,7 @@
       </c>
       <c r="D612" s="22"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4">
       <c r="A613" s="25" t="s">
         <v>1257</v>
       </c>
@@ -12274,7 +12384,7 @@
       </c>
       <c r="D613" s="22"/>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4">
       <c r="A614" s="25" t="s">
         <v>1259</v>
       </c>
@@ -12286,7 +12396,7 @@
       </c>
       <c r="D614" s="22"/>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4">
       <c r="A615" s="25" t="s">
         <v>1261</v>
       </c>
@@ -12298,7 +12408,7 @@
       </c>
       <c r="D615" s="18"/>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4">
       <c r="A616" s="25" t="s">
         <v>1262</v>
       </c>
@@ -12310,7 +12420,7 @@
       </c>
       <c r="D616" s="18"/>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4">
       <c r="A617" s="25" t="s">
         <v>1265</v>
       </c>
@@ -12322,7 +12432,7 @@
       </c>
       <c r="D617" s="18"/>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4">
       <c r="A618" s="25" t="s">
         <v>1267</v>
       </c>
@@ -12334,7 +12444,7 @@
       </c>
       <c r="D618" s="18"/>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4">
       <c r="A619" s="25" t="s">
         <v>1269</v>
       </c>
@@ -12346,7 +12456,7 @@
       </c>
       <c r="D619" s="18"/>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4">
       <c r="A620" s="25" t="s">
         <v>1271</v>
       </c>
@@ -12358,7 +12468,7 @@
       </c>
       <c r="D620" s="18"/>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4">
       <c r="A621" s="25" t="s">
         <v>1273</v>
       </c>
@@ -12370,7 +12480,7 @@
       </c>
       <c r="D621" s="18"/>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4">
       <c r="A622" s="25" t="s">
         <v>1275</v>
       </c>
@@ -12382,7 +12492,7 @@
       </c>
       <c r="D622" s="18"/>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4">
       <c r="A623" s="25" t="s">
         <v>1277</v>
       </c>
@@ -12394,7 +12504,7 @@
       </c>
       <c r="D623" s="18"/>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4">
       <c r="A624" s="25" t="s">
         <v>1279</v>
       </c>
@@ -12406,7 +12516,7 @@
       </c>
       <c r="D624" s="18"/>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4">
       <c r="A625" s="25" t="s">
         <v>1281</v>
       </c>
@@ -12418,7 +12528,7 @@
       </c>
       <c r="D625" s="18"/>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4">
       <c r="A626" s="25" t="s">
         <v>1283</v>
       </c>
@@ -12430,7 +12540,7 @@
       </c>
       <c r="D626" s="18"/>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4">
       <c r="A627" s="25" t="s">
         <v>1285</v>
       </c>
@@ -12442,7 +12552,7 @@
       </c>
       <c r="D627" s="18"/>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4">
       <c r="A628" s="25" t="s">
         <v>1287</v>
       </c>
@@ -12454,7 +12564,7 @@
       </c>
       <c r="D628" s="18"/>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4">
       <c r="A629" s="25" t="s">
         <v>1289</v>
       </c>
@@ -12466,7 +12576,7 @@
       </c>
       <c r="D629" s="18"/>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4">
       <c r="A630" s="25" t="s">
         <v>1291</v>
       </c>
@@ -12478,7 +12588,7 @@
       </c>
       <c r="D630" s="18"/>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4">
       <c r="A631" s="25" t="s">
         <v>1293</v>
       </c>
@@ -12490,7 +12600,7 @@
       </c>
       <c r="D631" s="18"/>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4">
       <c r="A632" s="25" t="s">
         <v>1295</v>
       </c>
@@ -12502,7 +12612,7 @@
       </c>
       <c r="D632" s="18"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4">
       <c r="A633" s="25" t="s">
         <v>1297</v>
       </c>
@@ -12514,7 +12624,7 @@
       </c>
       <c r="D633" s="18"/>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4">
       <c r="A634" s="25" t="s">
         <v>1299</v>
       </c>
@@ -12526,7 +12636,7 @@
       </c>
       <c r="D634" s="18"/>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4">
       <c r="A635" s="25" t="s">
         <v>1301</v>
       </c>
@@ -12538,7 +12648,7 @@
       </c>
       <c r="D635" s="18"/>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4">
       <c r="A636" s="25" t="s">
         <v>1303</v>
       </c>
@@ -12550,7 +12660,7 @@
       </c>
       <c r="D636" s="18"/>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4">
       <c r="A637" s="25" t="s">
         <v>1305</v>
       </c>
@@ -12562,7 +12672,7 @@
       </c>
       <c r="D637" s="18"/>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4">
       <c r="A638" s="25" t="s">
         <v>1307</v>
       </c>
@@ -12574,7 +12684,7 @@
       </c>
       <c r="D638" s="18"/>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4">
       <c r="A639" s="25" t="s">
         <v>1309</v>
       </c>
@@ -12586,7 +12696,7 @@
       </c>
       <c r="D639" s="18"/>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4">
       <c r="A640" s="25" t="s">
         <v>1311</v>
       </c>
@@ -12598,7 +12708,7 @@
       </c>
       <c r="D640" s="18"/>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4">
       <c r="A641" s="25" t="s">
         <v>1313</v>
       </c>
@@ -12610,7 +12720,7 @@
       </c>
       <c r="D641" s="18"/>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4">
       <c r="A642" s="25" t="s">
         <v>1315</v>
       </c>
@@ -12622,7 +12732,7 @@
       </c>
       <c r="D642" s="18"/>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4">
       <c r="A643" s="25" t="s">
         <v>1317</v>
       </c>
@@ -12634,7 +12744,7 @@
       </c>
       <c r="D643" s="18"/>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4">
       <c r="A644" s="25" t="s">
         <v>1319</v>
       </c>
@@ -12645,6 +12755,186 @@
         <v>42121</v>
       </c>
       <c r="D644" s="18"/>
+    </row>
+    <row r="645" spans="1:4" ht="15">
+      <c r="A645" s="26" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B645" s="26" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C645" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D645" s="25"/>
+    </row>
+    <row r="646" spans="1:4" ht="15">
+      <c r="A646" s="26" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B646" s="26" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C646" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D646" s="25"/>
+    </row>
+    <row r="647" spans="1:4" ht="15">
+      <c r="A647" s="26" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B647" s="26" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C647" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D647" s="25"/>
+    </row>
+    <row r="648" spans="1:4" ht="15">
+      <c r="A648" s="26" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B648" s="26" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C648" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D648" s="25"/>
+    </row>
+    <row r="649" spans="1:4" ht="15">
+      <c r="A649" s="26" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B649" s="26" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C649" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D649" s="25"/>
+    </row>
+    <row r="650" spans="1:4" ht="15">
+      <c r="A650" s="26" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B650" s="26" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C650" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D650" s="25"/>
+    </row>
+    <row r="651" spans="1:4" ht="15">
+      <c r="A651" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B651" s="26" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C651" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D651" s="25"/>
+    </row>
+    <row r="652" spans="1:4" ht="15">
+      <c r="A652" s="26" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B652" s="26" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C652" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D652" s="25"/>
+    </row>
+    <row r="653" spans="1:4" ht="15">
+      <c r="A653" s="26" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B653" s="26" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C653" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D653" s="25"/>
+    </row>
+    <row r="654" spans="1:4" ht="15">
+      <c r="A654" s="26" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B654" s="26" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C654" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D654" s="25"/>
+    </row>
+    <row r="655" spans="1:4" ht="15">
+      <c r="A655" s="26" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B655" s="26" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C655" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D655" s="25"/>
+    </row>
+    <row r="656" spans="1:4" ht="15">
+      <c r="A656" s="26" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B656" s="26" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C656" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D656" s="25"/>
+    </row>
+    <row r="657" spans="1:4" ht="15">
+      <c r="A657" s="26" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B657" s="26" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C657" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D657" s="25"/>
+    </row>
+    <row r="658" spans="1:4" ht="15">
+      <c r="A658" s="26" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B658" s="26" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C658" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D658" s="25"/>
+    </row>
+    <row r="659" spans="1:4" ht="15">
+      <c r="A659" s="26" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B659" s="26" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C659" s="18">
+        <v>42121</v>
+      </c>
+      <c r="D659" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12663,7 +12953,12 @@
     <hyperlink ref="A518" r:id="rId13" display="www.cancer.gov/clinicaltrials/featured/trials/RTOG-0848"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12675,15 +12970,15 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12702,6 +12997,11 @@
     <sortCondition ref="A2:A97"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12713,13 +13013,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -12727,7 +13027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -12735,7 +13035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12743,7 +13043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -12751,7 +13051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -12759,7 +13059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -12767,7 +13067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12775,7 +13075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -12783,7 +13083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -12791,7 +13091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -12799,7 +13099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -12807,7 +13107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -12815,7 +13115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -12823,7 +13123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -12831,7 +13131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -12839,7 +13139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -12847,7 +13147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -12855,7 +13155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -12863,7 +13163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -12871,7 +13171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -12879,7 +13179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -12887,7 +13187,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -12895,7 +13195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -12903,7 +13203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -12911,7 +13211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -12919,7 +13219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -12927,7 +13227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -12935,7 +13235,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -12943,7 +13243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -12951,7 +13251,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -12959,7 +13259,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -12967,7 +13267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -12975,7 +13275,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -12983,7 +13283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -12991,7 +13291,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -12999,7 +13299,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -13007,7 +13307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -13015,7 +13315,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -13023,7 +13323,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -13031,7 +13331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -13039,7 +13339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -13047,7 +13347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -13055,7 +13355,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -13063,7 +13363,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -13071,7 +13371,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -13079,7 +13379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -13087,7 +13387,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -13095,7 +13395,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -13103,7 +13403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -13111,7 +13411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -13119,7 +13419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -13127,7 +13427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -13135,7 +13435,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -13143,7 +13443,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -13151,7 +13451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -13159,7 +13459,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -13167,7 +13467,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -13175,7 +13475,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -13183,7 +13483,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -13191,7 +13491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -13199,7 +13499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -13209,5 +13509,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1351">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4071,6 +4071,9 @@
   </si>
   <si>
     <t>/publications/pdq/editorial-boards</t>
+  </si>
+  <si>
+    <t>/publications/pdq/editorial-boards/supportive-care</t>
   </si>
 </sst>
 </file>
@@ -5015,7 +5018,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D651" sqref="D651"/>
+      <selection pane="bottomLeft" activeCell="B656" sqref="B656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12881,7 +12884,7 @@
         <v>1341</v>
       </c>
       <c r="B655" s="26" t="s">
-        <v>1328</v>
+        <v>1350</v>
       </c>
       <c r="C655" s="18">
         <v>42121</v>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="-100" windowWidth="23180" windowHeight="14780"/>
+    <workbookView xWindow="945" yWindow="-105" windowWidth="23175" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTION - LIVE" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1353">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4074,6 +4074,12 @@
   </si>
   <si>
     <t>/publications/pdq/editorial-boards/supportive-care</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/piel</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/piel/video</t>
   </si>
 </sst>
 </file>
@@ -5014,22 +5020,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D659"/>
+  <dimension ref="A1:D660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B656" sqref="B656"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B666" sqref="B666"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5043,7 +5049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5055,7 +5061,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -5067,7 +5073,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -5079,7 +5085,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -5091,7 +5097,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -5103,7 +5109,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -5115,7 +5121,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -5127,7 +5133,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -5139,7 +5145,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -5151,7 +5157,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -5163,7 +5169,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -5175,7 +5181,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -5187,7 +5193,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -5199,7 +5205,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -5211,7 +5217,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -5223,7 +5229,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -5235,7 +5241,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -5247,7 +5253,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
@@ -5259,7 +5265,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -5271,7 +5277,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -5283,7 +5289,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -5295,7 +5301,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
@@ -5307,7 +5313,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -5319,7 +5325,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
@@ -5331,7 +5337,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -5343,7 +5349,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -5355,7 +5361,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -5367,7 +5373,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -5379,7 +5385,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
@@ -5391,7 +5397,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -5403,7 +5409,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" s="5" customFormat="1">
+    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>66</v>
       </c>
@@ -5415,7 +5421,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1">
+    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -5427,7 +5433,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1">
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -5439,7 +5445,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" s="5" customFormat="1">
+    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -5451,7 +5457,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1">
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -5463,7 +5469,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" s="5" customFormat="1">
+    <row r="37" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
@@ -5475,7 +5481,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" s="5" customFormat="1">
+    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
@@ -5487,7 +5493,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" s="5" customFormat="1">
+    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
@@ -5499,7 +5505,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" s="5" customFormat="1">
+    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
@@ -5511,7 +5517,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" s="5" customFormat="1">
+    <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
@@ -5523,7 +5529,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" s="5" customFormat="1">
+    <row r="42" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>85</v>
       </c>
@@ -5535,7 +5541,7 @@
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" s="5" customFormat="1">
+    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>87</v>
       </c>
@@ -5547,7 +5553,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" s="5" customFormat="1">
+    <row r="44" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
@@ -5559,7 +5565,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" s="5" customFormat="1">
+    <row r="45" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>91</v>
       </c>
@@ -5571,7 +5577,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" s="5" customFormat="1">
+    <row r="46" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>93</v>
       </c>
@@ -5583,7 +5589,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" s="5" customFormat="1">
+    <row r="47" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
@@ -5595,7 +5601,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" s="5" customFormat="1">
+    <row r="48" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -5607,7 +5613,7 @@
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" s="5" customFormat="1">
+    <row r="49" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -5619,7 +5625,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" s="5" customFormat="1">
+    <row r="50" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>101</v>
       </c>
@@ -5631,7 +5637,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" s="5" customFormat="1">
+    <row r="51" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
@@ -5643,7 +5649,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" s="5" customFormat="1">
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
@@ -5655,7 +5661,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" s="5" customFormat="1">
+    <row r="53" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>107</v>
       </c>
@@ -5667,7 +5673,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" s="5" customFormat="1">
+    <row r="54" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>109</v>
       </c>
@@ -5679,7 +5685,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" s="5" customFormat="1">
+    <row r="55" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
@@ -5691,7 +5697,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" s="5" customFormat="1">
+    <row r="56" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>112</v>
       </c>
@@ -5703,7 +5709,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" s="5" customFormat="1">
+    <row r="57" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>114</v>
       </c>
@@ -5715,7 +5721,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" s="5" customFormat="1">
+    <row r="58" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>116</v>
       </c>
@@ -5727,7 +5733,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" s="5" customFormat="1">
+    <row r="59" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>118</v>
       </c>
@@ -5739,7 +5745,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" s="5" customFormat="1">
+    <row r="60" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>120</v>
       </c>
@@ -5751,7 +5757,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" s="5" customFormat="1">
+    <row r="61" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>122</v>
       </c>
@@ -5763,7 +5769,7 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" s="5" customFormat="1">
+    <row r="62" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>183</v>
       </c>
@@ -5775,7 +5781,7 @@
       </c>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" s="5" customFormat="1">
+    <row r="63" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>185</v>
       </c>
@@ -5787,7 +5793,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" s="5" customFormat="1">
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>187</v>
       </c>
@@ -5799,7 +5805,7 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" s="5" customFormat="1">
+    <row r="65" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>189</v>
       </c>
@@ -5811,7 +5817,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" s="5" customFormat="1">
+    <row r="66" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>191</v>
       </c>
@@ -5823,7 +5829,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" s="5" customFormat="1">
+    <row r="67" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
@@ -5835,7 +5841,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" s="5" customFormat="1">
+    <row r="68" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>195</v>
       </c>
@@ -5847,7 +5853,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" s="5" customFormat="1">
+    <row r="69" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>197</v>
       </c>
@@ -5859,7 +5865,7 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" s="5" customFormat="1">
+    <row r="70" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>199</v>
       </c>
@@ -5871,7 +5877,7 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" s="5" customFormat="1">
+    <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>201</v>
       </c>
@@ -5883,7 +5889,7 @@
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" s="5" customFormat="1">
+    <row r="72" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>203</v>
       </c>
@@ -5895,7 +5901,7 @@
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" s="5" customFormat="1">
+    <row r="73" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>205</v>
       </c>
@@ -5907,7 +5913,7 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>207</v>
       </c>
@@ -5919,7 +5925,7 @@
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>209</v>
       </c>
@@ -5931,7 +5937,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>211</v>
       </c>
@@ -5943,7 +5949,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>213</v>
       </c>
@@ -5955,7 +5961,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
@@ -5967,7 +5973,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>217</v>
       </c>
@@ -5979,7 +5985,7 @@
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>219</v>
       </c>
@@ -5991,7 +5997,7 @@
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>221</v>
       </c>
@@ -6003,7 +6009,7 @@
       </c>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>223</v>
       </c>
@@ -6015,7 +6021,7 @@
       </c>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>225</v>
       </c>
@@ -6027,7 +6033,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>227</v>
       </c>
@@ -6039,7 +6045,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>229</v>
       </c>
@@ -6051,7 +6057,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>231</v>
       </c>
@@ -6063,7 +6069,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>233</v>
       </c>
@@ -6075,7 +6081,7 @@
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>235</v>
       </c>
@@ -6087,7 +6093,7 @@
       </c>
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>237</v>
       </c>
@@ -6099,7 +6105,7 @@
       </c>
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>239</v>
       </c>
@@ -6111,7 +6117,7 @@
       </c>
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>241</v>
       </c>
@@ -6123,7 +6129,7 @@
       </c>
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>243</v>
       </c>
@@ -6135,7 +6141,7 @@
       </c>
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>245</v>
       </c>
@@ -6147,7 +6153,7 @@
       </c>
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>247</v>
       </c>
@@ -6159,7 +6165,7 @@
       </c>
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>249</v>
       </c>
@@ -6171,7 +6177,7 @@
       </c>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>311</v>
       </c>
@@ -6183,7 +6189,7 @@
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>251</v>
       </c>
@@ -6195,7 +6201,7 @@
       </c>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>253</v>
       </c>
@@ -6207,7 +6213,7 @@
       </c>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>255</v>
       </c>
@@ -6219,7 +6225,7 @@
       </c>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>257</v>
       </c>
@@ -6231,7 +6237,7 @@
       </c>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>259</v>
       </c>
@@ -6243,7 +6249,7 @@
       </c>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>261</v>
       </c>
@@ -6255,7 +6261,7 @@
       </c>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>263</v>
       </c>
@@ -6267,7 +6273,7 @@
       </c>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>265</v>
       </c>
@@ -6279,7 +6285,7 @@
       </c>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>267</v>
       </c>
@@ -6291,7 +6297,7 @@
       </c>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>269</v>
       </c>
@@ -6303,7 +6309,7 @@
       </c>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>271</v>
       </c>
@@ -6315,7 +6321,7 @@
       </c>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>273</v>
       </c>
@@ -6327,7 +6333,7 @@
       </c>
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>275</v>
       </c>
@@ -6339,7 +6345,7 @@
       </c>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>277</v>
       </c>
@@ -6351,7 +6357,7 @@
       </c>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>279</v>
       </c>
@@ -6363,7 +6369,7 @@
       </c>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>281</v>
       </c>
@@ -6375,7 +6381,7 @@
       </c>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>283</v>
       </c>
@@ -6387,7 +6393,7 @@
       </c>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>285</v>
       </c>
@@ -6399,7 +6405,7 @@
       </c>
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>287</v>
       </c>
@@ -6411,7 +6417,7 @@
       </c>
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>289</v>
       </c>
@@ -6423,7 +6429,7 @@
       </c>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>291</v>
       </c>
@@ -6435,7 +6441,7 @@
       </c>
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>293</v>
       </c>
@@ -6447,7 +6453,7 @@
       </c>
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>295</v>
       </c>
@@ -6459,7 +6465,7 @@
       </c>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>297</v>
       </c>
@@ -6471,7 +6477,7 @@
       </c>
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>299</v>
       </c>
@@ -6483,7 +6489,7 @@
       </c>
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>301</v>
       </c>
@@ -6495,7 +6501,7 @@
       </c>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>303</v>
       </c>
@@ -6507,7 +6513,7 @@
       </c>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>305</v>
       </c>
@@ -6519,7 +6525,7 @@
       </c>
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>307</v>
       </c>
@@ -6531,7 +6537,7 @@
       </c>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>309</v>
       </c>
@@ -6543,7 +6549,7 @@
       </c>
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="1:4" s="5" customFormat="1">
+    <row r="127" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>313</v>
       </c>
@@ -6555,7 +6561,7 @@
       </c>
       <c r="D127" s="10"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>315</v>
       </c>
@@ -6567,7 +6573,7 @@
       </c>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>317</v>
       </c>
@@ -6579,7 +6585,7 @@
       </c>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>319</v>
       </c>
@@ -6591,7 +6597,7 @@
       </c>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>321</v>
       </c>
@@ -6603,7 +6609,7 @@
       </c>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>323</v>
       </c>
@@ -6615,7 +6621,7 @@
       </c>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>325</v>
       </c>
@@ -6627,7 +6633,7 @@
       </c>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>327</v>
       </c>
@@ -6639,7 +6645,7 @@
       </c>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>329</v>
       </c>
@@ -6651,7 +6657,7 @@
       </c>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>331</v>
       </c>
@@ -6663,7 +6669,7 @@
       </c>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>333</v>
       </c>
@@ -6675,7 +6681,7 @@
       </c>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>335</v>
       </c>
@@ -6687,7 +6693,7 @@
       </c>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>337</v>
       </c>
@@ -6699,7 +6705,7 @@
       </c>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>339</v>
       </c>
@@ -6711,7 +6717,7 @@
       </c>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>341</v>
       </c>
@@ -6723,7 +6729,7 @@
       </c>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>343</v>
       </c>
@@ -6735,7 +6741,7 @@
       </c>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>345</v>
       </c>
@@ -6747,7 +6753,7 @@
       </c>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>347</v>
       </c>
@@ -6759,7 +6765,7 @@
       </c>
       <c r="D144" s="9"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>349</v>
       </c>
@@ -6771,7 +6777,7 @@
       </c>
       <c r="D145" s="9"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>351</v>
       </c>
@@ -6783,7 +6789,7 @@
       </c>
       <c r="D146" s="9"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>353</v>
       </c>
@@ -6795,7 +6801,7 @@
       </c>
       <c r="D147" s="9"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>355</v>
       </c>
@@ -6807,7 +6813,7 @@
       </c>
       <c r="D148" s="9"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>357</v>
       </c>
@@ -6819,7 +6825,7 @@
       </c>
       <c r="D149" s="9"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>359</v>
       </c>
@@ -6831,7 +6837,7 @@
       </c>
       <c r="D150" s="9"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>361</v>
       </c>
@@ -6843,7 +6849,7 @@
       </c>
       <c r="D151" s="9"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>363</v>
       </c>
@@ -6855,7 +6861,7 @@
       </c>
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>365</v>
       </c>
@@ -6867,7 +6873,7 @@
       </c>
       <c r="D153" s="9"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>367</v>
       </c>
@@ -6879,7 +6885,7 @@
       </c>
       <c r="D154" s="9"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>369</v>
       </c>
@@ -6891,7 +6897,7 @@
       </c>
       <c r="D155" s="9"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>371</v>
       </c>
@@ -6903,7 +6909,7 @@
       </c>
       <c r="D156" s="9"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>373</v>
       </c>
@@ -6915,7 +6921,7 @@
       </c>
       <c r="D157" s="9"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>375</v>
       </c>
@@ -6927,7 +6933,7 @@
       </c>
       <c r="D158" s="9"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>377</v>
       </c>
@@ -6939,7 +6945,7 @@
       </c>
       <c r="D159" s="9"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>379</v>
       </c>
@@ -6951,7 +6957,7 @@
       </c>
       <c r="D160" s="9"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>381</v>
       </c>
@@ -6963,7 +6969,7 @@
       </c>
       <c r="D161" s="9"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>383</v>
       </c>
@@ -6975,7 +6981,7 @@
       </c>
       <c r="D162" s="9"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>385</v>
       </c>
@@ -6987,7 +6993,7 @@
       </c>
       <c r="D163" s="9"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>387</v>
       </c>
@@ -6999,7 +7005,7 @@
       </c>
       <c r="D164" s="9"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>389</v>
       </c>
@@ -7011,7 +7017,7 @@
       </c>
       <c r="D165" s="9"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>391</v>
       </c>
@@ -7023,7 +7029,7 @@
       </c>
       <c r="D166" s="9"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>393</v>
       </c>
@@ -7035,7 +7041,7 @@
       </c>
       <c r="D167" s="9"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>395</v>
       </c>
@@ -7047,7 +7053,7 @@
       </c>
       <c r="D168" s="9"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>397</v>
       </c>
@@ -7059,7 +7065,7 @@
       </c>
       <c r="D169" s="9"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>399</v>
       </c>
@@ -7071,7 +7077,7 @@
       </c>
       <c r="D170" s="9"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>401</v>
       </c>
@@ -7083,7 +7089,7 @@
       </c>
       <c r="D171" s="9"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>403</v>
       </c>
@@ -7095,7 +7101,7 @@
       </c>
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>405</v>
       </c>
@@ -7107,7 +7113,7 @@
       </c>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>407</v>
       </c>
@@ -7119,7 +7125,7 @@
       </c>
       <c r="D174" s="9"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>409</v>
       </c>
@@ -7131,7 +7137,7 @@
       </c>
       <c r="D175" s="9"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>411</v>
       </c>
@@ -7143,7 +7149,7 @@
       </c>
       <c r="D176" s="9"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>413</v>
       </c>
@@ -7155,7 +7161,7 @@
       </c>
       <c r="D177" s="9"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>415</v>
       </c>
@@ -7167,7 +7173,7 @@
       </c>
       <c r="D178" s="9"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>417</v>
       </c>
@@ -7179,7 +7185,7 @@
       </c>
       <c r="D179" s="9"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>419</v>
       </c>
@@ -7191,7 +7197,7 @@
       </c>
       <c r="D180" s="9"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>421</v>
       </c>
@@ -7203,7 +7209,7 @@
       </c>
       <c r="D181" s="9"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>423</v>
       </c>
@@ -7215,7 +7221,7 @@
       </c>
       <c r="D182" s="9"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>425</v>
       </c>
@@ -7227,7 +7233,7 @@
       </c>
       <c r="D183" s="9"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>427</v>
       </c>
@@ -7239,7 +7245,7 @@
       </c>
       <c r="D184" s="9"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>429</v>
       </c>
@@ -7251,7 +7257,7 @@
       </c>
       <c r="D185" s="9"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>431</v>
       </c>
@@ -7263,7 +7269,7 @@
       </c>
       <c r="D186" s="9"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>433</v>
       </c>
@@ -7275,7 +7281,7 @@
       </c>
       <c r="D187" s="9"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>435</v>
       </c>
@@ -7287,7 +7293,7 @@
       </c>
       <c r="D188" s="9"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>437</v>
       </c>
@@ -7299,7 +7305,7 @@
       </c>
       <c r="D189" s="9"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>439</v>
       </c>
@@ -7311,7 +7317,7 @@
       </c>
       <c r="D190" s="9"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>441</v>
       </c>
@@ -7323,7 +7329,7 @@
       </c>
       <c r="D191" s="9"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>443</v>
       </c>
@@ -7335,7 +7341,7 @@
       </c>
       <c r="D192" s="9"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>445</v>
       </c>
@@ -7347,7 +7353,7 @@
       </c>
       <c r="D193" s="9"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>447</v>
       </c>
@@ -7359,7 +7365,7 @@
       </c>
       <c r="D194" s="9"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>449</v>
       </c>
@@ -7371,7 +7377,7 @@
       </c>
       <c r="D195" s="9"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>451</v>
       </c>
@@ -7383,7 +7389,7 @@
       </c>
       <c r="D196" s="9"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>453</v>
       </c>
@@ -7395,7 +7401,7 @@
       </c>
       <c r="D197" s="9"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>455</v>
       </c>
@@ -7407,7 +7413,7 @@
       </c>
       <c r="D198" s="9"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>457</v>
       </c>
@@ -7419,7 +7425,7 @@
       </c>
       <c r="D199" s="9"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>459</v>
       </c>
@@ -7431,7 +7437,7 @@
       </c>
       <c r="D200" s="9"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>461</v>
       </c>
@@ -7443,7 +7449,7 @@
       </c>
       <c r="D201" s="9"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>463</v>
       </c>
@@ -7455,7 +7461,7 @@
       </c>
       <c r="D202" s="9"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>465</v>
       </c>
@@ -7467,7 +7473,7 @@
       </c>
       <c r="D203" s="9"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>467</v>
       </c>
@@ -7479,7 +7485,7 @@
       </c>
       <c r="D204" s="9"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>469</v>
       </c>
@@ -7491,7 +7497,7 @@
       </c>
       <c r="D205" s="9"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>471</v>
       </c>
@@ -7503,7 +7509,7 @@
       </c>
       <c r="D206" s="9"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>473</v>
       </c>
@@ -7515,7 +7521,7 @@
       </c>
       <c r="D207" s="9"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>475</v>
       </c>
@@ -7527,7 +7533,7 @@
       </c>
       <c r="D208" s="9"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>477</v>
       </c>
@@ -7539,7 +7545,7 @@
       </c>
       <c r="D209" s="9"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>479</v>
       </c>
@@ -7551,7 +7557,7 @@
       </c>
       <c r="D210" s="9"/>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>481</v>
       </c>
@@ -7563,7 +7569,7 @@
       </c>
       <c r="D211" s="9"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>483</v>
       </c>
@@ -7575,7 +7581,7 @@
       </c>
       <c r="D212" s="9"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>485</v>
       </c>
@@ -7587,7 +7593,7 @@
       </c>
       <c r="D213" s="9"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>487</v>
       </c>
@@ -7599,7 +7605,7 @@
       </c>
       <c r="D214" s="9"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>489</v>
       </c>
@@ -7611,7 +7617,7 @@
       </c>
       <c r="D215" s="9"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>491</v>
       </c>
@@ -7623,7 +7629,7 @@
       </c>
       <c r="D216" s="9"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>493</v>
       </c>
@@ -7635,7 +7641,7 @@
       </c>
       <c r="D217" s="9"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>495</v>
       </c>
@@ -7647,7 +7653,7 @@
       </c>
       <c r="D218" s="9"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>497</v>
       </c>
@@ -7659,7 +7665,7 @@
       </c>
       <c r="D219" s="9"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>499</v>
       </c>
@@ -7671,7 +7677,7 @@
       </c>
       <c r="D220" s="9"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>501</v>
       </c>
@@ -7683,7 +7689,7 @@
       </c>
       <c r="D221" s="9"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>503</v>
       </c>
@@ -7695,7 +7701,7 @@
       </c>
       <c r="D222" s="9"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>505</v>
       </c>
@@ -7707,7 +7713,7 @@
       </c>
       <c r="D223" s="9"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>507</v>
       </c>
@@ -7719,7 +7725,7 @@
       </c>
       <c r="D224" s="9"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>509</v>
       </c>
@@ -7731,7 +7737,7 @@
       </c>
       <c r="D225" s="9"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>511</v>
       </c>
@@ -7743,7 +7749,7 @@
       </c>
       <c r="D226" s="9"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>513</v>
       </c>
@@ -7755,7 +7761,7 @@
       </c>
       <c r="D227" s="9"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>515</v>
       </c>
@@ -7767,7 +7773,7 @@
       </c>
       <c r="D228" s="9"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>532</v>
       </c>
@@ -7779,7 +7785,7 @@
       </c>
       <c r="D229" s="9"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>518</v>
       </c>
@@ -7791,7 +7797,7 @@
       </c>
       <c r="D230" s="9"/>
     </row>
-    <row r="231" spans="1:4" s="20" customFormat="1">
+    <row r="231" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>520</v>
       </c>
@@ -7803,7 +7809,7 @@
       </c>
       <c r="D231" s="9"/>
     </row>
-    <row r="232" spans="1:4" s="20" customFormat="1">
+    <row r="232" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>521</v>
       </c>
@@ -7815,7 +7821,7 @@
       </c>
       <c r="D232" s="9"/>
     </row>
-    <row r="233" spans="1:4" s="20" customFormat="1">
+    <row r="233" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>522</v>
       </c>
@@ -7827,7 +7833,7 @@
       </c>
       <c r="D233" s="9"/>
     </row>
-    <row r="234" spans="1:4" s="20" customFormat="1">
+    <row r="234" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>523</v>
       </c>
@@ -7839,7 +7845,7 @@
       </c>
       <c r="D234" s="9"/>
     </row>
-    <row r="235" spans="1:4" s="20" customFormat="1">
+    <row r="235" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>524</v>
       </c>
@@ -7851,7 +7857,7 @@
       </c>
       <c r="D235" s="9"/>
     </row>
-    <row r="236" spans="1:4" s="20" customFormat="1">
+    <row r="236" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>525</v>
       </c>
@@ -7863,7 +7869,7 @@
       </c>
       <c r="D236" s="9"/>
     </row>
-    <row r="237" spans="1:4" s="20" customFormat="1">
+    <row r="237" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>533</v>
       </c>
@@ -7875,7 +7881,7 @@
       </c>
       <c r="D237" s="9"/>
     </row>
-    <row r="238" spans="1:4" s="20" customFormat="1">
+    <row r="238" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>535</v>
       </c>
@@ -7887,7 +7893,7 @@
       </c>
       <c r="D238" s="9"/>
     </row>
-    <row r="239" spans="1:4" s="20" customFormat="1">
+    <row r="239" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>537</v>
       </c>
@@ -7899,7 +7905,7 @@
       </c>
       <c r="D239" s="9"/>
     </row>
-    <row r="240" spans="1:4" s="20" customFormat="1">
+    <row r="240" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>539</v>
       </c>
@@ -7911,7 +7917,7 @@
       </c>
       <c r="D240" s="9"/>
     </row>
-    <row r="241" spans="1:4" s="20" customFormat="1">
+    <row r="241" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>541</v>
       </c>
@@ -7923,7 +7929,7 @@
       </c>
       <c r="D241" s="9"/>
     </row>
-    <row r="242" spans="1:4" s="20" customFormat="1">
+    <row r="242" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>543</v>
       </c>
@@ -7935,7 +7941,7 @@
       </c>
       <c r="D242" s="9"/>
     </row>
-    <row r="243" spans="1:4" s="20" customFormat="1">
+    <row r="243" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>556</v>
       </c>
@@ -7947,7 +7953,7 @@
       </c>
       <c r="D243" s="9"/>
     </row>
-    <row r="244" spans="1:4" s="20" customFormat="1">
+    <row r="244" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>554</v>
       </c>
@@ -7959,7 +7965,7 @@
       </c>
       <c r="D244" s="9"/>
     </row>
-    <row r="245" spans="1:4" s="20" customFormat="1">
+    <row r="245" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>552</v>
       </c>
@@ -7971,7 +7977,7 @@
       </c>
       <c r="D245" s="9"/>
     </row>
-    <row r="246" spans="1:4" s="20" customFormat="1">
+    <row r="246" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>550</v>
       </c>
@@ -7983,7 +7989,7 @@
       </c>
       <c r="D246" s="9"/>
     </row>
-    <row r="247" spans="1:4" s="20" customFormat="1">
+    <row r="247" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>548</v>
       </c>
@@ -7995,7 +8001,7 @@
       </c>
       <c r="D247" s="9"/>
     </row>
-    <row r="248" spans="1:4" s="20" customFormat="1">
+    <row r="248" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>546</v>
       </c>
@@ -8007,7 +8013,7 @@
       </c>
       <c r="D248" s="9"/>
     </row>
-    <row r="249" spans="1:4" s="20" customFormat="1">
+    <row r="249" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>557</v>
       </c>
@@ -8019,7 +8025,7 @@
       </c>
       <c r="D249" s="9"/>
     </row>
-    <row r="250" spans="1:4" s="20" customFormat="1">
+    <row r="250" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>559</v>
       </c>
@@ -8031,7 +8037,7 @@
       </c>
       <c r="D250" s="9"/>
     </row>
-    <row r="251" spans="1:4" s="20" customFormat="1">
+    <row r="251" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>561</v>
       </c>
@@ -8043,7 +8049,7 @@
       </c>
       <c r="D251" s="9"/>
     </row>
-    <row r="252" spans="1:4" s="20" customFormat="1">
+    <row r="252" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>563</v>
       </c>
@@ -8055,7 +8061,7 @@
       </c>
       <c r="D252" s="9"/>
     </row>
-    <row r="253" spans="1:4" s="20" customFormat="1">
+    <row r="253" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>565</v>
       </c>
@@ -8067,7 +8073,7 @@
       </c>
       <c r="D253" s="9"/>
     </row>
-    <row r="254" spans="1:4" s="20" customFormat="1">
+    <row r="254" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>567</v>
       </c>
@@ -8079,7 +8085,7 @@
       </c>
       <c r="D254" s="9"/>
     </row>
-    <row r="255" spans="1:4" s="20" customFormat="1">
+    <row r="255" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>569</v>
       </c>
@@ -8091,7 +8097,7 @@
       </c>
       <c r="D255" s="9"/>
     </row>
-    <row r="256" spans="1:4" s="20" customFormat="1">
+    <row r="256" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>571</v>
       </c>
@@ -8103,7 +8109,7 @@
       </c>
       <c r="D256" s="9"/>
     </row>
-    <row r="257" spans="1:4" s="20" customFormat="1">
+    <row r="257" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>573</v>
       </c>
@@ -8115,7 +8121,7 @@
       </c>
       <c r="D257" s="9"/>
     </row>
-    <row r="258" spans="1:4" s="20" customFormat="1">
+    <row r="258" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>575</v>
       </c>
@@ -8127,7 +8133,7 @@
       </c>
       <c r="D258" s="9"/>
     </row>
-    <row r="259" spans="1:4" s="20" customFormat="1">
+    <row r="259" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>577</v>
       </c>
@@ -8139,7 +8145,7 @@
       </c>
       <c r="D259" s="9"/>
     </row>
-    <row r="260" spans="1:4" s="20" customFormat="1">
+    <row r="260" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>579</v>
       </c>
@@ -8151,7 +8157,7 @@
       </c>
       <c r="D260" s="9"/>
     </row>
-    <row r="261" spans="1:4" s="20" customFormat="1">
+    <row r="261" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>581</v>
       </c>
@@ -8163,7 +8169,7 @@
       </c>
       <c r="D261" s="9"/>
     </row>
-    <row r="262" spans="1:4" s="20" customFormat="1">
+    <row r="262" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>583</v>
       </c>
@@ -8175,7 +8181,7 @@
       </c>
       <c r="D262" s="9"/>
     </row>
-    <row r="263" spans="1:4" s="20" customFormat="1">
+    <row r="263" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>585</v>
       </c>
@@ -8187,7 +8193,7 @@
       </c>
       <c r="D263" s="9"/>
     </row>
-    <row r="264" spans="1:4" s="20" customFormat="1">
+    <row r="264" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>587</v>
       </c>
@@ -8199,7 +8205,7 @@
       </c>
       <c r="D264" s="9"/>
     </row>
-    <row r="265" spans="1:4" s="20" customFormat="1">
+    <row r="265" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>589</v>
       </c>
@@ -8211,7 +8217,7 @@
       </c>
       <c r="D265" s="9"/>
     </row>
-    <row r="266" spans="1:4" s="20" customFormat="1">
+    <row r="266" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>591</v>
       </c>
@@ -8223,7 +8229,7 @@
       </c>
       <c r="D266" s="9"/>
     </row>
-    <row r="267" spans="1:4" s="20" customFormat="1">
+    <row r="267" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>593</v>
       </c>
@@ -8235,7 +8241,7 @@
       </c>
       <c r="D267" s="9"/>
     </row>
-    <row r="268" spans="1:4" s="20" customFormat="1">
+    <row r="268" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>595</v>
       </c>
@@ -8247,7 +8253,7 @@
       </c>
       <c r="D268" s="9"/>
     </row>
-    <row r="269" spans="1:4" s="20" customFormat="1">
+    <row r="269" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>597</v>
       </c>
@@ -8259,7 +8265,7 @@
       </c>
       <c r="D269" s="9"/>
     </row>
-    <row r="270" spans="1:4" s="20" customFormat="1">
+    <row r="270" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>599</v>
       </c>
@@ -8271,7 +8277,7 @@
       </c>
       <c r="D270" s="9"/>
     </row>
-    <row r="271" spans="1:4" s="20" customFormat="1">
+    <row r="271" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>601</v>
       </c>
@@ -8283,7 +8289,7 @@
       </c>
       <c r="D271" s="9"/>
     </row>
-    <row r="272" spans="1:4" s="20" customFormat="1">
+    <row r="272" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>603</v>
       </c>
@@ -8295,7 +8301,7 @@
       </c>
       <c r="D272" s="9"/>
     </row>
-    <row r="273" spans="1:4" s="20" customFormat="1">
+    <row r="273" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>605</v>
       </c>
@@ -8307,7 +8313,7 @@
       </c>
       <c r="D273" s="9"/>
     </row>
-    <row r="274" spans="1:4" s="20" customFormat="1">
+    <row r="274" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>607</v>
       </c>
@@ -8319,7 +8325,7 @@
       </c>
       <c r="D274" s="9"/>
     </row>
-    <row r="275" spans="1:4" s="20" customFormat="1">
+    <row r="275" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>609</v>
       </c>
@@ -8331,7 +8337,7 @@
       </c>
       <c r="D275" s="9"/>
     </row>
-    <row r="276" spans="1:4" s="20" customFormat="1">
+    <row r="276" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>611</v>
       </c>
@@ -8343,7 +8349,7 @@
       </c>
       <c r="D276" s="9"/>
     </row>
-    <row r="277" spans="1:4" s="20" customFormat="1">
+    <row r="277" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
         <v>613</v>
       </c>
@@ -8355,7 +8361,7 @@
       </c>
       <c r="D277" s="9"/>
     </row>
-    <row r="278" spans="1:4" s="20" customFormat="1">
+    <row r="278" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>615</v>
       </c>
@@ -8367,7 +8373,7 @@
       </c>
       <c r="D278" s="9"/>
     </row>
-    <row r="279" spans="1:4" s="20" customFormat="1">
+    <row r="279" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>617</v>
       </c>
@@ -8379,7 +8385,7 @@
       </c>
       <c r="D279" s="9"/>
     </row>
-    <row r="280" spans="1:4" s="20" customFormat="1">
+    <row r="280" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>619</v>
       </c>
@@ -8391,7 +8397,7 @@
       </c>
       <c r="D280" s="9"/>
     </row>
-    <row r="281" spans="1:4" s="20" customFormat="1">
+    <row r="281" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>621</v>
       </c>
@@ -8403,7 +8409,7 @@
       </c>
       <c r="D281" s="9"/>
     </row>
-    <row r="282" spans="1:4" s="20" customFormat="1">
+    <row r="282" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>623</v>
       </c>
@@ -8415,7 +8421,7 @@
       </c>
       <c r="D282" s="9"/>
     </row>
-    <row r="283" spans="1:4" s="20" customFormat="1">
+    <row r="283" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>625</v>
       </c>
@@ -8427,7 +8433,7 @@
       </c>
       <c r="D283" s="9"/>
     </row>
-    <row r="284" spans="1:4" s="20" customFormat="1">
+    <row r="284" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>627</v>
       </c>
@@ -8439,7 +8445,7 @@
       </c>
       <c r="D284" s="9"/>
     </row>
-    <row r="285" spans="1:4" s="20" customFormat="1">
+    <row r="285" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>629</v>
       </c>
@@ -8451,7 +8457,7 @@
       </c>
       <c r="D285" s="9"/>
     </row>
-    <row r="286" spans="1:4" s="20" customFormat="1">
+    <row r="286" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
         <v>631</v>
       </c>
@@ -8463,7 +8469,7 @@
       </c>
       <c r="D286" s="9"/>
     </row>
-    <row r="287" spans="1:4" s="20" customFormat="1">
+    <row r="287" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>633</v>
       </c>
@@ -8475,7 +8481,7 @@
       </c>
       <c r="D287" s="9"/>
     </row>
-    <row r="288" spans="1:4" s="20" customFormat="1">
+    <row r="288" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>635</v>
       </c>
@@ -8487,7 +8493,7 @@
       </c>
       <c r="D288" s="9"/>
     </row>
-    <row r="289" spans="1:4" s="20" customFormat="1">
+    <row r="289" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>637</v>
       </c>
@@ -8499,7 +8505,7 @@
       </c>
       <c r="D289" s="9"/>
     </row>
-    <row r="290" spans="1:4" s="20" customFormat="1">
+    <row r="290" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>639</v>
       </c>
@@ -8511,7 +8517,7 @@
       </c>
       <c r="D290" s="9"/>
     </row>
-    <row r="291" spans="1:4" s="20" customFormat="1">
+    <row r="291" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>641</v>
       </c>
@@ -8523,7 +8529,7 @@
       </c>
       <c r="D291" s="9"/>
     </row>
-    <row r="292" spans="1:4" s="20" customFormat="1">
+    <row r="292" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
         <v>643</v>
       </c>
@@ -8535,7 +8541,7 @@
       </c>
       <c r="D292" s="9"/>
     </row>
-    <row r="293" spans="1:4" s="20" customFormat="1">
+    <row r="293" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
         <v>645</v>
       </c>
@@ -8547,7 +8553,7 @@
       </c>
       <c r="D293" s="9"/>
     </row>
-    <row r="294" spans="1:4" s="20" customFormat="1">
+    <row r="294" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>647</v>
       </c>
@@ -8559,7 +8565,7 @@
       </c>
       <c r="D294" s="9"/>
     </row>
-    <row r="295" spans="1:4" s="20" customFormat="1">
+    <row r="295" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>649</v>
       </c>
@@ -8571,7 +8577,7 @@
       </c>
       <c r="D295" s="9"/>
     </row>
-    <row r="296" spans="1:4" s="20" customFormat="1">
+    <row r="296" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>651</v>
       </c>
@@ -8583,7 +8589,7 @@
       </c>
       <c r="D296" s="9"/>
     </row>
-    <row r="297" spans="1:4" s="20" customFormat="1">
+    <row r="297" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>653</v>
       </c>
@@ -8595,7 +8601,7 @@
       </c>
       <c r="D297" s="9"/>
     </row>
-    <row r="298" spans="1:4" s="20" customFormat="1">
+    <row r="298" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
         <v>655</v>
       </c>
@@ -8607,7 +8613,7 @@
       </c>
       <c r="D298" s="9"/>
     </row>
-    <row r="299" spans="1:4" s="20" customFormat="1">
+    <row r="299" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
         <v>657</v>
       </c>
@@ -8619,7 +8625,7 @@
       </c>
       <c r="D299" s="9"/>
     </row>
-    <row r="300" spans="1:4" s="20" customFormat="1">
+    <row r="300" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
         <v>659</v>
       </c>
@@ -8631,7 +8637,7 @@
       </c>
       <c r="D300" s="9"/>
     </row>
-    <row r="301" spans="1:4" s="20" customFormat="1">
+    <row r="301" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>661</v>
       </c>
@@ -8643,7 +8649,7 @@
       </c>
       <c r="D301" s="9"/>
     </row>
-    <row r="302" spans="1:4" s="20" customFormat="1">
+    <row r="302" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>663</v>
       </c>
@@ -8655,7 +8661,7 @@
       </c>
       <c r="D302" s="9"/>
     </row>
-    <row r="303" spans="1:4" s="20" customFormat="1">
+    <row r="303" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>665</v>
       </c>
@@ -8667,7 +8673,7 @@
       </c>
       <c r="D303" s="9"/>
     </row>
-    <row r="304" spans="1:4" s="20" customFormat="1">
+    <row r="304" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
         <v>667</v>
       </c>
@@ -8679,7 +8685,7 @@
       </c>
       <c r="D304" s="9"/>
     </row>
-    <row r="305" spans="1:4" s="20" customFormat="1">
+    <row r="305" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
         <v>669</v>
       </c>
@@ -8691,7 +8697,7 @@
       </c>
       <c r="D305" s="9"/>
     </row>
-    <row r="306" spans="1:4" s="20" customFormat="1">
+    <row r="306" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>671</v>
       </c>
@@ -8703,7 +8709,7 @@
       </c>
       <c r="D306" s="9"/>
     </row>
-    <row r="307" spans="1:4" s="20" customFormat="1">
+    <row r="307" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>673</v>
       </c>
@@ -8715,7 +8721,7 @@
       </c>
       <c r="D307" s="9"/>
     </row>
-    <row r="308" spans="1:4" s="20" customFormat="1">
+    <row r="308" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
         <v>675</v>
       </c>
@@ -8727,7 +8733,7 @@
       </c>
       <c r="D308" s="9"/>
     </row>
-    <row r="309" spans="1:4" s="20" customFormat="1">
+    <row r="309" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>677</v>
       </c>
@@ -8739,7 +8745,7 @@
       </c>
       <c r="D309" s="9"/>
     </row>
-    <row r="310" spans="1:4" s="20" customFormat="1">
+    <row r="310" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>679</v>
       </c>
@@ -8751,7 +8757,7 @@
       </c>
       <c r="D310" s="9"/>
     </row>
-    <row r="311" spans="1:4" s="20" customFormat="1">
+    <row r="311" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>681</v>
       </c>
@@ -8763,7 +8769,7 @@
       </c>
       <c r="D311" s="9"/>
     </row>
-    <row r="312" spans="1:4" s="20" customFormat="1">
+    <row r="312" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>683</v>
       </c>
@@ -8775,7 +8781,7 @@
       </c>
       <c r="D312" s="9"/>
     </row>
-    <row r="313" spans="1:4" s="20" customFormat="1">
+    <row r="313" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>685</v>
       </c>
@@ -8787,7 +8793,7 @@
       </c>
       <c r="D313" s="9"/>
     </row>
-    <row r="314" spans="1:4" s="20" customFormat="1">
+    <row r="314" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>687</v>
       </c>
@@ -8799,7 +8805,7 @@
       </c>
       <c r="D314" s="9"/>
     </row>
-    <row r="315" spans="1:4" s="20" customFormat="1">
+    <row r="315" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
         <v>689</v>
       </c>
@@ -8811,7 +8817,7 @@
       </c>
       <c r="D315" s="9"/>
     </row>
-    <row r="316" spans="1:4" s="20" customFormat="1">
+    <row r="316" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>691</v>
       </c>
@@ -8823,7 +8829,7 @@
       </c>
       <c r="D316" s="9"/>
     </row>
-    <row r="317" spans="1:4" s="20" customFormat="1">
+    <row r="317" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>693</v>
       </c>
@@ -8835,7 +8841,7 @@
       </c>
       <c r="D317" s="9"/>
     </row>
-    <row r="318" spans="1:4" s="20" customFormat="1">
+    <row r="318" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
         <v>695</v>
       </c>
@@ -8847,7 +8853,7 @@
       </c>
       <c r="D318" s="9"/>
     </row>
-    <row r="319" spans="1:4" s="20" customFormat="1">
+    <row r="319" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>697</v>
       </c>
@@ -8859,7 +8865,7 @@
       </c>
       <c r="D319" s="9"/>
     </row>
-    <row r="320" spans="1:4" s="20" customFormat="1">
+    <row r="320" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
         <v>699</v>
       </c>
@@ -8871,7 +8877,7 @@
       </c>
       <c r="D320" s="9"/>
     </row>
-    <row r="321" spans="1:4" s="20" customFormat="1">
+    <row r="321" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>701</v>
       </c>
@@ -8883,7 +8889,7 @@
       </c>
       <c r="D321" s="9"/>
     </row>
-    <row r="322" spans="1:4" s="20" customFormat="1">
+    <row r="322" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>703</v>
       </c>
@@ -8895,7 +8901,7 @@
       </c>
       <c r="D322" s="9"/>
     </row>
-    <row r="323" spans="1:4" s="20" customFormat="1">
+    <row r="323" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
         <v>705</v>
       </c>
@@ -8907,7 +8913,7 @@
       </c>
       <c r="D323" s="9"/>
     </row>
-    <row r="324" spans="1:4" s="20" customFormat="1">
+    <row r="324" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
         <v>707</v>
       </c>
@@ -8919,7 +8925,7 @@
       </c>
       <c r="D324" s="9"/>
     </row>
-    <row r="325" spans="1:4" s="20" customFormat="1">
+    <row r="325" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>709</v>
       </c>
@@ -8931,7 +8937,7 @@
       </c>
       <c r="D325" s="9"/>
     </row>
-    <row r="326" spans="1:4" s="20" customFormat="1">
+    <row r="326" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>711</v>
       </c>
@@ -8943,7 +8949,7 @@
       </c>
       <c r="D326" s="9"/>
     </row>
-    <row r="327" spans="1:4" s="20" customFormat="1">
+    <row r="327" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>713</v>
       </c>
@@ -8955,7 +8961,7 @@
       </c>
       <c r="D327" s="9"/>
     </row>
-    <row r="328" spans="1:4" s="20" customFormat="1">
+    <row r="328" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>715</v>
       </c>
@@ -8967,7 +8973,7 @@
       </c>
       <c r="D328" s="9"/>
     </row>
-    <row r="329" spans="1:4" s="20" customFormat="1">
+    <row r="329" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>717</v>
       </c>
@@ -8979,7 +8985,7 @@
       </c>
       <c r="D329" s="9"/>
     </row>
-    <row r="330" spans="1:4" s="20" customFormat="1">
+    <row r="330" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>719</v>
       </c>
@@ -8991,7 +8997,7 @@
       </c>
       <c r="D330" s="9"/>
     </row>
-    <row r="331" spans="1:4" s="20" customFormat="1">
+    <row r="331" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
         <v>721</v>
       </c>
@@ -9003,7 +9009,7 @@
       </c>
       <c r="D331" s="9"/>
     </row>
-    <row r="332" spans="1:4" s="20" customFormat="1">
+    <row r="332" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
         <v>723</v>
       </c>
@@ -9015,7 +9021,7 @@
       </c>
       <c r="D332" s="9"/>
     </row>
-    <row r="333" spans="1:4" s="20" customFormat="1">
+    <row r="333" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
         <v>725</v>
       </c>
@@ -9027,7 +9033,7 @@
       </c>
       <c r="D333" s="9"/>
     </row>
-    <row r="334" spans="1:4" s="20" customFormat="1">
+    <row r="334" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>727</v>
       </c>
@@ -9039,7 +9045,7 @@
       </c>
       <c r="D334" s="9"/>
     </row>
-    <row r="335" spans="1:4" s="20" customFormat="1">
+    <row r="335" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
         <v>729</v>
       </c>
@@ -9051,7 +9057,7 @@
       </c>
       <c r="D335" s="9"/>
     </row>
-    <row r="336" spans="1:4" s="20" customFormat="1">
+    <row r="336" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
         <v>731</v>
       </c>
@@ -9063,7 +9069,7 @@
       </c>
       <c r="D336" s="9"/>
     </row>
-    <row r="337" spans="1:4" s="20" customFormat="1">
+    <row r="337" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
         <v>733</v>
       </c>
@@ -9075,7 +9081,7 @@
       </c>
       <c r="D337" s="9"/>
     </row>
-    <row r="338" spans="1:4" s="20" customFormat="1">
+    <row r="338" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
         <v>735</v>
       </c>
@@ -9087,7 +9093,7 @@
       </c>
       <c r="D338" s="9"/>
     </row>
-    <row r="339" spans="1:4" s="20" customFormat="1">
+    <row r="339" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
         <v>737</v>
       </c>
@@ -9099,7 +9105,7 @@
       </c>
       <c r="D339" s="9"/>
     </row>
-    <row r="340" spans="1:4" s="20" customFormat="1">
+    <row r="340" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
         <v>739</v>
       </c>
@@ -9111,7 +9117,7 @@
       </c>
       <c r="D340" s="9"/>
     </row>
-    <row r="341" spans="1:4" s="20" customFormat="1">
+    <row r="341" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
         <v>741</v>
       </c>
@@ -9123,7 +9129,7 @@
       </c>
       <c r="D341" s="9"/>
     </row>
-    <row r="342" spans="1:4" s="20" customFormat="1">
+    <row r="342" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
         <v>743</v>
       </c>
@@ -9135,7 +9141,7 @@
       </c>
       <c r="D342" s="9"/>
     </row>
-    <row r="343" spans="1:4" s="20" customFormat="1">
+    <row r="343" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
         <v>745</v>
       </c>
@@ -9147,7 +9153,7 @@
       </c>
       <c r="D343" s="9"/>
     </row>
-    <row r="344" spans="1:4" s="20" customFormat="1">
+    <row r="344" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
         <v>747</v>
       </c>
@@ -9159,7 +9165,7 @@
       </c>
       <c r="D344" s="9"/>
     </row>
-    <row r="345" spans="1:4" s="20" customFormat="1">
+    <row r="345" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
         <v>749</v>
       </c>
@@ -9171,7 +9177,7 @@
       </c>
       <c r="D345" s="9"/>
     </row>
-    <row r="346" spans="1:4" s="20" customFormat="1">
+    <row r="346" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
         <v>751</v>
       </c>
@@ -9183,7 +9189,7 @@
       </c>
       <c r="D346" s="9"/>
     </row>
-    <row r="347" spans="1:4" s="20" customFormat="1">
+    <row r="347" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
         <v>753</v>
       </c>
@@ -9195,7 +9201,7 @@
       </c>
       <c r="D347" s="9"/>
     </row>
-    <row r="348" spans="1:4" s="20" customFormat="1">
+    <row r="348" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
         <v>755</v>
       </c>
@@ -9207,7 +9213,7 @@
       </c>
       <c r="D348" s="9"/>
     </row>
-    <row r="349" spans="1:4" s="20" customFormat="1">
+    <row r="349" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
         <v>757</v>
       </c>
@@ -9219,7 +9225,7 @@
       </c>
       <c r="D349" s="9"/>
     </row>
-    <row r="350" spans="1:4" s="20" customFormat="1">
+    <row r="350" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
         <v>759</v>
       </c>
@@ -9231,7 +9237,7 @@
       </c>
       <c r="D350" s="9"/>
     </row>
-    <row r="351" spans="1:4" s="20" customFormat="1">
+    <row r="351" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
         <v>761</v>
       </c>
@@ -9243,7 +9249,7 @@
       </c>
       <c r="D351" s="9"/>
     </row>
-    <row r="352" spans="1:4" s="20" customFormat="1">
+    <row r="352" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
         <v>763</v>
       </c>
@@ -9255,7 +9261,7 @@
       </c>
       <c r="D352" s="9"/>
     </row>
-    <row r="353" spans="1:4" s="20" customFormat="1">
+    <row r="353" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
         <v>765</v>
       </c>
@@ -9267,7 +9273,7 @@
       </c>
       <c r="D353" s="9"/>
     </row>
-    <row r="354" spans="1:4" s="20" customFormat="1">
+    <row r="354" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
         <v>767</v>
       </c>
@@ -9279,7 +9285,7 @@
       </c>
       <c r="D354" s="9"/>
     </row>
-    <row r="355" spans="1:4" s="20" customFormat="1">
+    <row r="355" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
         <v>769</v>
       </c>
@@ -9291,7 +9297,7 @@
       </c>
       <c r="D355" s="9"/>
     </row>
-    <row r="356" spans="1:4" s="20" customFormat="1">
+    <row r="356" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>771</v>
       </c>
@@ -9303,7 +9309,7 @@
       </c>
       <c r="D356" s="9"/>
     </row>
-    <row r="357" spans="1:4" s="20" customFormat="1">
+    <row r="357" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
         <v>773</v>
       </c>
@@ -9315,7 +9321,7 @@
       </c>
       <c r="D357" s="9"/>
     </row>
-    <row r="358" spans="1:4" s="20" customFormat="1">
+    <row r="358" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
         <v>775</v>
       </c>
@@ -9327,7 +9333,7 @@
       </c>
       <c r="D358" s="9"/>
     </row>
-    <row r="359" spans="1:4" s="20" customFormat="1">
+    <row r="359" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
         <v>777</v>
       </c>
@@ -9339,7 +9345,7 @@
       </c>
       <c r="D359" s="9"/>
     </row>
-    <row r="360" spans="1:4" s="20" customFormat="1">
+    <row r="360" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
         <v>779</v>
       </c>
@@ -9351,7 +9357,7 @@
       </c>
       <c r="D360" s="9"/>
     </row>
-    <row r="361" spans="1:4" s="20" customFormat="1">
+    <row r="361" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
         <v>781</v>
       </c>
@@ -9363,7 +9369,7 @@
       </c>
       <c r="D361" s="9"/>
     </row>
-    <row r="362" spans="1:4" s="20" customFormat="1">
+    <row r="362" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
         <v>783</v>
       </c>
@@ -9375,7 +9381,7 @@
       </c>
       <c r="D362" s="9"/>
     </row>
-    <row r="363" spans="1:4" s="20" customFormat="1">
+    <row r="363" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
         <v>785</v>
       </c>
@@ -9387,7 +9393,7 @@
       </c>
       <c r="D363" s="9"/>
     </row>
-    <row r="364" spans="1:4" s="20" customFormat="1">
+    <row r="364" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
         <v>787</v>
       </c>
@@ -9399,7 +9405,7 @@
       </c>
       <c r="D364" s="9"/>
     </row>
-    <row r="365" spans="1:4" s="21" customFormat="1">
+    <row r="365" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="22" t="s">
         <v>789</v>
       </c>
@@ -9411,7 +9417,7 @@
       </c>
       <c r="D365" s="22"/>
     </row>
-    <row r="366" spans="1:4" s="21" customFormat="1">
+    <row r="366" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="22" t="s">
         <v>791</v>
       </c>
@@ -9423,7 +9429,7 @@
       </c>
       <c r="D366" s="22"/>
     </row>
-    <row r="367" spans="1:4" s="21" customFormat="1">
+    <row r="367" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="22" t="s">
         <v>793</v>
       </c>
@@ -9435,7 +9441,7 @@
       </c>
       <c r="D367" s="22"/>
     </row>
-    <row r="368" spans="1:4" s="21" customFormat="1">
+    <row r="368" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="22" t="s">
         <v>795</v>
       </c>
@@ -9447,7 +9453,7 @@
       </c>
       <c r="D368" s="22"/>
     </row>
-    <row r="369" spans="1:4" s="21" customFormat="1">
+    <row r="369" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="22" t="s">
         <v>797</v>
       </c>
@@ -9459,7 +9465,7 @@
       </c>
       <c r="D369" s="22"/>
     </row>
-    <row r="370" spans="1:4" s="21" customFormat="1">
+    <row r="370" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="22" t="s">
         <v>799</v>
       </c>
@@ -9471,7 +9477,7 @@
       </c>
       <c r="D370" s="22"/>
     </row>
-    <row r="371" spans="1:4" s="21" customFormat="1">
+    <row r="371" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="22" t="s">
         <v>801</v>
       </c>
@@ -9483,7 +9489,7 @@
       </c>
       <c r="D371" s="22"/>
     </row>
-    <row r="372" spans="1:4" s="21" customFormat="1">
+    <row r="372" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="22" t="s">
         <v>803</v>
       </c>
@@ -9495,7 +9501,7 @@
       </c>
       <c r="D372" s="22"/>
     </row>
-    <row r="373" spans="1:4" s="21" customFormat="1">
+    <row r="373" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="22" t="s">
         <v>805</v>
       </c>
@@ -9507,7 +9513,7 @@
       </c>
       <c r="D373" s="22"/>
     </row>
-    <row r="374" spans="1:4" s="21" customFormat="1">
+    <row r="374" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="22" t="s">
         <v>807</v>
       </c>
@@ -9519,7 +9525,7 @@
       </c>
       <c r="D374" s="22"/>
     </row>
-    <row r="375" spans="1:4" s="21" customFormat="1">
+    <row r="375" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="22" t="s">
         <v>809</v>
       </c>
@@ -9531,7 +9537,7 @@
       </c>
       <c r="D375" s="22"/>
     </row>
-    <row r="376" spans="1:4" s="21" customFormat="1">
+    <row r="376" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="22" t="s">
         <v>811</v>
       </c>
@@ -9543,7 +9549,7 @@
       </c>
       <c r="D376" s="22"/>
     </row>
-    <row r="377" spans="1:4" s="21" customFormat="1">
+    <row r="377" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="22" t="s">
         <v>813</v>
       </c>
@@ -9555,7 +9561,7 @@
       </c>
       <c r="D377" s="22"/>
     </row>
-    <row r="378" spans="1:4" s="21" customFormat="1">
+    <row r="378" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="22" t="s">
         <v>815</v>
       </c>
@@ -9567,7 +9573,7 @@
       </c>
       <c r="D378" s="22"/>
     </row>
-    <row r="379" spans="1:4" s="21" customFormat="1">
+    <row r="379" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="22" t="s">
         <v>817</v>
       </c>
@@ -9579,7 +9585,7 @@
       </c>
       <c r="D379" s="22"/>
     </row>
-    <row r="380" spans="1:4" s="21" customFormat="1">
+    <row r="380" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="22" t="s">
         <v>819</v>
       </c>
@@ -9591,7 +9597,7 @@
       </c>
       <c r="D380" s="22"/>
     </row>
-    <row r="381" spans="1:4" s="21" customFormat="1">
+    <row r="381" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="22" t="s">
         <v>821</v>
       </c>
@@ -9603,7 +9609,7 @@
       </c>
       <c r="D381" s="22"/>
     </row>
-    <row r="382" spans="1:4" s="21" customFormat="1">
+    <row r="382" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="22" t="s">
         <v>823</v>
       </c>
@@ -9615,7 +9621,7 @@
       </c>
       <c r="D382" s="22"/>
     </row>
-    <row r="383" spans="1:4" s="21" customFormat="1">
+    <row r="383" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="22" t="s">
         <v>825</v>
       </c>
@@ -9627,7 +9633,7 @@
       </c>
       <c r="D383" s="22"/>
     </row>
-    <row r="384" spans="1:4" s="21" customFormat="1">
+    <row r="384" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="22" t="s">
         <v>827</v>
       </c>
@@ -9639,7 +9645,7 @@
       </c>
       <c r="D384" s="22"/>
     </row>
-    <row r="385" spans="1:4" s="21" customFormat="1">
+    <row r="385" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="22" t="s">
         <v>829</v>
       </c>
@@ -9651,7 +9657,7 @@
       </c>
       <c r="D385" s="22"/>
     </row>
-    <row r="386" spans="1:4" s="21" customFormat="1">
+    <row r="386" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="22" t="s">
         <v>831</v>
       </c>
@@ -9663,7 +9669,7 @@
       </c>
       <c r="D386" s="22"/>
     </row>
-    <row r="387" spans="1:4" s="21" customFormat="1">
+    <row r="387" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="22" t="s">
         <v>833</v>
       </c>
@@ -9675,7 +9681,7 @@
       </c>
       <c r="D387" s="22"/>
     </row>
-    <row r="388" spans="1:4" s="21" customFormat="1">
+    <row r="388" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="22" t="s">
         <v>835</v>
       </c>
@@ -9687,7 +9693,7 @@
       </c>
       <c r="D388" s="22"/>
     </row>
-    <row r="389" spans="1:4" s="21" customFormat="1">
+    <row r="389" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="22" t="s">
         <v>837</v>
       </c>
@@ -9699,7 +9705,7 @@
       </c>
       <c r="D389" s="22"/>
     </row>
-    <row r="390" spans="1:4" s="21" customFormat="1">
+    <row r="390" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="22" t="s">
         <v>839</v>
       </c>
@@ -9711,7 +9717,7 @@
       </c>
       <c r="D390" s="22"/>
     </row>
-    <row r="391" spans="1:4" s="21" customFormat="1">
+    <row r="391" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="22" t="s">
         <v>841</v>
       </c>
@@ -9723,7 +9729,7 @@
       </c>
       <c r="D391" s="22"/>
     </row>
-    <row r="392" spans="1:4" s="21" customFormat="1">
+    <row r="392" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="22" t="s">
         <v>843</v>
       </c>
@@ -9735,7 +9741,7 @@
       </c>
       <c r="D392" s="22"/>
     </row>
-    <row r="393" spans="1:4" s="21" customFormat="1">
+    <row r="393" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="22" t="s">
         <v>845</v>
       </c>
@@ -9747,7 +9753,7 @@
       </c>
       <c r="D393" s="22"/>
     </row>
-    <row r="394" spans="1:4" s="21" customFormat="1">
+    <row r="394" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="22" t="s">
         <v>846</v>
       </c>
@@ -9759,7 +9765,7 @@
       </c>
       <c r="D394" s="22"/>
     </row>
-    <row r="395" spans="1:4" s="21" customFormat="1">
+    <row r="395" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="22" t="s">
         <v>848</v>
       </c>
@@ -9771,7 +9777,7 @@
       </c>
       <c r="D395" s="22"/>
     </row>
-    <row r="396" spans="1:4" s="21" customFormat="1">
+    <row r="396" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="22" t="s">
         <v>850</v>
       </c>
@@ -9783,7 +9789,7 @@
       </c>
       <c r="D396" s="22"/>
     </row>
-    <row r="397" spans="1:4" s="21" customFormat="1">
+    <row r="397" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="22" t="s">
         <v>852</v>
       </c>
@@ -9795,7 +9801,7 @@
       </c>
       <c r="D397" s="22"/>
     </row>
-    <row r="398" spans="1:4" s="21" customFormat="1">
+    <row r="398" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="22" t="s">
         <v>854</v>
       </c>
@@ -9807,7 +9813,7 @@
       </c>
       <c r="D398" s="22"/>
     </row>
-    <row r="399" spans="1:4" s="21" customFormat="1">
+    <row r="399" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="22" t="s">
         <v>856</v>
       </c>
@@ -9819,7 +9825,7 @@
       </c>
       <c r="D399" s="22"/>
     </row>
-    <row r="400" spans="1:4" s="21" customFormat="1">
+    <row r="400" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="22" t="s">
         <v>858</v>
       </c>
@@ -9831,7 +9837,7 @@
       </c>
       <c r="D400" s="22"/>
     </row>
-    <row r="401" spans="1:4" s="21" customFormat="1">
+    <row r="401" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="22" t="s">
         <v>860</v>
       </c>
@@ -9843,7 +9849,7 @@
       </c>
       <c r="D401" s="22"/>
     </row>
-    <row r="402" spans="1:4" s="21" customFormat="1">
+    <row r="402" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="22" t="s">
         <v>862</v>
       </c>
@@ -9855,7 +9861,7 @@
       </c>
       <c r="D402" s="22"/>
     </row>
-    <row r="403" spans="1:4" s="21" customFormat="1">
+    <row r="403" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="22" t="s">
         <v>864</v>
       </c>
@@ -9867,7 +9873,7 @@
       </c>
       <c r="D403" s="22"/>
     </row>
-    <row r="404" spans="1:4" s="21" customFormat="1">
+    <row r="404" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="22" t="s">
         <v>866</v>
       </c>
@@ -9879,7 +9885,7 @@
       </c>
       <c r="D404" s="22"/>
     </row>
-    <row r="405" spans="1:4" s="21" customFormat="1">
+    <row r="405" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="22" t="s">
         <v>868</v>
       </c>
@@ -9891,7 +9897,7 @@
       </c>
       <c r="D405" s="22"/>
     </row>
-    <row r="406" spans="1:4" s="21" customFormat="1">
+    <row r="406" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="22" t="s">
         <v>870</v>
       </c>
@@ -9903,7 +9909,7 @@
       </c>
       <c r="D406" s="22"/>
     </row>
-    <row r="407" spans="1:4" s="21" customFormat="1">
+    <row r="407" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="22" t="s">
         <v>872</v>
       </c>
@@ -9915,7 +9921,7 @@
       </c>
       <c r="D407" s="22"/>
     </row>
-    <row r="408" spans="1:4" s="21" customFormat="1">
+    <row r="408" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="22" t="s">
         <v>874</v>
       </c>
@@ -9927,7 +9933,7 @@
       </c>
       <c r="D408" s="22"/>
     </row>
-    <row r="409" spans="1:4" s="21" customFormat="1">
+    <row r="409" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="22" t="s">
         <v>876</v>
       </c>
@@ -9939,7 +9945,7 @@
       </c>
       <c r="D409" s="22"/>
     </row>
-    <row r="410" spans="1:4" s="21" customFormat="1">
+    <row r="410" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="22" t="s">
         <v>878</v>
       </c>
@@ -9951,7 +9957,7 @@
       </c>
       <c r="D410" s="22"/>
     </row>
-    <row r="411" spans="1:4" s="21" customFormat="1">
+    <row r="411" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="22" t="s">
         <v>880</v>
       </c>
@@ -9963,7 +9969,7 @@
       </c>
       <c r="D411" s="22"/>
     </row>
-    <row r="412" spans="1:4" s="21" customFormat="1">
+    <row r="412" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="22" t="s">
         <v>882</v>
       </c>
@@ -9975,7 +9981,7 @@
       </c>
       <c r="D412" s="22"/>
     </row>
-    <row r="413" spans="1:4" s="21" customFormat="1">
+    <row r="413" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="22" t="s">
         <v>884</v>
       </c>
@@ -9987,7 +9993,7 @@
       </c>
       <c r="D413" s="22"/>
     </row>
-    <row r="414" spans="1:4" s="21" customFormat="1">
+    <row r="414" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="22" t="s">
         <v>888</v>
       </c>
@@ -9999,7 +10005,7 @@
       </c>
       <c r="D414" s="22"/>
     </row>
-    <row r="415" spans="1:4" s="21" customFormat="1">
+    <row r="415" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="22" t="s">
         <v>890</v>
       </c>
@@ -10011,7 +10017,7 @@
       </c>
       <c r="D415" s="22"/>
     </row>
-    <row r="416" spans="1:4" s="21" customFormat="1">
+    <row r="416" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="22" t="s">
         <v>894</v>
       </c>
@@ -10023,7 +10029,7 @@
       </c>
       <c r="D416" s="22"/>
     </row>
-    <row r="417" spans="1:4" s="21" customFormat="1">
+    <row r="417" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="22" t="s">
         <v>895</v>
       </c>
@@ -10035,7 +10041,7 @@
       </c>
       <c r="D417" s="22"/>
     </row>
-    <row r="418" spans="1:4" s="21" customFormat="1">
+    <row r="418" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="24" t="s">
         <v>896</v>
       </c>
@@ -10047,7 +10053,7 @@
       </c>
       <c r="D418" s="22"/>
     </row>
-    <row r="419" spans="1:4" s="21" customFormat="1">
+    <row r="419" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="24" t="s">
         <v>897</v>
       </c>
@@ -10059,7 +10065,7 @@
       </c>
       <c r="D419" s="22"/>
     </row>
-    <row r="420" spans="1:4" s="21" customFormat="1">
+    <row r="420" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="24" t="s">
         <v>898</v>
       </c>
@@ -10071,7 +10077,7 @@
       </c>
       <c r="D420" s="22"/>
     </row>
-    <row r="421" spans="1:4" s="21" customFormat="1">
+    <row r="421" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="24" t="s">
         <v>899</v>
       </c>
@@ -10083,7 +10089,7 @@
       </c>
       <c r="D421" s="22"/>
     </row>
-    <row r="422" spans="1:4" s="21" customFormat="1">
+    <row r="422" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="24" t="s">
         <v>900</v>
       </c>
@@ -10095,7 +10101,7 @@
       </c>
       <c r="D422" s="22"/>
     </row>
-    <row r="423" spans="1:4" s="21" customFormat="1">
+    <row r="423" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="24" t="s">
         <v>901</v>
       </c>
@@ -10107,7 +10113,7 @@
       </c>
       <c r="D423" s="22"/>
     </row>
-    <row r="424" spans="1:4" s="21" customFormat="1">
+    <row r="424" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="24" t="s">
         <v>902</v>
       </c>
@@ -10119,7 +10125,7 @@
       </c>
       <c r="D424" s="22"/>
     </row>
-    <row r="425" spans="1:4" s="21" customFormat="1">
+    <row r="425" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="24" t="s">
         <v>903</v>
       </c>
@@ -10131,7 +10137,7 @@
       </c>
       <c r="D425" s="22"/>
     </row>
-    <row r="426" spans="1:4" s="21" customFormat="1">
+    <row r="426" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="24" t="s">
         <v>904</v>
       </c>
@@ -10143,7 +10149,7 @@
       </c>
       <c r="D426" s="22"/>
     </row>
-    <row r="427" spans="1:4" s="21" customFormat="1">
+    <row r="427" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="24" t="s">
         <v>905</v>
       </c>
@@ -10155,7 +10161,7 @@
       </c>
       <c r="D427" s="22"/>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="24" t="s">
         <v>906</v>
       </c>
@@ -10167,7 +10173,7 @@
       </c>
       <c r="D428" s="22"/>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="24" t="s">
         <v>908</v>
       </c>
@@ -10179,7 +10185,7 @@
       </c>
       <c r="D429" s="22"/>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="24" t="s">
         <v>909</v>
       </c>
@@ -10191,7 +10197,7 @@
       </c>
       <c r="D430" s="22"/>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="24" t="s">
         <v>910</v>
       </c>
@@ -10203,7 +10209,7 @@
       </c>
       <c r="D431" s="22"/>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="24" t="s">
         <v>911</v>
       </c>
@@ -10215,7 +10221,7 @@
       </c>
       <c r="D432" s="22"/>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="24" t="s">
         <v>912</v>
       </c>
@@ -10227,7 +10233,7 @@
       </c>
       <c r="D433" s="22"/>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="24" t="s">
         <v>913</v>
       </c>
@@ -10239,7 +10245,7 @@
       </c>
       <c r="D434" s="22"/>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="24" t="s">
         <v>914</v>
       </c>
@@ -10251,7 +10257,7 @@
       </c>
       <c r="D435" s="22"/>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="24" t="s">
         <v>915</v>
       </c>
@@ -10263,7 +10269,7 @@
       </c>
       <c r="D436" s="22"/>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="24" t="s">
         <v>916</v>
       </c>
@@ -10275,7 +10281,7 @@
       </c>
       <c r="D437" s="22"/>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="24" t="s">
         <v>918</v>
       </c>
@@ -10287,7 +10293,7 @@
       </c>
       <c r="D438" s="22"/>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="24" t="s">
         <v>919</v>
       </c>
@@ -10299,7 +10305,7 @@
       </c>
       <c r="D439" s="22"/>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="24" t="s">
         <v>921</v>
       </c>
@@ -10311,7 +10317,7 @@
       </c>
       <c r="D440" s="22"/>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="24" t="s">
         <v>923</v>
       </c>
@@ -10323,7 +10329,7 @@
       </c>
       <c r="D441" s="22"/>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="24" t="s">
         <v>925</v>
       </c>
@@ -10335,7 +10341,7 @@
       </c>
       <c r="D442" s="22"/>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="24" t="s">
         <v>927</v>
       </c>
@@ -10347,7 +10353,7 @@
       </c>
       <c r="D443" s="22"/>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="24" t="s">
         <v>929</v>
       </c>
@@ -10359,7 +10365,7 @@
       </c>
       <c r="D444" s="22"/>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="24" t="s">
         <v>931</v>
       </c>
@@ -10371,7 +10377,7 @@
       </c>
       <c r="D445" s="22"/>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="24" t="s">
         <v>933</v>
       </c>
@@ -10383,7 +10389,7 @@
       </c>
       <c r="D446" s="22"/>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="24" t="s">
         <v>935</v>
       </c>
@@ -10395,7 +10401,7 @@
       </c>
       <c r="D447" s="22"/>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="24" t="s">
         <v>937</v>
       </c>
@@ -10407,7 +10413,7 @@
       </c>
       <c r="D448" s="22"/>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="24" t="s">
         <v>939</v>
       </c>
@@ -10419,7 +10425,7 @@
       </c>
       <c r="D449" s="22"/>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="24" t="s">
         <v>941</v>
       </c>
@@ -10431,7 +10437,7 @@
       </c>
       <c r="D450" s="22"/>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="24" t="s">
         <v>943</v>
       </c>
@@ -10443,7 +10449,7 @@
       </c>
       <c r="D451" s="22"/>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="24" t="s">
         <v>945</v>
       </c>
@@ -10455,7 +10461,7 @@
       </c>
       <c r="D452" s="22"/>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="24" t="s">
         <v>947</v>
       </c>
@@ -10467,7 +10473,7 @@
       </c>
       <c r="D453" s="22"/>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="24" t="s">
         <v>949</v>
       </c>
@@ -10479,7 +10485,7 @@
       </c>
       <c r="D454" s="22"/>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="24" t="s">
         <v>951</v>
       </c>
@@ -10491,7 +10497,7 @@
       </c>
       <c r="D455" s="22"/>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="24" t="s">
         <v>953</v>
       </c>
@@ -10503,7 +10509,7 @@
       </c>
       <c r="D456" s="22"/>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="24" t="s">
         <v>955</v>
       </c>
@@ -10515,7 +10521,7 @@
       </c>
       <c r="D457" s="22"/>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="24" t="s">
         <v>957</v>
       </c>
@@ -10527,7 +10533,7 @@
       </c>
       <c r="D458" s="22"/>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="24" t="s">
         <v>959</v>
       </c>
@@ -10539,7 +10545,7 @@
       </c>
       <c r="D459" s="22"/>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="24" t="s">
         <v>961</v>
       </c>
@@ -10551,7 +10557,7 @@
       </c>
       <c r="D460" s="22"/>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="24" t="s">
         <v>963</v>
       </c>
@@ -10563,7 +10569,7 @@
       </c>
       <c r="D461" s="22"/>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="24" t="s">
         <v>965</v>
       </c>
@@ -10575,7 +10581,7 @@
       </c>
       <c r="D462" s="22"/>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="24" t="s">
         <v>967</v>
       </c>
@@ -10587,7 +10593,7 @@
       </c>
       <c r="D463" s="22"/>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="24" t="s">
         <v>969</v>
       </c>
@@ -10599,7 +10605,7 @@
       </c>
       <c r="D464" s="22"/>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="24" t="s">
         <v>971</v>
       </c>
@@ -10611,7 +10617,7 @@
       </c>
       <c r="D465" s="22"/>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="24" t="s">
         <v>973</v>
       </c>
@@ -10623,7 +10629,7 @@
       </c>
       <c r="D466" s="22"/>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="24" t="s">
         <v>975</v>
       </c>
@@ -10635,7 +10641,7 @@
       </c>
       <c r="D467" s="22"/>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="24" t="s">
         <v>977</v>
       </c>
@@ -10647,7 +10653,7 @@
       </c>
       <c r="D468" s="22"/>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="24" t="s">
         <v>979</v>
       </c>
@@ -10659,7 +10665,7 @@
       </c>
       <c r="D469" s="22"/>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="24" t="s">
         <v>981</v>
       </c>
@@ -10671,7 +10677,7 @@
       </c>
       <c r="D470" s="22"/>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="24" t="s">
         <v>983</v>
       </c>
@@ -10683,7 +10689,7 @@
       </c>
       <c r="D471" s="22"/>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="24" t="s">
         <v>985</v>
       </c>
@@ -10695,7 +10701,7 @@
       </c>
       <c r="D472" s="22"/>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="24" t="s">
         <v>987</v>
       </c>
@@ -10707,7 +10713,7 @@
       </c>
       <c r="D473" s="22"/>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="24" t="s">
         <v>989</v>
       </c>
@@ -10719,7 +10725,7 @@
       </c>
       <c r="D474" s="22"/>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="24" t="s">
         <v>991</v>
       </c>
@@ -10731,7 +10737,7 @@
       </c>
       <c r="D475" s="22"/>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="24" t="s">
         <v>993</v>
       </c>
@@ -10743,7 +10749,7 @@
       </c>
       <c r="D476" s="22"/>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="24" t="s">
         <v>995</v>
       </c>
@@ -10755,7 +10761,7 @@
       </c>
       <c r="D477" s="22"/>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="24" t="s">
         <v>997</v>
       </c>
@@ -10767,7 +10773,7 @@
       </c>
       <c r="D478" s="22"/>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="24" t="s">
         <v>999</v>
       </c>
@@ -10779,7 +10785,7 @@
       </c>
       <c r="D479" s="22"/>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="24" t="s">
         <v>1001</v>
       </c>
@@ -10791,7 +10797,7 @@
       </c>
       <c r="D480" s="22"/>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="24" t="s">
         <v>1003</v>
       </c>
@@ -10803,7 +10809,7 @@
       </c>
       <c r="D481" s="22"/>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="24" t="s">
         <v>1005</v>
       </c>
@@ -10815,7 +10821,7 @@
       </c>
       <c r="D482" s="22"/>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="24" t="s">
         <v>1007</v>
       </c>
@@ -10827,7 +10833,7 @@
       </c>
       <c r="D483" s="22"/>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="24" t="s">
         <v>1009</v>
       </c>
@@ -10839,7 +10845,7 @@
       </c>
       <c r="D484" s="22"/>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="24" t="s">
         <v>1011</v>
       </c>
@@ -10851,7 +10857,7 @@
       </c>
       <c r="D485" s="22"/>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="24" t="s">
         <v>1013</v>
       </c>
@@ -10863,7 +10869,7 @@
       </c>
       <c r="D486" s="22"/>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="24" t="s">
         <v>1015</v>
       </c>
@@ -10875,7 +10881,7 @@
       </c>
       <c r="D487" s="22"/>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="24" t="s">
         <v>1017</v>
       </c>
@@ -10887,7 +10893,7 @@
       </c>
       <c r="D488" s="22"/>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="24" t="s">
         <v>1019</v>
       </c>
@@ -10899,7 +10905,7 @@
       </c>
       <c r="D489" s="22"/>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="24" t="s">
         <v>1021</v>
       </c>
@@ -10911,7 +10917,7 @@
       </c>
       <c r="D490" s="22"/>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="24" t="s">
         <v>1023</v>
       </c>
@@ -10923,7 +10929,7 @@
       </c>
       <c r="D491" s="22"/>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="24" t="s">
         <v>1025</v>
       </c>
@@ -10935,7 +10941,7 @@
       </c>
       <c r="D492" s="22"/>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="24" t="s">
         <v>1027</v>
       </c>
@@ -10947,7 +10953,7 @@
       </c>
       <c r="D493" s="22"/>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="24" t="s">
         <v>1029</v>
       </c>
@@ -10959,7 +10965,7 @@
       </c>
       <c r="D494" s="22"/>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="24" t="s">
         <v>1031</v>
       </c>
@@ -10971,7 +10977,7 @@
       </c>
       <c r="D495" s="22"/>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="24" t="s">
         <v>1033</v>
       </c>
@@ -10983,7 +10989,7 @@
       </c>
       <c r="D496" s="22"/>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="24" t="s">
         <v>1035</v>
       </c>
@@ -10995,7 +11001,7 @@
       </c>
       <c r="D497" s="22"/>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="24" t="s">
         <v>1037</v>
       </c>
@@ -11007,7 +11013,7 @@
       </c>
       <c r="D498" s="22"/>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="24" t="s">
         <v>1039</v>
       </c>
@@ -11019,7 +11025,7 @@
       </c>
       <c r="D499" s="22"/>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="24" t="s">
         <v>1041</v>
       </c>
@@ -11031,7 +11037,7 @@
       </c>
       <c r="D500" s="22"/>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="24" t="s">
         <v>1043</v>
       </c>
@@ -11043,7 +11049,7 @@
       </c>
       <c r="D501" s="22"/>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="24" t="s">
         <v>1045</v>
       </c>
@@ -11055,7 +11061,7 @@
       </c>
       <c r="D502" s="22"/>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="24" t="s">
         <v>1047</v>
       </c>
@@ -11067,7 +11073,7 @@
       </c>
       <c r="D503" s="22"/>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="24" t="s">
         <v>1049</v>
       </c>
@@ -11079,7 +11085,7 @@
       </c>
       <c r="D504" s="22"/>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="24" t="s">
         <v>1050</v>
       </c>
@@ -11091,7 +11097,7 @@
       </c>
       <c r="D505" s="22"/>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="24" t="s">
         <v>1052</v>
       </c>
@@ -11103,7 +11109,7 @@
       </c>
       <c r="D506" s="22"/>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="24" t="s">
         <v>1054</v>
       </c>
@@ -11115,7 +11121,7 @@
       </c>
       <c r="D507" s="22"/>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="24" t="s">
         <v>1056</v>
       </c>
@@ -11127,7 +11133,7 @@
       </c>
       <c r="D508" s="22"/>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="24" t="s">
         <v>1058</v>
       </c>
@@ -11139,7 +11145,7 @@
       </c>
       <c r="D509" s="22"/>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="24" t="s">
         <v>1060</v>
       </c>
@@ -11151,7 +11157,7 @@
       </c>
       <c r="D510" s="22"/>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="24" t="s">
         <v>1062</v>
       </c>
@@ -11163,7 +11169,7 @@
       </c>
       <c r="D511" s="22"/>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="24" t="s">
         <v>1064</v>
       </c>
@@ -11175,7 +11181,7 @@
       </c>
       <c r="D512" s="22"/>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="24" t="s">
         <v>1066</v>
       </c>
@@ -11187,7 +11193,7 @@
       </c>
       <c r="D513" s="22"/>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="24" t="s">
         <v>1067</v>
       </c>
@@ -11199,7 +11205,7 @@
       </c>
       <c r="D514" s="22"/>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="24" t="s">
         <v>1069</v>
       </c>
@@ -11211,7 +11217,7 @@
       </c>
       <c r="D515" s="22"/>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="24" t="s">
         <v>1071</v>
       </c>
@@ -11223,7 +11229,7 @@
       </c>
       <c r="D516" s="22"/>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="24" t="s">
         <v>1107</v>
       </c>
@@ -11235,7 +11241,7 @@
       </c>
       <c r="D517" s="22"/>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="24" t="s">
         <v>1108</v>
       </c>
@@ -11247,7 +11253,7 @@
       </c>
       <c r="D518" s="22"/>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="24" t="s">
         <v>1109</v>
       </c>
@@ -11259,7 +11265,7 @@
       </c>
       <c r="D519" s="22"/>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="24" t="s">
         <v>1110</v>
       </c>
@@ -11271,7 +11277,7 @@
       </c>
       <c r="D520" s="22"/>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="24" t="s">
         <v>1111</v>
       </c>
@@ -11283,7 +11289,7 @@
       </c>
       <c r="D521" s="22"/>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="24" t="s">
         <v>1112</v>
       </c>
@@ -11295,7 +11301,7 @@
       </c>
       <c r="D522" s="22"/>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="24" t="s">
         <v>1113</v>
       </c>
@@ -11307,7 +11313,7 @@
       </c>
       <c r="D523" s="22"/>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="24" t="s">
         <v>1114</v>
       </c>
@@ -11319,7 +11325,7 @@
       </c>
       <c r="D524" s="22"/>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="24" t="s">
         <v>1115</v>
       </c>
@@ -11331,7 +11337,7 @@
       </c>
       <c r="D525" s="22"/>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="24" t="s">
         <v>1116</v>
       </c>
@@ -11343,7 +11349,7 @@
       </c>
       <c r="D526" s="22"/>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="24" t="s">
         <v>1117</v>
       </c>
@@ -11355,7 +11361,7 @@
       </c>
       <c r="D527" s="22"/>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="24" t="s">
         <v>1118</v>
       </c>
@@ -11367,7 +11373,7 @@
       </c>
       <c r="D528" s="22"/>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="24" t="s">
         <v>1119</v>
       </c>
@@ -11379,7 +11385,7 @@
       </c>
       <c r="D529" s="22"/>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="24" t="s">
         <v>1120</v>
       </c>
@@ -11391,7 +11397,7 @@
       </c>
       <c r="D530" s="22"/>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="24" t="s">
         <v>1121</v>
       </c>
@@ -11403,7 +11409,7 @@
       </c>
       <c r="D531" s="22"/>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="24" t="s">
         <v>1122</v>
       </c>
@@ -11415,7 +11421,7 @@
       </c>
       <c r="D532" s="22"/>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="24" t="s">
         <v>1123</v>
       </c>
@@ -11427,7 +11433,7 @@
       </c>
       <c r="D533" s="22"/>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="24" t="s">
         <v>1124</v>
       </c>
@@ -11439,7 +11445,7 @@
       </c>
       <c r="D534" s="22"/>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="24" t="s">
         <v>1125</v>
       </c>
@@ -11451,7 +11457,7 @@
       </c>
       <c r="D535" s="22"/>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="24" t="s">
         <v>1126</v>
       </c>
@@ -11463,7 +11469,7 @@
       </c>
       <c r="D536" s="22"/>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="24" t="s">
         <v>1127</v>
       </c>
@@ -11475,7 +11481,7 @@
       </c>
       <c r="D537" s="22"/>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="24" t="s">
         <v>1128</v>
       </c>
@@ -11487,7 +11493,7 @@
       </c>
       <c r="D538" s="22"/>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="24" t="s">
         <v>1129</v>
       </c>
@@ -11499,7 +11505,7 @@
       </c>
       <c r="D539" s="22"/>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="24" t="s">
         <v>1130</v>
       </c>
@@ -11511,7 +11517,7 @@
       </c>
       <c r="D540" s="22"/>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="24" t="s">
         <v>1131</v>
       </c>
@@ -11523,7 +11529,7 @@
       </c>
       <c r="D541" s="22"/>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="24" t="s">
         <v>1132</v>
       </c>
@@ -11535,7 +11541,7 @@
       </c>
       <c r="D542" s="22"/>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="24" t="s">
         <v>1133</v>
       </c>
@@ -11547,7 +11553,7 @@
       </c>
       <c r="D543" s="22"/>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="24" t="s">
         <v>1134</v>
       </c>
@@ -11559,7 +11565,7 @@
       </c>
       <c r="D544" s="22"/>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="24" t="s">
         <v>1135</v>
       </c>
@@ -11571,7 +11577,7 @@
       </c>
       <c r="D545" s="22"/>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="24" t="s">
         <v>1136</v>
       </c>
@@ -11583,7 +11589,7 @@
       </c>
       <c r="D546" s="22"/>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="24" t="s">
         <v>1137</v>
       </c>
@@ -11595,7 +11601,7 @@
       </c>
       <c r="D547" s="22"/>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="24" t="s">
         <v>1138</v>
       </c>
@@ -11607,7 +11613,7 @@
       </c>
       <c r="D548" s="22"/>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="24" t="s">
         <v>1160</v>
       </c>
@@ -11619,7 +11625,7 @@
       </c>
       <c r="D549" s="22"/>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="24" t="s">
         <v>1161</v>
       </c>
@@ -11631,7 +11637,7 @@
       </c>
       <c r="D550" s="22"/>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="24" t="s">
         <v>1162</v>
       </c>
@@ -11643,7 +11649,7 @@
       </c>
       <c r="D551" s="22"/>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="24" t="s">
         <v>1163</v>
       </c>
@@ -11655,7 +11661,7 @@
       </c>
       <c r="D552" s="22"/>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="24" t="s">
         <v>1164</v>
       </c>
@@ -11667,7 +11673,7 @@
       </c>
       <c r="D553" s="22"/>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="24" t="s">
         <v>1165</v>
       </c>
@@ -11679,7 +11685,7 @@
       </c>
       <c r="D554" s="22"/>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="24" t="s">
         <v>1166</v>
       </c>
@@ -11691,7 +11697,7 @@
       </c>
       <c r="D555" s="22"/>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="24" t="s">
         <v>1167</v>
       </c>
@@ -11703,7 +11709,7 @@
       </c>
       <c r="D556" s="22"/>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="24" t="s">
         <v>1168</v>
       </c>
@@ -11715,7 +11721,7 @@
       </c>
       <c r="D557" s="22"/>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="24" t="s">
         <v>1169</v>
       </c>
@@ -11727,7 +11733,7 @@
       </c>
       <c r="D558" s="22"/>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="24" t="s">
         <v>1170</v>
       </c>
@@ -11739,7 +11745,7 @@
       </c>
       <c r="D559" s="22"/>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="24" t="s">
         <v>1171</v>
       </c>
@@ -11751,7 +11757,7 @@
       </c>
       <c r="D560" s="22"/>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="24" t="s">
         <v>1172</v>
       </c>
@@ -11763,7 +11769,7 @@
       </c>
       <c r="D561" s="22"/>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="24" t="s">
         <v>1173</v>
       </c>
@@ -11775,7 +11781,7 @@
       </c>
       <c r="D562" s="22"/>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="24" t="s">
         <v>1174</v>
       </c>
@@ -11787,7 +11793,7 @@
       </c>
       <c r="D563" s="22"/>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="24" t="s">
         <v>1175</v>
       </c>
@@ -11799,7 +11805,7 @@
       </c>
       <c r="D564" s="22"/>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="24" t="s">
         <v>1176</v>
       </c>
@@ -11811,7 +11817,7 @@
       </c>
       <c r="D565" s="22"/>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="24" t="s">
         <v>1177</v>
       </c>
@@ -11823,7 +11829,7 @@
       </c>
       <c r="D566" s="22"/>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="24" t="s">
         <v>1178</v>
       </c>
@@ -11835,7 +11841,7 @@
       </c>
       <c r="D567" s="22"/>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="24" t="s">
         <v>1179</v>
       </c>
@@ -11847,7 +11853,7 @@
       </c>
       <c r="D568" s="22"/>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="24" t="s">
         <v>1180</v>
       </c>
@@ -11859,7 +11865,7 @@
       </c>
       <c r="D569" s="22"/>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="24" t="s">
         <v>1181</v>
       </c>
@@ -11871,7 +11877,7 @@
       </c>
       <c r="D570" s="22"/>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="24" t="s">
         <v>1183</v>
       </c>
@@ -11883,7 +11889,7 @@
       </c>
       <c r="D571" s="22"/>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="24" t="s">
         <v>1185</v>
       </c>
@@ -11895,7 +11901,7 @@
       </c>
       <c r="D572" s="22"/>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="24" t="s">
         <v>1187</v>
       </c>
@@ -11907,7 +11913,7 @@
       </c>
       <c r="D573" s="22"/>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="24" t="s">
         <v>1189</v>
       </c>
@@ -11919,7 +11925,7 @@
       </c>
       <c r="D574" s="22"/>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="24" t="s">
         <v>1191</v>
       </c>
@@ -11931,7 +11937,7 @@
       </c>
       <c r="D575" s="22"/>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="24" t="s">
         <v>1193</v>
       </c>
@@ -11943,7 +11949,7 @@
       </c>
       <c r="D576" s="22"/>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="24" t="s">
         <v>1195</v>
       </c>
@@ -11955,7 +11961,7 @@
       </c>
       <c r="D577" s="22"/>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="24" t="s">
         <v>1197</v>
       </c>
@@ -11967,7 +11973,7 @@
       </c>
       <c r="D578" s="22"/>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="24" t="s">
         <v>1199</v>
       </c>
@@ -11979,7 +11985,7 @@
       </c>
       <c r="D579" s="22"/>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="24" t="s">
         <v>1201</v>
       </c>
@@ -11991,7 +11997,7 @@
       </c>
       <c r="D580" s="22"/>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="24" t="s">
         <v>1203</v>
       </c>
@@ -12003,7 +12009,7 @@
       </c>
       <c r="D581" s="22"/>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="24" t="s">
         <v>1205</v>
       </c>
@@ -12015,7 +12021,7 @@
       </c>
       <c r="D582" s="22"/>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="24" t="s">
         <v>1207</v>
       </c>
@@ -12027,7 +12033,7 @@
       </c>
       <c r="D583" s="22"/>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="24" t="s">
         <v>1209</v>
       </c>
@@ -12039,7 +12045,7 @@
       </c>
       <c r="D584" s="22"/>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="24" t="s">
         <v>1211</v>
       </c>
@@ -12051,7 +12057,7 @@
       </c>
       <c r="D585" s="22"/>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="24" t="s">
         <v>1213</v>
       </c>
@@ -12063,7 +12069,7 @@
       </c>
       <c r="D586" s="22"/>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="24" t="s">
         <v>1215</v>
       </c>
@@ -12075,7 +12081,7 @@
       </c>
       <c r="D587" s="22"/>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="24" t="s">
         <v>1217</v>
       </c>
@@ -12087,7 +12093,7 @@
       </c>
       <c r="D588" s="22"/>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="24" t="s">
         <v>1219</v>
       </c>
@@ -12099,7 +12105,7 @@
       </c>
       <c r="D589" s="22"/>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="25" t="s">
         <v>1221</v>
       </c>
@@ -12111,7 +12117,7 @@
       </c>
       <c r="D590" s="22"/>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="25" t="s">
         <v>1223</v>
       </c>
@@ -12123,7 +12129,7 @@
       </c>
       <c r="D591" s="22"/>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="25" t="s">
         <v>1225</v>
       </c>
@@ -12135,7 +12141,7 @@
       </c>
       <c r="D592" s="22"/>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="25" t="s">
         <v>1227</v>
       </c>
@@ -12147,7 +12153,7 @@
       </c>
       <c r="D593" s="22"/>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="25" t="s">
         <v>1229</v>
       </c>
@@ -12159,7 +12165,7 @@
       </c>
       <c r="D594" s="22"/>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="25" t="s">
         <v>1231</v>
       </c>
@@ -12171,7 +12177,7 @@
       </c>
       <c r="D595" s="22"/>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="25" t="s">
         <v>1233</v>
       </c>
@@ -12183,7 +12189,7 @@
       </c>
       <c r="D596" s="22"/>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="25" t="s">
         <v>1235</v>
       </c>
@@ -12195,7 +12201,7 @@
       </c>
       <c r="D597" s="22"/>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="25" t="s">
         <v>1237</v>
       </c>
@@ -12207,7 +12213,7 @@
       </c>
       <c r="D598" s="22"/>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="25" t="s">
         <v>1239</v>
       </c>
@@ -12219,7 +12225,7 @@
       </c>
       <c r="D599" s="22"/>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="25" t="s">
         <v>1241</v>
       </c>
@@ -12231,7 +12237,7 @@
       </c>
       <c r="D600" s="22"/>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="25" t="s">
         <v>1242</v>
       </c>
@@ -12243,7 +12249,7 @@
       </c>
       <c r="D601" s="22"/>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="25" t="s">
         <v>1243</v>
       </c>
@@ -12255,7 +12261,7 @@
       </c>
       <c r="D602" s="22"/>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="25" t="s">
         <v>1244</v>
       </c>
@@ -12267,7 +12273,7 @@
       </c>
       <c r="D603" s="22"/>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="25" t="s">
         <v>1245</v>
       </c>
@@ -12279,7 +12285,7 @@
       </c>
       <c r="D604" s="22"/>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="25" t="s">
         <v>1246</v>
       </c>
@@ -12291,7 +12297,7 @@
       </c>
       <c r="D605" s="22"/>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="25" t="s">
         <v>1247</v>
       </c>
@@ -12303,7 +12309,7 @@
       </c>
       <c r="D606" s="22"/>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="25" t="s">
         <v>1248</v>
       </c>
@@ -12315,7 +12321,7 @@
       </c>
       <c r="D607" s="22"/>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="25" t="s">
         <v>1249</v>
       </c>
@@ -12327,7 +12333,7 @@
       </c>
       <c r="D608" s="22"/>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="25" t="s">
         <v>1250</v>
       </c>
@@ -12339,7 +12345,7 @@
       </c>
       <c r="D609" s="22"/>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="25" t="s">
         <v>1251</v>
       </c>
@@ -12351,7 +12357,7 @@
       </c>
       <c r="D610" s="22"/>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="25" t="s">
         <v>1253</v>
       </c>
@@ -12363,7 +12369,7 @@
       </c>
       <c r="D611" s="22"/>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="25" t="s">
         <v>1255</v>
       </c>
@@ -12375,7 +12381,7 @@
       </c>
       <c r="D612" s="22"/>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="25" t="s">
         <v>1257</v>
       </c>
@@ -12387,7 +12393,7 @@
       </c>
       <c r="D613" s="22"/>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="25" t="s">
         <v>1259</v>
       </c>
@@ -12399,7 +12405,7 @@
       </c>
       <c r="D614" s="22"/>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="25" t="s">
         <v>1261</v>
       </c>
@@ -12411,7 +12417,7 @@
       </c>
       <c r="D615" s="18"/>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="25" t="s">
         <v>1262</v>
       </c>
@@ -12423,7 +12429,7 @@
       </c>
       <c r="D616" s="18"/>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="25" t="s">
         <v>1265</v>
       </c>
@@ -12435,7 +12441,7 @@
       </c>
       <c r="D617" s="18"/>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="25" t="s">
         <v>1267</v>
       </c>
@@ -12447,7 +12453,7 @@
       </c>
       <c r="D618" s="18"/>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="25" t="s">
         <v>1269</v>
       </c>
@@ -12459,7 +12465,7 @@
       </c>
       <c r="D619" s="18"/>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="25" t="s">
         <v>1271</v>
       </c>
@@ -12471,7 +12477,7 @@
       </c>
       <c r="D620" s="18"/>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="25" t="s">
         <v>1273</v>
       </c>
@@ -12483,7 +12489,7 @@
       </c>
       <c r="D621" s="18"/>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="25" t="s">
         <v>1275</v>
       </c>
@@ -12495,7 +12501,7 @@
       </c>
       <c r="D622" s="18"/>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="25" t="s">
         <v>1277</v>
       </c>
@@ -12507,7 +12513,7 @@
       </c>
       <c r="D623" s="18"/>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="25" t="s">
         <v>1279</v>
       </c>
@@ -12519,7 +12525,7 @@
       </c>
       <c r="D624" s="18"/>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="25" t="s">
         <v>1281</v>
       </c>
@@ -12531,7 +12537,7 @@
       </c>
       <c r="D625" s="18"/>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="25" t="s">
         <v>1283</v>
       </c>
@@ -12543,7 +12549,7 @@
       </c>
       <c r="D626" s="18"/>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="25" t="s">
         <v>1285</v>
       </c>
@@ -12555,7 +12561,7 @@
       </c>
       <c r="D627" s="18"/>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="25" t="s">
         <v>1287</v>
       </c>
@@ -12567,7 +12573,7 @@
       </c>
       <c r="D628" s="18"/>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="25" t="s">
         <v>1289</v>
       </c>
@@ -12579,7 +12585,7 @@
       </c>
       <c r="D629" s="18"/>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="25" t="s">
         <v>1291</v>
       </c>
@@ -12591,7 +12597,7 @@
       </c>
       <c r="D630" s="18"/>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="25" t="s">
         <v>1293</v>
       </c>
@@ -12603,7 +12609,7 @@
       </c>
       <c r="D631" s="18"/>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="25" t="s">
         <v>1295</v>
       </c>
@@ -12615,7 +12621,7 @@
       </c>
       <c r="D632" s="18"/>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="25" t="s">
         <v>1297</v>
       </c>
@@ -12627,7 +12633,7 @@
       </c>
       <c r="D633" s="18"/>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="25" t="s">
         <v>1299</v>
       </c>
@@ -12639,7 +12645,7 @@
       </c>
       <c r="D634" s="18"/>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="25" t="s">
         <v>1301</v>
       </c>
@@ -12651,7 +12657,7 @@
       </c>
       <c r="D635" s="18"/>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="25" t="s">
         <v>1303</v>
       </c>
@@ -12663,7 +12669,7 @@
       </c>
       <c r="D636" s="18"/>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="25" t="s">
         <v>1305</v>
       </c>
@@ -12675,7 +12681,7 @@
       </c>
       <c r="D637" s="18"/>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="25" t="s">
         <v>1307</v>
       </c>
@@ -12687,7 +12693,7 @@
       </c>
       <c r="D638" s="18"/>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="25" t="s">
         <v>1309</v>
       </c>
@@ -12699,7 +12705,7 @@
       </c>
       <c r="D639" s="18"/>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="25" t="s">
         <v>1311</v>
       </c>
@@ -12711,7 +12717,7 @@
       </c>
       <c r="D640" s="18"/>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="25" t="s">
         <v>1313</v>
       </c>
@@ -12723,7 +12729,7 @@
       </c>
       <c r="D641" s="18"/>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="25" t="s">
         <v>1315</v>
       </c>
@@ -12735,7 +12741,7 @@
       </c>
       <c r="D642" s="18"/>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="25" t="s">
         <v>1317</v>
       </c>
@@ -12747,7 +12753,7 @@
       </c>
       <c r="D643" s="18"/>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="25" t="s">
         <v>1319</v>
       </c>
@@ -12759,7 +12765,7 @@
       </c>
       <c r="D644" s="18"/>
     </row>
-    <row r="645" spans="1:4" ht="15">
+    <row r="645" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A645" s="26" t="s">
         <v>1321</v>
       </c>
@@ -12771,7 +12777,7 @@
       </c>
       <c r="D645" s="25"/>
     </row>
-    <row r="646" spans="1:4" ht="15">
+    <row r="646" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A646" s="26" t="s">
         <v>1323</v>
       </c>
@@ -12783,7 +12789,7 @@
       </c>
       <c r="D646" s="25"/>
     </row>
-    <row r="647" spans="1:4" ht="15">
+    <row r="647" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A647" s="26" t="s">
         <v>1325</v>
       </c>
@@ -12795,7 +12801,7 @@
       </c>
       <c r="D647" s="25"/>
     </row>
-    <row r="648" spans="1:4" ht="15">
+    <row r="648" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A648" s="26" t="s">
         <v>1327</v>
       </c>
@@ -12807,7 +12813,7 @@
       </c>
       <c r="D648" s="25"/>
     </row>
-    <row r="649" spans="1:4" ht="15">
+    <row r="649" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A649" s="26" t="s">
         <v>1329</v>
       </c>
@@ -12819,7 +12825,7 @@
       </c>
       <c r="D649" s="25"/>
     </row>
-    <row r="650" spans="1:4" ht="15">
+    <row r="650" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A650" s="26" t="s">
         <v>1331</v>
       </c>
@@ -12831,7 +12837,7 @@
       </c>
       <c r="D650" s="25"/>
     </row>
-    <row r="651" spans="1:4" ht="15">
+    <row r="651" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A651" s="26" t="s">
         <v>1333</v>
       </c>
@@ -12843,7 +12849,7 @@
       </c>
       <c r="D651" s="25"/>
     </row>
-    <row r="652" spans="1:4" ht="15">
+    <row r="652" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A652" s="26" t="s">
         <v>1335</v>
       </c>
@@ -12855,7 +12861,7 @@
       </c>
       <c r="D652" s="25"/>
     </row>
-    <row r="653" spans="1:4" ht="15">
+    <row r="653" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A653" s="26" t="s">
         <v>1337</v>
       </c>
@@ -12867,7 +12873,7 @@
       </c>
       <c r="D653" s="25"/>
     </row>
-    <row r="654" spans="1:4" ht="15">
+    <row r="654" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A654" s="26" t="s">
         <v>1339</v>
       </c>
@@ -12879,7 +12885,7 @@
       </c>
       <c r="D654" s="25"/>
     </row>
-    <row r="655" spans="1:4" ht="15">
+    <row r="655" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A655" s="26" t="s">
         <v>1341</v>
       </c>
@@ -12891,7 +12897,7 @@
       </c>
       <c r="D655" s="25"/>
     </row>
-    <row r="656" spans="1:4" ht="15">
+    <row r="656" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A656" s="26" t="s">
         <v>1342</v>
       </c>
@@ -12903,7 +12909,7 @@
       </c>
       <c r="D656" s="25"/>
     </row>
-    <row r="657" spans="1:4" ht="15">
+    <row r="657" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A657" s="26" t="s">
         <v>1344</v>
       </c>
@@ -12915,7 +12921,7 @@
       </c>
       <c r="D657" s="25"/>
     </row>
-    <row r="658" spans="1:4" ht="15">
+    <row r="658" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A658" s="26" t="s">
         <v>1346</v>
       </c>
@@ -12927,7 +12933,7 @@
       </c>
       <c r="D658" s="25"/>
     </row>
-    <row r="659" spans="1:4" ht="15">
+    <row r="659" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A659" s="26" t="s">
         <v>1348</v>
       </c>
@@ -12938,6 +12944,18 @@
         <v>42121</v>
       </c>
       <c r="D659" s="25"/>
+    </row>
+    <row r="660" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A660" s="26" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B660" s="26" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C660" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D660" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12973,15 +12991,15 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13016,13 +13034,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13030,7 +13048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -13038,7 +13056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -13046,7 +13064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -13054,7 +13072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -13062,7 +13080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -13070,7 +13088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -13078,7 +13096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -13086,7 +13104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -13094,7 +13112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -13102,7 +13120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -13110,7 +13128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -13118,7 +13136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -13126,7 +13144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -13134,7 +13152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -13142,7 +13160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -13150,7 +13168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -13158,7 +13176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -13166,7 +13184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -13174,7 +13192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -13182,7 +13200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -13190,7 +13208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -13198,7 +13216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -13206,7 +13224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -13214,7 +13232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -13222,7 +13240,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -13230,7 +13248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -13238,7 +13256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -13246,7 +13264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -13254,7 +13272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -13262,7 +13280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -13270,7 +13288,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -13278,7 +13296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -13286,7 +13304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -13294,7 +13312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -13302,7 +13320,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -13310,7 +13328,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -13318,7 +13336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -13326,7 +13344,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -13334,7 +13352,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -13342,7 +13360,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -13350,7 +13368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -13358,7 +13376,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -13366,7 +13384,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -13374,7 +13392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -13382,7 +13400,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -13390,7 +13408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -13398,7 +13416,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -13406,7 +13424,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -13414,7 +13432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -13422,7 +13440,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -13430,7 +13448,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -13438,7 +13456,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -13446,7 +13464,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -13454,7 +13472,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -13462,7 +13480,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -13470,7 +13488,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -13478,7 +13496,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -13486,7 +13504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -13494,7 +13512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -13502,7 +13520,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>122</v>
       </c>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1355">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4080,6 +4080,12 @@
   </si>
   <si>
     <t>/espanol/cancer/lineas-vitales/piel/video</t>
+  </si>
+  <si>
+    <t>/researchandfunding/areas/clinical-trials/lung-map/dr-david-gandara-lung-map-trial</t>
+  </si>
+  <si>
+    <t>/researchandfunding/areas/clinical-trials/nctn/lung-map/dr-david-gandara-lung-map-trial</t>
   </si>
 </sst>
 </file>
@@ -5020,11 +5026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D660"/>
+  <dimension ref="A1:D661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B666" sqref="B666"/>
+      <selection pane="bottomLeft" activeCell="A666" sqref="A666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12956,6 +12962,18 @@
         <v>42122</v>
       </c>
       <c r="D660" s="25"/>
+    </row>
+    <row r="661" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A661" s="26" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B661" s="26" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C661" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D661" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -4085,7 +4085,7 @@
     <t>/researchandfunding/areas/clinical-trials/lung-map/dr-david-gandara-lung-map-trial</t>
   </si>
   <si>
-    <t>/researchandfunding/areas/clinical-trials/nctn/lung-map/dr-david-gandara-lung-map-trial</t>
+    <t>/researchandfunding/areas/clinical-trials/nctn/dr-david-gandara-lung-map-trial</t>
   </si>
 </sst>
 </file>
@@ -5030,7 +5030,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A666" sqref="A666"/>
+      <selection pane="bottomLeft" activeCell="B661" sqref="B661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="UAT" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1419">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4086,6 +4086,198 @@
   </si>
   <si>
     <t>/researchandfunding/areas/clinical-trials/nctn/dr-david-gandara-lung-map-trial</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/colorrectal</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/colorrectal</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/colorrectal/colorrectal-video</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/colorrectal/colorrectal-video</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/colorrectal/Examenes-de-deteccion-del-cancer-colorrectal-para-los-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/colorrectal/colorrectal-video/Examenes-de-deteccion-del-cancer-colorrectal-para-los-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/cuello-uterino</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/cuello-uterino</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/cuello-uterino/lineas-vitales-cervix</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/cuello-uterino/lineas-vitales-cervix</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/cuidado-tratamiento</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/cuidado-tratamiento</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/cuidado-tratamiento/lineas-vitales-cuidado-tratamiento</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/cuidado-tratamiento/lineas-vitales-cuidado-tratamiento</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/cuidado-tratamiento/estudios-clinicos-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/cuidado-tratamiento/estudios-clinicos-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/desigualdades-en-salud-por-cancer/jorge-gomez</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/desigualdades-en-salud-por-cancer/jorge-gomez</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/desigualdades-en-salud-por-cancer/SC-Lifelines-TrainingResearchers-2013-HISP.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/desigualdades-en-salud-por-cancer/SC-Lifelines-TrainingResearchers-2013-HISP.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/desigualdades-en-salud-por-cancer/amelie-ramirez</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/desigualdades-en-salud-por-cancer/amelie-ramirez</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/desigualdades-en-salud-por-cancer</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/desigualdades-en-salud-por-cancer</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/otros-canceres</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/otros-canceres</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/pancreas/Lifelines-Pancreatic-Cancer-SPA-2013.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/pancreas/Lifelines-Pancreatic-Cancer-SPA-2013.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/pancreas</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/pancreas</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/prevencion/lineas-vitales-prevencion</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/prevencion/lineas-vitales-prevencion</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/prevencion</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/prevencion</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/programas-NCI/servicio-CIS-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/programas-NCI/servicio-CIS-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/programas-NCI/lineas-vitales-cis</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/programas-NCI/lineas-vitales-cis</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/programas-NCI/instituciones-servicio-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/programas-NCI/instituciones-servicio-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/programas-NCI/centros-oncologicos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/programas-NCI/centros-oncologicos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/programas-NCI</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/programas-NCI</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/prostata/lineas-vitales-prostata</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/prostata/lineas-vitales-prostata</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/prostata</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/prostata</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/pulmon/lineas-vitales-pulmon</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/pulmon/lineas-vitales-pulmon</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/pulmon/LGBT-tabaquismo-y-cancer.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/pulmon/LGBT-tabaquismo-y-cancer.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/pulmon/cancer-de-pulmon-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/pulmon/cancer-de-pulmon-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/pulmon</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/pulmon</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/seno/breast-cancer-risk-spanish-2013</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/seno/breast-cancer-risk-spanish-2013</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/seno/lineas-vitales-seno</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/seno/lineas-vitales-seno</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/seno</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/seno</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/lineas-vitales/supervivencia</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/supervivencia</t>
   </si>
 </sst>
 </file>
@@ -5026,11 +5218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D661"/>
+  <dimension ref="A1:D693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B661" sqref="B661"/>
+      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B673" sqref="B673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12974,6 +13166,390 @@
         <v>42122</v>
       </c>
       <c r="D661" s="25"/>
+    </row>
+    <row r="662" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A662" s="26" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B662" s="26" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C662" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D662" s="25"/>
+    </row>
+    <row r="663" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A663" s="26" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B663" s="26" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C663" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D663" s="25"/>
+    </row>
+    <row r="664" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A664" s="26" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B664" s="26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C664" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D664" s="25"/>
+    </row>
+    <row r="665" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A665" s="26" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B665" s="26" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C665" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D665" s="25"/>
+    </row>
+    <row r="666" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A666" s="26" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B666" s="26" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C666" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D666" s="25"/>
+    </row>
+    <row r="667" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A667" s="26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B667" s="26" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C667" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D667" s="25"/>
+    </row>
+    <row r="668" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A668" s="26" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B668" s="26" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C668" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D668" s="25"/>
+    </row>
+    <row r="669" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A669" s="26" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B669" s="26" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C669" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D669" s="25"/>
+    </row>
+    <row r="670" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A670" s="26" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B670" s="26" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C670" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D670" s="25"/>
+    </row>
+    <row r="671" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A671" s="26" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B671" s="26" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C671" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D671" s="25"/>
+    </row>
+    <row r="672" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A672" s="26" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B672" s="26" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C672" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D672" s="25"/>
+    </row>
+    <row r="673" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A673" s="26" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B673" s="26" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C673" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D673" s="25"/>
+    </row>
+    <row r="674" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A674" s="26" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B674" s="26" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C674" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D674" s="25"/>
+    </row>
+    <row r="675" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A675" s="26" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B675" s="26" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C675" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D675" s="25"/>
+    </row>
+    <row r="676" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A676" s="26" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B676" s="26" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C676" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D676" s="25"/>
+    </row>
+    <row r="677" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A677" s="26" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B677" s="26" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C677" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D677" s="25"/>
+    </row>
+    <row r="678" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A678" s="26" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B678" s="26" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C678" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D678" s="25"/>
+    </row>
+    <row r="679" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A679" s="26" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B679" s="26" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C679" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D679" s="25"/>
+    </row>
+    <row r="680" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A680" s="26" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B680" s="26" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C680" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D680" s="25"/>
+    </row>
+    <row r="681" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A681" s="26" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B681" s="26" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C681" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D681" s="25"/>
+    </row>
+    <row r="682" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A682" s="26" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B682" s="26" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C682" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D682" s="25"/>
+    </row>
+    <row r="683" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A683" s="26" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B683" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C683" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D683" s="25"/>
+    </row>
+    <row r="684" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A684" s="26" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B684" s="26" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C684" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D684" s="25"/>
+    </row>
+    <row r="685" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A685" s="26" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B685" s="26" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C685" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D685" s="25"/>
+    </row>
+    <row r="686" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A686" s="26" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B686" s="26" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C686" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D686" s="25"/>
+    </row>
+    <row r="687" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A687" s="26" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B687" s="26" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C687" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D687" s="25"/>
+    </row>
+    <row r="688" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A688" s="26" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B688" s="26" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C688" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D688" s="25"/>
+    </row>
+    <row r="689" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A689" s="26" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B689" s="26" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C689" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D689" s="25"/>
+    </row>
+    <row r="690" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A690" s="26" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B690" s="26" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C690" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D690" s="25"/>
+    </row>
+    <row r="691" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A691" s="26" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B691" s="26" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C691" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D691" s="25"/>
+    </row>
+    <row r="692" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A692" s="26" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B692" s="26" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C692" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D692" s="25"/>
+    </row>
+    <row r="693" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A693" s="26" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B693" s="26" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C693" s="18">
+        <v>42122</v>
+      </c>
+      <c r="D693" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -4103,9 +4103,6 @@
     <t>/espanol/cancer/lineas-vitales/colorrectal/Examenes-de-deteccion-del-cancer-colorrectal-para-los-hispanos.pdf</t>
   </si>
   <si>
-    <t>/espanol/noticias/lineas-vitales/colorrectal/colorrectal-video/Examenes-de-deteccion-del-cancer-colorrectal-para-los-hispanos.pdf</t>
-  </si>
-  <si>
     <t>/espanol/cancer/lineas-vitales/cuello-uterino</t>
   </si>
   <si>
@@ -4278,6 +4275,9 @@
   </si>
   <si>
     <t>/espanol/noticias/lineas-vitales/supervivencia</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/lineas-vitales/colorrectal/Examenes-de-deteccion-del-cancer-colorrectal-para-los-hispanos.pdf</t>
   </si>
 </sst>
 </file>
@@ -5222,7 +5222,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B673" sqref="B673"/>
+      <selection pane="bottomLeft" activeCell="B664" sqref="B664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13196,7 +13196,7 @@
         <v>1359</v>
       </c>
       <c r="B664" s="26" t="s">
-        <v>1360</v>
+        <v>1418</v>
       </c>
       <c r="C664" s="18">
         <v>42122</v>
@@ -13205,10 +13205,10 @@
     </row>
     <row r="665" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A665" s="26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B665" s="26" t="s">
         <v>1361</v>
-      </c>
-      <c r="B665" s="26" t="s">
-        <v>1362</v>
       </c>
       <c r="C665" s="18">
         <v>42122</v>
@@ -13217,10 +13217,10 @@
     </row>
     <row r="666" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A666" s="26" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B666" s="26" t="s">
         <v>1363</v>
-      </c>
-      <c r="B666" s="26" t="s">
-        <v>1364</v>
       </c>
       <c r="C666" s="18">
         <v>42122</v>
@@ -13229,10 +13229,10 @@
     </row>
     <row r="667" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A667" s="26" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B667" s="26" t="s">
         <v>1365</v>
-      </c>
-      <c r="B667" s="26" t="s">
-        <v>1366</v>
       </c>
       <c r="C667" s="18">
         <v>42122</v>
@@ -13241,10 +13241,10 @@
     </row>
     <row r="668" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A668" s="26" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B668" s="26" t="s">
         <v>1367</v>
-      </c>
-      <c r="B668" s="26" t="s">
-        <v>1368</v>
       </c>
       <c r="C668" s="18">
         <v>42122</v>
@@ -13253,10 +13253,10 @@
     </row>
     <row r="669" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A669" s="26" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B669" s="26" t="s">
         <v>1369</v>
-      </c>
-      <c r="B669" s="26" t="s">
-        <v>1370</v>
       </c>
       <c r="C669" s="18">
         <v>42122</v>
@@ -13265,10 +13265,10 @@
     </row>
     <row r="670" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A670" s="26" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B670" s="26" t="s">
         <v>1371</v>
-      </c>
-      <c r="B670" s="26" t="s">
-        <v>1372</v>
       </c>
       <c r="C670" s="18">
         <v>42122</v>
@@ -13277,10 +13277,10 @@
     </row>
     <row r="671" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A671" s="26" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B671" s="26" t="s">
         <v>1373</v>
-      </c>
-      <c r="B671" s="26" t="s">
-        <v>1374</v>
       </c>
       <c r="C671" s="18">
         <v>42122</v>
@@ -13289,10 +13289,10 @@
     </row>
     <row r="672" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A672" s="26" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B672" s="26" t="s">
         <v>1375</v>
-      </c>
-      <c r="B672" s="26" t="s">
-        <v>1376</v>
       </c>
       <c r="C672" s="18">
         <v>42122</v>
@@ -13301,10 +13301,10 @@
     </row>
     <row r="673" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A673" s="26" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B673" s="26" t="s">
         <v>1377</v>
-      </c>
-      <c r="B673" s="26" t="s">
-        <v>1378</v>
       </c>
       <c r="C673" s="18">
         <v>42122</v>
@@ -13313,10 +13313,10 @@
     </row>
     <row r="674" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A674" s="26" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B674" s="26" t="s">
         <v>1379</v>
-      </c>
-      <c r="B674" s="26" t="s">
-        <v>1380</v>
       </c>
       <c r="C674" s="18">
         <v>42122</v>
@@ -13325,10 +13325,10 @@
     </row>
     <row r="675" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A675" s="26" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B675" s="26" t="s">
         <v>1381</v>
-      </c>
-      <c r="B675" s="26" t="s">
-        <v>1382</v>
       </c>
       <c r="C675" s="18">
         <v>42122</v>
@@ -13337,10 +13337,10 @@
     </row>
     <row r="676" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A676" s="26" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B676" s="26" t="s">
         <v>1383</v>
-      </c>
-      <c r="B676" s="26" t="s">
-        <v>1384</v>
       </c>
       <c r="C676" s="18">
         <v>42122</v>
@@ -13349,10 +13349,10 @@
     </row>
     <row r="677" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A677" s="26" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B677" s="26" t="s">
         <v>1385</v>
-      </c>
-      <c r="B677" s="26" t="s">
-        <v>1386</v>
       </c>
       <c r="C677" s="18">
         <v>42122</v>
@@ -13361,10 +13361,10 @@
     </row>
     <row r="678" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A678" s="26" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B678" s="26" t="s">
         <v>1387</v>
-      </c>
-      <c r="B678" s="26" t="s">
-        <v>1388</v>
       </c>
       <c r="C678" s="18">
         <v>42122</v>
@@ -13373,10 +13373,10 @@
     </row>
     <row r="679" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A679" s="26" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B679" s="26" t="s">
         <v>1389</v>
-      </c>
-      <c r="B679" s="26" t="s">
-        <v>1390</v>
       </c>
       <c r="C679" s="18">
         <v>42122</v>
@@ -13385,10 +13385,10 @@
     </row>
     <row r="680" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A680" s="26" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B680" s="26" t="s">
         <v>1391</v>
-      </c>
-      <c r="B680" s="26" t="s">
-        <v>1392</v>
       </c>
       <c r="C680" s="18">
         <v>42122</v>
@@ -13397,10 +13397,10 @@
     </row>
     <row r="681" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A681" s="26" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B681" s="26" t="s">
         <v>1393</v>
-      </c>
-      <c r="B681" s="26" t="s">
-        <v>1394</v>
       </c>
       <c r="C681" s="18">
         <v>42122</v>
@@ -13409,10 +13409,10 @@
     </row>
     <row r="682" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A682" s="26" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B682" s="26" t="s">
         <v>1395</v>
-      </c>
-      <c r="B682" s="26" t="s">
-        <v>1396</v>
       </c>
       <c r="C682" s="18">
         <v>42122</v>
@@ -13421,10 +13421,10 @@
     </row>
     <row r="683" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A683" s="26" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B683" s="26" t="s">
         <v>1397</v>
-      </c>
-      <c r="B683" s="26" t="s">
-        <v>1398</v>
       </c>
       <c r="C683" s="18">
         <v>42122</v>
@@ -13433,10 +13433,10 @@
     </row>
     <row r="684" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A684" s="26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B684" s="26" t="s">
         <v>1399</v>
-      </c>
-      <c r="B684" s="26" t="s">
-        <v>1400</v>
       </c>
       <c r="C684" s="18">
         <v>42122</v>
@@ -13445,10 +13445,10 @@
     </row>
     <row r="685" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A685" s="26" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B685" s="26" t="s">
         <v>1401</v>
-      </c>
-      <c r="B685" s="26" t="s">
-        <v>1402</v>
       </c>
       <c r="C685" s="18">
         <v>42122</v>
@@ -13457,10 +13457,10 @@
     </row>
     <row r="686" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A686" s="26" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B686" s="26" t="s">
         <v>1403</v>
-      </c>
-      <c r="B686" s="26" t="s">
-        <v>1404</v>
       </c>
       <c r="C686" s="18">
         <v>42122</v>
@@ -13469,10 +13469,10 @@
     </row>
     <row r="687" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A687" s="26" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B687" s="26" t="s">
         <v>1405</v>
-      </c>
-      <c r="B687" s="26" t="s">
-        <v>1406</v>
       </c>
       <c r="C687" s="18">
         <v>42122</v>
@@ -13481,10 +13481,10 @@
     </row>
     <row r="688" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A688" s="26" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B688" s="26" t="s">
         <v>1407</v>
-      </c>
-      <c r="B688" s="26" t="s">
-        <v>1408</v>
       </c>
       <c r="C688" s="18">
         <v>42122</v>
@@ -13493,10 +13493,10 @@
     </row>
     <row r="689" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A689" s="26" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B689" s="26" t="s">
         <v>1409</v>
-      </c>
-      <c r="B689" s="26" t="s">
-        <v>1410</v>
       </c>
       <c r="C689" s="18">
         <v>42122</v>
@@ -13505,10 +13505,10 @@
     </row>
     <row r="690" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A690" s="26" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B690" s="26" t="s">
         <v>1411</v>
-      </c>
-      <c r="B690" s="26" t="s">
-        <v>1412</v>
       </c>
       <c r="C690" s="18">
         <v>42122</v>
@@ -13517,10 +13517,10 @@
     </row>
     <row r="691" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A691" s="26" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B691" s="26" t="s">
         <v>1413</v>
-      </c>
-      <c r="B691" s="26" t="s">
-        <v>1414</v>
       </c>
       <c r="C691" s="18">
         <v>42122</v>
@@ -13529,10 +13529,10 @@
     </row>
     <row r="692" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A692" s="26" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B692" s="26" t="s">
         <v>1415</v>
-      </c>
-      <c r="B692" s="26" t="s">
-        <v>1416</v>
       </c>
       <c r="C692" s="18">
         <v>42122</v>
@@ -13541,10 +13541,10 @@
     </row>
     <row r="693" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A693" s="26" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B693" s="26" t="s">
         <v>1417</v>
-      </c>
-      <c r="B693" s="26" t="s">
-        <v>1418</v>
       </c>
       <c r="C693" s="18">
         <v>42122</v>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="-105" windowWidth="23175" windowHeight="14775"/>
+    <workbookView xWindow="1650" yWindow="30" windowWidth="23175" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTION - LIVE" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="1561">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4278,6 +4278,432 @@
   </si>
   <si>
     <t>/espanol/noticias/lineas-vitales/colorrectal/Examenes-de-deteccion-del-cancer-colorrectal-para-los-hispanos.pdf</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/about/history</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/history</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/alberteinstein</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/alberteinstein</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/arizonacc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/arizonacc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/baylorduncan</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/baylorduncan</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/beckmancityofhope</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/beckmancityofhope</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/casewestern</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/casewestern</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/cinj</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/cinj</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/coldspringharbor</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/coldspringharbor</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/dartmouthNorriscotton</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/dartmouthNorriscotton</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/dfharvard</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/dfharvard</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/dukeci</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/dukeci</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/emorywinship</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/emorywinship</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/foxchase</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/foxchase</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/fredhutchcrc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/fredhutchcrc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/georgetownlombardi</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/georgetownlombardi</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/hopkinskimmel</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/hopkinskimmel</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/indianasimon</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/indianasimon</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/iowaholden</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/iowaholden</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/irvingcolumbia</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/irvingcolumbia</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/jacksonlab</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/jacksonlab</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/jeffersonkimmel</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/jeffersonkimmel</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/kucc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/kucc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/mayoclinic</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/mayoclinic</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/mdanderson</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/mdanderson</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/memorialsloankettering</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/memorialsloankettering</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/minnesotamasonic</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/minnesotamasonic</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/mitkoch</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/mitkoch</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/moffitt</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/moffitt</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/muschollings</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/muschollings</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/nebraska</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/nebraska</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/newmexicocrtc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/newmexicocrtc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/Northwesternlurie</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/Northwesternlurie</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/nyuci</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/nyuci</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/ohsuknight</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/ohsuknight</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/osujames</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/osujames</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/purdueccr</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/purdueccr</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/roswellpark</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/roswellpark</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/salk</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/salk</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/sanfordburnham</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/sanfordburnham</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/stanfordci</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/stanfordci</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/stjude</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/stjude</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/uabccc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/uabccc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/ucdaviscc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/ucdaviscc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/uchicagoccc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/uchicagoccc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/ucirvinechao</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/ucirvinechao</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/uclajonsson</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/uclajonsson</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/ucolorado</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/ucolorado</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/ucsdmoores</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/ucsdmoores</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/ucsfhelendiller</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/ucsfhelendiller</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/uhawaiicc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/uhawaiicc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/ukmarkey</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/ukmarkey</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/umdgreenebaum</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/umdgreenebaum</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/umichiganccc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/umichiganccc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/unclineberger</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/unclineberger</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/upci</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/upci</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/upennabramson</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/upennabramson</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/uscNorris</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/uscNorris</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/utahhuntsman</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/utahhuntsman</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/utsanantonio</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/utsanantonio</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/utswsimmons</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/utswsimmons</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/uvacc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/uvacc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/uwcarbone</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/uwcarbone</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/vanderbiltingram</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/vanderbiltingram</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/vcumassey</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/vcumassey</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/wakeforest</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/wakeforest</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/washingtonsiteman</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/washingtonsiteman</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/waynestatekarmaNos</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/waynestatekarmaNos</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/wistar</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/wistar</t>
+  </si>
+  <si>
+    <t>/researchandfunding/extramural/cancercenters/find-a-cancer-center/yalecc</t>
+  </si>
+  <si>
+    <t>/researchandfunding/nci-role/cancer-centers/find/yalecc</t>
   </si>
 </sst>
 </file>
@@ -5218,17 +5644,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D693"/>
+  <dimension ref="A1:D764"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B664" sqref="B664"/>
+      <pane ySplit="1" topLeftCell="A738" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A766" sqref="A766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -13550,6 +13976,787 @@
         <v>42122</v>
       </c>
       <c r="D693" s="25"/>
+    </row>
+    <row r="694" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A694" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B694" s="26" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C694" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A695" s="26" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B695" s="26" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C695" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A696" s="26" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B696" s="26" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C696" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A697" s="26" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B697" s="26" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C697" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A698" s="26" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B698" s="26" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C698" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A699" s="26" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B699" s="26" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C699" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A700" s="26" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B700" s="26" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C700" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A701" s="26" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B701" s="26" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C701" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A702" s="26" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B702" s="26" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C702" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A703" s="26" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B703" s="26" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C703" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A704" s="26" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B704" s="26" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C704" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A705" s="26" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B705" s="26" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C705" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A706" s="26" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B706" s="26" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C706" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A707" s="26" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B707" s="26" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C707" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A708" s="26" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B708" s="26" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C708" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A709" s="26" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B709" s="26" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C709" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A710" s="26" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B710" s="26" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C710" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A711" s="26" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B711" s="26" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C711" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A712" s="26" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B712" s="26" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C712" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A713" s="26" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B713" s="26" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C713" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A714" s="26" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B714" s="26" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C714" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A715" s="26" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B715" s="26" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C715" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A716" s="26" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B716" s="26" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C716" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A717" s="26" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B717" s="26" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C717" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A718" s="26" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B718" s="26" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C718" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A719" s="26" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B719" s="26" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C719" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A720" s="26" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B720" s="26" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C720" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A721" s="26" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B721" s="26" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C721" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A722" s="26" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B722" s="26" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C722" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A723" s="26" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B723" s="26" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C723" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A724" s="26" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B724" s="26" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C724" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A725" s="26" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B725" s="26" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C725" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A726" s="26" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B726" s="26" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C726" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A727" s="26" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B727" s="26" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C727" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A728" s="26" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B728" s="26" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C728" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A729" s="26" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B729" s="26" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C729" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A730" s="26" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B730" s="26" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C730" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A731" s="26" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B731" s="26" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C731" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A732" s="26" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B732" s="26" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C732" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A733" s="26" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B733" s="26" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C733" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A734" s="26" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B734" s="26" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C734" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A735" s="26" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B735" s="26" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C735" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A736" s="26" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B736" s="26" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C736" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A737" s="26" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B737" s="26" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C737" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A738" s="26" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B738" s="26" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C738" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A739" s="26" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B739" s="26" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C739" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A740" s="26" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B740" s="26" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C740" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A741" s="26" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B741" s="26" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C741" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A742" s="26" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B742" s="26" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C742" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A743" s="26" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B743" s="26" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C743" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A744" s="26" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B744" s="26" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C744" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A745" s="26" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B745" s="26" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C745" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A746" s="26" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B746" s="26" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C746" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A747" s="26" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B747" s="26" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C747" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A748" s="26" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B748" s="26" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C748" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A749" s="26" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B749" s="26" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C749" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A750" s="26" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B750" s="26" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C750" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A751" s="26" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B751" s="26" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C751" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A752" s="26" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B752" s="26" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C752" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A753" s="26" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B753" s="26" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C753" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A754" s="26" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B754" s="26" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C754" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A755" s="26" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B755" s="26" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C755" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A756" s="26" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B756" s="26" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C756" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A757" s="26" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B757" s="26" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C757" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A758" s="26" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B758" s="26" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C758" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A759" s="26" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B759" s="26" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C759" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A760" s="26" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B760" s="26" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C760" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A761" s="26" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B761" s="26" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C761" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A762" s="26" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B762" s="26" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C762" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A763" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B763" s="26" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C763" s="18">
+        <v>42122</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A764" s="26" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B764" s="26" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C764" s="18">
+        <v>42122</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1573">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4704,6 +4704,42 @@
   </si>
   <si>
     <t>/researchandfunding/nci-role/cancer-centers/find/yalecc</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/understanding-breast-changes.epub</t>
+  </si>
+  <si>
+    <t>/cancertopics/screening/understanding-breast-changes/understanding-breast-changes.mobi</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/understanding-cervical-changes.epub</t>
+  </si>
+  <si>
+    <t>/cancertopics/understanding-cervical-changes/understanding-cervical-changes.mobi</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/sobrellevar/caregiver-spanish.epub</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/sobrellevar/caregiver-spanish.mobi</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/understanding-breast-changes/understanding-breast-changes.epub</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast/understanding-breast-changes/understanding-breast-changes.mobi</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/cervical/understanding-cervical-changes/understanding-cervical-changes.epub</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/cervical/understanding-cervical-changes/understanding-cervical-changes.mobi</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/sobrellevar/familia-y-amigos/caregiver-spanish.epub</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/sobrellevar/familia-y-amigos/caregiver-spanish.mobi</t>
   </si>
 </sst>
 </file>
@@ -5644,17 +5680,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D764"/>
+  <dimension ref="A1:D770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A738" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A766" sqref="A766"/>
+      <pane ySplit="1" topLeftCell="A753" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87.28515625" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" customWidth="1"/>
+    <col min="2" max="2" width="105.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -14756,6 +14792,72 @@
       </c>
       <c r="C764" s="18">
         <v>42122</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B765" s="25" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C765" s="19">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B766" s="25" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C766" s="19">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B767" s="23" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C767" s="19">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B768" s="23" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C768" s="19">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C769" s="19">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C770" s="19">
+        <v>42123</v>
       </c>
     </row>
   </sheetData>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="30" windowWidth="23175" windowHeight="14775"/>
+    <workbookView xWindow="1260" yWindow="-45" windowWidth="23175" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTION - LIVE" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1576">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4740,6 +4740,15 @@
   </si>
   <si>
     <t>/espanol/cancer/sobrellevar/familia-y-amigos/caregiver-spanish.mobi</t>
+  </si>
+  <si>
+    <t>/espanol/tipos/comunes-hispanos</t>
+  </si>
+  <si>
+    <t>/espanol/tipos/comunes</t>
+  </si>
+  <si>
+    <t>/espanol/tipos/comunes-general</t>
   </si>
 </sst>
 </file>
@@ -5680,11 +5689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D770"/>
+  <dimension ref="A1:D772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A753" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A773" sqref="A773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14857,6 +14866,28 @@
         <v>1572</v>
       </c>
       <c r="C770" s="19">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C771" s="19">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C772" s="19">
         <v>42123</v>
       </c>
     </row>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="PRODUCTION - LIVE" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="FROZEN" sheetId="2" r:id="rId2"/>
     <sheet name="UAT" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1602">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4749,6 +4749,84 @@
   </si>
   <si>
     <t>/espanol/tipos/comunes-general</t>
+  </si>
+  <si>
+    <t>/PublishedContent/Images/newscenter/newsfromnci/2013/heatmapembed.jpg</t>
+  </si>
+  <si>
+    <t>/news-events/press-releases/2013/heatmapembed.jpg</t>
+  </si>
+  <si>
+    <t>/PublishedContent/Images/newscenter/newsfromnci/2013/Untitled.jpg</t>
+  </si>
+  <si>
+    <t>/news-events/press-releases/2013/Untitled.jpg</t>
+  </si>
+  <si>
+    <t>/newscenter/newsfromnci/2012/BRCAmutationsOvarianNewsNote</t>
+  </si>
+  <si>
+    <t>/news-events/press-releases/2012/BRCAmutationsOvarianNewsNote</t>
+  </si>
+  <si>
+    <t>/cancertopics/pdq/treatment/adultAML/Patient</t>
+  </si>
+  <si>
+    <t>/types/leukemia/patient/adult-aml-treatment-pdq</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/breast</t>
+  </si>
+  <si>
+    <t>/types/breast</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/colorectal</t>
+  </si>
+  <si>
+    <t>/types/colorectal</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/head-and-neck</t>
+  </si>
+  <si>
+    <t>/types/head-and-neck</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/kidney</t>
+  </si>
+  <si>
+    <t>/types/kidney</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/lung</t>
+  </si>
+  <si>
+    <t>/types/lung</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/ovarian</t>
+  </si>
+  <si>
+    <t>/types/ovarian</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/thyroid</t>
+  </si>
+  <si>
+    <t>/types/thyroid</t>
+  </si>
+  <si>
+    <t>/cancertopics/types/uterine</t>
+  </si>
+  <si>
+    <t>/types/uterine</t>
+  </si>
+  <si>
+    <t>/clinicaltrials/learningabout/patientsafety/informedconsent</t>
+  </si>
+  <si>
+    <t>/about-cancer/treatment/clinical-trials/patient-safety/informed-consent</t>
   </si>
 </sst>
 </file>
@@ -5309,7 +5387,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5343,6 +5421,10 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14919,10 +15001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14947,10 +15029,118 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1601</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D97">
     <sortCondition ref="A2:A97"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="www.cancer.gov/news-events/press-releases/2013/heatmapembed.jpg"/>
+    <hyperlink ref="B3" r:id="rId2" display="www.cancer.gov/news-events/press-releases/2013/heatmapembed.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1610">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4827,6 +4827,30 @@
   </si>
   <si>
     <t>/about-cancer/treatment/clinical-trials/patient-safety/informed-consent</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/estudio-clinico-STAR-respuestas</t>
+  </si>
+  <si>
+    <t>/tipos/seno/investigacion/resultados-star-respuestas</t>
+  </si>
+  <si>
+    <t>/tipos/pulmon/investigacion/nlst-respuestas</t>
+  </si>
+  <si>
+    <t>/espanol/noticias/VirtualColonoscopyQA</t>
+  </si>
+  <si>
+    <t>/tipos/colorrectal/investigacion/colografia-tomografia-computarizada-respuestas</t>
+  </si>
+  <si>
+    <t>/tipos/prostata/investigacion/resultados-deteccion-plco-respuestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/espanol/noticias/SELECTQandA </t>
+  </si>
+  <si>
+    <t>/tipos/prostata/investigacion/resultados-select-respuestas</t>
   </si>
 </sst>
 </file>
@@ -5771,11 +5795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D772"/>
+  <dimension ref="A1:D777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A773" sqref="A773"/>
+      <selection pane="bottomLeft" activeCell="A782" sqref="A782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14885,91 +14909,146 @@
         <v>42122</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
+    <row r="765" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A765" s="26" t="s">
         <v>1561</v>
       </c>
-      <c r="B765" s="25" t="s">
+      <c r="B765" s="26" t="s">
         <v>1567</v>
       </c>
-      <c r="C765" s="19">
+      <c r="C765" s="18">
         <v>42123</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
+    <row r="766" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A766" s="26" t="s">
         <v>1562</v>
       </c>
-      <c r="B766" s="25" t="s">
+      <c r="B766" s="26" t="s">
         <v>1568</v>
       </c>
-      <c r="C766" s="19">
+      <c r="C766" s="18">
         <v>42123</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
+    <row r="767" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A767" s="26" t="s">
         <v>1563</v>
       </c>
-      <c r="B767" s="23" t="s">
+      <c r="B767" s="26" t="s">
         <v>1569</v>
       </c>
-      <c r="C767" s="19">
+      <c r="C767" s="18">
         <v>42123</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
+    <row r="768" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A768" s="26" t="s">
         <v>1564</v>
       </c>
-      <c r="B768" s="23" t="s">
+      <c r="B768" s="26" t="s">
         <v>1570</v>
       </c>
-      <c r="C768" s="19">
+      <c r="C768" s="18">
         <v>42123</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
+    <row r="769" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A769" s="26" t="s">
         <v>1565</v>
       </c>
-      <c r="B769" t="s">
+      <c r="B769" s="26" t="s">
         <v>1571</v>
       </c>
-      <c r="C769" s="19">
+      <c r="C769" s="18">
         <v>42123</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+    <row r="770" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A770" s="26" t="s">
         <v>1566</v>
       </c>
-      <c r="B770" t="s">
+      <c r="B770" s="26" t="s">
         <v>1572</v>
       </c>
-      <c r="C770" s="19">
+      <c r="C770" s="18">
         <v>42123</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
+    <row r="771" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A771" s="26" t="s">
         <v>1573</v>
       </c>
-      <c r="B771" t="s">
+      <c r="B771" s="26" t="s">
         <v>1574</v>
       </c>
-      <c r="C771" s="19">
+      <c r="C771" s="18">
         <v>42123</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
+    <row r="772" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A772" s="26" t="s">
         <v>1575</v>
       </c>
-      <c r="B772" t="s">
+      <c r="B772" s="26" t="s">
         <v>1574</v>
       </c>
-      <c r="C772" s="19">
+      <c r="C772" s="18">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A773" s="26" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B773" s="26" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C773" s="18">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A774" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="B774" s="26" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C774" s="18">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A775" s="26" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B775" s="26" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C775" s="18">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A776" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="B776" s="26" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C776" s="18">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A777" s="26" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B777" s="26" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C777" s="18">
         <v>42123</v>
       </c>
     </row>
@@ -14988,6 +15067,10 @@
     <hyperlink ref="B261" r:id="rId11" display="http://www.cancer.gov/cancertopics/coping/survivorship/did-you-know-cancer-survivorship-statistics-video"/>
     <hyperlink ref="A517" r:id="rId12" display="www.cancer.gov/clinicaltrials/featured/trials/NCI-09-C-0130"/>
     <hyperlink ref="A518" r:id="rId13" display="www.cancer.gov/clinicaltrials/featured/trials/RTOG-0848"/>
+    <hyperlink ref="A773" r:id="rId14" tooltip="Follow link" display="http://www.cancer.gov/espanol/noticias/estudio-clinico-STAR-respuestas"/>
+    <hyperlink ref="A774" r:id="rId15" tooltip="Follow link" display="http://www.cancer.gov/espanol/noticias/2010/nlstQandASpanish"/>
+    <hyperlink ref="A775" r:id="rId16" tooltip="Follow link" display="http://www.cancer.gov/espanol/noticias/VirtualColonoscopyQA"/>
+    <hyperlink ref="A776" r:id="rId17" tooltip="Follow link" display="http://www.cancer.gov/espanol/noticias/2012/PLCOscreeningQandASpanish"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="1612">
   <si>
     <t>OLD URL</t>
   </si>
@@ -4851,6 +4851,12 @@
   </si>
   <si>
     <t>/tipos/prostata/investigacion/resultados-select-respuestas</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/types-of-treatment</t>
+  </si>
+  <si>
+    <t>/cancertopics/treatment/types/</t>
   </si>
 </sst>
 </file>
@@ -5795,11 +5801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D777"/>
+  <dimension ref="A1:D778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A782" sqref="A782"/>
+      <pane ySplit="1" topLeftCell="A750" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A779" sqref="A779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15049,6 +15055,17 @@
         <v>1609</v>
       </c>
       <c r="C777" s="18">
+        <v>42123</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A778" s="26" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B778" s="26" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C778" s="18">
         <v>42123</v>
       </c>
     </row>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6550" uniqueCount="5738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="5738">
   <si>
     <t>OLD URL</t>
   </si>
@@ -18204,11 +18204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D778"/>
+  <dimension ref="A1:D779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A762" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A779" sqref="A779"/>
+      <selection pane="bottomLeft" activeCell="C779" sqref="C779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27470,6 +27470,17 @@
       </c>
       <c r="C778" s="18">
         <v>42123</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B779" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C779" s="19">
+        <v>42124</v>
       </c>
     </row>
   </sheetData>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="-45" windowWidth="23175" windowHeight="14775" activeTab="1"/>
+    <workbookView xWindow="1260" yWindow="-45" windowWidth="23175" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTION - LIVE" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6550" uniqueCount="5736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6556" uniqueCount="5739">
   <si>
     <t>OLD URL</t>
   </si>
@@ -17229,6 +17229,15 @@
   </si>
   <si>
     <t>/types/prostate/research/pivot-trial-results</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/physicaleffects/</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/physicaleffects/audiofiles</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/physicaleffects/chemo-side-effects</t>
   </si>
 </sst>
 </file>
@@ -18198,11 +18207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D779"/>
+  <dimension ref="A1:D782"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A762" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A789" sqref="A789"/>
+      <selection pane="bottomLeft" activeCell="C793" sqref="C793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27466,14 +27475,47 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
+    <row r="779" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A779" s="26" t="s">
         <v>3783</v>
       </c>
-      <c r="B779" t="s">
+      <c r="B779" s="26" t="s">
         <v>5013</v>
       </c>
-      <c r="C779" s="19">
+      <c r="C779" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A780" s="26" t="s">
+        <v>5736</v>
+      </c>
+      <c r="B780" s="26" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C780" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A781" s="26" t="s">
+        <v>5737</v>
+      </c>
+      <c r="B781" s="26" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C781" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A782" s="26" t="s">
+        <v>5738</v>
+      </c>
+      <c r="B782" s="26" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C782" s="18">
         <v>42124</v>
       </c>
     </row>
@@ -27511,9 +27553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2489"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A899" sqref="A899"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2490" sqref="A2490:B2492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6556" uniqueCount="5739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6562" uniqueCount="5745">
   <si>
     <t>OLD URL</t>
   </si>
@@ -17238,6 +17238,24 @@
   </si>
   <si>
     <t>/cancertopics/coping/physicaleffects/chemo-side-effects</t>
+  </si>
+  <si>
+    <t>/cancertopics/aya/types/overview-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/aya/treatment/AYA-fertility</t>
+  </si>
+  <si>
+    <t>/cancertopics/aya/diagnosis/after-diagnosis</t>
+  </si>
+  <si>
+    <t>/cancertopics/aya/overview-video</t>
+  </si>
+  <si>
+    <t>/cancertopics/aya/AYA-fertility</t>
+  </si>
+  <si>
+    <t>/cancertopics/aya/after-diagnosis</t>
   </si>
 </sst>
 </file>
@@ -18207,11 +18225,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D782"/>
+  <dimension ref="A1:D785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A762" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C793" sqref="C793"/>
+      <selection pane="bottomLeft" activeCell="A783" sqref="A783:XFD785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27516,6 +27534,39 @@
         <v>4409</v>
       </c>
       <c r="C782" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A783" s="26" t="s">
+        <v>5739</v>
+      </c>
+      <c r="B783" s="26" t="s">
+        <v>5742</v>
+      </c>
+      <c r="C783" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A784" s="26" t="s">
+        <v>5740</v>
+      </c>
+      <c r="B784" s="26" t="s">
+        <v>5743</v>
+      </c>
+      <c r="C784" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A785" s="26" t="s">
+        <v>5741</v>
+      </c>
+      <c r="B785" s="26" t="s">
+        <v>5744</v>
+      </c>
+      <c r="C785" s="18">
         <v>42124</v>
       </c>
     </row>
@@ -27538,6 +27589,9 @@
     <hyperlink ref="A774" r:id="rId15" tooltip="Follow link" display="http://www.cancer.gov/espanol/noticias/2010/nlstQandASpanish"/>
     <hyperlink ref="A775" r:id="rId16" tooltip="Follow link" display="http://www.cancer.gov/espanol/noticias/VirtualColonoscopyQA"/>
     <hyperlink ref="A776" r:id="rId17" tooltip="Follow link" display="http://www.cancer.gov/espanol/noticias/2012/PLCOscreeningQandASpanish"/>
+    <hyperlink ref="B783" r:id="rId18" display="www.cancer.gov/cancertopics/aya/overview-video"/>
+    <hyperlink ref="B784" r:id="rId19" display="www.cancer.gov/cancertopics/aya/AYA-fertility"/>
+    <hyperlink ref="B785" r:id="rId20" display="www.cancer.gov/cancertopics/aya/after-diagnosis"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6562" uniqueCount="5745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6564" uniqueCount="5747">
   <si>
     <t>OLD URL</t>
   </si>
@@ -17256,6 +17256,12 @@
   </si>
   <si>
     <t>/cancertopics/aya/after-diagnosis</t>
+  </si>
+  <si>
+    <t>/cancertopics/aya/types/quiz</t>
+  </si>
+  <si>
+    <t>/cancertopics/aya/quiz</t>
   </si>
 </sst>
 </file>
@@ -18225,11 +18231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D785"/>
+  <dimension ref="A1:D786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A762" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A783" sqref="A783:XFD785"/>
+      <selection pane="bottomLeft" activeCell="A786" sqref="A786:B786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27567,6 +27573,17 @@
         <v>5744</v>
       </c>
       <c r="C785" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A786" s="26" t="s">
+        <v>5745</v>
+      </c>
+      <c r="B786" s="26" t="s">
+        <v>5746</v>
+      </c>
+      <c r="C786" s="18">
         <v>42124</v>
       </c>
     </row>
@@ -27592,6 +27609,7 @@
     <hyperlink ref="B783" r:id="rId18" display="www.cancer.gov/cancertopics/aya/overview-video"/>
     <hyperlink ref="B784" r:id="rId19" display="www.cancer.gov/cancertopics/aya/AYA-fertility"/>
     <hyperlink ref="B785" r:id="rId20" display="www.cancer.gov/cancertopics/aya/after-diagnosis"/>
+    <hyperlink ref="B786" r:id="rId21" display="www.cancer.gov/cancertopics/aya/quiz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="-45" windowWidth="23175" windowHeight="14775"/>
+    <workbookView xWindow="975" yWindow="-180" windowWidth="23175" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTION - LIVE" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6564" uniqueCount="5747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6588" uniqueCount="5759">
   <si>
     <t>OLD URL</t>
   </si>
@@ -17262,6 +17262,42 @@
   </si>
   <si>
     <t>/cancertopics/aya/quiz</t>
+  </si>
+  <si>
+    <t>/espanol/pdq/deteccion-prevencion-consejoeditorial</t>
+  </si>
+  <si>
+    <t>/espanol/publicaciones/pdq/consejo-deteccion-prevencion</t>
+  </si>
+  <si>
+    <t>/espanol/pdq/medicina-complementaria-alternativa-consejo-editorial</t>
+  </si>
+  <si>
+    <t>/espanol/publicaciones/pdq/consejo-medicina-complementaria-alternativa</t>
+  </si>
+  <si>
+    <t>/espanol/pdq/deteccion</t>
+  </si>
+  <si>
+    <t>/espanol/publicaciones/pdq/deteccion</t>
+  </si>
+  <si>
+    <t>/espanol/pdq/medicina-complementaria-alternativa</t>
+  </si>
+  <si>
+    <t>/espanol/publicaciones/pdq/medicina-complementaria-alternativa</t>
+  </si>
+  <si>
+    <t>/espanol/pdq/prevencion</t>
+  </si>
+  <si>
+    <t>/espanol/publicaciones/pdq/prevencion</t>
+  </si>
+  <si>
+    <t>/espanol/pdq/tratamiento</t>
+  </si>
+  <si>
+    <t>/espanol/publicaciones/pdq/tratamiento</t>
   </si>
 </sst>
 </file>
@@ -18231,11 +18267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D786"/>
+  <dimension ref="A1:D798"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A762" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A786" sqref="A786:B786"/>
+      <pane ySplit="1" topLeftCell="A780" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A801" sqref="A801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27584,6 +27620,138 @@
         <v>5746</v>
       </c>
       <c r="C786" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A787" s="26" t="s">
+        <v>5747</v>
+      </c>
+      <c r="B787" s="26" t="s">
+        <v>5748</v>
+      </c>
+      <c r="C787" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A788" s="26" t="s">
+        <v>5749</v>
+      </c>
+      <c r="B788" s="26" t="s">
+        <v>5750</v>
+      </c>
+      <c r="C788" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A789" s="26" t="s">
+        <v>5051</v>
+      </c>
+      <c r="B789" s="26" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C789" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A790" s="26" t="s">
+        <v>5055</v>
+      </c>
+      <c r="B790" s="26" t="s">
+        <v>5056</v>
+      </c>
+      <c r="C790" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A791" s="26" t="s">
+        <v>5053</v>
+      </c>
+      <c r="B791" s="26" t="s">
+        <v>5054</v>
+      </c>
+      <c r="C791" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A792" s="26" t="s">
+        <v>5049</v>
+      </c>
+      <c r="B792" s="26" t="s">
+        <v>5050</v>
+      </c>
+      <c r="C792" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A793" s="26" t="s">
+        <v>5057</v>
+      </c>
+      <c r="B793" s="26" t="s">
+        <v>5058</v>
+      </c>
+      <c r="C793" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A794" s="26" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B794" s="26" t="s">
+        <v>5752</v>
+      </c>
+      <c r="C794" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A795" s="26" t="s">
+        <v>5753</v>
+      </c>
+      <c r="B795" s="26" t="s">
+        <v>5754</v>
+      </c>
+      <c r="C795" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A796" s="26" t="s">
+        <v>5755</v>
+      </c>
+      <c r="B796" s="26" t="s">
+        <v>5756</v>
+      </c>
+      <c r="C796" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A797" s="26" t="s">
+        <v>5757</v>
+      </c>
+      <c r="B797" s="26" t="s">
+        <v>5758</v>
+      </c>
+      <c r="C797" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A798" s="26" t="s">
+        <v>5059</v>
+      </c>
+      <c r="B798" s="26" t="s">
+        <v>5060</v>
+      </c>
+      <c r="C798" s="18">
         <v>42124</v>
       </c>
     </row>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6588" uniqueCount="5759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6590" uniqueCount="5761">
   <si>
     <t>OLD URL</t>
   </si>
@@ -17298,6 +17298,12 @@
   </si>
   <si>
     <t>/espanol/publicaciones/pdq/tratamiento</t>
+  </si>
+  <si>
+    <t>/espanol/recursos/preguntas/cancer-avanzado</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/cancer-avanzado/preguntas</t>
   </si>
 </sst>
 </file>
@@ -18267,11 +18273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D798"/>
+  <dimension ref="A1:D799"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A780" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A801" sqref="A801"/>
+      <selection pane="bottomLeft" activeCell="B801" sqref="B801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27752,6 +27758,17 @@
         <v>5060</v>
       </c>
       <c r="C798" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A799" s="26" t="s">
+        <v>5759</v>
+      </c>
+      <c r="B799" s="26" t="s">
+        <v>5760</v>
+      </c>
+      <c r="C799" s="18">
         <v>42124</v>
       </c>
     </row>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6590" uniqueCount="5761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6592" uniqueCount="5761">
   <si>
     <t>OLD URL</t>
   </si>
@@ -18273,11 +18273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D799"/>
+  <dimension ref="A1:D800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A780" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B801" sqref="B801"/>
+      <selection pane="bottomLeft" activeCell="A801" sqref="A801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27769,6 +27769,17 @@
         <v>5760</v>
       </c>
       <c r="C799" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A800" s="26" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B800" s="26" t="s">
+        <v>4909</v>
+      </c>
+      <c r="C800" s="18">
         <v>42124</v>
       </c>
     </row>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="-180" windowWidth="23175" windowHeight="14775"/>
+    <workbookView xWindow="975" yWindow="-120" windowWidth="23175" windowHeight="14715"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTION - LIVE" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6592" uniqueCount="5761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6608" uniqueCount="5770">
   <si>
     <t>OLD URL</t>
   </si>
@@ -17304,6 +17304,33 @@
   </si>
   <si>
     <t>/espanol/cancer/cancer-avanzado/preguntas</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/tabaco</t>
+  </si>
+  <si>
+    <t>/espanol/cancer/causas-prevencion/riesgo/tabaco</t>
+  </si>
+  <si>
+    <t>/cancertopics/tobacco/smokeless-tobacco</t>
+  </si>
+  <si>
+    <t>/cancertopics/tobacco/smoking</t>
+  </si>
+  <si>
+    <t>/cancertopics/tobacco/smoking/information</t>
+  </si>
+  <si>
+    <t>/cancertopics/tobacco/smoking/quitting</t>
+  </si>
+  <si>
+    <t>/cancertopics/tobacco/smoking/tobacco-research</t>
+  </si>
+  <si>
+    <t>/cancertopics/tobacco/statisticsresources</t>
+  </si>
+  <si>
+    <t>/cancertopics/tobacco/statisticssnapshot</t>
   </si>
 </sst>
 </file>
@@ -18273,11 +18300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D800"/>
+  <dimension ref="A1:D808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A780" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A801" sqref="A801"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27780,6 +27807,94 @@
         <v>4909</v>
       </c>
       <c r="C800" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A801" s="26" t="s">
+        <v>5761</v>
+      </c>
+      <c r="B801" s="26" t="s">
+        <v>5762</v>
+      </c>
+      <c r="C801" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A802" s="26" t="s">
+        <v>5763</v>
+      </c>
+      <c r="B802" s="26" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C802" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A803" s="26" t="s">
+        <v>5764</v>
+      </c>
+      <c r="B803" s="26" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C803" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A804" s="26" t="s">
+        <v>5765</v>
+      </c>
+      <c r="B804" s="26" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C804" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A805" s="26" t="s">
+        <v>5766</v>
+      </c>
+      <c r="B805" s="26" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C805" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A806" s="26" t="s">
+        <v>5767</v>
+      </c>
+      <c r="B806" s="26" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C806" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A807" s="26" t="s">
+        <v>5768</v>
+      </c>
+      <c r="B807" s="26" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C807" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A808" s="26" t="s">
+        <v>5769</v>
+      </c>
+      <c r="B808" s="26" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C808" s="18">
         <v>42124</v>
       </c>
     </row>

--- a/RedirectionList.xlsx
+++ b/RedirectionList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6608" uniqueCount="5770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6610" uniqueCount="5771">
   <si>
     <t>OLD URL</t>
   </si>
@@ -17331,6 +17331,9 @@
   </si>
   <si>
     <t>/cancertopics/tobacco/statisticssnapshot</t>
+  </si>
+  <si>
+    <t>/cancertopics/coping/end-of-life</t>
   </si>
 </sst>
 </file>
@@ -17891,7 +17894,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -17943,6 +17946,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -18300,11 +18304,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D808"/>
+  <dimension ref="A1:D809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A780" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="C809" sqref="C809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27895,6 +27899,17 @@
         <v>4100</v>
       </c>
       <c r="C808" s="18">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809" s="39" t="s">
+        <v>5770</v>
+      </c>
+      <c r="B809" t="s">
+        <v>5703</v>
+      </c>
+      <c r="C809" s="18">
         <v>42124</v>
       </c>
     </row>
@@ -27921,6 +27936,7 @@
     <hyperlink ref="B784" r:id="rId19" display="www.cancer.gov/cancertopics/aya/AYA-fertility"/>
     <hyperlink ref="B785" r:id="rId20" display="www.cancer.gov/cancertopics/aya/after-diagnosis"/>
     <hyperlink ref="B786" r:id="rId21" display="www.cancer.gov/cancertopics/aya/quiz"/>
+    <hyperlink ref="A809" r:id="rId22" tooltip="Follow link" display="http://www.cancer.gov/cancertopics/coping/end-of-life"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
